--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Frutilla.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44285</v>
+        <v>44211</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>55</v>
+        <v>270</v>
       </c>
       <c r="N2" t="n">
         <v>7000</v>
       </c>
       <c r="O2" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P2" t="n">
-        <v>7000</v>
+        <v>7556</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1000</v>
+        <v>1079</v>
       </c>
       <c r="T2" t="n">
         <v>7</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44246</v>
+        <v>44307</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O3" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P3" t="n">
-        <v>7417</v>
+        <v>5000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1060</v>
+        <v>714</v>
       </c>
       <c r="T3" t="n">
         <v>7</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44246</v>
+        <v>44305</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O4" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P4" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>714</v>
+        <v>1000</v>
       </c>
       <c r="T4" t="n">
         <v>7</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44203</v>
+        <v>44243</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
         <v>7000</v>
@@ -773,7 +773,7 @@
         <v>8000</v>
       </c>
       <c r="P5" t="n">
-        <v>7543</v>
+        <v>7450</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1078</v>
+        <v>1064</v>
       </c>
       <c r="T5" t="n">
         <v>7</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44203</v>
+        <v>44243</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="N6" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="O6" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="P6" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>786</v>
+        <v>714</v>
       </c>
       <c r="T6" t="n">
         <v>7</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44372</v>
+        <v>44204</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,29 +924,29 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>35</v>
+        <v>205</v>
       </c>
       <c r="N7" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="O7" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="P7" t="n">
-        <v>17000</v>
+        <v>7390</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2429</v>
+        <v>1056</v>
       </c>
       <c r="T7" t="n">
         <v>7</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44263</v>
+        <v>44204</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="N8" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="O8" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="P8" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1000</v>
+        <v>786</v>
       </c>
       <c r="T8" t="n">
         <v>7</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44264</v>
+        <v>44214</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="N9" t="n">
         <v>7000</v>
       </c>
       <c r="O9" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P9" t="n">
-        <v>7000</v>
+        <v>7455</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>1065</v>
       </c>
       <c r="T9" t="n">
         <v>7</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44165</v>
+        <v>44214</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1160,33 +1160,33 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N10" t="n">
-        <v>11000</v>
+        <v>4500</v>
       </c>
       <c r="O10" t="n">
-        <v>11000</v>
+        <v>4500</v>
       </c>
       <c r="P10" t="n">
-        <v>11000</v>
+        <v>4500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1571</v>
+        <v>643</v>
       </c>
       <c r="T10" t="n">
         <v>7</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44165</v>
+        <v>44188</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>700</v>
+        <v>90</v>
       </c>
       <c r="N11" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O11" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P11" t="n">
-        <v>9571</v>
+        <v>13000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1367</v>
+        <v>1857</v>
       </c>
       <c r="T11" t="n">
         <v>7</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44165</v>
+        <v>44280</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1324,29 +1324,29 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O12" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P12" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1357</v>
+        <v>1000</v>
       </c>
       <c r="T12" t="n">
         <v>7</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44165</v>
+        <v>44270</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>500</v>
+        <v>65</v>
       </c>
       <c r="N13" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O13" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P13" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1214</v>
+        <v>1000</v>
       </c>
       <c r="T13" t="n">
         <v>7</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44165</v>
+        <v>44225</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
@@ -1490,23 +1490,23 @@
         <v>7000</v>
       </c>
       <c r="O14" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P14" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>1071</v>
       </c>
       <c r="T14" t="n">
         <v>7</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44302</v>
+        <v>44193</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="N15" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O15" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P15" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>857</v>
+        <v>1429</v>
       </c>
       <c r="T15" t="n">
         <v>7</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44291</v>
+        <v>44193</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="N16" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O16" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P16" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1000</v>
+        <v>1286</v>
       </c>
       <c r="T16" t="n">
         <v>7</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44291</v>
+        <v>44160</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>60</v>
+        <v>320</v>
       </c>
       <c r="N17" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="O17" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P17" t="n">
-        <v>6000</v>
+        <v>7734</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>857</v>
+        <v>1105</v>
       </c>
       <c r="T17" t="n">
         <v>7</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44189</v>
+        <v>44285</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>400</v>
+        <v>55</v>
       </c>
       <c r="N18" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O18" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P18" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1286</v>
+        <v>1000</v>
       </c>
       <c r="T18" t="n">
         <v>7</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44210</v>
+        <v>44286</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>500</v>
+        <v>35</v>
       </c>
       <c r="N19" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="O19" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P19" t="n">
-        <v>8000</v>
+        <v>6786</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1902,11 +1902,11 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1143</v>
+        <v>969</v>
       </c>
       <c r="T19" t="n">
         <v>7</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44259</v>
+        <v>44201</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>155</v>
+        <v>65</v>
       </c>
       <c r="N20" t="n">
         <v>7000</v>
@@ -1982,7 +1982,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S20" t="n">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44235</v>
+        <v>44232</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N21" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O21" t="n">
         <v>8000</v>
       </c>
       <c r="P21" t="n">
-        <v>8000</v>
+        <v>7550</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1143</v>
+        <v>1079</v>
       </c>
       <c r="T21" t="n">
         <v>7</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44235</v>
+        <v>44333</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N22" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O22" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P22" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2142,11 +2142,11 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>714</v>
+        <v>1143</v>
       </c>
       <c r="T22" t="n">
         <v>7</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44249</v>
+        <v>44166</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2204,7 +2204,7 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="N23" t="n">
         <v>7000</v>
@@ -2213,7 +2213,7 @@
         <v>8000</v>
       </c>
       <c r="P23" t="n">
-        <v>7458</v>
+        <v>7500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2222,11 +2222,11 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="T23" t="n">
         <v>7</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44249</v>
+        <v>44162</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2280,33 +2280,33 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>45</v>
+        <v>305</v>
       </c>
       <c r="N24" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O24" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P24" t="n">
-        <v>5000</v>
+        <v>9410</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>714</v>
+        <v>1344</v>
       </c>
       <c r="T24" t="n">
         <v>7</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44218</v>
+        <v>44162</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="N25" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="O25" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="P25" t="n">
-        <v>7516</v>
+        <v>7500</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="T25" t="n">
         <v>7</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44218</v>
+        <v>44162</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2444,29 +2444,29 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="N26" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="O26" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="P26" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>786</v>
+        <v>1000</v>
       </c>
       <c r="T26" t="n">
         <v>7</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44252</v>
+        <v>44202</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>220</v>
+        <v>95</v>
       </c>
       <c r="N27" t="n">
         <v>7000</v>
       </c>
       <c r="O27" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P27" t="n">
-        <v>7568</v>
+        <v>7000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2542,11 +2542,11 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1081</v>
+        <v>1000</v>
       </c>
       <c r="T27" t="n">
         <v>7</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44252</v>
+        <v>44323</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="N28" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O28" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P28" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>714</v>
+        <v>1286</v>
       </c>
       <c r="T28" t="n">
         <v>7</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44312</v>
+        <v>44323</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="N29" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="O29" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P29" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2702,11 +2702,11 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1000</v>
+        <v>643</v>
       </c>
       <c r="T29" t="n">
         <v>7</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44236</v>
+        <v>44165</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2760,33 +2760,33 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="N30" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O30" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P30" t="n">
-        <v>7542</v>
+        <v>11000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1077</v>
+        <v>1571</v>
       </c>
       <c r="T30" t="n">
         <v>7</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44236</v>
+        <v>44165</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2840,33 +2840,33 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>45</v>
+        <v>700</v>
       </c>
       <c r="N31" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O31" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P31" t="n">
-        <v>5000</v>
+        <v>9571</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>714</v>
+        <v>1367</v>
       </c>
       <c r="T31" t="n">
         <v>7</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44166</v>
+        <v>44165</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2924,29 +2924,29 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N32" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O32" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P32" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1071</v>
+        <v>1357</v>
       </c>
       <c r="T32" t="n">
         <v>7</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44215</v>
+        <v>44165</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="N33" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O33" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P33" t="n">
-        <v>7542</v>
+        <v>8500</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1077</v>
+        <v>1214</v>
       </c>
       <c r="T33" t="n">
         <v>7</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44174</v>
+        <v>44165</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3080,33 +3080,33 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="N34" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O34" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P34" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1429</v>
+        <v>1000</v>
       </c>
       <c r="T34" t="n">
         <v>7</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44221</v>
+        <v>44242</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="N35" t="n">
         <v>7000</v>
       </c>
       <c r="O35" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P35" t="n">
-        <v>7000</v>
+        <v>7448</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1000</v>
+        <v>1064</v>
       </c>
       <c r="T35" t="n">
         <v>7</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44271</v>
+        <v>44242</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N36" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O36" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P36" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1000</v>
+        <v>714</v>
       </c>
       <c r="T36" t="n">
         <v>7</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44280</v>
+        <v>44216</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="N37" t="n">
         <v>7000</v>
       </c>
       <c r="O37" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P37" t="n">
-        <v>7000</v>
+        <v>7579</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1000</v>
+        <v>1083</v>
       </c>
       <c r="T37" t="n">
         <v>7</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44162</v>
+        <v>44216</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3400,33 +3400,33 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>305</v>
+        <v>80</v>
       </c>
       <c r="N38" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O38" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P38" t="n">
-        <v>9410</v>
+        <v>5000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1344</v>
+        <v>714</v>
       </c>
       <c r="T38" t="n">
         <v>7</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44162</v>
+        <v>44260</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>165</v>
+        <v>45</v>
       </c>
       <c r="N39" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="O39" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="P39" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1071</v>
+        <v>1000</v>
       </c>
       <c r="T39" t="n">
         <v>7</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44162</v>
+        <v>44271</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3560,11 +3560,11 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="N40" t="n">
         <v>7000</v>
@@ -3577,12 +3577,12 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S40" t="n">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44175</v>
+        <v>44189</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3644,13 +3644,13 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>155</v>
+        <v>400</v>
       </c>
       <c r="N41" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O41" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P41" t="n">
         <v>9000</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44242</v>
+        <v>44181</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3724,16 +3724,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>145</v>
+        <v>260</v>
       </c>
       <c r="N42" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O42" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P42" t="n">
-        <v>7448</v>
+        <v>9462</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1064</v>
+        <v>1352</v>
       </c>
       <c r="T42" t="n">
         <v>7</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44242</v>
+        <v>44372</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3800,33 +3800,33 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N43" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="O43" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="P43" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>714</v>
+        <v>2429</v>
       </c>
       <c r="T43" t="n">
         <v>7</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44204</v>
+        <v>44246</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3884,7 +3884,7 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>205</v>
+        <v>60</v>
       </c>
       <c r="N44" t="n">
         <v>7000</v>
@@ -3893,7 +3893,7 @@
         <v>8000</v>
       </c>
       <c r="P44" t="n">
-        <v>7390</v>
+        <v>7417</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3902,11 +3902,11 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="T44" t="n">
         <v>7</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44204</v>
+        <v>44246</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3964,16 +3964,16 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N45" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="O45" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="P45" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3982,11 +3982,11 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>786</v>
+        <v>714</v>
       </c>
       <c r="T45" t="n">
         <v>7</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44323</v>
+        <v>44203</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -4044,16 +4044,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="N46" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O46" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P46" t="n">
-        <v>9000</v>
+        <v>7543</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4062,11 +4062,11 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1286</v>
+        <v>1078</v>
       </c>
       <c r="T46" t="n">
         <v>7</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44323</v>
+        <v>44203</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N47" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="O47" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="P47" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4142,11 +4142,11 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>643</v>
+        <v>786</v>
       </c>
       <c r="T47" t="n">
         <v>7</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44200</v>
+        <v>44312</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="N48" t="n">
         <v>7000</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44200</v>
+        <v>44258</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -4280,20 +4280,20 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="N49" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="O49" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="P49" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4302,11 +4302,11 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S49" t="n">
-        <v>786</v>
+        <v>1000</v>
       </c>
       <c r="T49" t="n">
         <v>7</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44216</v>
+        <v>44174</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -4364,16 +4364,16 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="N50" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O50" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P50" t="n">
-        <v>7579</v>
+        <v>10000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1083</v>
+        <v>1429</v>
       </c>
       <c r="T50" t="n">
         <v>7</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44216</v>
+        <v>44284</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4440,20 +4440,20 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N51" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O51" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P51" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4462,11 +4462,11 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S51" t="n">
-        <v>714</v>
+        <v>1000</v>
       </c>
       <c r="T51" t="n">
         <v>7</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44258</v>
+        <v>44236</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4524,16 +4524,16 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="N52" t="n">
         <v>7000</v>
       </c>
       <c r="O52" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P52" t="n">
-        <v>7000</v>
+        <v>7542</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4542,11 +4542,11 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1000</v>
+        <v>1077</v>
       </c>
       <c r="T52" t="n">
         <v>7</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44243</v>
+        <v>44236</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4600,20 +4600,20 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="N53" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O53" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P53" t="n">
-        <v>7450</v>
+        <v>5000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4622,11 +4622,11 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S53" t="n">
-        <v>1064</v>
+        <v>714</v>
       </c>
       <c r="T53" t="n">
         <v>7</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44243</v>
+        <v>44159</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4680,33 +4680,33 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>40</v>
+        <v>550</v>
       </c>
       <c r="N54" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O54" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P54" t="n">
-        <v>5000</v>
+        <v>9455</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S54" t="n">
-        <v>714</v>
+        <v>1351</v>
       </c>
       <c r="T54" t="n">
         <v>7</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44237</v>
+        <v>44159</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4764,16 +4764,16 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>75</v>
+        <v>375</v>
       </c>
       <c r="N55" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="O55" t="n">
         <v>8000</v>
       </c>
       <c r="P55" t="n">
-        <v>7533</v>
+        <v>7760</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4782,11 +4782,11 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S55" t="n">
-        <v>1076</v>
+        <v>1109</v>
       </c>
       <c r="T55" t="n">
         <v>7</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44237</v>
+        <v>44159</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4844,29 +4844,29 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>35</v>
+        <v>155</v>
       </c>
       <c r="N56" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="O56" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="P56" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S56" t="n">
-        <v>714</v>
+        <v>1071</v>
       </c>
       <c r="T56" t="n">
         <v>7</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44273</v>
+        <v>44245</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4924,16 +4924,16 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="N57" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O57" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P57" t="n">
-        <v>6562</v>
+        <v>7360</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>937</v>
+        <v>1051</v>
       </c>
       <c r="T57" t="n">
         <v>7</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44257</v>
+        <v>44245</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -5000,20 +5000,20 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="N58" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O58" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P58" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>1000</v>
+        <v>714</v>
       </c>
       <c r="T58" t="n">
         <v>7</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44225</v>
+        <v>44195</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -5084,29 +5084,29 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="N59" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O59" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P59" t="n">
-        <v>7500</v>
+        <v>12583</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S59" t="n">
-        <v>1071</v>
+        <v>1798</v>
       </c>
       <c r="T59" t="n">
         <v>7</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44295</v>
+        <v>44195</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -5164,16 +5164,16 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N60" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O60" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P60" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>1000</v>
+        <v>1429</v>
       </c>
       <c r="T60" t="n">
         <v>7</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44194</v>
+        <v>44209</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -5244,29 +5244,29 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="N61" t="n">
         <v>8000</v>
       </c>
       <c r="O61" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P61" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S61" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T61" t="n">
         <v>7</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44194</v>
+        <v>44221</v>
       </c>
       <c r="E62" t="n">
         <v>9</v>
@@ -5324,16 +5324,16 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N62" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O62" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P62" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>1214</v>
+        <v>1000</v>
       </c>
       <c r="T62" t="n">
         <v>7</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44214</v>
+        <v>44200</v>
       </c>
       <c r="E63" t="n">
         <v>9</v>
@@ -5404,16 +5404,16 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="N63" t="n">
         <v>7000</v>
       </c>
       <c r="O63" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P63" t="n">
-        <v>7455</v>
+        <v>7000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5422,11 +5422,11 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S63" t="n">
-        <v>1065</v>
+        <v>1000</v>
       </c>
       <c r="T63" t="n">
         <v>7</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44214</v>
+        <v>44200</v>
       </c>
       <c r="E64" t="n">
         <v>9</v>
@@ -5484,16 +5484,16 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="N64" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="O64" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="P64" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5502,11 +5502,11 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S64" t="n">
-        <v>643</v>
+        <v>786</v>
       </c>
       <c r="T64" t="n">
         <v>7</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44238</v>
+        <v>44186</v>
       </c>
       <c r="E65" t="n">
         <v>9</v>
@@ -5564,29 +5564,29 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>235</v>
+        <v>625</v>
       </c>
       <c r="N65" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O65" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P65" t="n">
-        <v>7532</v>
+        <v>11584</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S65" t="n">
-        <v>1076</v>
+        <v>1655</v>
       </c>
       <c r="T65" t="n">
         <v>7</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44238</v>
+        <v>44186</v>
       </c>
       <c r="E66" t="n">
         <v>9</v>
@@ -5640,20 +5640,20 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="N66" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O66" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="P66" t="n">
-        <v>5000</v>
+        <v>10532</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>714</v>
+        <v>1505</v>
       </c>
       <c r="T66" t="n">
         <v>7</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44274</v>
+        <v>44252</v>
       </c>
       <c r="E67" t="n">
         <v>9</v>
@@ -5724,16 +5724,16 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c r="N67" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O67" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P67" t="n">
-        <v>6579</v>
+        <v>7568</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>940</v>
+        <v>1081</v>
       </c>
       <c r="T67" t="n">
         <v>7</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44224</v>
+        <v>44252</v>
       </c>
       <c r="E68" t="n">
         <v>9</v>
@@ -5800,20 +5800,20 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>600</v>
+        <v>85</v>
       </c>
       <c r="N68" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O68" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P68" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>1071</v>
+        <v>714</v>
       </c>
       <c r="T68" t="n">
         <v>7</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44260</v>
+        <v>44259</v>
       </c>
       <c r="E69" t="n">
         <v>9</v>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="N69" t="n">
         <v>7000</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44209</v>
+        <v>44277</v>
       </c>
       <c r="E70" t="n">
         <v>9</v>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N70" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O70" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P70" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>1214</v>
+        <v>857</v>
       </c>
       <c r="T70" t="n">
         <v>7</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44193</v>
+        <v>44224</v>
       </c>
       <c r="E71" t="n">
         <v>9</v>
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="N71" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O71" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P71" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>1429</v>
+        <v>1071</v>
       </c>
       <c r="T71" t="n">
         <v>7</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44193</v>
+        <v>44217</v>
       </c>
       <c r="E72" t="n">
         <v>9</v>
@@ -6120,20 +6120,20 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>90</v>
+        <v>235</v>
       </c>
       <c r="N72" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O72" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P72" t="n">
-        <v>9000</v>
+        <v>7532</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>1286</v>
+        <v>1076</v>
       </c>
       <c r="T72" t="n">
         <v>7</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44251</v>
+        <v>44217</v>
       </c>
       <c r="E73" t="n">
         <v>9</v>
@@ -6200,20 +6200,20 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N73" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="O73" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="P73" t="n">
-        <v>7467</v>
+        <v>5500</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>1067</v>
+        <v>786</v>
       </c>
       <c r="T73" t="n">
         <v>7</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44251</v>
+        <v>44295</v>
       </c>
       <c r="E74" t="n">
         <v>9</v>
@@ -6280,20 +6280,20 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="N74" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O74" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P74" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>714</v>
+        <v>1000</v>
       </c>
       <c r="T74" t="n">
         <v>7</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44305</v>
+        <v>44179</v>
       </c>
       <c r="E75" t="n">
         <v>9</v>
@@ -6364,29 +6364,29 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N75" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O75" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P75" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S75" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="T75" t="n">
         <v>7</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44294</v>
+        <v>44179</v>
       </c>
       <c r="E76" t="n">
         <v>9</v>
@@ -6444,16 +6444,16 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N76" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O76" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P76" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>1000</v>
+        <v>1429</v>
       </c>
       <c r="T76" t="n">
         <v>7</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44245</v>
+        <v>44249</v>
       </c>
       <c r="E77" t="n">
         <v>9</v>
@@ -6524,7 +6524,7 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="N77" t="n">
         <v>7000</v>
@@ -6533,7 +6533,7 @@
         <v>8000</v>
       </c>
       <c r="P77" t="n">
-        <v>7360</v>
+        <v>7458</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6542,11 +6542,11 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S77" t="n">
-        <v>1051</v>
+        <v>1065</v>
       </c>
       <c r="T77" t="n">
         <v>7</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44245</v>
+        <v>44249</v>
       </c>
       <c r="E78" t="n">
         <v>9</v>
@@ -6604,7 +6604,7 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="N78" t="n">
         <v>5000</v>
@@ -6622,7 +6622,7 @@
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S78" t="n">
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44202</v>
+        <v>44168</v>
       </c>
       <c r="E79" t="n">
         <v>9</v>
@@ -6680,33 +6680,33 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="N79" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O79" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P79" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S79" t="n">
-        <v>1000</v>
+        <v>1714</v>
       </c>
       <c r="T79" t="n">
         <v>7</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44181</v>
+        <v>44168</v>
       </c>
       <c r="E80" t="n">
         <v>9</v>
@@ -6764,29 +6764,29 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>260</v>
+        <v>600</v>
       </c>
       <c r="N80" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O80" t="n">
         <v>10000</v>
       </c>
       <c r="P80" t="n">
-        <v>9462</v>
+        <v>10000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S80" t="n">
-        <v>1352</v>
+        <v>1429</v>
       </c>
       <c r="T80" t="n">
         <v>7</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44369</v>
+        <v>44272</v>
       </c>
       <c r="E81" t="n">
         <v>9</v>
@@ -6844,29 +6844,29 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="N81" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O81" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="P81" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S81" t="n">
-        <v>2143</v>
+        <v>1000</v>
       </c>
       <c r="T81" t="n">
         <v>7</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44307</v>
+        <v>44235</v>
       </c>
       <c r="E82" t="n">
         <v>9</v>
@@ -6920,20 +6920,20 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="N82" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O82" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P82" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6942,11 +6942,11 @@
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S82" t="n">
-        <v>714</v>
+        <v>1143</v>
       </c>
       <c r="T82" t="n">
         <v>7</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44161</v>
+        <v>44235</v>
       </c>
       <c r="E83" t="n">
         <v>9</v>
@@ -7000,33 +7000,33 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>550</v>
+        <v>65</v>
       </c>
       <c r="N83" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O83" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P83" t="n">
-        <v>9455</v>
+        <v>5000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S83" t="n">
-        <v>1351</v>
+        <v>714</v>
       </c>
       <c r="T83" t="n">
         <v>7</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44161</v>
+        <v>44218</v>
       </c>
       <c r="E84" t="n">
         <v>9</v>
@@ -7084,16 +7084,16 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>305</v>
+        <v>155</v>
       </c>
       <c r="N84" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="O84" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P84" t="n">
-        <v>6705</v>
+        <v>7516</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>958</v>
+        <v>1074</v>
       </c>
       <c r="T84" t="n">
         <v>7</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44161</v>
+        <v>44218</v>
       </c>
       <c r="E85" t="n">
         <v>9</v>
@@ -7164,16 +7164,16 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>180</v>
+        <v>65</v>
       </c>
       <c r="N85" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="O85" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="P85" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>571</v>
+        <v>786</v>
       </c>
       <c r="T85" t="n">
         <v>7</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44195</v>
+        <v>44274</v>
       </c>
       <c r="E86" t="n">
         <v>9</v>
@@ -7244,29 +7244,29 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>240</v>
+        <v>95</v>
       </c>
       <c r="N86" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O86" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="P86" t="n">
-        <v>12583</v>
+        <v>6579</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S86" t="n">
-        <v>1798</v>
+        <v>940</v>
       </c>
       <c r="T86" t="n">
         <v>7</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44195</v>
+        <v>44291</v>
       </c>
       <c r="E87" t="n">
         <v>9</v>
@@ -7327,13 +7327,13 @@
         <v>200</v>
       </c>
       <c r="N87" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O87" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P87" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>1429</v>
+        <v>1000</v>
       </c>
       <c r="T87" t="n">
         <v>7</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44159</v>
+        <v>44291</v>
       </c>
       <c r="E88" t="n">
         <v>9</v>
@@ -7400,33 +7400,33 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>550</v>
+        <v>60</v>
       </c>
       <c r="N88" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O88" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P88" t="n">
-        <v>9455</v>
+        <v>6000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S88" t="n">
-        <v>1351</v>
+        <v>857</v>
       </c>
       <c r="T88" t="n">
         <v>7</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44159</v>
+        <v>44215</v>
       </c>
       <c r="E89" t="n">
         <v>9</v>
@@ -7484,16 +7484,16 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>375</v>
+        <v>120</v>
       </c>
       <c r="N89" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="O89" t="n">
         <v>8000</v>
       </c>
       <c r="P89" t="n">
-        <v>7760</v>
+        <v>7542</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>1109</v>
+        <v>1077</v>
       </c>
       <c r="T89" t="n">
         <v>7</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44159</v>
+        <v>44194</v>
       </c>
       <c r="E90" t="n">
         <v>9</v>
@@ -7560,20 +7560,20 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>155</v>
+        <v>600</v>
       </c>
       <c r="N90" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="O90" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="P90" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>1071</v>
+        <v>1143</v>
       </c>
       <c r="T90" t="n">
         <v>7</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44333</v>
+        <v>44194</v>
       </c>
       <c r="E91" t="n">
         <v>9</v>
@@ -7644,16 +7644,16 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="N91" t="n">
         <v>8000</v>
       </c>
       <c r="O91" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P91" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T91" t="n">
         <v>7</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44201</v>
+        <v>44264</v>
       </c>
       <c r="E92" t="n">
         <v>9</v>
@@ -7724,7 +7724,7 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N92" t="n">
         <v>7000</v>
@@ -7742,7 +7742,7 @@
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S92" t="n">
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44277</v>
+        <v>44263</v>
       </c>
       <c r="E93" t="n">
         <v>9</v>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N93" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O93" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P93" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>857</v>
+        <v>1000</v>
       </c>
       <c r="T93" t="n">
         <v>7</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44188</v>
+        <v>44210</v>
       </c>
       <c r="E94" t="n">
         <v>9</v>
@@ -7884,29 +7884,29 @@
         </is>
       </c>
       <c r="M94" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="N94" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O94" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P94" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S94" t="n">
-        <v>1857</v>
+        <v>1143</v>
       </c>
       <c r="T94" t="n">
         <v>7</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44160</v>
+        <v>44301</v>
       </c>
       <c r="E97" t="n">
         <v>9</v>
@@ -8124,16 +8124,16 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>320</v>
+        <v>90</v>
       </c>
       <c r="N97" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="O97" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="P97" t="n">
-        <v>7734</v>
+        <v>6194</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8142,11 +8142,11 @@
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S97" t="n">
-        <v>1105</v>
+        <v>885</v>
       </c>
       <c r="T97" t="n">
         <v>7</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44186</v>
+        <v>44244</v>
       </c>
       <c r="E98" t="n">
         <v>9</v>
@@ -8204,29 +8204,29 @@
         </is>
       </c>
       <c r="M98" t="n">
-        <v>625</v>
+        <v>130</v>
       </c>
       <c r="N98" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O98" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P98" t="n">
-        <v>11584</v>
+        <v>7462</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S98" t="n">
-        <v>1655</v>
+        <v>1066</v>
       </c>
       <c r="T98" t="n">
         <v>7</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44186</v>
+        <v>44244</v>
       </c>
       <c r="E99" t="n">
         <v>9</v>
@@ -8280,20 +8280,20 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>235</v>
+        <v>55</v>
       </c>
       <c r="N99" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O99" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="P99" t="n">
-        <v>10532</v>
+        <v>5000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8302,11 +8302,11 @@
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S99" t="n">
-        <v>1505</v>
+        <v>714</v>
       </c>
       <c r="T99" t="n">
         <v>7</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44211</v>
+        <v>44237</v>
       </c>
       <c r="E100" t="n">
         <v>9</v>
@@ -8364,7 +8364,7 @@
         </is>
       </c>
       <c r="M100" t="n">
-        <v>270</v>
+        <v>75</v>
       </c>
       <c r="N100" t="n">
         <v>7000</v>
@@ -8373,7 +8373,7 @@
         <v>8000</v>
       </c>
       <c r="P100" t="n">
-        <v>7556</v>
+        <v>7533</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8382,11 +8382,11 @@
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S100" t="n">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="T100" t="n">
         <v>7</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44301</v>
+        <v>44237</v>
       </c>
       <c r="E101" t="n">
         <v>9</v>
@@ -8440,20 +8440,20 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N101" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O101" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="P101" t="n">
-        <v>6194</v>
+        <v>5000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>885</v>
+        <v>714</v>
       </c>
       <c r="T101" t="n">
         <v>7</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44272</v>
+        <v>44369</v>
       </c>
       <c r="E102" t="n">
         <v>9</v>
@@ -8524,29 +8524,29 @@
         </is>
       </c>
       <c r="M102" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="N102" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O102" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P102" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S102" t="n">
-        <v>1000</v>
+        <v>2143</v>
       </c>
       <c r="T102" t="n">
         <v>7</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44232</v>
+        <v>44257</v>
       </c>
       <c r="E103" t="n">
         <v>9</v>
@@ -8604,16 +8604,16 @@
         </is>
       </c>
       <c r="M103" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="N103" t="n">
         <v>7000</v>
       </c>
       <c r="O103" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P103" t="n">
-        <v>7550</v>
+        <v>7000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -8622,11 +8622,11 @@
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S103" t="n">
-        <v>1079</v>
+        <v>1000</v>
       </c>
       <c r="T103" t="n">
         <v>7</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44270</v>
+        <v>44273</v>
       </c>
       <c r="E104" t="n">
         <v>9</v>
@@ -8684,16 +8684,16 @@
         </is>
       </c>
       <c r="M104" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N104" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O104" t="n">
         <v>7000</v>
       </c>
       <c r="P104" t="n">
-        <v>7000</v>
+        <v>6562</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>1000</v>
+        <v>937</v>
       </c>
       <c r="T104" t="n">
         <v>7</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44286</v>
+        <v>44294</v>
       </c>
       <c r="E105" t="n">
         <v>9</v>
@@ -8764,16 +8764,16 @@
         </is>
       </c>
       <c r="M105" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="N105" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="O105" t="n">
         <v>7000</v>
       </c>
       <c r="P105" t="n">
-        <v>6786</v>
+        <v>7000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -8782,11 +8782,11 @@
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S105" t="n">
-        <v>969</v>
+        <v>1000</v>
       </c>
       <c r="T105" t="n">
         <v>7</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44217</v>
+        <v>44302</v>
       </c>
       <c r="E106" t="n">
         <v>9</v>
@@ -8844,16 +8844,16 @@
         </is>
       </c>
       <c r="M106" t="n">
-        <v>235</v>
+        <v>55</v>
       </c>
       <c r="N106" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O106" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P106" t="n">
-        <v>7532</v>
+        <v>6000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8862,11 +8862,11 @@
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S106" t="n">
-        <v>1076</v>
+        <v>857</v>
       </c>
       <c r="T106" t="n">
         <v>7</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44217</v>
+        <v>44161</v>
       </c>
       <c r="E107" t="n">
         <v>9</v>
@@ -8920,33 +8920,33 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>85</v>
+        <v>550</v>
       </c>
       <c r="N107" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="O107" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="P107" t="n">
-        <v>5500</v>
+        <v>9455</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S107" t="n">
-        <v>786</v>
+        <v>1351</v>
       </c>
       <c r="T107" t="n">
         <v>7</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44244</v>
+        <v>44161</v>
       </c>
       <c r="E108" t="n">
         <v>9</v>
@@ -9004,16 +9004,16 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>130</v>
+        <v>305</v>
       </c>
       <c r="N108" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="O108" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P108" t="n">
-        <v>7462</v>
+        <v>6705</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>1066</v>
+        <v>958</v>
       </c>
       <c r="T108" t="n">
         <v>7</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44244</v>
+        <v>44161</v>
       </c>
       <c r="E109" t="n">
         <v>9</v>
@@ -9084,16 +9084,16 @@
         </is>
       </c>
       <c r="M109" t="n">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="N109" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O109" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P109" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>714</v>
+        <v>571</v>
       </c>
       <c r="T109" t="n">
         <v>7</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44223</v>
+        <v>44251</v>
       </c>
       <c r="E110" t="n">
         <v>9</v>
@@ -9164,7 +9164,7 @@
         </is>
       </c>
       <c r="M110" t="n">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="N110" t="n">
         <v>7000</v>
@@ -9173,7 +9173,7 @@
         <v>8000</v>
       </c>
       <c r="P110" t="n">
-        <v>7385</v>
+        <v>7467</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         </is>
       </c>
       <c r="S110" t="n">
-        <v>1055</v>
+        <v>1067</v>
       </c>
       <c r="T110" t="n">
         <v>7</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44179</v>
+        <v>44251</v>
       </c>
       <c r="E111" t="n">
         <v>9</v>
@@ -9240,33 +9240,33 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M111" t="n">
-        <v>600</v>
+        <v>55</v>
       </c>
       <c r="N111" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O111" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="P111" t="n">
-        <v>10500</v>
+        <v>5000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S111" t="n">
-        <v>1500</v>
+        <v>714</v>
       </c>
       <c r="T111" t="n">
         <v>7</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44179</v>
+        <v>44175</v>
       </c>
       <c r="E112" t="n">
         <v>9</v>
@@ -9324,16 +9324,16 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="N112" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O112" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P112" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>1429</v>
+        <v>1286</v>
       </c>
       <c r="T112" t="n">
         <v>7</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44284</v>
+        <v>44223</v>
       </c>
       <c r="E113" t="n">
         <v>9</v>
@@ -9404,16 +9404,16 @@
         </is>
       </c>
       <c r="M113" t="n">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="N113" t="n">
         <v>7000</v>
       </c>
       <c r="O113" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P113" t="n">
-        <v>7000</v>
+        <v>7385</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9422,11 +9422,11 @@
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S113" t="n">
-        <v>1000</v>
+        <v>1055</v>
       </c>
       <c r="T113" t="n">
         <v>7</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44168</v>
+        <v>44238</v>
       </c>
       <c r="E114" t="n">
         <v>9</v>
@@ -9480,33 +9480,33 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M114" t="n">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="N114" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O114" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P114" t="n">
-        <v>12000</v>
+        <v>7532</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S114" t="n">
-        <v>1714</v>
+        <v>1076</v>
       </c>
       <c r="T114" t="n">
         <v>7</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44168</v>
+        <v>44238</v>
       </c>
       <c r="E115" t="n">
         <v>9</v>
@@ -9560,33 +9560,33 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>600</v>
+        <v>85</v>
       </c>
       <c r="N115" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O115" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P115" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S115" t="n">
-        <v>1429</v>
+        <v>714</v>
       </c>
       <c r="T115" t="n">
         <v>7</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T115"/>
+  <dimension ref="A1:T116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44211</v>
+        <v>44181</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="N2" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O2" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P2" t="n">
-        <v>7556</v>
+        <v>9462</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1079</v>
+        <v>1352</v>
       </c>
       <c r="T2" t="n">
         <v>7</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44307</v>
+        <v>44235</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="N3" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O3" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P3" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>714</v>
+        <v>1143</v>
       </c>
       <c r="T3" t="n">
         <v>7</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44305</v>
+        <v>44235</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="N4" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O4" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P4" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1000</v>
+        <v>714</v>
       </c>
       <c r="T4" t="n">
         <v>7</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44243</v>
+        <v>44295</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -770,10 +770,10 @@
         <v>7000</v>
       </c>
       <c r="O5" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P5" t="n">
-        <v>7450</v>
+        <v>7000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1064</v>
+        <v>1000</v>
       </c>
       <c r="T5" t="n">
         <v>7</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44243</v>
+        <v>44204</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>40</v>
+        <v>205</v>
       </c>
       <c r="N6" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O6" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P6" t="n">
-        <v>5000</v>
+        <v>7390</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>714</v>
+        <v>1056</v>
       </c>
       <c r="T6" t="n">
         <v>7</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>205</v>
+        <v>45</v>
       </c>
       <c r="N7" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="O7" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="P7" t="n">
-        <v>7390</v>
+        <v>5500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1056</v>
+        <v>786</v>
       </c>
       <c r="T7" t="n">
         <v>7</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44204</v>
+        <v>44294</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="O8" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="P8" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>786</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
         <v>7</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44214</v>
+        <v>44305</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
         <v>7000</v>
       </c>
       <c r="O9" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P9" t="n">
-        <v>7455</v>
+        <v>7000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1065</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
         <v>7</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44214</v>
+        <v>44259</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="N10" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="O10" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="P10" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>643</v>
+        <v>1000</v>
       </c>
       <c r="T10" t="n">
         <v>7</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44188</v>
+        <v>44194</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>90</v>
+        <v>600</v>
       </c>
       <c r="N11" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O11" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P11" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1857</v>
+        <v>1143</v>
       </c>
       <c r="T11" t="n">
         <v>7</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44280</v>
+        <v>44194</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N12" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O12" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P12" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1000</v>
+        <v>1214</v>
       </c>
       <c r="T12" t="n">
         <v>7</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44270</v>
+        <v>44174</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="N13" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O13" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P13" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1000</v>
+        <v>1429</v>
       </c>
       <c r="T13" t="n">
         <v>7</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44225</v>
+        <v>44186</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,29 +1484,29 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>625</v>
       </c>
       <c r="N14" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O14" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P14" t="n">
-        <v>7500</v>
+        <v>11584</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1071</v>
+        <v>1655</v>
       </c>
       <c r="T14" t="n">
         <v>7</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44193</v>
+        <v>44186</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>150</v>
+        <v>235</v>
       </c>
       <c r="N15" t="n">
         <v>10000</v>
       </c>
       <c r="O15" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P15" t="n">
-        <v>10000</v>
+        <v>10532</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1429</v>
+        <v>1505</v>
       </c>
       <c r="T15" t="n">
         <v>7</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44193</v>
+        <v>44454</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1640,33 +1640,33 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N16" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="O16" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="P16" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1286</v>
+        <v>2571</v>
       </c>
       <c r="T16" t="n">
         <v>7</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44160</v>
+        <v>44189</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="N17" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="O17" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P17" t="n">
-        <v>7734</v>
+        <v>9000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1105</v>
+        <v>1286</v>
       </c>
       <c r="T17" t="n">
         <v>7</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44285</v>
+        <v>44202</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="N18" t="n">
         <v>7000</v>
@@ -1822,7 +1822,7 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S18" t="n">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44286</v>
+        <v>44236</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="N19" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="O19" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P19" t="n">
-        <v>6786</v>
+        <v>7542</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>969</v>
+        <v>1077</v>
       </c>
       <c r="T19" t="n">
         <v>7</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44201</v>
+        <v>44236</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N20" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O20" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P20" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1000</v>
+        <v>714</v>
       </c>
       <c r="T20" t="n">
         <v>7</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44232</v>
+        <v>44179</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2044,29 +2044,29 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="N21" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O21" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P21" t="n">
-        <v>7550</v>
+        <v>10500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1079</v>
+        <v>1500</v>
       </c>
       <c r="T21" t="n">
         <v>7</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44333</v>
+        <v>44179</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N22" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O22" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P22" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1143</v>
+        <v>1429</v>
       </c>
       <c r="T22" t="n">
         <v>7</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44166</v>
+        <v>44242</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2204,7 +2204,7 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>400</v>
+        <v>145</v>
       </c>
       <c r="N23" t="n">
         <v>7000</v>
@@ -2213,7 +2213,7 @@
         <v>8000</v>
       </c>
       <c r="P23" t="n">
-        <v>7500</v>
+        <v>7448</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1071</v>
+        <v>1064</v>
       </c>
       <c r="T23" t="n">
         <v>7</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44162</v>
+        <v>44242</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2280,33 +2280,33 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>305</v>
+        <v>45</v>
       </c>
       <c r="N24" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O24" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P24" t="n">
-        <v>9410</v>
+        <v>5000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1344</v>
+        <v>714</v>
       </c>
       <c r="T24" t="n">
         <v>7</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44162</v>
+        <v>44258</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="N25" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="O25" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="P25" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1071</v>
+        <v>1000</v>
       </c>
       <c r="T25" t="n">
         <v>7</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44162</v>
+        <v>44159</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>110</v>
+        <v>550</v>
       </c>
       <c r="N26" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O26" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P26" t="n">
-        <v>7000</v>
+        <v>9455</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1000</v>
+        <v>1351</v>
       </c>
       <c r="T26" t="n">
         <v>7</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44202</v>
+        <v>44159</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>95</v>
+        <v>375</v>
       </c>
       <c r="N27" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="O27" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P27" t="n">
-        <v>7000</v>
+        <v>7760</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2542,11 +2542,11 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1000</v>
+        <v>1109</v>
       </c>
       <c r="T27" t="n">
         <v>7</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44323</v>
+        <v>44159</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2600,33 +2600,33 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="N28" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="O28" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="P28" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1286</v>
+        <v>1071</v>
       </c>
       <c r="T28" t="n">
         <v>7</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44323</v>
+        <v>44302</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N29" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O29" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P29" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2702,11 +2702,11 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>643</v>
+        <v>857</v>
       </c>
       <c r="T29" t="n">
         <v>7</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44165</v>
+        <v>44232</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2760,33 +2760,33 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N30" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O30" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P30" t="n">
-        <v>11000</v>
+        <v>7550</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1571</v>
+        <v>1079</v>
       </c>
       <c r="T30" t="n">
         <v>7</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44165</v>
+        <v>44224</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2844,29 +2844,29 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N31" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O31" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P31" t="n">
-        <v>9571</v>
+        <v>7500</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1367</v>
+        <v>1071</v>
       </c>
       <c r="T31" t="n">
         <v>7</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44165</v>
+        <v>44195</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>800</v>
+        <v>240</v>
       </c>
       <c r="N32" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O32" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P32" t="n">
-        <v>9500</v>
+        <v>12583</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1357</v>
+        <v>1798</v>
       </c>
       <c r="T32" t="n">
         <v>7</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44165</v>
+        <v>44195</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N33" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O33" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P33" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1214</v>
+        <v>1429</v>
       </c>
       <c r="T33" t="n">
         <v>7</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44165</v>
+        <v>44188</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="N34" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O34" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P34" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3102,11 +3102,11 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1000</v>
+        <v>1857</v>
       </c>
       <c r="T34" t="n">
         <v>7</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44242</v>
+        <v>44263</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>145</v>
+        <v>200</v>
       </c>
       <c r="N35" t="n">
         <v>7000</v>
       </c>
       <c r="O35" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P35" t="n">
-        <v>7448</v>
+        <v>7000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1064</v>
+        <v>1000</v>
       </c>
       <c r="T35" t="n">
         <v>7</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44242</v>
+        <v>44272</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N36" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O36" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P36" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>714</v>
+        <v>1000</v>
       </c>
       <c r="T36" t="n">
         <v>7</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44216</v>
+        <v>44271</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="N37" t="n">
         <v>7000</v>
       </c>
       <c r="O37" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P37" t="n">
-        <v>7579</v>
+        <v>7000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1083</v>
+        <v>1000</v>
       </c>
       <c r="T37" t="n">
         <v>7</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44216</v>
+        <v>44333</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N38" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O38" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P38" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>714</v>
+        <v>1143</v>
       </c>
       <c r="T38" t="n">
         <v>7</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44260</v>
+        <v>44238</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>45</v>
+        <v>235</v>
       </c>
       <c r="N39" t="n">
         <v>7000</v>
       </c>
       <c r="O39" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P39" t="n">
-        <v>7000</v>
+        <v>7532</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3502,11 +3502,11 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1000</v>
+        <v>1076</v>
       </c>
       <c r="T39" t="n">
         <v>7</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44271</v>
+        <v>44238</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="N40" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O40" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P40" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3582,11 +3582,11 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1000</v>
+        <v>714</v>
       </c>
       <c r="T40" t="n">
         <v>7</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44189</v>
+        <v>44284</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>400</v>
+        <v>65</v>
       </c>
       <c r="N41" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O41" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P41" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3662,11 +3662,11 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1286</v>
+        <v>1000</v>
       </c>
       <c r="T41" t="n">
         <v>7</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44181</v>
+        <v>44216</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3724,16 +3724,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>260</v>
+        <v>95</v>
       </c>
       <c r="N42" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O42" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P42" t="n">
-        <v>9462</v>
+        <v>7579</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1352</v>
+        <v>1083</v>
       </c>
       <c r="T42" t="n">
         <v>7</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44372</v>
+        <v>44216</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3800,33 +3800,33 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="N43" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="O43" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="P43" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>2429</v>
+        <v>714</v>
       </c>
       <c r="T43" t="n">
         <v>7</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44246</v>
+        <v>44253</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44246</v>
+        <v>44253</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3964,7 +3964,7 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N45" t="n">
         <v>5000</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44203</v>
+        <v>44245</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -4044,7 +4044,7 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="N46" t="n">
         <v>7000</v>
@@ -4053,7 +4053,7 @@
         <v>8000</v>
       </c>
       <c r="P46" t="n">
-        <v>7543</v>
+        <v>7360</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4062,11 +4062,11 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1078</v>
+        <v>1051</v>
       </c>
       <c r="T46" t="n">
         <v>7</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44203</v>
+        <v>44245</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N47" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="O47" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="P47" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4142,11 +4142,11 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>786</v>
+        <v>714</v>
       </c>
       <c r="T47" t="n">
         <v>7</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44312</v>
+        <v>44225</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -4204,16 +4204,16 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="N48" t="n">
         <v>7000</v>
       </c>
       <c r="O48" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P48" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4222,11 +4222,11 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1000</v>
+        <v>1071</v>
       </c>
       <c r="T48" t="n">
         <v>7</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44258</v>
+        <v>44218</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -4284,16 +4284,16 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="N49" t="n">
         <v>7000</v>
       </c>
       <c r="O49" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P49" t="n">
-        <v>7000</v>
+        <v>7516</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1000</v>
+        <v>1074</v>
       </c>
       <c r="T49" t="n">
         <v>7</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44174</v>
+        <v>44218</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -4360,20 +4360,20 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="N50" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="O50" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="P50" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1429</v>
+        <v>786</v>
       </c>
       <c r="T50" t="n">
         <v>7</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44284</v>
+        <v>44223</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4444,16 +4444,16 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="N51" t="n">
         <v>7000</v>
       </c>
       <c r="O51" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P51" t="n">
-        <v>7000</v>
+        <v>7385</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4462,11 +4462,11 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1000</v>
+        <v>1055</v>
       </c>
       <c r="T51" t="n">
         <v>7</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44236</v>
+        <v>44246</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4524,7 +4524,7 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N52" t="n">
         <v>7000</v>
@@ -4533,7 +4533,7 @@
         <v>8000</v>
       </c>
       <c r="P52" t="n">
-        <v>7542</v>
+        <v>7417</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4542,11 +4542,11 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1077</v>
+        <v>1060</v>
       </c>
       <c r="T52" t="n">
         <v>7</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44236</v>
+        <v>44246</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4604,7 +4604,7 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N53" t="n">
         <v>5000</v>
@@ -4622,7 +4622,7 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S53" t="n">
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44159</v>
+        <v>44161</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44159</v>
+        <v>44161</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4764,16 +4764,16 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>375</v>
+        <v>305</v>
       </c>
       <c r="N55" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="O55" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P55" t="n">
-        <v>7760</v>
+        <v>6705</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>1109</v>
+        <v>958</v>
       </c>
       <c r="T55" t="n">
         <v>7</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44159</v>
+        <v>44161</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4844,29 +4844,29 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="N56" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="O56" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="P56" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S56" t="n">
-        <v>1071</v>
+        <v>571</v>
       </c>
       <c r="T56" t="n">
         <v>7</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44245</v>
+        <v>44307</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4920,20 +4920,20 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="N57" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O57" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P57" t="n">
-        <v>7360</v>
+        <v>5000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>1051</v>
+        <v>714</v>
       </c>
       <c r="T57" t="n">
         <v>7</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44245</v>
+        <v>44193</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -5000,20 +5000,20 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="N58" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O58" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P58" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>714</v>
+        <v>1429</v>
       </c>
       <c r="T58" t="n">
         <v>7</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44195</v>
+        <v>44193</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -5080,33 +5080,33 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="N59" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O59" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P59" t="n">
-        <v>12583</v>
+        <v>9000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S59" t="n">
-        <v>1798</v>
+        <v>1286</v>
       </c>
       <c r="T59" t="n">
         <v>7</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44195</v>
+        <v>44274</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -5164,16 +5164,16 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="N60" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O60" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P60" t="n">
-        <v>10000</v>
+        <v>6579</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>1429</v>
+        <v>940</v>
       </c>
       <c r="T60" t="n">
         <v>7</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44209</v>
+        <v>44200</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -5244,16 +5244,16 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N61" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O61" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P61" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5262,11 +5262,11 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S61" t="n">
-        <v>1214</v>
+        <v>1000</v>
       </c>
       <c r="T61" t="n">
         <v>7</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44221</v>
+        <v>44200</v>
       </c>
       <c r="E62" t="n">
         <v>9</v>
@@ -5320,20 +5320,20 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N62" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="O62" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="P62" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5342,11 +5342,11 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S62" t="n">
-        <v>1000</v>
+        <v>786</v>
       </c>
       <c r="T62" t="n">
         <v>7</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44200</v>
+        <v>44214</v>
       </c>
       <c r="E63" t="n">
         <v>9</v>
@@ -5404,16 +5404,16 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="N63" t="n">
         <v>7000</v>
       </c>
       <c r="O63" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P63" t="n">
-        <v>7000</v>
+        <v>7455</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5422,11 +5422,11 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S63" t="n">
-        <v>1000</v>
+        <v>1065</v>
       </c>
       <c r="T63" t="n">
         <v>7</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44200</v>
+        <v>44214</v>
       </c>
       <c r="E64" t="n">
         <v>9</v>
@@ -5484,16 +5484,16 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="N64" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="O64" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="P64" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5502,11 +5502,11 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S64" t="n">
-        <v>786</v>
+        <v>643</v>
       </c>
       <c r="T64" t="n">
         <v>7</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44186</v>
+        <v>44237</v>
       </c>
       <c r="E65" t="n">
         <v>9</v>
@@ -5564,29 +5564,29 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>625</v>
+        <v>75</v>
       </c>
       <c r="N65" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O65" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P65" t="n">
-        <v>11584</v>
+        <v>7533</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S65" t="n">
-        <v>1655</v>
+        <v>1076</v>
       </c>
       <c r="T65" t="n">
         <v>7</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44186</v>
+        <v>44237</v>
       </c>
       <c r="E66" t="n">
         <v>9</v>
@@ -5640,20 +5640,20 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>235</v>
+        <v>35</v>
       </c>
       <c r="N66" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O66" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="P66" t="n">
-        <v>10532</v>
+        <v>5000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>1505</v>
+        <v>714</v>
       </c>
       <c r="T66" t="n">
         <v>7</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44252</v>
+        <v>44285</v>
       </c>
       <c r="E67" t="n">
         <v>9</v>
@@ -5724,16 +5724,16 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>220</v>
+        <v>55</v>
       </c>
       <c r="N67" t="n">
         <v>7000</v>
       </c>
       <c r="O67" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P67" t="n">
-        <v>7568</v>
+        <v>7000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>1081</v>
+        <v>1000</v>
       </c>
       <c r="T67" t="n">
         <v>7</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44252</v>
+        <v>44210</v>
       </c>
       <c r="E68" t="n">
         <v>9</v>
@@ -5800,20 +5800,20 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>85</v>
+        <v>500</v>
       </c>
       <c r="N68" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O68" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P68" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>714</v>
+        <v>1143</v>
       </c>
       <c r="T68" t="n">
         <v>7</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44259</v>
+        <v>44217</v>
       </c>
       <c r="E69" t="n">
         <v>9</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>155</v>
+        <v>235</v>
       </c>
       <c r="N69" t="n">
         <v>7000</v>
       </c>
       <c r="O69" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P69" t="n">
-        <v>7000</v>
+        <v>7532</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>1000</v>
+        <v>1076</v>
       </c>
       <c r="T69" t="n">
         <v>7</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44277</v>
+        <v>44217</v>
       </c>
       <c r="E70" t="n">
         <v>9</v>
@@ -5960,20 +5960,20 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N70" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="O70" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="P70" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>857</v>
+        <v>786</v>
       </c>
       <c r="T70" t="n">
         <v>7</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44224</v>
+        <v>44165</v>
       </c>
       <c r="E71" t="n">
         <v>9</v>
@@ -6040,33 +6040,33 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="N71" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O71" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P71" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S71" t="n">
-        <v>1071</v>
+        <v>1571</v>
       </c>
       <c r="T71" t="n">
         <v>7</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44217</v>
+        <v>44165</v>
       </c>
       <c r="E72" t="n">
         <v>9</v>
@@ -6124,29 +6124,29 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>235</v>
+        <v>700</v>
       </c>
       <c r="N72" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O72" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P72" t="n">
-        <v>7532</v>
+        <v>9571</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S72" t="n">
-        <v>1076</v>
+        <v>1367</v>
       </c>
       <c r="T72" t="n">
         <v>7</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44217</v>
+        <v>44165</v>
       </c>
       <c r="E73" t="n">
         <v>9</v>
@@ -6200,33 +6200,33 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>85</v>
+        <v>800</v>
       </c>
       <c r="N73" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="O73" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="P73" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S73" t="n">
-        <v>786</v>
+        <v>1357</v>
       </c>
       <c r="T73" t="n">
         <v>7</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44295</v>
+        <v>44165</v>
       </c>
       <c r="E74" t="n">
         <v>9</v>
@@ -6284,16 +6284,16 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N74" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O74" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P74" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>1000</v>
+        <v>1214</v>
       </c>
       <c r="T74" t="n">
         <v>7</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44179</v>
+        <v>44165</v>
       </c>
       <c r="E75" t="n">
         <v>9</v>
@@ -6360,20 +6360,20 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="N75" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O75" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P75" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6382,11 +6382,11 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S75" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="T75" t="n">
         <v>7</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44179</v>
+        <v>44249</v>
       </c>
       <c r="E76" t="n">
         <v>9</v>
@@ -6444,16 +6444,16 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N76" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O76" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P76" t="n">
-        <v>10000</v>
+        <v>7458</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6462,11 +6462,11 @@
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S76" t="n">
-        <v>1429</v>
+        <v>1065</v>
       </c>
       <c r="T76" t="n">
         <v>7</v>
@@ -6520,20 +6520,20 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="N77" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O77" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P77" t="n">
-        <v>7458</v>
+        <v>5000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>1065</v>
+        <v>714</v>
       </c>
       <c r="T77" t="n">
         <v>7</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44249</v>
+        <v>44201</v>
       </c>
       <c r="E78" t="n">
         <v>9</v>
@@ -6600,20 +6600,20 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N78" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O78" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P78" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>714</v>
+        <v>1000</v>
       </c>
       <c r="T78" t="n">
         <v>7</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44168</v>
+        <v>44280</v>
       </c>
       <c r="E79" t="n">
         <v>9</v>
@@ -6680,33 +6680,33 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M79" t="n">
         <v>200</v>
       </c>
       <c r="N79" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O79" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P79" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S79" t="n">
-        <v>1714</v>
+        <v>1000</v>
       </c>
       <c r="T79" t="n">
         <v>7</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44168</v>
+        <v>44270</v>
       </c>
       <c r="E80" t="n">
         <v>9</v>
@@ -6764,29 +6764,29 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>600</v>
+        <v>65</v>
       </c>
       <c r="N80" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O80" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P80" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S80" t="n">
-        <v>1429</v>
+        <v>1000</v>
       </c>
       <c r="T80" t="n">
         <v>7</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44272</v>
+        <v>44260</v>
       </c>
       <c r="E81" t="n">
         <v>9</v>
@@ -6844,7 +6844,7 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N81" t="n">
         <v>7000</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44235</v>
+        <v>44312</v>
       </c>
       <c r="E82" t="n">
         <v>9</v>
@@ -6924,16 +6924,16 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N82" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O82" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P82" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>1143</v>
+        <v>1000</v>
       </c>
       <c r="T82" t="n">
         <v>7</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44235</v>
+        <v>44264</v>
       </c>
       <c r="E83" t="n">
         <v>9</v>
@@ -7000,20 +7000,20 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N83" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O83" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P83" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7022,11 +7022,11 @@
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S83" t="n">
-        <v>714</v>
+        <v>1000</v>
       </c>
       <c r="T83" t="n">
         <v>7</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44218</v>
+        <v>44301</v>
       </c>
       <c r="E84" t="n">
         <v>9</v>
@@ -7084,16 +7084,16 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>155</v>
+        <v>90</v>
       </c>
       <c r="N84" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O84" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="P84" t="n">
-        <v>7516</v>
+        <v>6194</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7102,11 +7102,11 @@
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S84" t="n">
-        <v>1074</v>
+        <v>885</v>
       </c>
       <c r="T84" t="n">
         <v>7</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44218</v>
+        <v>44251</v>
       </c>
       <c r="E85" t="n">
         <v>9</v>
@@ -7160,20 +7160,20 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="N85" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="O85" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P85" t="n">
-        <v>5500</v>
+        <v>7467</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>786</v>
+        <v>1067</v>
       </c>
       <c r="T85" t="n">
         <v>7</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44274</v>
+        <v>44251</v>
       </c>
       <c r="E86" t="n">
         <v>9</v>
@@ -7240,20 +7240,20 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="N86" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O86" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P86" t="n">
-        <v>6579</v>
+        <v>5000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>940</v>
+        <v>714</v>
       </c>
       <c r="T86" t="n">
         <v>7</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44291</v>
+        <v>44243</v>
       </c>
       <c r="E87" t="n">
         <v>9</v>
@@ -7324,16 +7324,16 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N87" t="n">
         <v>7000</v>
       </c>
       <c r="O87" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P87" t="n">
-        <v>7000</v>
+        <v>7450</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>1000</v>
+        <v>1064</v>
       </c>
       <c r="T87" t="n">
         <v>7</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44291</v>
+        <v>44243</v>
       </c>
       <c r="E88" t="n">
         <v>9</v>
@@ -7404,16 +7404,16 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N88" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O88" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P88" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>857</v>
+        <v>714</v>
       </c>
       <c r="T88" t="n">
         <v>7</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44215</v>
+        <v>44252</v>
       </c>
       <c r="E89" t="n">
         <v>9</v>
@@ -7484,7 +7484,7 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="N89" t="n">
         <v>7000</v>
@@ -7493,7 +7493,7 @@
         <v>8000</v>
       </c>
       <c r="P89" t="n">
-        <v>7542</v>
+        <v>7568</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>1077</v>
+        <v>1081</v>
       </c>
       <c r="T89" t="n">
         <v>7</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44194</v>
+        <v>44252</v>
       </c>
       <c r="E90" t="n">
         <v>9</v>
@@ -7560,33 +7560,33 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>600</v>
+        <v>85</v>
       </c>
       <c r="N90" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O90" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P90" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S90" t="n">
-        <v>1143</v>
+        <v>714</v>
       </c>
       <c r="T90" t="n">
         <v>7</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44194</v>
+        <v>44166</v>
       </c>
       <c r="E91" t="n">
         <v>9</v>
@@ -7647,13 +7647,13 @@
         <v>400</v>
       </c>
       <c r="N91" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O91" t="n">
         <v>8000</v>
       </c>
-      <c r="O91" t="n">
-        <v>9000</v>
-      </c>
       <c r="P91" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>1214</v>
+        <v>1071</v>
       </c>
       <c r="T91" t="n">
         <v>7</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44264</v>
+        <v>44168</v>
       </c>
       <c r="E92" t="n">
         <v>9</v>
@@ -7720,33 +7720,33 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N92" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O92" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P92" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S92" t="n">
-        <v>1000</v>
+        <v>1714</v>
       </c>
       <c r="T92" t="n">
         <v>7</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44263</v>
+        <v>44168</v>
       </c>
       <c r="E93" t="n">
         <v>9</v>
@@ -7804,29 +7804,29 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N93" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O93" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P93" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S93" t="n">
-        <v>1000</v>
+        <v>1429</v>
       </c>
       <c r="T93" t="n">
         <v>7</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44210</v>
+        <v>44369</v>
       </c>
       <c r="E94" t="n">
         <v>9</v>
@@ -7884,29 +7884,29 @@
         </is>
       </c>
       <c r="M94" t="n">
-        <v>500</v>
+        <v>25</v>
       </c>
       <c r="N94" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O94" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P94" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S94" t="n">
-        <v>1143</v>
+        <v>2143</v>
       </c>
       <c r="T94" t="n">
         <v>7</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44253</v>
+        <v>44221</v>
       </c>
       <c r="E95" t="n">
         <v>9</v>
@@ -7964,16 +7964,16 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N95" t="n">
         <v>7000</v>
       </c>
       <c r="O95" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P95" t="n">
-        <v>7417</v>
+        <v>7000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>1060</v>
+        <v>1000</v>
       </c>
       <c r="T95" t="n">
         <v>7</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44253</v>
+        <v>44277</v>
       </c>
       <c r="E96" t="n">
         <v>9</v>
@@ -8040,20 +8040,20 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N96" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O96" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P96" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>714</v>
+        <v>857</v>
       </c>
       <c r="T96" t="n">
         <v>7</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44301</v>
+        <v>44291</v>
       </c>
       <c r="E97" t="n">
         <v>9</v>
@@ -8124,16 +8124,16 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="N97" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O97" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="P97" t="n">
-        <v>6194</v>
+        <v>7000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8142,11 +8142,11 @@
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S97" t="n">
-        <v>885</v>
+        <v>1000</v>
       </c>
       <c r="T97" t="n">
         <v>7</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44244</v>
+        <v>44291</v>
       </c>
       <c r="E98" t="n">
         <v>9</v>
@@ -8200,20 +8200,20 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="N98" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O98" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P98" t="n">
-        <v>7462</v>
+        <v>6000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>1066</v>
+        <v>857</v>
       </c>
       <c r="T98" t="n">
         <v>7</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44244</v>
+        <v>44273</v>
       </c>
       <c r="E99" t="n">
         <v>9</v>
@@ -8280,20 +8280,20 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="N99" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O99" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P99" t="n">
-        <v>5000</v>
+        <v>6562</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>714</v>
+        <v>937</v>
       </c>
       <c r="T99" t="n">
         <v>7</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44237</v>
+        <v>44372</v>
       </c>
       <c r="E100" t="n">
         <v>9</v>
@@ -8364,29 +8364,29 @@
         </is>
       </c>
       <c r="M100" t="n">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="N100" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="O100" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="P100" t="n">
-        <v>7533</v>
+        <v>17000</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S100" t="n">
-        <v>1076</v>
+        <v>2429</v>
       </c>
       <c r="T100" t="n">
         <v>7</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44237</v>
+        <v>44286</v>
       </c>
       <c r="E101" t="n">
         <v>9</v>
@@ -8440,20 +8440,20 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M101" t="n">
         <v>35</v>
       </c>
       <c r="N101" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="O101" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P101" t="n">
-        <v>5000</v>
+        <v>6786</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>714</v>
+        <v>969</v>
       </c>
       <c r="T101" t="n">
         <v>7</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44369</v>
+        <v>44209</v>
       </c>
       <c r="E102" t="n">
         <v>9</v>
@@ -8524,29 +8524,29 @@
         </is>
       </c>
       <c r="M102" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N102" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O102" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P102" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S102" t="n">
-        <v>2143</v>
+        <v>1214</v>
       </c>
       <c r="T102" t="n">
         <v>7</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44257</v>
+        <v>44160</v>
       </c>
       <c r="E103" t="n">
         <v>9</v>
@@ -8604,16 +8604,16 @@
         </is>
       </c>
       <c r="M103" t="n">
-        <v>125</v>
+        <v>320</v>
       </c>
       <c r="N103" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="O103" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P103" t="n">
-        <v>7000</v>
+        <v>7734</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>1000</v>
+        <v>1105</v>
       </c>
       <c r="T103" t="n">
         <v>7</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44273</v>
+        <v>44215</v>
       </c>
       <c r="E104" t="n">
         <v>9</v>
@@ -8684,16 +8684,16 @@
         </is>
       </c>
       <c r="M104" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N104" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O104" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P104" t="n">
-        <v>6562</v>
+        <v>7542</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>937</v>
+        <v>1077</v>
       </c>
       <c r="T104" t="n">
         <v>7</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44294</v>
+        <v>44175</v>
       </c>
       <c r="E105" t="n">
         <v>9</v>
@@ -8764,16 +8764,16 @@
         </is>
       </c>
       <c r="M105" t="n">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="N105" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O105" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P105" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>1000</v>
+        <v>1286</v>
       </c>
       <c r="T105" t="n">
         <v>7</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44302</v>
+        <v>44203</v>
       </c>
       <c r="E106" t="n">
         <v>9</v>
@@ -8844,16 +8844,16 @@
         </is>
       </c>
       <c r="M106" t="n">
-        <v>55</v>
+        <v>175</v>
       </c>
       <c r="N106" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O106" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P106" t="n">
-        <v>6000</v>
+        <v>7543</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>857</v>
+        <v>1078</v>
       </c>
       <c r="T106" t="n">
         <v>7</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44161</v>
+        <v>44203</v>
       </c>
       <c r="E107" t="n">
         <v>9</v>
@@ -8920,33 +8920,33 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>550</v>
+        <v>65</v>
       </c>
       <c r="N107" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="O107" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="P107" t="n">
-        <v>9455</v>
+        <v>5500</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S107" t="n">
-        <v>1351</v>
+        <v>786</v>
       </c>
       <c r="T107" t="n">
         <v>7</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44161</v>
+        <v>44162</v>
       </c>
       <c r="E108" t="n">
         <v>9</v>
@@ -9007,26 +9007,26 @@
         <v>305</v>
       </c>
       <c r="N108" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="O108" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P108" t="n">
-        <v>6705</v>
+        <v>9410</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S108" t="n">
-        <v>958</v>
+        <v>1344</v>
       </c>
       <c r="T108" t="n">
         <v>7</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44161</v>
+        <v>44162</v>
       </c>
       <c r="E109" t="n">
         <v>9</v>
@@ -9080,20 +9080,20 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="N109" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="O109" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="P109" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>571</v>
+        <v>1071</v>
       </c>
       <c r="T109" t="n">
         <v>7</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44251</v>
+        <v>44162</v>
       </c>
       <c r="E110" t="n">
         <v>9</v>
@@ -9160,33 +9160,33 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="N110" t="n">
         <v>7000</v>
       </c>
       <c r="O110" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P110" t="n">
-        <v>7467</v>
+        <v>7000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S110" t="n">
-        <v>1067</v>
+        <v>1000</v>
       </c>
       <c r="T110" t="n">
         <v>7</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44251</v>
+        <v>44257</v>
       </c>
       <c r="E111" t="n">
         <v>9</v>
@@ -9240,20 +9240,20 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M111" t="n">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="N111" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O111" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P111" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         </is>
       </c>
       <c r="S111" t="n">
-        <v>714</v>
+        <v>1000</v>
       </c>
       <c r="T111" t="n">
         <v>7</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44175</v>
+        <v>44244</v>
       </c>
       <c r="E112" t="n">
         <v>9</v>
@@ -9324,16 +9324,16 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="N112" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O112" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P112" t="n">
-        <v>9000</v>
+        <v>7462</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>1286</v>
+        <v>1066</v>
       </c>
       <c r="T112" t="n">
         <v>7</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44223</v>
+        <v>44244</v>
       </c>
       <c r="E113" t="n">
         <v>9</v>
@@ -9400,20 +9400,20 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="N113" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O113" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P113" t="n">
-        <v>7385</v>
+        <v>5000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>1055</v>
+        <v>714</v>
       </c>
       <c r="T113" t="n">
         <v>7</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44238</v>
+        <v>44211</v>
       </c>
       <c r="E114" t="n">
         <v>9</v>
@@ -9484,7 +9484,7 @@
         </is>
       </c>
       <c r="M114" t="n">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="N114" t="n">
         <v>7000</v>
@@ -9493,7 +9493,7 @@
         <v>8000</v>
       </c>
       <c r="P114" t="n">
-        <v>7532</v>
+        <v>7556</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -9502,11 +9502,11 @@
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S114" t="n">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="T114" t="n">
         <v>7</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44238</v>
+        <v>44323</v>
       </c>
       <c r="E115" t="n">
         <v>9</v>
@@ -9560,35 +9560,115 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>40</v>
+      </c>
+      <c r="N115" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O115" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P115" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>$/caja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="S115" t="n">
+        <v>1286</v>
+      </c>
+      <c r="T115" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>10</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E116" t="n">
+        <v>9</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M115" t="n">
-        <v>85</v>
-      </c>
-      <c r="N115" t="n">
+      <c r="M116" t="n">
+        <v>30</v>
+      </c>
+      <c r="N116" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O116" t="n">
         <v>5000</v>
       </c>
-      <c r="O115" t="n">
-        <v>5000</v>
-      </c>
-      <c r="P115" t="n">
-        <v>5000</v>
-      </c>
-      <c r="Q115" t="inlineStr">
+      <c r="P116" t="n">
+        <v>4500</v>
+      </c>
+      <c r="Q116" t="inlineStr">
         <is>
           <t>$/caja 7 kilos</t>
         </is>
       </c>
-      <c r="R115" t="inlineStr">
-        <is>
-          <t>Provincia de Cautín</t>
-        </is>
-      </c>
-      <c r="S115" t="n">
-        <v>714</v>
-      </c>
-      <c r="T115" t="n">
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="S116" t="n">
+        <v>643</v>
+      </c>
+      <c r="T116" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T116"/>
+  <dimension ref="A1:T118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44242</v>
+        <v>44364</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2204,29 +2204,29 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="N23" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O23" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P23" t="n">
-        <v>7448</v>
+        <v>20000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1064</v>
+        <v>2857</v>
       </c>
       <c r="T23" t="n">
         <v>7</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="N24" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O24" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P24" t="n">
-        <v>5000</v>
+        <v>7448</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>714</v>
+        <v>1064</v>
       </c>
       <c r="T24" t="n">
         <v>7</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44258</v>
+        <v>44242</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N25" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O25" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P25" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1000</v>
+        <v>714</v>
       </c>
       <c r="T25" t="n">
         <v>7</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44159</v>
+        <v>44258</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2444,29 +2444,29 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>550</v>
+        <v>65</v>
       </c>
       <c r="N26" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O26" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P26" t="n">
-        <v>9455</v>
+        <v>7000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1351</v>
+        <v>1000</v>
       </c>
       <c r="T26" t="n">
         <v>7</v>
@@ -2524,29 +2524,29 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>375</v>
+        <v>550</v>
       </c>
       <c r="N27" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O27" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P27" t="n">
-        <v>7760</v>
+        <v>9455</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1109</v>
+        <v>1351</v>
       </c>
       <c r="T27" t="n">
         <v>7</v>
@@ -2600,33 +2600,33 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>155</v>
+        <v>375</v>
       </c>
       <c r="N28" t="n">
         <v>7500</v>
       </c>
       <c r="O28" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="P28" t="n">
-        <v>7500</v>
+        <v>7760</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1071</v>
+        <v>1109</v>
       </c>
       <c r="T28" t="n">
         <v>7</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44302</v>
+        <v>44159</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2680,33 +2680,33 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="N29" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="O29" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="P29" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>857</v>
+        <v>1071</v>
       </c>
       <c r="T29" t="n">
         <v>7</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44232</v>
+        <v>44302</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="N30" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O30" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P30" t="n">
-        <v>7550</v>
+        <v>6000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1079</v>
+        <v>857</v>
       </c>
       <c r="T30" t="n">
         <v>7</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44224</v>
+        <v>44459</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2840,33 +2840,33 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="N31" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="O31" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P31" t="n">
-        <v>7500</v>
+        <v>16000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1071</v>
+        <v>2286</v>
       </c>
       <c r="T31" t="n">
         <v>7</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44195</v>
+        <v>44232</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2924,29 +2924,29 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="N32" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O32" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P32" t="n">
-        <v>12583</v>
+        <v>7550</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1798</v>
+        <v>1079</v>
       </c>
       <c r="T32" t="n">
         <v>7</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N33" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O33" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P33" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1429</v>
+        <v>1071</v>
       </c>
       <c r="T33" t="n">
         <v>7</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44188</v>
+        <v>44195</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>90</v>
+        <v>240</v>
       </c>
       <c r="N34" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O34" t="n">
         <v>13000</v>
       </c>
       <c r="P34" t="n">
-        <v>13000</v>
+        <v>12583</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1857</v>
+        <v>1798</v>
       </c>
       <c r="T34" t="n">
         <v>7</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44263</v>
+        <v>44195</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3167,13 +3167,13 @@
         <v>200</v>
       </c>
       <c r="N35" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O35" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P35" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1000</v>
+        <v>1429</v>
       </c>
       <c r="T35" t="n">
         <v>7</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44272</v>
+        <v>44188</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3244,29 +3244,29 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="N36" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O36" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P36" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1000</v>
+        <v>1857</v>
       </c>
       <c r="T36" t="n">
         <v>7</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44271</v>
+        <v>44263</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3324,7 +3324,7 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="N37" t="n">
         <v>7000</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44333</v>
+        <v>44272</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N38" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O38" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P38" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1143</v>
+        <v>1000</v>
       </c>
       <c r="T38" t="n">
         <v>7</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44238</v>
+        <v>44271</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>235</v>
+        <v>65</v>
       </c>
       <c r="N39" t="n">
         <v>7000</v>
       </c>
       <c r="O39" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P39" t="n">
-        <v>7532</v>
+        <v>7000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3502,11 +3502,11 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1076</v>
+        <v>1000</v>
       </c>
       <c r="T39" t="n">
         <v>7</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44238</v>
+        <v>44333</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="N40" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O40" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P40" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3582,11 +3582,11 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>714</v>
+        <v>1143</v>
       </c>
       <c r="T40" t="n">
         <v>7</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44284</v>
+        <v>44238</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>65</v>
+        <v>235</v>
       </c>
       <c r="N41" t="n">
         <v>7000</v>
       </c>
       <c r="O41" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P41" t="n">
-        <v>7000</v>
+        <v>7532</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1000</v>
+        <v>1076</v>
       </c>
       <c r="T41" t="n">
         <v>7</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44216</v>
+        <v>44238</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="N42" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O42" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P42" t="n">
-        <v>7579</v>
+        <v>5000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3742,11 +3742,11 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1083</v>
+        <v>714</v>
       </c>
       <c r="T42" t="n">
         <v>7</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44216</v>
+        <v>44284</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N43" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O43" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P43" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3822,11 +3822,11 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>714</v>
+        <v>1000</v>
       </c>
       <c r="T43" t="n">
         <v>7</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44253</v>
+        <v>44216</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3884,7 +3884,7 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="N44" t="n">
         <v>7000</v>
@@ -3893,7 +3893,7 @@
         <v>8000</v>
       </c>
       <c r="P44" t="n">
-        <v>7417</v>
+        <v>7579</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1060</v>
+        <v>1083</v>
       </c>
       <c r="T44" t="n">
         <v>7</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44253</v>
+        <v>44216</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3964,7 +3964,7 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N45" t="n">
         <v>5000</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44245</v>
+        <v>44253</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -4044,7 +4044,7 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="N46" t="n">
         <v>7000</v>
@@ -4053,7 +4053,7 @@
         <v>8000</v>
       </c>
       <c r="P46" t="n">
-        <v>7360</v>
+        <v>7417</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1051</v>
+        <v>1060</v>
       </c>
       <c r="T46" t="n">
         <v>7</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44245</v>
+        <v>44253</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -4124,7 +4124,7 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N47" t="n">
         <v>5000</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44225</v>
+        <v>44245</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="N48" t="n">
         <v>7000</v>
@@ -4213,7 +4213,7 @@
         <v>8000</v>
       </c>
       <c r="P48" t="n">
-        <v>7500</v>
+        <v>7360</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1071</v>
+        <v>1051</v>
       </c>
       <c r="T48" t="n">
         <v>7</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44218</v>
+        <v>44245</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -4280,20 +4280,20 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="N49" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O49" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P49" t="n">
-        <v>7516</v>
+        <v>5000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1074</v>
+        <v>714</v>
       </c>
       <c r="T49" t="n">
         <v>7</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44218</v>
+        <v>44225</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -4360,20 +4360,20 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="N50" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="O50" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P50" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>786</v>
+        <v>1071</v>
       </c>
       <c r="T50" t="n">
         <v>7</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44223</v>
+        <v>44218</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4444,7 +4444,7 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="N51" t="n">
         <v>7000</v>
@@ -4453,7 +4453,7 @@
         <v>8000</v>
       </c>
       <c r="P51" t="n">
-        <v>7385</v>
+        <v>7516</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1055</v>
+        <v>1074</v>
       </c>
       <c r="T51" t="n">
         <v>7</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44246</v>
+        <v>44218</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4520,20 +4520,20 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N52" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="O52" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="P52" t="n">
-        <v>7417</v>
+        <v>5500</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1060</v>
+        <v>786</v>
       </c>
       <c r="T52" t="n">
         <v>7</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44246</v>
+        <v>44223</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4600,20 +4600,20 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="N53" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O53" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P53" t="n">
-        <v>5000</v>
+        <v>7385</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>714</v>
+        <v>1055</v>
       </c>
       <c r="T53" t="n">
         <v>7</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44161</v>
+        <v>44246</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4684,29 +4684,29 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>550</v>
+        <v>60</v>
       </c>
       <c r="N54" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O54" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P54" t="n">
-        <v>9455</v>
+        <v>7417</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S54" t="n">
-        <v>1351</v>
+        <v>1060</v>
       </c>
       <c r="T54" t="n">
         <v>7</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44161</v>
+        <v>44246</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4760,20 +4760,20 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>305</v>
+        <v>50</v>
       </c>
       <c r="N55" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="O55" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P55" t="n">
-        <v>6705</v>
+        <v>5000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>958</v>
+        <v>714</v>
       </c>
       <c r="T55" t="n">
         <v>7</v>
@@ -4840,33 +4840,33 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>180</v>
+        <v>550</v>
       </c>
       <c r="N56" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O56" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="P56" t="n">
-        <v>4000</v>
+        <v>9455</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S56" t="n">
-        <v>571</v>
+        <v>1351</v>
       </c>
       <c r="T56" t="n">
         <v>7</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44307</v>
+        <v>44161</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4920,20 +4920,20 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>30</v>
+        <v>305</v>
       </c>
       <c r="N57" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="O57" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P57" t="n">
-        <v>5000</v>
+        <v>6705</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>714</v>
+        <v>958</v>
       </c>
       <c r="T57" t="n">
         <v>7</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44193</v>
+        <v>44161</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -5000,20 +5000,20 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N58" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="O58" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="P58" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>1429</v>
+        <v>571</v>
       </c>
       <c r="T58" t="n">
         <v>7</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44193</v>
+        <v>44307</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -5084,16 +5084,16 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="N59" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O59" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P59" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>1286</v>
+        <v>714</v>
       </c>
       <c r="T59" t="n">
         <v>7</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44274</v>
+        <v>44193</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -5164,16 +5164,16 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="N60" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O60" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P60" t="n">
-        <v>6579</v>
+        <v>10000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>940</v>
+        <v>1429</v>
       </c>
       <c r="T60" t="n">
         <v>7</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44200</v>
+        <v>44193</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -5240,20 +5240,20 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="N61" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O61" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P61" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5262,11 +5262,11 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S61" t="n">
-        <v>1000</v>
+        <v>1286</v>
       </c>
       <c r="T61" t="n">
         <v>7</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44200</v>
+        <v>44274</v>
       </c>
       <c r="E62" t="n">
         <v>9</v>
@@ -5320,20 +5320,20 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M62" t="n">
         <v>95</v>
       </c>
       <c r="N62" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="O62" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="P62" t="n">
-        <v>5500</v>
+        <v>6579</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5342,11 +5342,11 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S62" t="n">
-        <v>786</v>
+        <v>940</v>
       </c>
       <c r="T62" t="n">
         <v>7</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44214</v>
+        <v>44200</v>
       </c>
       <c r="E63" t="n">
         <v>9</v>
@@ -5404,16 +5404,16 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="N63" t="n">
         <v>7000</v>
       </c>
       <c r="O63" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P63" t="n">
-        <v>7455</v>
+        <v>7000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5422,11 +5422,11 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S63" t="n">
-        <v>1065</v>
+        <v>1000</v>
       </c>
       <c r="T63" t="n">
         <v>7</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44214</v>
+        <v>44200</v>
       </c>
       <c r="E64" t="n">
         <v>9</v>
@@ -5484,16 +5484,16 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="N64" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="O64" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="P64" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5502,11 +5502,11 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S64" t="n">
-        <v>643</v>
+        <v>786</v>
       </c>
       <c r="T64" t="n">
         <v>7</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44237</v>
+        <v>44214</v>
       </c>
       <c r="E65" t="n">
         <v>9</v>
@@ -5564,7 +5564,7 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="N65" t="n">
         <v>7000</v>
@@ -5573,7 +5573,7 @@
         <v>8000</v>
       </c>
       <c r="P65" t="n">
-        <v>7533</v>
+        <v>7455</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5582,11 +5582,11 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S65" t="n">
-        <v>1076</v>
+        <v>1065</v>
       </c>
       <c r="T65" t="n">
         <v>7</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44237</v>
+        <v>44214</v>
       </c>
       <c r="E66" t="n">
         <v>9</v>
@@ -5644,16 +5644,16 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N66" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="O66" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="P66" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5662,11 +5662,11 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S66" t="n">
-        <v>714</v>
+        <v>643</v>
       </c>
       <c r="T66" t="n">
         <v>7</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44285</v>
+        <v>44237</v>
       </c>
       <c r="E67" t="n">
         <v>9</v>
@@ -5724,16 +5724,16 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="N67" t="n">
         <v>7000</v>
       </c>
       <c r="O67" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P67" t="n">
-        <v>7000</v>
+        <v>7533</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5742,11 +5742,11 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S67" t="n">
-        <v>1000</v>
+        <v>1076</v>
       </c>
       <c r="T67" t="n">
         <v>7</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44210</v>
+        <v>44237</v>
       </c>
       <c r="E68" t="n">
         <v>9</v>
@@ -5800,20 +5800,20 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>500</v>
+        <v>35</v>
       </c>
       <c r="N68" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O68" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P68" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5822,11 +5822,11 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S68" t="n">
-        <v>1143</v>
+        <v>714</v>
       </c>
       <c r="T68" t="n">
         <v>7</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44217</v>
+        <v>44285</v>
       </c>
       <c r="E69" t="n">
         <v>9</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>235</v>
+        <v>55</v>
       </c>
       <c r="N69" t="n">
         <v>7000</v>
       </c>
       <c r="O69" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P69" t="n">
-        <v>7532</v>
+        <v>7000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>1076</v>
+        <v>1000</v>
       </c>
       <c r="T69" t="n">
         <v>7</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44217</v>
+        <v>44210</v>
       </c>
       <c r="E70" t="n">
         <v>9</v>
@@ -5960,20 +5960,20 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>85</v>
+        <v>500</v>
       </c>
       <c r="N70" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="O70" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P70" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>786</v>
+        <v>1143</v>
       </c>
       <c r="T70" t="n">
         <v>7</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44165</v>
+        <v>44217</v>
       </c>
       <c r="E71" t="n">
         <v>9</v>
@@ -6040,33 +6040,33 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>50</v>
+        <v>235</v>
       </c>
       <c r="N71" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O71" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P71" t="n">
-        <v>11000</v>
+        <v>7532</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S71" t="n">
-        <v>1571</v>
+        <v>1076</v>
       </c>
       <c r="T71" t="n">
         <v>7</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44165</v>
+        <v>44217</v>
       </c>
       <c r="E72" t="n">
         <v>9</v>
@@ -6120,33 +6120,33 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>700</v>
+        <v>85</v>
       </c>
       <c r="N72" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="O72" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="P72" t="n">
-        <v>9571</v>
+        <v>5500</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S72" t="n">
-        <v>1367</v>
+        <v>786</v>
       </c>
       <c r="T72" t="n">
         <v>7</v>
@@ -6200,20 +6200,20 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="N73" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O73" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P73" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>1357</v>
+        <v>1571</v>
       </c>
       <c r="T73" t="n">
         <v>7</v>
@@ -6284,29 +6284,29 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N74" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O74" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P74" t="n">
-        <v>8500</v>
+        <v>9571</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S74" t="n">
-        <v>1214</v>
+        <v>1367</v>
       </c>
       <c r="T74" t="n">
         <v>7</v>
@@ -6360,20 +6360,20 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="N75" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O75" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P75" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6382,11 +6382,11 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S75" t="n">
-        <v>1000</v>
+        <v>1357</v>
       </c>
       <c r="T75" t="n">
         <v>7</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44249</v>
+        <v>44165</v>
       </c>
       <c r="E76" t="n">
         <v>9</v>
@@ -6444,16 +6444,16 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="N76" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O76" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P76" t="n">
-        <v>7458</v>
+        <v>8500</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6462,11 +6462,11 @@
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S76" t="n">
-        <v>1065</v>
+        <v>1214</v>
       </c>
       <c r="T76" t="n">
         <v>7</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44249</v>
+        <v>44165</v>
       </c>
       <c r="E77" t="n">
         <v>9</v>
@@ -6524,29 +6524,29 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="N77" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O77" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P77" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S77" t="n">
-        <v>714</v>
+        <v>1000</v>
       </c>
       <c r="T77" t="n">
         <v>7</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44201</v>
+        <v>44249</v>
       </c>
       <c r="E78" t="n">
         <v>9</v>
@@ -6604,16 +6604,16 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="N78" t="n">
         <v>7000</v>
       </c>
       <c r="O78" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P78" t="n">
-        <v>7000</v>
+        <v>7458</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>1000</v>
+        <v>1065</v>
       </c>
       <c r="T78" t="n">
         <v>7</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44280</v>
+        <v>44249</v>
       </c>
       <c r="E79" t="n">
         <v>9</v>
@@ -6680,20 +6680,20 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="N79" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O79" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P79" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6702,11 +6702,11 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S79" t="n">
-        <v>1000</v>
+        <v>714</v>
       </c>
       <c r="T79" t="n">
         <v>7</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44270</v>
+        <v>44201</v>
       </c>
       <c r="E80" t="n">
         <v>9</v>
@@ -6782,7 +6782,7 @@
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S80" t="n">
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44260</v>
+        <v>44280</v>
       </c>
       <c r="E81" t="n">
         <v>9</v>
@@ -6844,7 +6844,7 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="N81" t="n">
         <v>7000</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44312</v>
+        <v>44270</v>
       </c>
       <c r="E82" t="n">
         <v>9</v>
@@ -6942,7 +6942,7 @@
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S82" t="n">
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44264</v>
+        <v>44260</v>
       </c>
       <c r="E83" t="n">
         <v>9</v>
@@ -7004,7 +7004,7 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="N83" t="n">
         <v>7000</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44301</v>
+        <v>44312</v>
       </c>
       <c r="E84" t="n">
         <v>9</v>
@@ -7084,16 +7084,16 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="N84" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O84" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="P84" t="n">
-        <v>6194</v>
+        <v>7000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>885</v>
+        <v>1000</v>
       </c>
       <c r="T84" t="n">
         <v>7</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44251</v>
+        <v>44264</v>
       </c>
       <c r="E85" t="n">
         <v>9</v>
@@ -7164,16 +7164,16 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N85" t="n">
         <v>7000</v>
       </c>
       <c r="O85" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P85" t="n">
-        <v>7467</v>
+        <v>7000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>1067</v>
+        <v>1000</v>
       </c>
       <c r="T85" t="n">
         <v>7</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E86" t="n">
         <v>9</v>
@@ -7240,20 +7240,20 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="N86" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O86" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="P86" t="n">
-        <v>5000</v>
+        <v>6194</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7262,11 +7262,11 @@
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S86" t="n">
-        <v>714</v>
+        <v>885</v>
       </c>
       <c r="T86" t="n">
         <v>7</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E87" t="n">
         <v>9</v>
@@ -7324,7 +7324,7 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="N87" t="n">
         <v>7000</v>
@@ -7333,7 +7333,7 @@
         <v>8000</v>
       </c>
       <c r="P87" t="n">
-        <v>7450</v>
+        <v>7467</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="T87" t="n">
         <v>7</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E88" t="n">
         <v>9</v>
@@ -7404,7 +7404,7 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N88" t="n">
         <v>5000</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E89" t="n">
         <v>9</v>
@@ -7484,7 +7484,7 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="N89" t="n">
         <v>7000</v>
@@ -7493,7 +7493,7 @@
         <v>8000</v>
       </c>
       <c r="P89" t="n">
-        <v>7568</v>
+        <v>7450</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>1081</v>
+        <v>1064</v>
       </c>
       <c r="T89" t="n">
         <v>7</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E90" t="n">
         <v>9</v>
@@ -7564,7 +7564,7 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="N90" t="n">
         <v>5000</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E91" t="n">
         <v>9</v>
@@ -7644,7 +7644,7 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>400</v>
+        <v>220</v>
       </c>
       <c r="N91" t="n">
         <v>7000</v>
@@ -7653,7 +7653,7 @@
         <v>8000</v>
       </c>
       <c r="P91" t="n">
-        <v>7500</v>
+        <v>7568</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>1071</v>
+        <v>1081</v>
       </c>
       <c r="T91" t="n">
         <v>7</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E92" t="n">
         <v>9</v>
@@ -7720,33 +7720,33 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>200</v>
+        <v>85</v>
       </c>
       <c r="N92" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O92" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P92" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S92" t="n">
-        <v>1714</v>
+        <v>714</v>
       </c>
       <c r="T92" t="n">
         <v>7</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E93" t="n">
         <v>9</v>
@@ -7804,29 +7804,29 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N93" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O93" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P93" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S93" t="n">
-        <v>1429</v>
+        <v>1071</v>
       </c>
       <c r="T93" t="n">
         <v>7</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E94" t="n">
         <v>9</v>
@@ -7880,20 +7880,20 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="N94" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O94" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P94" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7902,11 +7902,11 @@
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S94" t="n">
-        <v>2143</v>
+        <v>1714</v>
       </c>
       <c r="T94" t="n">
         <v>7</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44221</v>
+        <v>44168</v>
       </c>
       <c r="E95" t="n">
         <v>9</v>
@@ -7964,29 +7964,29 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="N95" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O95" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P95" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S95" t="n">
-        <v>1000</v>
+        <v>1429</v>
       </c>
       <c r="T95" t="n">
         <v>7</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44277</v>
+        <v>44369</v>
       </c>
       <c r="E96" t="n">
         <v>9</v>
@@ -8044,29 +8044,29 @@
         </is>
       </c>
       <c r="M96" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="N96" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="O96" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="P96" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S96" t="n">
-        <v>857</v>
+        <v>2143</v>
       </c>
       <c r="T96" t="n">
         <v>7</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44291</v>
+        <v>44221</v>
       </c>
       <c r="E97" t="n">
         <v>9</v>
@@ -8124,7 +8124,7 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N97" t="n">
         <v>7000</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E98" t="n">
         <v>9</v>
@@ -8200,11 +8200,11 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N98" t="n">
         <v>6000</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E99" t="n">
         <v>9</v>
@@ -8284,16 +8284,16 @@
         </is>
       </c>
       <c r="M99" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N99" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O99" t="n">
         <v>7000</v>
       </c>
       <c r="P99" t="n">
-        <v>6562</v>
+        <v>7000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>937</v>
+        <v>1000</v>
       </c>
       <c r="T99" t="n">
         <v>7</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44372</v>
+        <v>44291</v>
       </c>
       <c r="E100" t="n">
         <v>9</v>
@@ -8360,33 +8360,33 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N100" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="O100" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="P100" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S100" t="n">
-        <v>2429</v>
+        <v>857</v>
       </c>
       <c r="T100" t="n">
         <v>7</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44286</v>
+        <v>44273</v>
       </c>
       <c r="E101" t="n">
         <v>9</v>
@@ -8444,16 +8444,16 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="N101" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="O101" t="n">
         <v>7000</v>
       </c>
       <c r="P101" t="n">
-        <v>6786</v>
+        <v>6562</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8462,11 +8462,11 @@
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S101" t="n">
-        <v>969</v>
+        <v>937</v>
       </c>
       <c r="T101" t="n">
         <v>7</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E102" t="n">
         <v>9</v>
@@ -8524,29 +8524,29 @@
         </is>
       </c>
       <c r="M102" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="N102" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="O102" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="P102" t="n">
-        <v>8500</v>
+        <v>17000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S102" t="n">
-        <v>1214</v>
+        <v>2429</v>
       </c>
       <c r="T102" t="n">
         <v>7</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44160</v>
+        <v>44286</v>
       </c>
       <c r="E103" t="n">
         <v>9</v>
@@ -8604,16 +8604,16 @@
         </is>
       </c>
       <c r="M103" t="n">
-        <v>320</v>
+        <v>35</v>
       </c>
       <c r="N103" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="O103" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P103" t="n">
-        <v>7734</v>
+        <v>6786</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -8622,11 +8622,11 @@
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S103" t="n">
-        <v>1105</v>
+        <v>969</v>
       </c>
       <c r="T103" t="n">
         <v>7</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44215</v>
+        <v>44209</v>
       </c>
       <c r="E104" t="n">
         <v>9</v>
@@ -8684,16 +8684,16 @@
         </is>
       </c>
       <c r="M104" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N104" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O104" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P104" t="n">
-        <v>7542</v>
+        <v>8500</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>1077</v>
+        <v>1214</v>
       </c>
       <c r="T104" t="n">
         <v>7</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44175</v>
+        <v>44160</v>
       </c>
       <c r="E105" t="n">
         <v>9</v>
@@ -8764,16 +8764,16 @@
         </is>
       </c>
       <c r="M105" t="n">
-        <v>155</v>
+        <v>320</v>
       </c>
       <c r="N105" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="O105" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P105" t="n">
-        <v>9000</v>
+        <v>7734</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>1286</v>
+        <v>1105</v>
       </c>
       <c r="T105" t="n">
         <v>7</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44203</v>
+        <v>44215</v>
       </c>
       <c r="E106" t="n">
         <v>9</v>
@@ -8844,7 +8844,7 @@
         </is>
       </c>
       <c r="M106" t="n">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="N106" t="n">
         <v>7000</v>
@@ -8853,7 +8853,7 @@
         <v>8000</v>
       </c>
       <c r="P106" t="n">
-        <v>7543</v>
+        <v>7542</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8862,11 +8862,11 @@
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S106" t="n">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="T106" t="n">
         <v>7</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44203</v>
+        <v>44175</v>
       </c>
       <c r="E107" t="n">
         <v>9</v>
@@ -8920,20 +8920,20 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="N107" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="O107" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="P107" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8942,11 +8942,11 @@
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S107" t="n">
-        <v>786</v>
+        <v>1286</v>
       </c>
       <c r="T107" t="n">
         <v>7</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E108" t="n">
         <v>9</v>
@@ -9004,29 +9004,29 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>305</v>
+        <v>175</v>
       </c>
       <c r="N108" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O108" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P108" t="n">
-        <v>9410</v>
+        <v>7543</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S108" t="n">
-        <v>1344</v>
+        <v>1078</v>
       </c>
       <c r="T108" t="n">
         <v>7</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E109" t="n">
         <v>9</v>
@@ -9080,20 +9080,20 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="N109" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="O109" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="P109" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9102,11 +9102,11 @@
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S109" t="n">
-        <v>1071</v>
+        <v>786</v>
       </c>
       <c r="T109" t="n">
         <v>7</v>
@@ -9160,20 +9160,20 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>110</v>
+        <v>305</v>
       </c>
       <c r="N110" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O110" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P110" t="n">
-        <v>7000</v>
+        <v>9410</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         </is>
       </c>
       <c r="S110" t="n">
-        <v>1000</v>
+        <v>1344</v>
       </c>
       <c r="T110" t="n">
         <v>7</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44257</v>
+        <v>44162</v>
       </c>
       <c r="E111" t="n">
         <v>9</v>
@@ -9244,16 +9244,16 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="N111" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="O111" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="P111" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         </is>
       </c>
       <c r="S111" t="n">
-        <v>1000</v>
+        <v>1071</v>
       </c>
       <c r="T111" t="n">
         <v>7</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44244</v>
+        <v>44162</v>
       </c>
       <c r="E112" t="n">
         <v>9</v>
@@ -9320,33 +9320,33 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M112" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="N112" t="n">
         <v>7000</v>
       </c>
       <c r="O112" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P112" t="n">
-        <v>7462</v>
+        <v>7000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S112" t="n">
-        <v>1066</v>
+        <v>1000</v>
       </c>
       <c r="T112" t="n">
         <v>7</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E113" t="n">
         <v>9</v>
@@ -9400,20 +9400,20 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="N113" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O113" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P113" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>714</v>
+        <v>1000</v>
       </c>
       <c r="T113" t="n">
         <v>7</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44211</v>
+        <v>44244</v>
       </c>
       <c r="E114" t="n">
         <v>9</v>
@@ -9484,7 +9484,7 @@
         </is>
       </c>
       <c r="M114" t="n">
-        <v>270</v>
+        <v>130</v>
       </c>
       <c r="N114" t="n">
         <v>7000</v>
@@ -9493,7 +9493,7 @@
         <v>8000</v>
       </c>
       <c r="P114" t="n">
-        <v>7556</v>
+        <v>7462</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>1079</v>
+        <v>1066</v>
       </c>
       <c r="T114" t="n">
         <v>7</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44323</v>
+        <v>44244</v>
       </c>
       <c r="E115" t="n">
         <v>9</v>
@@ -9560,20 +9560,20 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N115" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O115" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P115" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>1286</v>
+        <v>714</v>
       </c>
       <c r="T115" t="n">
         <v>7</v>
@@ -9607,68 +9607,228 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
+        <v>44211</v>
+      </c>
+      <c r="E116" t="n">
+        <v>9</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>270</v>
+      </c>
+      <c r="N116" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O116" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P116" t="n">
+        <v>7556</v>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>$/caja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="S116" t="n">
+        <v>1079</v>
+      </c>
+      <c r="T116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>10</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D117" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E116" t="n">
-        <v>9</v>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G116" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I116" t="n">
-        <v>100112025</v>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>Frutilla</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L116" t="inlineStr">
+      <c r="E117" t="n">
+        <v>9</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>40</v>
+      </c>
+      <c r="N117" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O117" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P117" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>$/caja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="S117" t="n">
+        <v>1286</v>
+      </c>
+      <c r="T117" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>10</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E118" t="n">
+        <v>9</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M116" t="n">
+      <c r="M118" t="n">
         <v>30</v>
       </c>
-      <c r="N116" t="n">
+      <c r="N118" t="n">
         <v>4000</v>
       </c>
-      <c r="O116" t="n">
+      <c r="O118" t="n">
         <v>5000</v>
       </c>
-      <c r="P116" t="n">
+      <c r="P118" t="n">
         <v>4500</v>
       </c>
-      <c r="Q116" t="inlineStr">
+      <c r="Q118" t="inlineStr">
         <is>
           <t>$/caja 7 kilos</t>
         </is>
       </c>
-      <c r="R116" t="inlineStr">
+      <c r="R118" t="inlineStr">
         <is>
           <t>Región de La Araucanía</t>
         </is>
       </c>
-      <c r="S116" t="n">
+      <c r="S118" t="n">
         <v>643</v>
       </c>
-      <c r="T116" t="n">
+      <c r="T118" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T118"/>
+  <dimension ref="A1:T120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44165</v>
+        <v>44460</v>
       </c>
       <c r="E73" t="n">
         <v>9</v>
@@ -6200,20 +6200,20 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M73" t="n">
         <v>50</v>
       </c>
       <c r="N73" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O73" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="P73" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6222,11 +6222,11 @@
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S73" t="n">
-        <v>1571</v>
+        <v>2857</v>
       </c>
       <c r="T73" t="n">
         <v>7</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44165</v>
+        <v>44460</v>
       </c>
       <c r="E74" t="n">
         <v>9</v>
@@ -6280,20 +6280,20 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>700</v>
+        <v>20</v>
       </c>
       <c r="N74" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O74" t="n">
         <v>10000</v>
       </c>
       <c r="P74" t="n">
-        <v>9571</v>
+        <v>10000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>1367</v>
+        <v>1429</v>
       </c>
       <c r="T74" t="n">
         <v>7</v>
@@ -6360,20 +6360,20 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="N75" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O75" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P75" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>1357</v>
+        <v>1571</v>
       </c>
       <c r="T75" t="n">
         <v>7</v>
@@ -6444,29 +6444,29 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N76" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O76" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P76" t="n">
-        <v>8500</v>
+        <v>9571</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S76" t="n">
-        <v>1214</v>
+        <v>1367</v>
       </c>
       <c r="T76" t="n">
         <v>7</v>
@@ -6520,20 +6520,20 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="N77" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O77" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P77" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6542,11 +6542,11 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S77" t="n">
-        <v>1000</v>
+        <v>1357</v>
       </c>
       <c r="T77" t="n">
         <v>7</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44249</v>
+        <v>44165</v>
       </c>
       <c r="E78" t="n">
         <v>9</v>
@@ -6604,16 +6604,16 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="N78" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O78" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P78" t="n">
-        <v>7458</v>
+        <v>8500</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6622,11 +6622,11 @@
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S78" t="n">
-        <v>1065</v>
+        <v>1214</v>
       </c>
       <c r="T78" t="n">
         <v>7</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44249</v>
+        <v>44165</v>
       </c>
       <c r="E79" t="n">
         <v>9</v>
@@ -6684,29 +6684,29 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="N79" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O79" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P79" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S79" t="n">
-        <v>714</v>
+        <v>1000</v>
       </c>
       <c r="T79" t="n">
         <v>7</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44201</v>
+        <v>44249</v>
       </c>
       <c r="E80" t="n">
         <v>9</v>
@@ -6764,16 +6764,16 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="N80" t="n">
         <v>7000</v>
       </c>
       <c r="O80" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P80" t="n">
-        <v>7000</v>
+        <v>7458</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>1000</v>
+        <v>1065</v>
       </c>
       <c r="T80" t="n">
         <v>7</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44280</v>
+        <v>44249</v>
       </c>
       <c r="E81" t="n">
         <v>9</v>
@@ -6840,20 +6840,20 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="N81" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O81" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P81" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6862,11 +6862,11 @@
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S81" t="n">
-        <v>1000</v>
+        <v>714</v>
       </c>
       <c r="T81" t="n">
         <v>7</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44270</v>
+        <v>44201</v>
       </c>
       <c r="E82" t="n">
         <v>9</v>
@@ -6942,7 +6942,7 @@
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S82" t="n">
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44260</v>
+        <v>44280</v>
       </c>
       <c r="E83" t="n">
         <v>9</v>
@@ -7004,7 +7004,7 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="N83" t="n">
         <v>7000</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44312</v>
+        <v>44270</v>
       </c>
       <c r="E84" t="n">
         <v>9</v>
@@ -7102,7 +7102,7 @@
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S84" t="n">
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44264</v>
+        <v>44260</v>
       </c>
       <c r="E85" t="n">
         <v>9</v>
@@ -7164,7 +7164,7 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="N85" t="n">
         <v>7000</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44301</v>
+        <v>44312</v>
       </c>
       <c r="E86" t="n">
         <v>9</v>
@@ -7244,16 +7244,16 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="N86" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O86" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="P86" t="n">
-        <v>6194</v>
+        <v>7000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>885</v>
+        <v>1000</v>
       </c>
       <c r="T86" t="n">
         <v>7</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44251</v>
+        <v>44264</v>
       </c>
       <c r="E87" t="n">
         <v>9</v>
@@ -7324,16 +7324,16 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N87" t="n">
         <v>7000</v>
       </c>
       <c r="O87" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P87" t="n">
-        <v>7467</v>
+        <v>7000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>1067</v>
+        <v>1000</v>
       </c>
       <c r="T87" t="n">
         <v>7</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E88" t="n">
         <v>9</v>
@@ -7400,20 +7400,20 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="N88" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O88" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="P88" t="n">
-        <v>5000</v>
+        <v>6194</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7422,11 +7422,11 @@
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S88" t="n">
-        <v>714</v>
+        <v>885</v>
       </c>
       <c r="T88" t="n">
         <v>7</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E89" t="n">
         <v>9</v>
@@ -7484,7 +7484,7 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="N89" t="n">
         <v>7000</v>
@@ -7493,7 +7493,7 @@
         <v>8000</v>
       </c>
       <c r="P89" t="n">
-        <v>7450</v>
+        <v>7467</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="T89" t="n">
         <v>7</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E90" t="n">
         <v>9</v>
@@ -7564,7 +7564,7 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N90" t="n">
         <v>5000</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E91" t="n">
         <v>9</v>
@@ -7644,7 +7644,7 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="N91" t="n">
         <v>7000</v>
@@ -7653,7 +7653,7 @@
         <v>8000</v>
       </c>
       <c r="P91" t="n">
-        <v>7568</v>
+        <v>7450</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>1081</v>
+        <v>1064</v>
       </c>
       <c r="T91" t="n">
         <v>7</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E92" t="n">
         <v>9</v>
@@ -7724,7 +7724,7 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="N92" t="n">
         <v>5000</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E93" t="n">
         <v>9</v>
@@ -7804,7 +7804,7 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>400</v>
+        <v>220</v>
       </c>
       <c r="N93" t="n">
         <v>7000</v>
@@ -7813,7 +7813,7 @@
         <v>8000</v>
       </c>
       <c r="P93" t="n">
-        <v>7500</v>
+        <v>7568</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>1071</v>
+        <v>1081</v>
       </c>
       <c r="T93" t="n">
         <v>7</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E94" t="n">
         <v>9</v>
@@ -7880,33 +7880,33 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>200</v>
+        <v>85</v>
       </c>
       <c r="N94" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O94" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P94" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S94" t="n">
-        <v>1714</v>
+        <v>714</v>
       </c>
       <c r="T94" t="n">
         <v>7</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E95" t="n">
         <v>9</v>
@@ -7964,29 +7964,29 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N95" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O95" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P95" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S95" t="n">
-        <v>1429</v>
+        <v>1071</v>
       </c>
       <c r="T95" t="n">
         <v>7</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E96" t="n">
         <v>9</v>
@@ -8040,20 +8040,20 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="N96" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O96" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P96" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8062,11 +8062,11 @@
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S96" t="n">
-        <v>2143</v>
+        <v>1714</v>
       </c>
       <c r="T96" t="n">
         <v>7</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44221</v>
+        <v>44168</v>
       </c>
       <c r="E97" t="n">
         <v>9</v>
@@ -8124,29 +8124,29 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="N97" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O97" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P97" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S97" t="n">
-        <v>1000</v>
+        <v>1429</v>
       </c>
       <c r="T97" t="n">
         <v>7</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44277</v>
+        <v>44369</v>
       </c>
       <c r="E98" t="n">
         <v>9</v>
@@ -8204,29 +8204,29 @@
         </is>
       </c>
       <c r="M98" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="N98" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="O98" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="P98" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S98" t="n">
-        <v>857</v>
+        <v>2143</v>
       </c>
       <c r="T98" t="n">
         <v>7</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44291</v>
+        <v>44221</v>
       </c>
       <c r="E99" t="n">
         <v>9</v>
@@ -8284,7 +8284,7 @@
         </is>
       </c>
       <c r="M99" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N99" t="n">
         <v>7000</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E100" t="n">
         <v>9</v>
@@ -8360,11 +8360,11 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N100" t="n">
         <v>6000</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E101" t="n">
         <v>9</v>
@@ -8444,16 +8444,16 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N101" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O101" t="n">
         <v>7000</v>
       </c>
       <c r="P101" t="n">
-        <v>6562</v>
+        <v>7000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>937</v>
+        <v>1000</v>
       </c>
       <c r="T101" t="n">
         <v>7</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44372</v>
+        <v>44291</v>
       </c>
       <c r="E102" t="n">
         <v>9</v>
@@ -8520,33 +8520,33 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N102" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="O102" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="P102" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S102" t="n">
-        <v>2429</v>
+        <v>857</v>
       </c>
       <c r="T102" t="n">
         <v>7</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44286</v>
+        <v>44273</v>
       </c>
       <c r="E103" t="n">
         <v>9</v>
@@ -8604,16 +8604,16 @@
         </is>
       </c>
       <c r="M103" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="N103" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="O103" t="n">
         <v>7000</v>
       </c>
       <c r="P103" t="n">
-        <v>6786</v>
+        <v>6562</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -8622,11 +8622,11 @@
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S103" t="n">
-        <v>969</v>
+        <v>937</v>
       </c>
       <c r="T103" t="n">
         <v>7</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E104" t="n">
         <v>9</v>
@@ -8684,29 +8684,29 @@
         </is>
       </c>
       <c r="M104" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="N104" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="O104" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="P104" t="n">
-        <v>8500</v>
+        <v>17000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S104" t="n">
-        <v>1214</v>
+        <v>2429</v>
       </c>
       <c r="T104" t="n">
         <v>7</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44160</v>
+        <v>44286</v>
       </c>
       <c r="E105" t="n">
         <v>9</v>
@@ -8764,16 +8764,16 @@
         </is>
       </c>
       <c r="M105" t="n">
-        <v>320</v>
+        <v>35</v>
       </c>
       <c r="N105" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="O105" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P105" t="n">
-        <v>7734</v>
+        <v>6786</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -8782,11 +8782,11 @@
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S105" t="n">
-        <v>1105</v>
+        <v>969</v>
       </c>
       <c r="T105" t="n">
         <v>7</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44215</v>
+        <v>44209</v>
       </c>
       <c r="E106" t="n">
         <v>9</v>
@@ -8844,16 +8844,16 @@
         </is>
       </c>
       <c r="M106" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N106" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O106" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P106" t="n">
-        <v>7542</v>
+        <v>8500</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>1077</v>
+        <v>1214</v>
       </c>
       <c r="T106" t="n">
         <v>7</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44175</v>
+        <v>44160</v>
       </c>
       <c r="E107" t="n">
         <v>9</v>
@@ -8924,16 +8924,16 @@
         </is>
       </c>
       <c r="M107" t="n">
-        <v>155</v>
+        <v>320</v>
       </c>
       <c r="N107" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="O107" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P107" t="n">
-        <v>9000</v>
+        <v>7734</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>1286</v>
+        <v>1105</v>
       </c>
       <c r="T107" t="n">
         <v>7</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44203</v>
+        <v>44215</v>
       </c>
       <c r="E108" t="n">
         <v>9</v>
@@ -9004,7 +9004,7 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="N108" t="n">
         <v>7000</v>
@@ -9013,7 +9013,7 @@
         <v>8000</v>
       </c>
       <c r="P108" t="n">
-        <v>7543</v>
+        <v>7542</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
@@ -9022,11 +9022,11 @@
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S108" t="n">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="T108" t="n">
         <v>7</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44203</v>
+        <v>44175</v>
       </c>
       <c r="E109" t="n">
         <v>9</v>
@@ -9080,20 +9080,20 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="N109" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="O109" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="P109" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9102,11 +9102,11 @@
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S109" t="n">
-        <v>786</v>
+        <v>1286</v>
       </c>
       <c r="T109" t="n">
         <v>7</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E110" t="n">
         <v>9</v>
@@ -9164,29 +9164,29 @@
         </is>
       </c>
       <c r="M110" t="n">
-        <v>305</v>
+        <v>175</v>
       </c>
       <c r="N110" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O110" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P110" t="n">
-        <v>9410</v>
+        <v>7543</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S110" t="n">
-        <v>1344</v>
+        <v>1078</v>
       </c>
       <c r="T110" t="n">
         <v>7</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E111" t="n">
         <v>9</v>
@@ -9240,20 +9240,20 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M111" t="n">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="N111" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="O111" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="P111" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -9262,11 +9262,11 @@
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S111" t="n">
-        <v>1071</v>
+        <v>786</v>
       </c>
       <c r="T111" t="n">
         <v>7</v>
@@ -9320,20 +9320,20 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M112" t="n">
-        <v>110</v>
+        <v>305</v>
       </c>
       <c r="N112" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O112" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P112" t="n">
-        <v>7000</v>
+        <v>9410</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>1000</v>
+        <v>1344</v>
       </c>
       <c r="T112" t="n">
         <v>7</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44257</v>
+        <v>44162</v>
       </c>
       <c r="E113" t="n">
         <v>9</v>
@@ -9404,16 +9404,16 @@
         </is>
       </c>
       <c r="M113" t="n">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="N113" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="O113" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="P113" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>1000</v>
+        <v>1071</v>
       </c>
       <c r="T113" t="n">
         <v>7</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44244</v>
+        <v>44162</v>
       </c>
       <c r="E114" t="n">
         <v>9</v>
@@ -9480,33 +9480,33 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M114" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="N114" t="n">
         <v>7000</v>
       </c>
       <c r="O114" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P114" t="n">
-        <v>7462</v>
+        <v>7000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S114" t="n">
-        <v>1066</v>
+        <v>1000</v>
       </c>
       <c r="T114" t="n">
         <v>7</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E115" t="n">
         <v>9</v>
@@ -9560,20 +9560,20 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="N115" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O115" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P115" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>714</v>
+        <v>1000</v>
       </c>
       <c r="T115" t="n">
         <v>7</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44211</v>
+        <v>44244</v>
       </c>
       <c r="E116" t="n">
         <v>9</v>
@@ -9644,7 +9644,7 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>270</v>
+        <v>130</v>
       </c>
       <c r="N116" t="n">
         <v>7000</v>
@@ -9653,7 +9653,7 @@
         <v>8000</v>
       </c>
       <c r="P116" t="n">
-        <v>7556</v>
+        <v>7462</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>1079</v>
+        <v>1066</v>
       </c>
       <c r="T116" t="n">
         <v>7</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44323</v>
+        <v>44244</v>
       </c>
       <c r="E117" t="n">
         <v>9</v>
@@ -9720,20 +9720,20 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N117" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O117" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P117" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>1286</v>
+        <v>714</v>
       </c>
       <c r="T117" t="n">
         <v>7</v>
@@ -9767,68 +9767,228 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
+        <v>44211</v>
+      </c>
+      <c r="E118" t="n">
+        <v>9</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>270</v>
+      </c>
+      <c r="N118" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O118" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P118" t="n">
+        <v>7556</v>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>$/caja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="S118" t="n">
+        <v>1079</v>
+      </c>
+      <c r="T118" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>10</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D119" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E118" t="n">
-        <v>9</v>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G118" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I118" t="n">
-        <v>100112025</v>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>Frutilla</t>
-        </is>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L118" t="inlineStr">
+      <c r="E119" t="n">
+        <v>9</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>40</v>
+      </c>
+      <c r="N119" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O119" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P119" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>$/caja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R119" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="S119" t="n">
+        <v>1286</v>
+      </c>
+      <c r="T119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>10</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E120" t="n">
+        <v>9</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M118" t="n">
+      <c r="M120" t="n">
         <v>30</v>
       </c>
-      <c r="N118" t="n">
+      <c r="N120" t="n">
         <v>4000</v>
       </c>
-      <c r="O118" t="n">
+      <c r="O120" t="n">
         <v>5000</v>
       </c>
-      <c r="P118" t="n">
+      <c r="P120" t="n">
         <v>4500</v>
       </c>
-      <c r="Q118" t="inlineStr">
+      <c r="Q120" t="inlineStr">
         <is>
           <t>$/caja 7 kilos</t>
         </is>
       </c>
-      <c r="R118" t="inlineStr">
+      <c r="R120" t="inlineStr">
         <is>
           <t>Región de La Araucanía</t>
         </is>
       </c>
-      <c r="S118" t="n">
+      <c r="S120" t="n">
         <v>643</v>
       </c>
-      <c r="T118" t="n">
+      <c r="T120" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T120"/>
+  <dimension ref="A1:T122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44179</v>
+        <v>44462</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="N21" t="n">
         <v>10000</v>
       </c>
       <c r="O21" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P21" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2062,11 +2062,11 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1500</v>
+        <v>1429</v>
       </c>
       <c r="T21" t="n">
         <v>7</v>
@@ -2124,29 +2124,29 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N22" t="n">
         <v>10000</v>
       </c>
       <c r="O22" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P22" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1429</v>
+        <v>1500</v>
       </c>
       <c r="T22" t="n">
         <v>7</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44364</v>
+        <v>44179</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2204,29 +2204,29 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="N23" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O23" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P23" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2857</v>
+        <v>1429</v>
       </c>
       <c r="T23" t="n">
         <v>7</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44242</v>
+        <v>44364</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2284,29 +2284,29 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="N24" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O24" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P24" t="n">
-        <v>7448</v>
+        <v>20000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1064</v>
+        <v>2857</v>
       </c>
       <c r="T24" t="n">
         <v>7</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="N25" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O25" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P25" t="n">
-        <v>5000</v>
+        <v>7448</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>714</v>
+        <v>1064</v>
       </c>
       <c r="T25" t="n">
         <v>7</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44258</v>
+        <v>44242</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N26" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O26" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P26" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1000</v>
+        <v>714</v>
       </c>
       <c r="T26" t="n">
         <v>7</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44159</v>
+        <v>44258</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2524,29 +2524,29 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>550</v>
+        <v>65</v>
       </c>
       <c r="N27" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O27" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P27" t="n">
-        <v>9455</v>
+        <v>7000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1351</v>
+        <v>1000</v>
       </c>
       <c r="T27" t="n">
         <v>7</v>
@@ -2604,29 +2604,29 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>375</v>
+        <v>550</v>
       </c>
       <c r="N28" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O28" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P28" t="n">
-        <v>7760</v>
+        <v>9455</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1109</v>
+        <v>1351</v>
       </c>
       <c r="T28" t="n">
         <v>7</v>
@@ -2680,33 +2680,33 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>155</v>
+        <v>375</v>
       </c>
       <c r="N29" t="n">
         <v>7500</v>
       </c>
       <c r="O29" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="P29" t="n">
-        <v>7500</v>
+        <v>7760</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1071</v>
+        <v>1109</v>
       </c>
       <c r="T29" t="n">
         <v>7</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44302</v>
+        <v>44159</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2760,33 +2760,33 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="N30" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="O30" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="P30" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>857</v>
+        <v>1071</v>
       </c>
       <c r="T30" t="n">
         <v>7</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44459</v>
+        <v>44302</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2840,33 +2840,33 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="N31" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="O31" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="P31" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>2286</v>
+        <v>857</v>
       </c>
       <c r="T31" t="n">
         <v>7</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44232</v>
+        <v>44459</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2920,33 +2920,33 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M32" t="n">
         <v>100</v>
       </c>
       <c r="N32" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="O32" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P32" t="n">
-        <v>7550</v>
+        <v>16000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1079</v>
+        <v>2286</v>
       </c>
       <c r="T32" t="n">
         <v>7</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44224</v>
+        <v>44232</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3004,7 +3004,7 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="N33" t="n">
         <v>7000</v>
@@ -3013,7 +3013,7 @@
         <v>8000</v>
       </c>
       <c r="P33" t="n">
-        <v>7500</v>
+        <v>7550</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3022,11 +3022,11 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1071</v>
+        <v>1079</v>
       </c>
       <c r="T33" t="n">
         <v>7</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3084,29 +3084,29 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="N34" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O34" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P34" t="n">
-        <v>12583</v>
+        <v>7500</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1798</v>
+        <v>1071</v>
       </c>
       <c r="T34" t="n">
         <v>7</v>
@@ -3164,29 +3164,29 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N35" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O35" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P35" t="n">
-        <v>10000</v>
+        <v>12583</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1429</v>
+        <v>1798</v>
       </c>
       <c r="T35" t="n">
         <v>7</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44188</v>
+        <v>44195</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3244,29 +3244,29 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="N36" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O36" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P36" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1857</v>
+        <v>1429</v>
       </c>
       <c r="T36" t="n">
         <v>7</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44263</v>
+        <v>44188</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3324,29 +3324,29 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="N37" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O37" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P37" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1000</v>
+        <v>1857</v>
       </c>
       <c r="T37" t="n">
         <v>7</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44272</v>
+        <v>44263</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3404,7 +3404,7 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="N38" t="n">
         <v>7000</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44333</v>
+        <v>44271</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N40" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O40" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P40" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1143</v>
+        <v>1000</v>
       </c>
       <c r="T40" t="n">
         <v>7</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44238</v>
+        <v>44333</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>235</v>
+        <v>50</v>
       </c>
       <c r="N41" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O41" t="n">
         <v>8000</v>
       </c>
       <c r="P41" t="n">
-        <v>7532</v>
+        <v>8000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3662,11 +3662,11 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1076</v>
+        <v>1143</v>
       </c>
       <c r="T41" t="n">
         <v>7</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="N42" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O42" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P42" t="n">
-        <v>5000</v>
+        <v>7532</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>714</v>
+        <v>1076</v>
       </c>
       <c r="T42" t="n">
         <v>7</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44284</v>
+        <v>44238</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="N43" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O43" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P43" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1000</v>
+        <v>714</v>
       </c>
       <c r="T43" t="n">
         <v>7</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44216</v>
+        <v>44284</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3884,16 +3884,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="N44" t="n">
         <v>7000</v>
       </c>
       <c r="O44" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P44" t="n">
-        <v>7579</v>
+        <v>7000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3902,11 +3902,11 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1083</v>
+        <v>1000</v>
       </c>
       <c r="T44" t="n">
         <v>7</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="N45" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O45" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P45" t="n">
-        <v>5000</v>
+        <v>7579</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>714</v>
+        <v>1083</v>
       </c>
       <c r="T45" t="n">
         <v>7</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44253</v>
+        <v>44216</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N46" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O46" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P46" t="n">
-        <v>7417</v>
+        <v>5000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1060</v>
+        <v>714</v>
       </c>
       <c r="T46" t="n">
         <v>7</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N47" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O47" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P47" t="n">
-        <v>5000</v>
+        <v>7417</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>714</v>
+        <v>1060</v>
       </c>
       <c r="T47" t="n">
         <v>7</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44245</v>
+        <v>44253</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -4200,20 +4200,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="N48" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O48" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P48" t="n">
-        <v>7360</v>
+        <v>5000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1051</v>
+        <v>714</v>
       </c>
       <c r="T48" t="n">
         <v>7</v>
@@ -4280,20 +4280,20 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="N49" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O49" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P49" t="n">
-        <v>5000</v>
+        <v>7360</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>714</v>
+        <v>1051</v>
       </c>
       <c r="T49" t="n">
         <v>7</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44225</v>
+        <v>44245</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -4360,20 +4360,20 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="N50" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O50" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P50" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1071</v>
+        <v>714</v>
       </c>
       <c r="T50" t="n">
         <v>7</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44218</v>
+        <v>44225</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4444,7 +4444,7 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="N51" t="n">
         <v>7000</v>
@@ -4453,7 +4453,7 @@
         <v>8000</v>
       </c>
       <c r="P51" t="n">
-        <v>7516</v>
+        <v>7500</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="T51" t="n">
         <v>7</v>
@@ -4520,20 +4520,20 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="N52" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="O52" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P52" t="n">
-        <v>5500</v>
+        <v>7516</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>786</v>
+        <v>1074</v>
       </c>
       <c r="T52" t="n">
         <v>7</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44223</v>
+        <v>44218</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4600,20 +4600,20 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="N53" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="O53" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="P53" t="n">
-        <v>7385</v>
+        <v>5500</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>1055</v>
+        <v>786</v>
       </c>
       <c r="T53" t="n">
         <v>7</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44246</v>
+        <v>44223</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4684,7 +4684,7 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="N54" t="n">
         <v>7000</v>
@@ -4693,7 +4693,7 @@
         <v>8000</v>
       </c>
       <c r="P54" t="n">
-        <v>7417</v>
+        <v>7385</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="T54" t="n">
         <v>7</v>
@@ -4760,20 +4760,20 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N55" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O55" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P55" t="n">
-        <v>5000</v>
+        <v>7417</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>714</v>
+        <v>1060</v>
       </c>
       <c r="T55" t="n">
         <v>7</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44161</v>
+        <v>44246</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4840,33 +4840,33 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>550</v>
+        <v>50</v>
       </c>
       <c r="N56" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O56" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P56" t="n">
-        <v>9455</v>
+        <v>5000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S56" t="n">
-        <v>1351</v>
+        <v>714</v>
       </c>
       <c r="T56" t="n">
         <v>7</v>
@@ -4924,29 +4924,29 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>305</v>
+        <v>550</v>
       </c>
       <c r="N57" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="O57" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P57" t="n">
-        <v>6705</v>
+        <v>9455</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S57" t="n">
-        <v>958</v>
+        <v>1351</v>
       </c>
       <c r="T57" t="n">
         <v>7</v>
@@ -5000,20 +5000,20 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>180</v>
+        <v>305</v>
       </c>
       <c r="N58" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="O58" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="P58" t="n">
-        <v>4000</v>
+        <v>6705</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>571</v>
+        <v>958</v>
       </c>
       <c r="T58" t="n">
         <v>7</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44307</v>
+        <v>44161</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -5084,16 +5084,16 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="N59" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O59" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P59" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>714</v>
+        <v>571</v>
       </c>
       <c r="T59" t="n">
         <v>7</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44193</v>
+        <v>44307</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -5160,20 +5160,20 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="N60" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O60" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P60" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>1429</v>
+        <v>714</v>
       </c>
       <c r="T60" t="n">
         <v>7</v>
@@ -5240,20 +5240,20 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="N61" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O61" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P61" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>1286</v>
+        <v>1429</v>
       </c>
       <c r="T61" t="n">
         <v>7</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44274</v>
+        <v>44193</v>
       </c>
       <c r="E62" t="n">
         <v>9</v>
@@ -5320,20 +5320,20 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="N62" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O62" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P62" t="n">
-        <v>6579</v>
+        <v>9000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>940</v>
+        <v>1286</v>
       </c>
       <c r="T62" t="n">
         <v>7</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44200</v>
+        <v>44274</v>
       </c>
       <c r="E63" t="n">
         <v>9</v>
@@ -5404,16 +5404,16 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="N63" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O63" t="n">
         <v>7000</v>
       </c>
       <c r="P63" t="n">
-        <v>7000</v>
+        <v>6579</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5422,11 +5422,11 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S63" t="n">
-        <v>1000</v>
+        <v>940</v>
       </c>
       <c r="T63" t="n">
         <v>7</v>
@@ -5480,20 +5480,20 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="N64" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="O64" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="P64" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>786</v>
+        <v>1000</v>
       </c>
       <c r="T64" t="n">
         <v>7</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44214</v>
+        <v>44200</v>
       </c>
       <c r="E65" t="n">
         <v>9</v>
@@ -5560,20 +5560,20 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="N65" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="O65" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="P65" t="n">
-        <v>7455</v>
+        <v>5500</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5582,11 +5582,11 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S65" t="n">
-        <v>1065</v>
+        <v>786</v>
       </c>
       <c r="T65" t="n">
         <v>7</v>
@@ -5640,20 +5640,20 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N66" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="O66" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="P66" t="n">
-        <v>4500</v>
+        <v>7455</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>643</v>
+        <v>1065</v>
       </c>
       <c r="T66" t="n">
         <v>7</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44237</v>
+        <v>44214</v>
       </c>
       <c r="E67" t="n">
         <v>9</v>
@@ -5720,20 +5720,20 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="N67" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="O67" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="P67" t="n">
-        <v>7533</v>
+        <v>4500</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5742,11 +5742,11 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S67" t="n">
-        <v>1076</v>
+        <v>643</v>
       </c>
       <c r="T67" t="n">
         <v>7</v>
@@ -5800,20 +5800,20 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="N68" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O68" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P68" t="n">
-        <v>5000</v>
+        <v>7533</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>714</v>
+        <v>1076</v>
       </c>
       <c r="T68" t="n">
         <v>7</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44285</v>
+        <v>44237</v>
       </c>
       <c r="E69" t="n">
         <v>9</v>
@@ -5880,20 +5880,20 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N69" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O69" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P69" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5902,11 +5902,11 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S69" t="n">
-        <v>1000</v>
+        <v>714</v>
       </c>
       <c r="T69" t="n">
         <v>7</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44210</v>
+        <v>44285</v>
       </c>
       <c r="E70" t="n">
         <v>9</v>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>500</v>
+        <v>55</v>
       </c>
       <c r="N70" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O70" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P70" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>1143</v>
+        <v>1000</v>
       </c>
       <c r="T70" t="n">
         <v>7</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44217</v>
+        <v>44210</v>
       </c>
       <c r="E71" t="n">
         <v>9</v>
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>235</v>
+        <v>500</v>
       </c>
       <c r="N71" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O71" t="n">
         <v>8000</v>
       </c>
       <c r="P71" t="n">
-        <v>7532</v>
+        <v>8000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>1076</v>
+        <v>1143</v>
       </c>
       <c r="T71" t="n">
         <v>7</v>
@@ -6120,20 +6120,20 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="N72" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="O72" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P72" t="n">
-        <v>5500</v>
+        <v>7532</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>786</v>
+        <v>1076</v>
       </c>
       <c r="T72" t="n">
         <v>7</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44460</v>
+        <v>44217</v>
       </c>
       <c r="E73" t="n">
         <v>9</v>
@@ -6204,29 +6204,29 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="N73" t="n">
-        <v>20000</v>
+        <v>5500</v>
       </c>
       <c r="O73" t="n">
-        <v>20000</v>
+        <v>5500</v>
       </c>
       <c r="P73" t="n">
-        <v>20000</v>
+        <v>5500</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S73" t="n">
-        <v>2857</v>
+        <v>786</v>
       </c>
       <c r="T73" t="n">
         <v>7</v>
@@ -6280,20 +6280,20 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N74" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O74" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P74" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>1429</v>
+        <v>2857</v>
       </c>
       <c r="T74" t="n">
         <v>7</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44165</v>
+        <v>44460</v>
       </c>
       <c r="E75" t="n">
         <v>9</v>
@@ -6360,20 +6360,20 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N75" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O75" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P75" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6382,11 +6382,11 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S75" t="n">
-        <v>1571</v>
+        <v>1429</v>
       </c>
       <c r="T75" t="n">
         <v>7</v>
@@ -6440,20 +6440,20 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>700</v>
+        <v>50</v>
       </c>
       <c r="N76" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O76" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P76" t="n">
-        <v>9571</v>
+        <v>11000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6462,11 +6462,11 @@
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S76" t="n">
-        <v>1367</v>
+        <v>1571</v>
       </c>
       <c r="T76" t="n">
         <v>7</v>
@@ -6524,7 +6524,7 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N77" t="n">
         <v>9000</v>
@@ -6533,7 +6533,7 @@
         <v>10000</v>
       </c>
       <c r="P77" t="n">
-        <v>9500</v>
+        <v>9571</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6542,11 +6542,11 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S77" t="n">
-        <v>1357</v>
+        <v>1367</v>
       </c>
       <c r="T77" t="n">
         <v>7</v>
@@ -6604,29 +6604,29 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N78" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O78" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P78" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S78" t="n">
-        <v>1214</v>
+        <v>1357</v>
       </c>
       <c r="T78" t="n">
         <v>7</v>
@@ -6680,33 +6680,33 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N79" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O79" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P79" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S79" t="n">
-        <v>1000</v>
+        <v>1214</v>
       </c>
       <c r="T79" t="n">
         <v>7</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44249</v>
+        <v>44165</v>
       </c>
       <c r="E80" t="n">
         <v>9</v>
@@ -6760,33 +6760,33 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N80" t="n">
         <v>7000</v>
       </c>
       <c r="O80" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P80" t="n">
-        <v>7458</v>
+        <v>7000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S80" t="n">
-        <v>1065</v>
+        <v>1000</v>
       </c>
       <c r="T80" t="n">
         <v>7</v>
@@ -6840,20 +6840,20 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="N81" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O81" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P81" t="n">
-        <v>5000</v>
+        <v>7458</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>714</v>
+        <v>1065</v>
       </c>
       <c r="T81" t="n">
         <v>7</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44201</v>
+        <v>44249</v>
       </c>
       <c r="E82" t="n">
         <v>9</v>
@@ -6920,20 +6920,20 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N82" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O82" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P82" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>1000</v>
+        <v>714</v>
       </c>
       <c r="T82" t="n">
         <v>7</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E83" t="n">
         <v>9</v>
@@ -7004,7 +7004,7 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="N83" t="n">
         <v>7000</v>
@@ -7022,7 +7022,7 @@
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S83" t="n">
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44270</v>
+        <v>44280</v>
       </c>
       <c r="E84" t="n">
         <v>9</v>
@@ -7084,7 +7084,7 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="N84" t="n">
         <v>7000</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E85" t="n">
         <v>9</v>
@@ -7164,7 +7164,7 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N85" t="n">
         <v>7000</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44312</v>
+        <v>44260</v>
       </c>
       <c r="E86" t="n">
         <v>9</v>
@@ -7244,7 +7244,7 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N86" t="n">
         <v>7000</v>
@@ -7262,7 +7262,7 @@
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S86" t="n">
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44264</v>
+        <v>44312</v>
       </c>
       <c r="E87" t="n">
         <v>9</v>
@@ -7324,7 +7324,7 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N87" t="n">
         <v>7000</v>
@@ -7342,7 +7342,7 @@
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S87" t="n">
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44301</v>
+        <v>44264</v>
       </c>
       <c r="E88" t="n">
         <v>9</v>
@@ -7404,16 +7404,16 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N88" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O88" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="P88" t="n">
-        <v>6194</v>
+        <v>7000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7422,11 +7422,11 @@
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S88" t="n">
-        <v>885</v>
+        <v>1000</v>
       </c>
       <c r="T88" t="n">
         <v>7</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E89" t="n">
         <v>9</v>
@@ -7484,16 +7484,16 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="N89" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O89" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="P89" t="n">
-        <v>7467</v>
+        <v>6194</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7502,11 +7502,11 @@
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S89" t="n">
-        <v>1067</v>
+        <v>885</v>
       </c>
       <c r="T89" t="n">
         <v>7</v>
@@ -7560,20 +7560,20 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="N90" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O90" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P90" t="n">
-        <v>5000</v>
+        <v>7467</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>714</v>
+        <v>1067</v>
       </c>
       <c r="T90" t="n">
         <v>7</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E91" t="n">
         <v>9</v>
@@ -7640,20 +7640,20 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="N91" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O91" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P91" t="n">
-        <v>7450</v>
+        <v>5000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>1064</v>
+        <v>714</v>
       </c>
       <c r="T91" t="n">
         <v>7</v>
@@ -7720,20 +7720,20 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N92" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O92" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P92" t="n">
-        <v>5000</v>
+        <v>7450</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>714</v>
+        <v>1064</v>
       </c>
       <c r="T92" t="n">
         <v>7</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E93" t="n">
         <v>9</v>
@@ -7800,20 +7800,20 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="N93" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O93" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P93" t="n">
-        <v>7568</v>
+        <v>5000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>1081</v>
+        <v>714</v>
       </c>
       <c r="T93" t="n">
         <v>7</v>
@@ -7880,20 +7880,20 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>85</v>
+        <v>220</v>
       </c>
       <c r="N94" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O94" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P94" t="n">
-        <v>5000</v>
+        <v>7568</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>714</v>
+        <v>1081</v>
       </c>
       <c r="T94" t="n">
         <v>7</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E95" t="n">
         <v>9</v>
@@ -7960,20 +7960,20 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>400</v>
+        <v>85</v>
       </c>
       <c r="N95" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O95" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P95" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>1071</v>
+        <v>714</v>
       </c>
       <c r="T95" t="n">
         <v>7</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E96" t="n">
         <v>9</v>
@@ -8040,33 +8040,33 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N96" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O96" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P96" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S96" t="n">
-        <v>1714</v>
+        <v>1071</v>
       </c>
       <c r="T96" t="n">
         <v>7</v>
@@ -8120,20 +8120,20 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="N97" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O97" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P97" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="S97" t="n">
-        <v>1429</v>
+        <v>1714</v>
       </c>
       <c r="T97" t="n">
         <v>7</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E98" t="n">
         <v>9</v>
@@ -8204,16 +8204,16 @@
         </is>
       </c>
       <c r="M98" t="n">
-        <v>25</v>
+        <v>600</v>
       </c>
       <c r="N98" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O98" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P98" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -8222,11 +8222,11 @@
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S98" t="n">
-        <v>2143</v>
+        <v>1429</v>
       </c>
       <c r="T98" t="n">
         <v>7</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44221</v>
+        <v>44369</v>
       </c>
       <c r="E99" t="n">
         <v>9</v>
@@ -8284,29 +8284,29 @@
         </is>
       </c>
       <c r="M99" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N99" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O99" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P99" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S99" t="n">
-        <v>1000</v>
+        <v>2143</v>
       </c>
       <c r="T99" t="n">
         <v>7</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44277</v>
+        <v>44221</v>
       </c>
       <c r="E100" t="n">
         <v>9</v>
@@ -8364,16 +8364,16 @@
         </is>
       </c>
       <c r="M100" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N100" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O100" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P100" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>857</v>
+        <v>1000</v>
       </c>
       <c r="T100" t="n">
         <v>7</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44291</v>
+        <v>44397</v>
       </c>
       <c r="E101" t="n">
         <v>9</v>
@@ -8444,29 +8444,29 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="N101" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="O101" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="P101" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S101" t="n">
-        <v>1000</v>
+        <v>3143</v>
       </c>
       <c r="T101" t="n">
         <v>7</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E102" t="n">
         <v>9</v>
@@ -8520,11 +8520,11 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N102" t="n">
         <v>6000</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E103" t="n">
         <v>9</v>
@@ -8604,16 +8604,16 @@
         </is>
       </c>
       <c r="M103" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N103" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O103" t="n">
         <v>7000</v>
       </c>
       <c r="P103" t="n">
-        <v>6562</v>
+        <v>7000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>937</v>
+        <v>1000</v>
       </c>
       <c r="T103" t="n">
         <v>7</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44372</v>
+        <v>44291</v>
       </c>
       <c r="E104" t="n">
         <v>9</v>
@@ -8680,33 +8680,33 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N104" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="O104" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="P104" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S104" t="n">
-        <v>2429</v>
+        <v>857</v>
       </c>
       <c r="T104" t="n">
         <v>7</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44286</v>
+        <v>44273</v>
       </c>
       <c r="E105" t="n">
         <v>9</v>
@@ -8764,16 +8764,16 @@
         </is>
       </c>
       <c r="M105" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="N105" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="O105" t="n">
         <v>7000</v>
       </c>
       <c r="P105" t="n">
-        <v>6786</v>
+        <v>6562</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -8782,11 +8782,11 @@
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S105" t="n">
-        <v>969</v>
+        <v>937</v>
       </c>
       <c r="T105" t="n">
         <v>7</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E106" t="n">
         <v>9</v>
@@ -8844,29 +8844,29 @@
         </is>
       </c>
       <c r="M106" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="N106" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="O106" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="P106" t="n">
-        <v>8500</v>
+        <v>17000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S106" t="n">
-        <v>1214</v>
+        <v>2429</v>
       </c>
       <c r="T106" t="n">
         <v>7</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44160</v>
+        <v>44286</v>
       </c>
       <c r="E107" t="n">
         <v>9</v>
@@ -8924,16 +8924,16 @@
         </is>
       </c>
       <c r="M107" t="n">
-        <v>320</v>
+        <v>35</v>
       </c>
       <c r="N107" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="O107" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P107" t="n">
-        <v>7734</v>
+        <v>6786</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8942,11 +8942,11 @@
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S107" t="n">
-        <v>1105</v>
+        <v>969</v>
       </c>
       <c r="T107" t="n">
         <v>7</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44215</v>
+        <v>44209</v>
       </c>
       <c r="E108" t="n">
         <v>9</v>
@@ -9004,16 +9004,16 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N108" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O108" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P108" t="n">
-        <v>7542</v>
+        <v>8500</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>1077</v>
+        <v>1214</v>
       </c>
       <c r="T108" t="n">
         <v>7</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44175</v>
+        <v>44160</v>
       </c>
       <c r="E109" t="n">
         <v>9</v>
@@ -9084,16 +9084,16 @@
         </is>
       </c>
       <c r="M109" t="n">
-        <v>155</v>
+        <v>320</v>
       </c>
       <c r="N109" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="O109" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P109" t="n">
-        <v>9000</v>
+        <v>7734</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>1286</v>
+        <v>1105</v>
       </c>
       <c r="T109" t="n">
         <v>7</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44203</v>
+        <v>44215</v>
       </c>
       <c r="E110" t="n">
         <v>9</v>
@@ -9164,7 +9164,7 @@
         </is>
       </c>
       <c r="M110" t="n">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="N110" t="n">
         <v>7000</v>
@@ -9173,7 +9173,7 @@
         <v>8000</v>
       </c>
       <c r="P110" t="n">
-        <v>7543</v>
+        <v>7542</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -9182,11 +9182,11 @@
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S110" t="n">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="T110" t="n">
         <v>7</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44203</v>
+        <v>44175</v>
       </c>
       <c r="E111" t="n">
         <v>9</v>
@@ -9240,20 +9240,20 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M111" t="n">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="N111" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="O111" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="P111" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -9262,11 +9262,11 @@
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S111" t="n">
-        <v>786</v>
+        <v>1286</v>
       </c>
       <c r="T111" t="n">
         <v>7</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E112" t="n">
         <v>9</v>
@@ -9324,29 +9324,29 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>305</v>
+        <v>175</v>
       </c>
       <c r="N112" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O112" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P112" t="n">
-        <v>9410</v>
+        <v>7543</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S112" t="n">
-        <v>1344</v>
+        <v>1078</v>
       </c>
       <c r="T112" t="n">
         <v>7</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E113" t="n">
         <v>9</v>
@@ -9400,20 +9400,20 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="N113" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="O113" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="P113" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9422,11 +9422,11 @@
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S113" t="n">
-        <v>1071</v>
+        <v>786</v>
       </c>
       <c r="T113" t="n">
         <v>7</v>
@@ -9480,20 +9480,20 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M114" t="n">
-        <v>110</v>
+        <v>305</v>
       </c>
       <c r="N114" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O114" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P114" t="n">
-        <v>7000</v>
+        <v>9410</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>1000</v>
+        <v>1344</v>
       </c>
       <c r="T114" t="n">
         <v>7</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44257</v>
+        <v>44162</v>
       </c>
       <c r="E115" t="n">
         <v>9</v>
@@ -9564,16 +9564,16 @@
         </is>
       </c>
       <c r="M115" t="n">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="N115" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="O115" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="P115" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>1000</v>
+        <v>1071</v>
       </c>
       <c r="T115" t="n">
         <v>7</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44244</v>
+        <v>44162</v>
       </c>
       <c r="E116" t="n">
         <v>9</v>
@@ -9640,33 +9640,33 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M116" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="N116" t="n">
         <v>7000</v>
       </c>
       <c r="O116" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P116" t="n">
-        <v>7462</v>
+        <v>7000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S116" t="n">
-        <v>1066</v>
+        <v>1000</v>
       </c>
       <c r="T116" t="n">
         <v>7</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E117" t="n">
         <v>9</v>
@@ -9720,20 +9720,20 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="N117" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O117" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P117" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>714</v>
+        <v>1000</v>
       </c>
       <c r="T117" t="n">
         <v>7</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44211</v>
+        <v>44244</v>
       </c>
       <c r="E118" t="n">
         <v>9</v>
@@ -9804,7 +9804,7 @@
         </is>
       </c>
       <c r="M118" t="n">
-        <v>270</v>
+        <v>130</v>
       </c>
       <c r="N118" t="n">
         <v>7000</v>
@@ -9813,7 +9813,7 @@
         <v>8000</v>
       </c>
       <c r="P118" t="n">
-        <v>7556</v>
+        <v>7462</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>1079</v>
+        <v>1066</v>
       </c>
       <c r="T118" t="n">
         <v>7</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44323</v>
+        <v>44244</v>
       </c>
       <c r="E119" t="n">
         <v>9</v>
@@ -9880,20 +9880,20 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N119" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O119" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P119" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>1286</v>
+        <v>714</v>
       </c>
       <c r="T119" t="n">
         <v>7</v>
@@ -9927,68 +9927,228 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
+        <v>44211</v>
+      </c>
+      <c r="E120" t="n">
+        <v>9</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>270</v>
+      </c>
+      <c r="N120" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O120" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P120" t="n">
+        <v>7556</v>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>$/caja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R120" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="S120" t="n">
+        <v>1079</v>
+      </c>
+      <c r="T120" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>10</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D121" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E120" t="n">
-        <v>9</v>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G120" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I120" t="n">
-        <v>100112025</v>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>Frutilla</t>
-        </is>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L120" t="inlineStr">
+      <c r="E121" t="n">
+        <v>9</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>40</v>
+      </c>
+      <c r="N121" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O121" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P121" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>$/caja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R121" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="S121" t="n">
+        <v>1286</v>
+      </c>
+      <c r="T121" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>10</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E122" t="n">
+        <v>9</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M120" t="n">
+      <c r="M122" t="n">
         <v>30</v>
       </c>
-      <c r="N120" t="n">
+      <c r="N122" t="n">
         <v>4000</v>
       </c>
-      <c r="O120" t="n">
+      <c r="O122" t="n">
         <v>5000</v>
       </c>
-      <c r="P120" t="n">
+      <c r="P122" t="n">
         <v>4500</v>
       </c>
-      <c r="Q120" t="inlineStr">
+      <c r="Q122" t="inlineStr">
         <is>
           <t>$/caja 7 kilos</t>
         </is>
       </c>
-      <c r="R120" t="inlineStr">
+      <c r="R122" t="inlineStr">
         <is>
           <t>Región de La Araucanía</t>
         </is>
       </c>
-      <c r="S120" t="n">
+      <c r="S122" t="n">
         <v>643</v>
       </c>
-      <c r="T120" t="n">
+      <c r="T122" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T122"/>
+  <dimension ref="A1:T125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44218</v>
+        <v>44399</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4524,29 +4524,29 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>155</v>
+        <v>65</v>
       </c>
       <c r="N52" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="O52" t="n">
-        <v>8000</v>
+        <v>23000</v>
       </c>
       <c r="P52" t="n">
-        <v>7516</v>
+        <v>22538</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1074</v>
+        <v>3220</v>
       </c>
       <c r="T52" t="n">
         <v>7</v>
@@ -4600,20 +4600,20 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="N53" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="O53" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P53" t="n">
-        <v>5500</v>
+        <v>7516</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>786</v>
+        <v>1074</v>
       </c>
       <c r="T53" t="n">
         <v>7</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44223</v>
+        <v>44218</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4680,20 +4680,20 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="N54" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="O54" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="P54" t="n">
-        <v>7385</v>
+        <v>5500</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>1055</v>
+        <v>786</v>
       </c>
       <c r="T54" t="n">
         <v>7</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44246</v>
+        <v>44223</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4764,7 +4764,7 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="N55" t="n">
         <v>7000</v>
@@ -4773,7 +4773,7 @@
         <v>8000</v>
       </c>
       <c r="P55" t="n">
-        <v>7417</v>
+        <v>7385</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="T55" t="n">
         <v>7</v>
@@ -4840,20 +4840,20 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N56" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O56" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P56" t="n">
-        <v>5000</v>
+        <v>7417</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>714</v>
+        <v>1060</v>
       </c>
       <c r="T56" t="n">
         <v>7</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44161</v>
+        <v>44246</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4920,33 +4920,33 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>550</v>
+        <v>50</v>
       </c>
       <c r="N57" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O57" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P57" t="n">
-        <v>9455</v>
+        <v>5000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S57" t="n">
-        <v>1351</v>
+        <v>714</v>
       </c>
       <c r="T57" t="n">
         <v>7</v>
@@ -5004,29 +5004,29 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>305</v>
+        <v>550</v>
       </c>
       <c r="N58" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="O58" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P58" t="n">
-        <v>6705</v>
+        <v>9455</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S58" t="n">
-        <v>958</v>
+        <v>1351</v>
       </c>
       <c r="T58" t="n">
         <v>7</v>
@@ -5080,20 +5080,20 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>180</v>
+        <v>305</v>
       </c>
       <c r="N59" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="O59" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="P59" t="n">
-        <v>4000</v>
+        <v>6705</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>571</v>
+        <v>958</v>
       </c>
       <c r="T59" t="n">
         <v>7</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44307</v>
+        <v>44161</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -5164,16 +5164,16 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="N60" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O60" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P60" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>714</v>
+        <v>571</v>
       </c>
       <c r="T60" t="n">
         <v>7</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44193</v>
+        <v>44307</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -5240,20 +5240,20 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="N61" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O61" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P61" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>1429</v>
+        <v>714</v>
       </c>
       <c r="T61" t="n">
         <v>7</v>
@@ -5320,20 +5320,20 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="N62" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O62" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P62" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>1286</v>
+        <v>1429</v>
       </c>
       <c r="T62" t="n">
         <v>7</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44274</v>
+        <v>44193</v>
       </c>
       <c r="E63" t="n">
         <v>9</v>
@@ -5400,20 +5400,20 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="N63" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O63" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P63" t="n">
-        <v>6579</v>
+        <v>9000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>940</v>
+        <v>1286</v>
       </c>
       <c r="T63" t="n">
         <v>7</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44200</v>
+        <v>44274</v>
       </c>
       <c r="E64" t="n">
         <v>9</v>
@@ -5484,16 +5484,16 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="N64" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O64" t="n">
         <v>7000</v>
       </c>
       <c r="P64" t="n">
-        <v>7000</v>
+        <v>6579</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5502,11 +5502,11 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S64" t="n">
-        <v>1000</v>
+        <v>940</v>
       </c>
       <c r="T64" t="n">
         <v>7</v>
@@ -5560,20 +5560,20 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="N65" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="O65" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="P65" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>786</v>
+        <v>1000</v>
       </c>
       <c r="T65" t="n">
         <v>7</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44214</v>
+        <v>44200</v>
       </c>
       <c r="E66" t="n">
         <v>9</v>
@@ -5640,20 +5640,20 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="N66" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="O66" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="P66" t="n">
-        <v>7455</v>
+        <v>5500</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5662,11 +5662,11 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S66" t="n">
-        <v>1065</v>
+        <v>786</v>
       </c>
       <c r="T66" t="n">
         <v>7</v>
@@ -5720,20 +5720,20 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N67" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="O67" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="P67" t="n">
-        <v>4500</v>
+        <v>7455</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>643</v>
+        <v>1065</v>
       </c>
       <c r="T67" t="n">
         <v>7</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44237</v>
+        <v>44214</v>
       </c>
       <c r="E68" t="n">
         <v>9</v>
@@ -5800,20 +5800,20 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="N68" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="O68" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="P68" t="n">
-        <v>7533</v>
+        <v>4500</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5822,11 +5822,11 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S68" t="n">
-        <v>1076</v>
+        <v>643</v>
       </c>
       <c r="T68" t="n">
         <v>7</v>
@@ -5880,20 +5880,20 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="N69" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O69" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P69" t="n">
-        <v>5000</v>
+        <v>7533</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>714</v>
+        <v>1076</v>
       </c>
       <c r="T69" t="n">
         <v>7</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44285</v>
+        <v>44237</v>
       </c>
       <c r="E70" t="n">
         <v>9</v>
@@ -5960,20 +5960,20 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N70" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O70" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P70" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5982,11 +5982,11 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S70" t="n">
-        <v>1000</v>
+        <v>714</v>
       </c>
       <c r="T70" t="n">
         <v>7</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44210</v>
+        <v>44285</v>
       </c>
       <c r="E71" t="n">
         <v>9</v>
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>500</v>
+        <v>55</v>
       </c>
       <c r="N71" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O71" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P71" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>1143</v>
+        <v>1000</v>
       </c>
       <c r="T71" t="n">
         <v>7</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44217</v>
+        <v>44210</v>
       </c>
       <c r="E72" t="n">
         <v>9</v>
@@ -6124,16 +6124,16 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>235</v>
+        <v>500</v>
       </c>
       <c r="N72" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O72" t="n">
         <v>8000</v>
       </c>
       <c r="P72" t="n">
-        <v>7532</v>
+        <v>8000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>1076</v>
+        <v>1143</v>
       </c>
       <c r="T72" t="n">
         <v>7</v>
@@ -6200,20 +6200,20 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="N73" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="O73" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P73" t="n">
-        <v>5500</v>
+        <v>7532</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>786</v>
+        <v>1076</v>
       </c>
       <c r="T73" t="n">
         <v>7</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44460</v>
+        <v>44217</v>
       </c>
       <c r="E74" t="n">
         <v>9</v>
@@ -6284,29 +6284,29 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="N74" t="n">
-        <v>20000</v>
+        <v>5500</v>
       </c>
       <c r="O74" t="n">
-        <v>20000</v>
+        <v>5500</v>
       </c>
       <c r="P74" t="n">
-        <v>20000</v>
+        <v>5500</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S74" t="n">
-        <v>2857</v>
+        <v>786</v>
       </c>
       <c r="T74" t="n">
         <v>7</v>
@@ -6360,20 +6360,20 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N75" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O75" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P75" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>1429</v>
+        <v>2857</v>
       </c>
       <c r="T75" t="n">
         <v>7</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44165</v>
+        <v>44460</v>
       </c>
       <c r="E76" t="n">
         <v>9</v>
@@ -6440,20 +6440,20 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N76" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O76" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P76" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6462,11 +6462,11 @@
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S76" t="n">
-        <v>1571</v>
+        <v>1429</v>
       </c>
       <c r="T76" t="n">
         <v>7</v>
@@ -6520,20 +6520,20 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>700</v>
+        <v>50</v>
       </c>
       <c r="N77" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O77" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P77" t="n">
-        <v>9571</v>
+        <v>11000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6542,11 +6542,11 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S77" t="n">
-        <v>1367</v>
+        <v>1571</v>
       </c>
       <c r="T77" t="n">
         <v>7</v>
@@ -6604,7 +6604,7 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N78" t="n">
         <v>9000</v>
@@ -6613,7 +6613,7 @@
         <v>10000</v>
       </c>
       <c r="P78" t="n">
-        <v>9500</v>
+        <v>9571</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6622,11 +6622,11 @@
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S78" t="n">
-        <v>1357</v>
+        <v>1367</v>
       </c>
       <c r="T78" t="n">
         <v>7</v>
@@ -6684,29 +6684,29 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N79" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O79" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P79" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S79" t="n">
-        <v>1214</v>
+        <v>1357</v>
       </c>
       <c r="T79" t="n">
         <v>7</v>
@@ -6760,33 +6760,33 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N80" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O80" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P80" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S80" t="n">
-        <v>1000</v>
+        <v>1214</v>
       </c>
       <c r="T80" t="n">
         <v>7</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44249</v>
+        <v>44165</v>
       </c>
       <c r="E81" t="n">
         <v>9</v>
@@ -6840,33 +6840,33 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N81" t="n">
         <v>7000</v>
       </c>
       <c r="O81" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P81" t="n">
-        <v>7458</v>
+        <v>7000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S81" t="n">
-        <v>1065</v>
+        <v>1000</v>
       </c>
       <c r="T81" t="n">
         <v>7</v>
@@ -6920,20 +6920,20 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="N82" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O82" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P82" t="n">
-        <v>5000</v>
+        <v>7458</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>714</v>
+        <v>1065</v>
       </c>
       <c r="T82" t="n">
         <v>7</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44201</v>
+        <v>44249</v>
       </c>
       <c r="E83" t="n">
         <v>9</v>
@@ -7000,20 +7000,20 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N83" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O83" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P83" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>1000</v>
+        <v>714</v>
       </c>
       <c r="T83" t="n">
         <v>7</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E84" t="n">
         <v>9</v>
@@ -7084,7 +7084,7 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="N84" t="n">
         <v>7000</v>
@@ -7102,7 +7102,7 @@
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S84" t="n">
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44270</v>
+        <v>44280</v>
       </c>
       <c r="E85" t="n">
         <v>9</v>
@@ -7164,7 +7164,7 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="N85" t="n">
         <v>7000</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E86" t="n">
         <v>9</v>
@@ -7244,7 +7244,7 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N86" t="n">
         <v>7000</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44312</v>
+        <v>44260</v>
       </c>
       <c r="E87" t="n">
         <v>9</v>
@@ -7324,7 +7324,7 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N87" t="n">
         <v>7000</v>
@@ -7342,7 +7342,7 @@
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S87" t="n">
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44264</v>
+        <v>44312</v>
       </c>
       <c r="E88" t="n">
         <v>9</v>
@@ -7404,7 +7404,7 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N88" t="n">
         <v>7000</v>
@@ -7422,7 +7422,7 @@
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S88" t="n">
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44301</v>
+        <v>44264</v>
       </c>
       <c r="E89" t="n">
         <v>9</v>
@@ -7484,16 +7484,16 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N89" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O89" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="P89" t="n">
-        <v>6194</v>
+        <v>7000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7502,11 +7502,11 @@
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S89" t="n">
-        <v>885</v>
+        <v>1000</v>
       </c>
       <c r="T89" t="n">
         <v>7</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44251</v>
+        <v>44463</v>
       </c>
       <c r="E90" t="n">
         <v>9</v>
@@ -7564,29 +7564,29 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="N90" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O90" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P90" t="n">
-        <v>7467</v>
+        <v>20000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S90" t="n">
-        <v>1067</v>
+        <v>2857</v>
       </c>
       <c r="T90" t="n">
         <v>7</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44251</v>
+        <v>44463</v>
       </c>
       <c r="E91" t="n">
         <v>9</v>
@@ -7640,33 +7640,33 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N91" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O91" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P91" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S91" t="n">
-        <v>714</v>
+        <v>1429</v>
       </c>
       <c r="T91" t="n">
         <v>7</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44243</v>
+        <v>44301</v>
       </c>
       <c r="E92" t="n">
         <v>9</v>
@@ -7724,16 +7724,16 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="N92" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O92" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="P92" t="n">
-        <v>7450</v>
+        <v>6194</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7742,11 +7742,11 @@
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S92" t="n">
-        <v>1064</v>
+        <v>885</v>
       </c>
       <c r="T92" t="n">
         <v>7</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E93" t="n">
         <v>9</v>
@@ -7800,20 +7800,20 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="N93" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O93" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P93" t="n">
-        <v>5000</v>
+        <v>7467</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>714</v>
+        <v>1067</v>
       </c>
       <c r="T93" t="n">
         <v>7</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E94" t="n">
         <v>9</v>
@@ -7880,20 +7880,20 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>220</v>
+        <v>55</v>
       </c>
       <c r="N94" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O94" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P94" t="n">
-        <v>7568</v>
+        <v>5000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>1081</v>
+        <v>714</v>
       </c>
       <c r="T94" t="n">
         <v>7</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E95" t="n">
         <v>9</v>
@@ -7960,20 +7960,20 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="N95" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O95" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P95" t="n">
-        <v>5000</v>
+        <v>7450</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>714</v>
+        <v>1064</v>
       </c>
       <c r="T95" t="n">
         <v>7</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E96" t="n">
         <v>9</v>
@@ -8040,20 +8040,20 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="N96" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O96" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P96" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>1071</v>
+        <v>714</v>
       </c>
       <c r="T96" t="n">
         <v>7</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E97" t="n">
         <v>9</v>
@@ -8120,33 +8120,33 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N97" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O97" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P97" t="n">
-        <v>12000</v>
+        <v>7568</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S97" t="n">
-        <v>1714</v>
+        <v>1081</v>
       </c>
       <c r="T97" t="n">
         <v>7</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E98" t="n">
         <v>9</v>
@@ -8200,33 +8200,33 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>600</v>
+        <v>85</v>
       </c>
       <c r="N98" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O98" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P98" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S98" t="n">
-        <v>1429</v>
+        <v>714</v>
       </c>
       <c r="T98" t="n">
         <v>7</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E99" t="n">
         <v>9</v>
@@ -8284,29 +8284,29 @@
         </is>
       </c>
       <c r="M99" t="n">
-        <v>25</v>
+        <v>400</v>
       </c>
       <c r="N99" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O99" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P99" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S99" t="n">
-        <v>2143</v>
+        <v>1071</v>
       </c>
       <c r="T99" t="n">
         <v>7</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44221</v>
+        <v>44168</v>
       </c>
       <c r="E100" t="n">
         <v>9</v>
@@ -8360,33 +8360,33 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N100" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O100" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P100" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S100" t="n">
-        <v>1000</v>
+        <v>1714</v>
       </c>
       <c r="T100" t="n">
         <v>7</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44397</v>
+        <v>44168</v>
       </c>
       <c r="E101" t="n">
         <v>9</v>
@@ -8444,16 +8444,16 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>55</v>
+        <v>600</v>
       </c>
       <c r="N101" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="O101" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="P101" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8462,11 +8462,11 @@
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S101" t="n">
-        <v>3143</v>
+        <v>1429</v>
       </c>
       <c r="T101" t="n">
         <v>7</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44277</v>
+        <v>44369</v>
       </c>
       <c r="E102" t="n">
         <v>9</v>
@@ -8524,29 +8524,29 @@
         </is>
       </c>
       <c r="M102" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="N102" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="O102" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="P102" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S102" t="n">
-        <v>857</v>
+        <v>2143</v>
       </c>
       <c r="T102" t="n">
         <v>7</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44291</v>
+        <v>44221</v>
       </c>
       <c r="E103" t="n">
         <v>9</v>
@@ -8604,7 +8604,7 @@
         </is>
       </c>
       <c r="M103" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N103" t="n">
         <v>7000</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44291</v>
+        <v>44397</v>
       </c>
       <c r="E104" t="n">
         <v>9</v>
@@ -8680,33 +8680,33 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N104" t="n">
-        <v>6000</v>
+        <v>22000</v>
       </c>
       <c r="O104" t="n">
-        <v>6000</v>
+        <v>22000</v>
       </c>
       <c r="P104" t="n">
-        <v>6000</v>
+        <v>22000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S104" t="n">
-        <v>857</v>
+        <v>3143</v>
       </c>
       <c r="T104" t="n">
         <v>7</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="E105" t="n">
         <v>9</v>
@@ -8770,10 +8770,10 @@
         <v>6000</v>
       </c>
       <c r="O105" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P105" t="n">
-        <v>6562</v>
+        <v>6000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>937</v>
+        <v>857</v>
       </c>
       <c r="T105" t="n">
         <v>7</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44372</v>
+        <v>44291</v>
       </c>
       <c r="E106" t="n">
         <v>9</v>
@@ -8844,29 +8844,29 @@
         </is>
       </c>
       <c r="M106" t="n">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="N106" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="O106" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="P106" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S106" t="n">
-        <v>2429</v>
+        <v>1000</v>
       </c>
       <c r="T106" t="n">
         <v>7</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44286</v>
+        <v>44291</v>
       </c>
       <c r="E107" t="n">
         <v>9</v>
@@ -8920,20 +8920,20 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N107" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="O107" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P107" t="n">
-        <v>6786</v>
+        <v>6000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8942,11 +8942,11 @@
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S107" t="n">
-        <v>969</v>
+        <v>857</v>
       </c>
       <c r="T107" t="n">
         <v>7</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44209</v>
+        <v>44273</v>
       </c>
       <c r="E108" t="n">
         <v>9</v>
@@ -9004,16 +9004,16 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N108" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O108" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P108" t="n">
-        <v>8500</v>
+        <v>6562</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>1214</v>
+        <v>937</v>
       </c>
       <c r="T108" t="n">
         <v>7</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44160</v>
+        <v>44372</v>
       </c>
       <c r="E109" t="n">
         <v>9</v>
@@ -9084,29 +9084,29 @@
         </is>
       </c>
       <c r="M109" t="n">
-        <v>320</v>
+        <v>35</v>
       </c>
       <c r="N109" t="n">
-        <v>7500</v>
+        <v>17000</v>
       </c>
       <c r="O109" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="P109" t="n">
-        <v>7734</v>
+        <v>17000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S109" t="n">
-        <v>1105</v>
+        <v>2429</v>
       </c>
       <c r="T109" t="n">
         <v>7</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44215</v>
+        <v>44286</v>
       </c>
       <c r="E110" t="n">
         <v>9</v>
@@ -9164,16 +9164,16 @@
         </is>
       </c>
       <c r="M110" t="n">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="N110" t="n">
+        <v>6500</v>
+      </c>
+      <c r="O110" t="n">
         <v>7000</v>
       </c>
-      <c r="O110" t="n">
-        <v>8000</v>
-      </c>
       <c r="P110" t="n">
-        <v>7542</v>
+        <v>6786</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -9182,11 +9182,11 @@
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S110" t="n">
-        <v>1077</v>
+        <v>969</v>
       </c>
       <c r="T110" t="n">
         <v>7</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44175</v>
+        <v>44209</v>
       </c>
       <c r="E111" t="n">
         <v>9</v>
@@ -9244,16 +9244,16 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="N111" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O111" t="n">
         <v>9000</v>
       </c>
       <c r="P111" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         </is>
       </c>
       <c r="S111" t="n">
-        <v>1286</v>
+        <v>1214</v>
       </c>
       <c r="T111" t="n">
         <v>7</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44203</v>
+        <v>44160</v>
       </c>
       <c r="E112" t="n">
         <v>9</v>
@@ -9324,16 +9324,16 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>175</v>
+        <v>320</v>
       </c>
       <c r="N112" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="O112" t="n">
         <v>8000</v>
       </c>
       <c r="P112" t="n">
-        <v>7543</v>
+        <v>7734</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9342,11 +9342,11 @@
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S112" t="n">
-        <v>1078</v>
+        <v>1105</v>
       </c>
       <c r="T112" t="n">
         <v>7</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44203</v>
+        <v>44215</v>
       </c>
       <c r="E113" t="n">
         <v>9</v>
@@ -9400,20 +9400,20 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="N113" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="O113" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P113" t="n">
-        <v>5500</v>
+        <v>7542</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9422,11 +9422,11 @@
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S113" t="n">
-        <v>786</v>
+        <v>1077</v>
       </c>
       <c r="T113" t="n">
         <v>7</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44162</v>
+        <v>44175</v>
       </c>
       <c r="E114" t="n">
         <v>9</v>
@@ -9484,29 +9484,29 @@
         </is>
       </c>
       <c r="M114" t="n">
-        <v>305</v>
+        <v>155</v>
       </c>
       <c r="N114" t="n">
         <v>9000</v>
       </c>
       <c r="O114" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P114" t="n">
-        <v>9410</v>
+        <v>9000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S114" t="n">
-        <v>1344</v>
+        <v>1286</v>
       </c>
       <c r="T114" t="n">
         <v>7</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E115" t="n">
         <v>9</v>
@@ -9564,16 +9564,16 @@
         </is>
       </c>
       <c r="M115" t="n">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="N115" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="O115" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="P115" t="n">
-        <v>7500</v>
+        <v>7543</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -9582,11 +9582,11 @@
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S115" t="n">
-        <v>1071</v>
+        <v>1078</v>
       </c>
       <c r="T115" t="n">
         <v>7</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E116" t="n">
         <v>9</v>
@@ -9644,29 +9644,29 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="N116" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="O116" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="P116" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S116" t="n">
-        <v>1000</v>
+        <v>786</v>
       </c>
       <c r="T116" t="n">
         <v>7</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44257</v>
+        <v>44162</v>
       </c>
       <c r="E117" t="n">
         <v>9</v>
@@ -9724,29 +9724,29 @@
         </is>
       </c>
       <c r="M117" t="n">
-        <v>125</v>
+        <v>305</v>
       </c>
       <c r="N117" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O117" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P117" t="n">
-        <v>7000</v>
+        <v>9410</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S117" t="n">
-        <v>1000</v>
+        <v>1344</v>
       </c>
       <c r="T117" t="n">
         <v>7</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44244</v>
+        <v>44162</v>
       </c>
       <c r="E118" t="n">
         <v>9</v>
@@ -9804,16 +9804,16 @@
         </is>
       </c>
       <c r="M118" t="n">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="N118" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="O118" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="P118" t="n">
-        <v>7462</v>
+        <v>7500</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>1066</v>
+        <v>1071</v>
       </c>
       <c r="T118" t="n">
         <v>7</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44244</v>
+        <v>44162</v>
       </c>
       <c r="E119" t="n">
         <v>9</v>
@@ -9884,29 +9884,29 @@
         </is>
       </c>
       <c r="M119" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="N119" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O119" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P119" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S119" t="n">
-        <v>714</v>
+        <v>1000</v>
       </c>
       <c r="T119" t="n">
         <v>7</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44211</v>
+        <v>44257</v>
       </c>
       <c r="E120" t="n">
         <v>9</v>
@@ -9964,16 +9964,16 @@
         </is>
       </c>
       <c r="M120" t="n">
-        <v>270</v>
+        <v>125</v>
       </c>
       <c r="N120" t="n">
         <v>7000</v>
       </c>
       <c r="O120" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P120" t="n">
-        <v>7556</v>
+        <v>7000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>1079</v>
+        <v>1000</v>
       </c>
       <c r="T120" t="n">
         <v>7</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44323</v>
+        <v>44244</v>
       </c>
       <c r="E121" t="n">
         <v>9</v>
@@ -10044,16 +10044,16 @@
         </is>
       </c>
       <c r="M121" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="N121" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O121" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P121" t="n">
-        <v>9000</v>
+        <v>7462</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>1286</v>
+        <v>1066</v>
       </c>
       <c r="T121" t="n">
         <v>7</v>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44323</v>
+        <v>44244</v>
       </c>
       <c r="E122" t="n">
         <v>9</v>
@@ -10124,31 +10124,271 @@
         </is>
       </c>
       <c r="M122" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N122" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O122" t="n">
         <v>5000</v>
       </c>
       <c r="P122" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>$/caja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R122" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="S122" t="n">
+        <v>714</v>
+      </c>
+      <c r="T122" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>10</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>44211</v>
+      </c>
+      <c r="E123" t="n">
+        <v>9</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>270</v>
+      </c>
+      <c r="N123" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O123" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P123" t="n">
+        <v>7556</v>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>$/caja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R123" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="S123" t="n">
+        <v>1079</v>
+      </c>
+      <c r="T123" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>10</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E124" t="n">
+        <v>9</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>40</v>
+      </c>
+      <c r="N124" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O124" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P124" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>$/caja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R124" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="S124" t="n">
+        <v>1286</v>
+      </c>
+      <c r="T124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>10</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E125" t="n">
+        <v>9</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>30</v>
+      </c>
+      <c r="N125" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O125" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P125" t="n">
         <v>4500</v>
       </c>
-      <c r="Q122" t="inlineStr">
+      <c r="Q125" t="inlineStr">
         <is>
           <t>$/caja 7 kilos</t>
         </is>
       </c>
-      <c r="R122" t="inlineStr">
+      <c r="R125" t="inlineStr">
         <is>
           <t>Región de La Araucanía</t>
         </is>
       </c>
-      <c r="S122" t="n">
+      <c r="S125" t="n">
         <v>643</v>
       </c>
-      <c r="T122" t="n">
+      <c r="T125" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T125"/>
+  <dimension ref="A1:T128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44249</v>
+        <v>44466</v>
       </c>
       <c r="E82" t="n">
         <v>9</v>
@@ -6924,29 +6924,29 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>120</v>
+        <v>800</v>
       </c>
       <c r="N82" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="O82" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P82" t="n">
-        <v>7458</v>
+        <v>16000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S82" t="n">
-        <v>1065</v>
+        <v>2286</v>
       </c>
       <c r="T82" t="n">
         <v>7</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44249</v>
+        <v>44466</v>
       </c>
       <c r="E83" t="n">
         <v>9</v>
@@ -7004,29 +7004,29 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="N83" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="O83" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="P83" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S83" t="n">
-        <v>714</v>
+        <v>1857</v>
       </c>
       <c r="T83" t="n">
         <v>7</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44201</v>
+        <v>44466</v>
       </c>
       <c r="E84" t="n">
         <v>9</v>
@@ -7080,33 +7080,33 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="N84" t="n">
-        <v>7000</v>
+        <v>800</v>
       </c>
       <c r="O84" t="n">
-        <v>7000</v>
+        <v>800</v>
       </c>
       <c r="P84" t="n">
-        <v>7000</v>
+        <v>800</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S84" t="n">
-        <v>1000</v>
+        <v>114</v>
       </c>
       <c r="T84" t="n">
         <v>7</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44280</v>
+        <v>44249</v>
       </c>
       <c r="E85" t="n">
         <v>9</v>
@@ -7164,16 +7164,16 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N85" t="n">
         <v>7000</v>
       </c>
       <c r="O85" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P85" t="n">
-        <v>7000</v>
+        <v>7458</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7182,11 +7182,11 @@
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S85" t="n">
-        <v>1000</v>
+        <v>1065</v>
       </c>
       <c r="T85" t="n">
         <v>7</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44270</v>
+        <v>44249</v>
       </c>
       <c r="E86" t="n">
         <v>9</v>
@@ -7240,20 +7240,20 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N86" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O86" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P86" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7262,11 +7262,11 @@
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S86" t="n">
-        <v>1000</v>
+        <v>714</v>
       </c>
       <c r="T86" t="n">
         <v>7</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44260</v>
+        <v>44201</v>
       </c>
       <c r="E87" t="n">
         <v>9</v>
@@ -7324,7 +7324,7 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N87" t="n">
         <v>7000</v>
@@ -7342,7 +7342,7 @@
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S87" t="n">
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44312</v>
+        <v>44280</v>
       </c>
       <c r="E88" t="n">
         <v>9</v>
@@ -7404,7 +7404,7 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="N88" t="n">
         <v>7000</v>
@@ -7422,7 +7422,7 @@
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S88" t="n">
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44264</v>
+        <v>44270</v>
       </c>
       <c r="E89" t="n">
         <v>9</v>
@@ -7484,7 +7484,7 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N89" t="n">
         <v>7000</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44463</v>
+        <v>44260</v>
       </c>
       <c r="E90" t="n">
         <v>9</v>
@@ -7564,29 +7564,29 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="N90" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O90" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="P90" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S90" t="n">
-        <v>2857</v>
+        <v>1000</v>
       </c>
       <c r="T90" t="n">
         <v>7</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44463</v>
+        <v>44312</v>
       </c>
       <c r="E91" t="n">
         <v>9</v>
@@ -7640,33 +7640,33 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="N91" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O91" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P91" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S91" t="n">
-        <v>1429</v>
+        <v>1000</v>
       </c>
       <c r="T91" t="n">
         <v>7</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44301</v>
+        <v>44264</v>
       </c>
       <c r="E92" t="n">
         <v>9</v>
@@ -7724,16 +7724,16 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N92" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O92" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="P92" t="n">
-        <v>6194</v>
+        <v>7000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7742,11 +7742,11 @@
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S92" t="n">
-        <v>885</v>
+        <v>1000</v>
       </c>
       <c r="T92" t="n">
         <v>7</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44251</v>
+        <v>44463</v>
       </c>
       <c r="E93" t="n">
         <v>9</v>
@@ -7804,29 +7804,29 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="N93" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O93" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P93" t="n">
-        <v>7467</v>
+        <v>20000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S93" t="n">
-        <v>1067</v>
+        <v>2857</v>
       </c>
       <c r="T93" t="n">
         <v>7</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44251</v>
+        <v>44463</v>
       </c>
       <c r="E94" t="n">
         <v>9</v>
@@ -7880,33 +7880,33 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N94" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O94" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P94" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S94" t="n">
-        <v>714</v>
+        <v>1429</v>
       </c>
       <c r="T94" t="n">
         <v>7</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44243</v>
+        <v>44301</v>
       </c>
       <c r="E95" t="n">
         <v>9</v>
@@ -7964,16 +7964,16 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="N95" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O95" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="P95" t="n">
-        <v>7450</v>
+        <v>6194</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7982,11 +7982,11 @@
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S95" t="n">
-        <v>1064</v>
+        <v>885</v>
       </c>
       <c r="T95" t="n">
         <v>7</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E96" t="n">
         <v>9</v>
@@ -8040,20 +8040,20 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="N96" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O96" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P96" t="n">
-        <v>5000</v>
+        <v>7467</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>714</v>
+        <v>1067</v>
       </c>
       <c r="T96" t="n">
         <v>7</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E97" t="n">
         <v>9</v>
@@ -8120,20 +8120,20 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>220</v>
+        <v>55</v>
       </c>
       <c r="N97" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O97" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P97" t="n">
-        <v>7568</v>
+        <v>5000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="S97" t="n">
-        <v>1081</v>
+        <v>714</v>
       </c>
       <c r="T97" t="n">
         <v>7</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E98" t="n">
         <v>9</v>
@@ -8200,20 +8200,20 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="N98" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O98" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P98" t="n">
-        <v>5000</v>
+        <v>7450</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>714</v>
+        <v>1064</v>
       </c>
       <c r="T98" t="n">
         <v>7</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E99" t="n">
         <v>9</v>
@@ -8280,20 +8280,20 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="N99" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O99" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P99" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>1071</v>
+        <v>714</v>
       </c>
       <c r="T99" t="n">
         <v>7</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E100" t="n">
         <v>9</v>
@@ -8360,33 +8360,33 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N100" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O100" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P100" t="n">
-        <v>12000</v>
+        <v>7568</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S100" t="n">
-        <v>1714</v>
+        <v>1081</v>
       </c>
       <c r="T100" t="n">
         <v>7</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E101" t="n">
         <v>9</v>
@@ -8440,33 +8440,33 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>600</v>
+        <v>85</v>
       </c>
       <c r="N101" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O101" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P101" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S101" t="n">
-        <v>1429</v>
+        <v>714</v>
       </c>
       <c r="T101" t="n">
         <v>7</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E102" t="n">
         <v>9</v>
@@ -8524,29 +8524,29 @@
         </is>
       </c>
       <c r="M102" t="n">
-        <v>25</v>
+        <v>400</v>
       </c>
       <c r="N102" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O102" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P102" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S102" t="n">
-        <v>2143</v>
+        <v>1071</v>
       </c>
       <c r="T102" t="n">
         <v>7</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44221</v>
+        <v>44168</v>
       </c>
       <c r="E103" t="n">
         <v>9</v>
@@ -8600,33 +8600,33 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N103" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O103" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P103" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S103" t="n">
-        <v>1000</v>
+        <v>1714</v>
       </c>
       <c r="T103" t="n">
         <v>7</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44397</v>
+        <v>44168</v>
       </c>
       <c r="E104" t="n">
         <v>9</v>
@@ -8684,16 +8684,16 @@
         </is>
       </c>
       <c r="M104" t="n">
-        <v>55</v>
+        <v>600</v>
       </c>
       <c r="N104" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="O104" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="P104" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -8702,11 +8702,11 @@
       </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S104" t="n">
-        <v>3143</v>
+        <v>1429</v>
       </c>
       <c r="T104" t="n">
         <v>7</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44277</v>
+        <v>44369</v>
       </c>
       <c r="E105" t="n">
         <v>9</v>
@@ -8764,29 +8764,29 @@
         </is>
       </c>
       <c r="M105" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="N105" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="O105" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="P105" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S105" t="n">
-        <v>857</v>
+        <v>2143</v>
       </c>
       <c r="T105" t="n">
         <v>7</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44291</v>
+        <v>44221</v>
       </c>
       <c r="E106" t="n">
         <v>9</v>
@@ -8844,7 +8844,7 @@
         </is>
       </c>
       <c r="M106" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N106" t="n">
         <v>7000</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44291</v>
+        <v>44397</v>
       </c>
       <c r="E107" t="n">
         <v>9</v>
@@ -8920,33 +8920,33 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N107" t="n">
-        <v>6000</v>
+        <v>22000</v>
       </c>
       <c r="O107" t="n">
-        <v>6000</v>
+        <v>22000</v>
       </c>
       <c r="P107" t="n">
-        <v>6000</v>
+        <v>22000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S107" t="n">
-        <v>857</v>
+        <v>3143</v>
       </c>
       <c r="T107" t="n">
         <v>7</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="E108" t="n">
         <v>9</v>
@@ -9010,10 +9010,10 @@
         <v>6000</v>
       </c>
       <c r="O108" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P108" t="n">
-        <v>6562</v>
+        <v>6000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>937</v>
+        <v>857</v>
       </c>
       <c r="T108" t="n">
         <v>7</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44372</v>
+        <v>44291</v>
       </c>
       <c r="E109" t="n">
         <v>9</v>
@@ -9084,29 +9084,29 @@
         </is>
       </c>
       <c r="M109" t="n">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="N109" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="O109" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="P109" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S109" t="n">
-        <v>2429</v>
+        <v>1000</v>
       </c>
       <c r="T109" t="n">
         <v>7</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44286</v>
+        <v>44291</v>
       </c>
       <c r="E110" t="n">
         <v>9</v>
@@ -9160,20 +9160,20 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N110" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="O110" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P110" t="n">
-        <v>6786</v>
+        <v>6000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -9182,11 +9182,11 @@
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S110" t="n">
-        <v>969</v>
+        <v>857</v>
       </c>
       <c r="T110" t="n">
         <v>7</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44209</v>
+        <v>44273</v>
       </c>
       <c r="E111" t="n">
         <v>9</v>
@@ -9244,16 +9244,16 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N111" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O111" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P111" t="n">
-        <v>8500</v>
+        <v>6562</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         </is>
       </c>
       <c r="S111" t="n">
-        <v>1214</v>
+        <v>937</v>
       </c>
       <c r="T111" t="n">
         <v>7</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44160</v>
+        <v>44372</v>
       </c>
       <c r="E112" t="n">
         <v>9</v>
@@ -9324,29 +9324,29 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>320</v>
+        <v>35</v>
       </c>
       <c r="N112" t="n">
-        <v>7500</v>
+        <v>17000</v>
       </c>
       <c r="O112" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="P112" t="n">
-        <v>7734</v>
+        <v>17000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S112" t="n">
-        <v>1105</v>
+        <v>2429</v>
       </c>
       <c r="T112" t="n">
         <v>7</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44215</v>
+        <v>44286</v>
       </c>
       <c r="E113" t="n">
         <v>9</v>
@@ -9404,16 +9404,16 @@
         </is>
       </c>
       <c r="M113" t="n">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="N113" t="n">
+        <v>6500</v>
+      </c>
+      <c r="O113" t="n">
         <v>7000</v>
       </c>
-      <c r="O113" t="n">
-        <v>8000</v>
-      </c>
       <c r="P113" t="n">
-        <v>7542</v>
+        <v>6786</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9422,11 +9422,11 @@
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S113" t="n">
-        <v>1077</v>
+        <v>969</v>
       </c>
       <c r="T113" t="n">
         <v>7</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44175</v>
+        <v>44209</v>
       </c>
       <c r="E114" t="n">
         <v>9</v>
@@ -9484,16 +9484,16 @@
         </is>
       </c>
       <c r="M114" t="n">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="N114" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O114" t="n">
         <v>9000</v>
       </c>
       <c r="P114" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>1286</v>
+        <v>1214</v>
       </c>
       <c r="T114" t="n">
         <v>7</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44203</v>
+        <v>44160</v>
       </c>
       <c r="E115" t="n">
         <v>9</v>
@@ -9564,16 +9564,16 @@
         </is>
       </c>
       <c r="M115" t="n">
-        <v>175</v>
+        <v>320</v>
       </c>
       <c r="N115" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="O115" t="n">
         <v>8000</v>
       </c>
       <c r="P115" t="n">
-        <v>7543</v>
+        <v>7734</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -9582,11 +9582,11 @@
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S115" t="n">
-        <v>1078</v>
+        <v>1105</v>
       </c>
       <c r="T115" t="n">
         <v>7</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44203</v>
+        <v>44215</v>
       </c>
       <c r="E116" t="n">
         <v>9</v>
@@ -9640,20 +9640,20 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M116" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="N116" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="O116" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P116" t="n">
-        <v>5500</v>
+        <v>7542</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -9662,11 +9662,11 @@
       </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S116" t="n">
-        <v>786</v>
+        <v>1077</v>
       </c>
       <c r="T116" t="n">
         <v>7</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44162</v>
+        <v>44175</v>
       </c>
       <c r="E117" t="n">
         <v>9</v>
@@ -9724,29 +9724,29 @@
         </is>
       </c>
       <c r="M117" t="n">
-        <v>305</v>
+        <v>155</v>
       </c>
       <c r="N117" t="n">
         <v>9000</v>
       </c>
       <c r="O117" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P117" t="n">
-        <v>9410</v>
+        <v>9000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S117" t="n">
-        <v>1344</v>
+        <v>1286</v>
       </c>
       <c r="T117" t="n">
         <v>7</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E118" t="n">
         <v>9</v>
@@ -9804,16 +9804,16 @@
         </is>
       </c>
       <c r="M118" t="n">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="N118" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="O118" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="P118" t="n">
-        <v>7500</v>
+        <v>7543</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9822,11 +9822,11 @@
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S118" t="n">
-        <v>1071</v>
+        <v>1078</v>
       </c>
       <c r="T118" t="n">
         <v>7</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E119" t="n">
         <v>9</v>
@@ -9884,29 +9884,29 @@
         </is>
       </c>
       <c r="M119" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="N119" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="O119" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="P119" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S119" t="n">
-        <v>1000</v>
+        <v>786</v>
       </c>
       <c r="T119" t="n">
         <v>7</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44257</v>
+        <v>44162</v>
       </c>
       <c r="E120" t="n">
         <v>9</v>
@@ -9964,29 +9964,29 @@
         </is>
       </c>
       <c r="M120" t="n">
-        <v>125</v>
+        <v>305</v>
       </c>
       <c r="N120" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O120" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P120" t="n">
-        <v>7000</v>
+        <v>9410</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R120" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S120" t="n">
-        <v>1000</v>
+        <v>1344</v>
       </c>
       <c r="T120" t="n">
         <v>7</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44244</v>
+        <v>44162</v>
       </c>
       <c r="E121" t="n">
         <v>9</v>
@@ -10044,16 +10044,16 @@
         </is>
       </c>
       <c r="M121" t="n">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="N121" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="O121" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="P121" t="n">
-        <v>7462</v>
+        <v>7500</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>1066</v>
+        <v>1071</v>
       </c>
       <c r="T121" t="n">
         <v>7</v>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44244</v>
+        <v>44162</v>
       </c>
       <c r="E122" t="n">
         <v>9</v>
@@ -10124,29 +10124,29 @@
         </is>
       </c>
       <c r="M122" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="N122" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O122" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P122" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R122" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S122" t="n">
-        <v>714</v>
+        <v>1000</v>
       </c>
       <c r="T122" t="n">
         <v>7</v>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44211</v>
+        <v>44257</v>
       </c>
       <c r="E123" t="n">
         <v>9</v>
@@ -10204,16 +10204,16 @@
         </is>
       </c>
       <c r="M123" t="n">
-        <v>270</v>
+        <v>125</v>
       </c>
       <c r="N123" t="n">
         <v>7000</v>
       </c>
       <c r="O123" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P123" t="n">
-        <v>7556</v>
+        <v>7000</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>1079</v>
+        <v>1000</v>
       </c>
       <c r="T123" t="n">
         <v>7</v>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44323</v>
+        <v>44244</v>
       </c>
       <c r="E124" t="n">
         <v>9</v>
@@ -10284,16 +10284,16 @@
         </is>
       </c>
       <c r="M124" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="N124" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O124" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P124" t="n">
-        <v>9000</v>
+        <v>7462</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="S124" t="n">
-        <v>1286</v>
+        <v>1066</v>
       </c>
       <c r="T124" t="n">
         <v>7</v>
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44323</v>
+        <v>44244</v>
       </c>
       <c r="E125" t="n">
         <v>9</v>
@@ -10364,31 +10364,271 @@
         </is>
       </c>
       <c r="M125" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N125" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O125" t="n">
         <v>5000</v>
       </c>
       <c r="P125" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>$/caja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R125" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="S125" t="n">
+        <v>714</v>
+      </c>
+      <c r="T125" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>10</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>44211</v>
+      </c>
+      <c r="E126" t="n">
+        <v>9</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>270</v>
+      </c>
+      <c r="N126" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O126" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P126" t="n">
+        <v>7556</v>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>$/caja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R126" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="S126" t="n">
+        <v>1079</v>
+      </c>
+      <c r="T126" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>10</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D127" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E127" t="n">
+        <v>9</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>40</v>
+      </c>
+      <c r="N127" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O127" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P127" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>$/caja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R127" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="S127" t="n">
+        <v>1286</v>
+      </c>
+      <c r="T127" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>10</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D128" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E128" t="n">
+        <v>9</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>30</v>
+      </c>
+      <c r="N128" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O128" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P128" t="n">
         <v>4500</v>
       </c>
-      <c r="Q125" t="inlineStr">
+      <c r="Q128" t="inlineStr">
         <is>
           <t>$/caja 7 kilos</t>
         </is>
       </c>
-      <c r="R125" t="inlineStr">
+      <c r="R128" t="inlineStr">
         <is>
           <t>Región de La Araucanía</t>
         </is>
       </c>
-      <c r="S125" t="n">
+      <c r="S128" t="n">
         <v>643</v>
       </c>
-      <c r="T125" t="n">
+      <c r="T128" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T128"/>
+  <dimension ref="A1:T130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44284</v>
+        <v>44469</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3884,29 +3884,29 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>65</v>
+        <v>3000</v>
       </c>
       <c r="N44" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O44" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="P44" t="n">
-        <v>7000</v>
+        <v>15333</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1000</v>
+        <v>2190</v>
       </c>
       <c r="T44" t="n">
         <v>7</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44216</v>
+        <v>44469</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3960,33 +3960,33 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="N45" t="n">
         <v>7000</v>
       </c>
       <c r="O45" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P45" t="n">
-        <v>7579</v>
+        <v>7000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1083</v>
+        <v>1000</v>
       </c>
       <c r="T45" t="n">
         <v>7</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44216</v>
+        <v>44284</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N46" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O46" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P46" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4062,11 +4062,11 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>714</v>
+        <v>1000</v>
       </c>
       <c r="T46" t="n">
         <v>7</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44253</v>
+        <v>44216</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -4124,7 +4124,7 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="N47" t="n">
         <v>7000</v>
@@ -4133,7 +4133,7 @@
         <v>8000</v>
       </c>
       <c r="P47" t="n">
-        <v>7417</v>
+        <v>7579</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1060</v>
+        <v>1083</v>
       </c>
       <c r="T47" t="n">
         <v>7</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44253</v>
+        <v>44216</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N48" t="n">
         <v>5000</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44245</v>
+        <v>44253</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -4284,7 +4284,7 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="N49" t="n">
         <v>7000</v>
@@ -4293,7 +4293,7 @@
         <v>8000</v>
       </c>
       <c r="P49" t="n">
-        <v>7360</v>
+        <v>7417</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1051</v>
+        <v>1060</v>
       </c>
       <c r="T49" t="n">
         <v>7</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44245</v>
+        <v>44253</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -4364,7 +4364,7 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N50" t="n">
         <v>5000</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44225</v>
+        <v>44245</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4444,7 +4444,7 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="N51" t="n">
         <v>7000</v>
@@ -4453,7 +4453,7 @@
         <v>8000</v>
       </c>
       <c r="P51" t="n">
-        <v>7500</v>
+        <v>7360</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1071</v>
+        <v>1051</v>
       </c>
       <c r="T51" t="n">
         <v>7</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44399</v>
+        <v>44245</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4520,33 +4520,33 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N52" t="n">
-        <v>22000</v>
+        <v>5000</v>
       </c>
       <c r="O52" t="n">
-        <v>23000</v>
+        <v>5000</v>
       </c>
       <c r="P52" t="n">
-        <v>22538</v>
+        <v>5000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S52" t="n">
-        <v>3220</v>
+        <v>714</v>
       </c>
       <c r="T52" t="n">
         <v>7</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44218</v>
+        <v>44225</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4604,7 +4604,7 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="N53" t="n">
         <v>7000</v>
@@ -4613,7 +4613,7 @@
         <v>8000</v>
       </c>
       <c r="P53" t="n">
-        <v>7516</v>
+        <v>7500</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="T53" t="n">
         <v>7</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44218</v>
+        <v>44399</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4680,33 +4680,33 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M54" t="n">
         <v>65</v>
       </c>
       <c r="N54" t="n">
-        <v>5500</v>
+        <v>22000</v>
       </c>
       <c r="O54" t="n">
-        <v>5500</v>
+        <v>23000</v>
       </c>
       <c r="P54" t="n">
-        <v>5500</v>
+        <v>22538</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S54" t="n">
-        <v>786</v>
+        <v>3220</v>
       </c>
       <c r="T54" t="n">
         <v>7</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44223</v>
+        <v>44218</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4764,7 +4764,7 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="N55" t="n">
         <v>7000</v>
@@ -4773,7 +4773,7 @@
         <v>8000</v>
       </c>
       <c r="P55" t="n">
-        <v>7385</v>
+        <v>7516</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>1055</v>
+        <v>1074</v>
       </c>
       <c r="T55" t="n">
         <v>7</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44246</v>
+        <v>44218</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4840,20 +4840,20 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N56" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="O56" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="P56" t="n">
-        <v>7417</v>
+        <v>5500</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>1060</v>
+        <v>786</v>
       </c>
       <c r="T56" t="n">
         <v>7</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44246</v>
+        <v>44223</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4920,20 +4920,20 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="N57" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O57" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P57" t="n">
-        <v>5000</v>
+        <v>7385</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>714</v>
+        <v>1055</v>
       </c>
       <c r="T57" t="n">
         <v>7</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44161</v>
+        <v>44246</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -5004,29 +5004,29 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>550</v>
+        <v>60</v>
       </c>
       <c r="N58" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O58" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P58" t="n">
-        <v>9455</v>
+        <v>7417</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S58" t="n">
-        <v>1351</v>
+        <v>1060</v>
       </c>
       <c r="T58" t="n">
         <v>7</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44161</v>
+        <v>44246</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -5080,20 +5080,20 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>305</v>
+        <v>50</v>
       </c>
       <c r="N59" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="O59" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P59" t="n">
-        <v>6705</v>
+        <v>5000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>958</v>
+        <v>714</v>
       </c>
       <c r="T59" t="n">
         <v>7</v>
@@ -5160,33 +5160,33 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>180</v>
+        <v>550</v>
       </c>
       <c r="N60" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O60" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="P60" t="n">
-        <v>4000</v>
+        <v>9455</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S60" t="n">
-        <v>571</v>
+        <v>1351</v>
       </c>
       <c r="T60" t="n">
         <v>7</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44307</v>
+        <v>44161</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -5240,20 +5240,20 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>30</v>
+        <v>305</v>
       </c>
       <c r="N61" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="O61" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P61" t="n">
-        <v>5000</v>
+        <v>6705</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>714</v>
+        <v>958</v>
       </c>
       <c r="T61" t="n">
         <v>7</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44193</v>
+        <v>44161</v>
       </c>
       <c r="E62" t="n">
         <v>9</v>
@@ -5320,20 +5320,20 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N62" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="O62" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="P62" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>1429</v>
+        <v>571</v>
       </c>
       <c r="T62" t="n">
         <v>7</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44193</v>
+        <v>44307</v>
       </c>
       <c r="E63" t="n">
         <v>9</v>
@@ -5404,16 +5404,16 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="N63" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O63" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P63" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>1286</v>
+        <v>714</v>
       </c>
       <c r="T63" t="n">
         <v>7</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44274</v>
+        <v>44193</v>
       </c>
       <c r="E64" t="n">
         <v>9</v>
@@ -5484,16 +5484,16 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="N64" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O64" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P64" t="n">
-        <v>6579</v>
+        <v>10000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>940</v>
+        <v>1429</v>
       </c>
       <c r="T64" t="n">
         <v>7</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44200</v>
+        <v>44193</v>
       </c>
       <c r="E65" t="n">
         <v>9</v>
@@ -5560,20 +5560,20 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="N65" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O65" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P65" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5582,11 +5582,11 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S65" t="n">
-        <v>1000</v>
+        <v>1286</v>
       </c>
       <c r="T65" t="n">
         <v>7</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44200</v>
+        <v>44274</v>
       </c>
       <c r="E66" t="n">
         <v>9</v>
@@ -5640,20 +5640,20 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M66" t="n">
         <v>95</v>
       </c>
       <c r="N66" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="O66" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="P66" t="n">
-        <v>5500</v>
+        <v>6579</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5662,11 +5662,11 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S66" t="n">
-        <v>786</v>
+        <v>940</v>
       </c>
       <c r="T66" t="n">
         <v>7</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44214</v>
+        <v>44200</v>
       </c>
       <c r="E67" t="n">
         <v>9</v>
@@ -5724,16 +5724,16 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="N67" t="n">
         <v>7000</v>
       </c>
       <c r="O67" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P67" t="n">
-        <v>7455</v>
+        <v>7000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5742,11 +5742,11 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S67" t="n">
-        <v>1065</v>
+        <v>1000</v>
       </c>
       <c r="T67" t="n">
         <v>7</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44214</v>
+        <v>44200</v>
       </c>
       <c r="E68" t="n">
         <v>9</v>
@@ -5804,16 +5804,16 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="N68" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="O68" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="P68" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5822,11 +5822,11 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S68" t="n">
-        <v>643</v>
+        <v>786</v>
       </c>
       <c r="T68" t="n">
         <v>7</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44237</v>
+        <v>44214</v>
       </c>
       <c r="E69" t="n">
         <v>9</v>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="N69" t="n">
         <v>7000</v>
@@ -5893,7 +5893,7 @@
         <v>8000</v>
       </c>
       <c r="P69" t="n">
-        <v>7533</v>
+        <v>7455</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5902,11 +5902,11 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S69" t="n">
-        <v>1076</v>
+        <v>1065</v>
       </c>
       <c r="T69" t="n">
         <v>7</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44237</v>
+        <v>44214</v>
       </c>
       <c r="E70" t="n">
         <v>9</v>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N70" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="O70" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="P70" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5982,11 +5982,11 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S70" t="n">
-        <v>714</v>
+        <v>643</v>
       </c>
       <c r="T70" t="n">
         <v>7</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44285</v>
+        <v>44237</v>
       </c>
       <c r="E71" t="n">
         <v>9</v>
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="N71" t="n">
         <v>7000</v>
       </c>
       <c r="O71" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P71" t="n">
-        <v>7000</v>
+        <v>7533</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6062,11 +6062,11 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S71" t="n">
-        <v>1000</v>
+        <v>1076</v>
       </c>
       <c r="T71" t="n">
         <v>7</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44210</v>
+        <v>44237</v>
       </c>
       <c r="E72" t="n">
         <v>9</v>
@@ -6120,20 +6120,20 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>500</v>
+        <v>35</v>
       </c>
       <c r="N72" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O72" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P72" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6142,11 +6142,11 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S72" t="n">
-        <v>1143</v>
+        <v>714</v>
       </c>
       <c r="T72" t="n">
         <v>7</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44217</v>
+        <v>44285</v>
       </c>
       <c r="E73" t="n">
         <v>9</v>
@@ -6204,16 +6204,16 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>235</v>
+        <v>55</v>
       </c>
       <c r="N73" t="n">
         <v>7000</v>
       </c>
       <c r="O73" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P73" t="n">
-        <v>7532</v>
+        <v>7000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>1076</v>
+        <v>1000</v>
       </c>
       <c r="T73" t="n">
         <v>7</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44217</v>
+        <v>44210</v>
       </c>
       <c r="E74" t="n">
         <v>9</v>
@@ -6280,20 +6280,20 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>85</v>
+        <v>500</v>
       </c>
       <c r="N74" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="O74" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P74" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>786</v>
+        <v>1143</v>
       </c>
       <c r="T74" t="n">
         <v>7</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44460</v>
+        <v>44217</v>
       </c>
       <c r="E75" t="n">
         <v>9</v>
@@ -6360,33 +6360,33 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>50</v>
+        <v>235</v>
       </c>
       <c r="N75" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O75" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="P75" t="n">
-        <v>20000</v>
+        <v>7532</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S75" t="n">
-        <v>2857</v>
+        <v>1076</v>
       </c>
       <c r="T75" t="n">
         <v>7</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44460</v>
+        <v>44217</v>
       </c>
       <c r="E76" t="n">
         <v>9</v>
@@ -6440,33 +6440,33 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="N76" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="O76" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="P76" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S76" t="n">
-        <v>1429</v>
+        <v>786</v>
       </c>
       <c r="T76" t="n">
         <v>7</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44165</v>
+        <v>44460</v>
       </c>
       <c r="E77" t="n">
         <v>9</v>
@@ -6520,20 +6520,20 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M77" t="n">
         <v>50</v>
       </c>
       <c r="N77" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O77" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="P77" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6542,11 +6542,11 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S77" t="n">
-        <v>1571</v>
+        <v>2857</v>
       </c>
       <c r="T77" t="n">
         <v>7</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44165</v>
+        <v>44460</v>
       </c>
       <c r="E78" t="n">
         <v>9</v>
@@ -6600,20 +6600,20 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>700</v>
+        <v>20</v>
       </c>
       <c r="N78" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O78" t="n">
         <v>10000</v>
       </c>
       <c r="P78" t="n">
-        <v>9571</v>
+        <v>10000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>1367</v>
+        <v>1429</v>
       </c>
       <c r="T78" t="n">
         <v>7</v>
@@ -6680,20 +6680,20 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="N79" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O79" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P79" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>1357</v>
+        <v>1571</v>
       </c>
       <c r="T79" t="n">
         <v>7</v>
@@ -6764,29 +6764,29 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N80" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O80" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P80" t="n">
-        <v>8500</v>
+        <v>9571</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S80" t="n">
-        <v>1214</v>
+        <v>1367</v>
       </c>
       <c r="T80" t="n">
         <v>7</v>
@@ -6840,20 +6840,20 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="N81" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O81" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P81" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6862,11 +6862,11 @@
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S81" t="n">
-        <v>1000</v>
+        <v>1357</v>
       </c>
       <c r="T81" t="n">
         <v>7</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44466</v>
+        <v>44165</v>
       </c>
       <c r="E82" t="n">
         <v>9</v>
@@ -6924,29 +6924,29 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N82" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="O82" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P82" t="n">
-        <v>16000</v>
+        <v>8500</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S82" t="n">
-        <v>2286</v>
+        <v>1214</v>
       </c>
       <c r="T82" t="n">
         <v>7</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44466</v>
+        <v>44165</v>
       </c>
       <c r="E83" t="n">
         <v>9</v>
@@ -7004,16 +7004,16 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N83" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O83" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="P83" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>1857</v>
+        <v>1000</v>
       </c>
       <c r="T83" t="n">
         <v>7</v>
@@ -7080,20 +7080,20 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="N84" t="n">
-        <v>800</v>
+        <v>16000</v>
       </c>
       <c r="O84" t="n">
-        <v>800</v>
+        <v>16000</v>
       </c>
       <c r="P84" t="n">
-        <v>800</v>
+        <v>16000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>114</v>
+        <v>2286</v>
       </c>
       <c r="T84" t="n">
         <v>7</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44249</v>
+        <v>44466</v>
       </c>
       <c r="E85" t="n">
         <v>9</v>
@@ -7160,33 +7160,33 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N85" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O85" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P85" t="n">
-        <v>7458</v>
+        <v>13000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S85" t="n">
-        <v>1065</v>
+        <v>1857</v>
       </c>
       <c r="T85" t="n">
         <v>7</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44249</v>
+        <v>44466</v>
       </c>
       <c r="E86" t="n">
         <v>9</v>
@@ -7240,33 +7240,33 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="N86" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="O86" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="P86" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S86" t="n">
-        <v>714</v>
+        <v>114</v>
       </c>
       <c r="T86" t="n">
         <v>7</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44201</v>
+        <v>44249</v>
       </c>
       <c r="E87" t="n">
         <v>9</v>
@@ -7324,16 +7324,16 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="N87" t="n">
         <v>7000</v>
       </c>
       <c r="O87" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P87" t="n">
-        <v>7000</v>
+        <v>7458</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>1000</v>
+        <v>1065</v>
       </c>
       <c r="T87" t="n">
         <v>7</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44280</v>
+        <v>44249</v>
       </c>
       <c r="E88" t="n">
         <v>9</v>
@@ -7400,20 +7400,20 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="N88" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O88" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P88" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7422,11 +7422,11 @@
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S88" t="n">
-        <v>1000</v>
+        <v>714</v>
       </c>
       <c r="T88" t="n">
         <v>7</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44270</v>
+        <v>44201</v>
       </c>
       <c r="E89" t="n">
         <v>9</v>
@@ -7502,7 +7502,7 @@
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S89" t="n">
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44260</v>
+        <v>44280</v>
       </c>
       <c r="E90" t="n">
         <v>9</v>
@@ -7564,7 +7564,7 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="N90" t="n">
         <v>7000</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44312</v>
+        <v>44270</v>
       </c>
       <c r="E91" t="n">
         <v>9</v>
@@ -7662,7 +7662,7 @@
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S91" t="n">
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44264</v>
+        <v>44260</v>
       </c>
       <c r="E92" t="n">
         <v>9</v>
@@ -7724,7 +7724,7 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="N92" t="n">
         <v>7000</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44463</v>
+        <v>44312</v>
       </c>
       <c r="E93" t="n">
         <v>9</v>
@@ -7804,29 +7804,29 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="N93" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O93" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="P93" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S93" t="n">
-        <v>2857</v>
+        <v>1000</v>
       </c>
       <c r="T93" t="n">
         <v>7</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E94" t="n">
         <v>9</v>
@@ -7880,33 +7880,33 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N94" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O94" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P94" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S94" t="n">
-        <v>1429</v>
+        <v>1000</v>
       </c>
       <c r="T94" t="n">
         <v>7</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E95" t="n">
         <v>9</v>
@@ -7964,29 +7964,29 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="N95" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="O95" t="n">
-        <v>6500</v>
+        <v>20000</v>
       </c>
       <c r="P95" t="n">
-        <v>6194</v>
+        <v>20000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S95" t="n">
-        <v>885</v>
+        <v>2857</v>
       </c>
       <c r="T95" t="n">
         <v>7</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44251</v>
+        <v>44463</v>
       </c>
       <c r="E96" t="n">
         <v>9</v>
@@ -8040,33 +8040,33 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="N96" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O96" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P96" t="n">
-        <v>7467</v>
+        <v>10000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S96" t="n">
-        <v>1067</v>
+        <v>1429</v>
       </c>
       <c r="T96" t="n">
         <v>7</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E97" t="n">
         <v>9</v>
@@ -8120,20 +8120,20 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="N97" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O97" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="P97" t="n">
-        <v>5000</v>
+        <v>6194</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8142,11 +8142,11 @@
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S97" t="n">
-        <v>714</v>
+        <v>885</v>
       </c>
       <c r="T97" t="n">
         <v>7</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E98" t="n">
         <v>9</v>
@@ -8204,7 +8204,7 @@
         </is>
       </c>
       <c r="M98" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="N98" t="n">
         <v>7000</v>
@@ -8213,7 +8213,7 @@
         <v>8000</v>
       </c>
       <c r="P98" t="n">
-        <v>7450</v>
+        <v>7467</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="T98" t="n">
         <v>7</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E99" t="n">
         <v>9</v>
@@ -8284,7 +8284,7 @@
         </is>
       </c>
       <c r="M99" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N99" t="n">
         <v>5000</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E100" t="n">
         <v>9</v>
@@ -8364,7 +8364,7 @@
         </is>
       </c>
       <c r="M100" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="N100" t="n">
         <v>7000</v>
@@ -8373,7 +8373,7 @@
         <v>8000</v>
       </c>
       <c r="P100" t="n">
-        <v>7568</v>
+        <v>7450</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>1081</v>
+        <v>1064</v>
       </c>
       <c r="T100" t="n">
         <v>7</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E101" t="n">
         <v>9</v>
@@ -8444,7 +8444,7 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="N101" t="n">
         <v>5000</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E102" t="n">
         <v>9</v>
@@ -8524,7 +8524,7 @@
         </is>
       </c>
       <c r="M102" t="n">
-        <v>400</v>
+        <v>220</v>
       </c>
       <c r="N102" t="n">
         <v>7000</v>
@@ -8533,7 +8533,7 @@
         <v>8000</v>
       </c>
       <c r="P102" t="n">
-        <v>7500</v>
+        <v>7568</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>1071</v>
+        <v>1081</v>
       </c>
       <c r="T102" t="n">
         <v>7</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E103" t="n">
         <v>9</v>
@@ -8600,33 +8600,33 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>200</v>
+        <v>85</v>
       </c>
       <c r="N103" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O103" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P103" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S103" t="n">
-        <v>1714</v>
+        <v>714</v>
       </c>
       <c r="T103" t="n">
         <v>7</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E104" t="n">
         <v>9</v>
@@ -8684,29 +8684,29 @@
         </is>
       </c>
       <c r="M104" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N104" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O104" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P104" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S104" t="n">
-        <v>1429</v>
+        <v>1071</v>
       </c>
       <c r="T104" t="n">
         <v>7</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E105" t="n">
         <v>9</v>
@@ -8760,20 +8760,20 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="N105" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O105" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P105" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -8782,11 +8782,11 @@
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S105" t="n">
-        <v>2143</v>
+        <v>1714</v>
       </c>
       <c r="T105" t="n">
         <v>7</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44221</v>
+        <v>44168</v>
       </c>
       <c r="E106" t="n">
         <v>9</v>
@@ -8844,29 +8844,29 @@
         </is>
       </c>
       <c r="M106" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="N106" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O106" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P106" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S106" t="n">
-        <v>1000</v>
+        <v>1429</v>
       </c>
       <c r="T106" t="n">
         <v>7</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44397</v>
+        <v>44369</v>
       </c>
       <c r="E107" t="n">
         <v>9</v>
@@ -8924,16 +8924,16 @@
         </is>
       </c>
       <c r="M107" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N107" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O107" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P107" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>3143</v>
+        <v>2143</v>
       </c>
       <c r="T107" t="n">
         <v>7</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44277</v>
+        <v>44221</v>
       </c>
       <c r="E108" t="n">
         <v>9</v>
@@ -9004,16 +9004,16 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N108" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O108" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P108" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>857</v>
+        <v>1000</v>
       </c>
       <c r="T108" t="n">
         <v>7</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44291</v>
+        <v>44397</v>
       </c>
       <c r="E109" t="n">
         <v>9</v>
@@ -9084,29 +9084,29 @@
         </is>
       </c>
       <c r="M109" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="N109" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="O109" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="P109" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S109" t="n">
-        <v>1000</v>
+        <v>3143</v>
       </c>
       <c r="T109" t="n">
         <v>7</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E110" t="n">
         <v>9</v>
@@ -9160,11 +9160,11 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N110" t="n">
         <v>6000</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E111" t="n">
         <v>9</v>
@@ -9244,16 +9244,16 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N111" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O111" t="n">
         <v>7000</v>
       </c>
       <c r="P111" t="n">
-        <v>6562</v>
+        <v>7000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         </is>
       </c>
       <c r="S111" t="n">
-        <v>937</v>
+        <v>1000</v>
       </c>
       <c r="T111" t="n">
         <v>7</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44372</v>
+        <v>44291</v>
       </c>
       <c r="E112" t="n">
         <v>9</v>
@@ -9320,33 +9320,33 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M112" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N112" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="O112" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="P112" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S112" t="n">
-        <v>2429</v>
+        <v>857</v>
       </c>
       <c r="T112" t="n">
         <v>7</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44286</v>
+        <v>44273</v>
       </c>
       <c r="E113" t="n">
         <v>9</v>
@@ -9404,16 +9404,16 @@
         </is>
       </c>
       <c r="M113" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="N113" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="O113" t="n">
         <v>7000</v>
       </c>
       <c r="P113" t="n">
-        <v>6786</v>
+        <v>6562</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9422,11 +9422,11 @@
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S113" t="n">
-        <v>969</v>
+        <v>937</v>
       </c>
       <c r="T113" t="n">
         <v>7</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E114" t="n">
         <v>9</v>
@@ -9484,29 +9484,29 @@
         </is>
       </c>
       <c r="M114" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="N114" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="O114" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="P114" t="n">
-        <v>8500</v>
+        <v>17000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S114" t="n">
-        <v>1214</v>
+        <v>2429</v>
       </c>
       <c r="T114" t="n">
         <v>7</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44160</v>
+        <v>44286</v>
       </c>
       <c r="E115" t="n">
         <v>9</v>
@@ -9564,16 +9564,16 @@
         </is>
       </c>
       <c r="M115" t="n">
-        <v>320</v>
+        <v>35</v>
       </c>
       <c r="N115" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="O115" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P115" t="n">
-        <v>7734</v>
+        <v>6786</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -9582,11 +9582,11 @@
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S115" t="n">
-        <v>1105</v>
+        <v>969</v>
       </c>
       <c r="T115" t="n">
         <v>7</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44215</v>
+        <v>44209</v>
       </c>
       <c r="E116" t="n">
         <v>9</v>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N116" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O116" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P116" t="n">
-        <v>7542</v>
+        <v>8500</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>1077</v>
+        <v>1214</v>
       </c>
       <c r="T116" t="n">
         <v>7</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44175</v>
+        <v>44160</v>
       </c>
       <c r="E117" t="n">
         <v>9</v>
@@ -9724,16 +9724,16 @@
         </is>
       </c>
       <c r="M117" t="n">
-        <v>155</v>
+        <v>320</v>
       </c>
       <c r="N117" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="O117" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P117" t="n">
-        <v>9000</v>
+        <v>7734</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>1286</v>
+        <v>1105</v>
       </c>
       <c r="T117" t="n">
         <v>7</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44203</v>
+        <v>44215</v>
       </c>
       <c r="E118" t="n">
         <v>9</v>
@@ -9804,7 +9804,7 @@
         </is>
       </c>
       <c r="M118" t="n">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="N118" t="n">
         <v>7000</v>
@@ -9813,7 +9813,7 @@
         <v>8000</v>
       </c>
       <c r="P118" t="n">
-        <v>7543</v>
+        <v>7542</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9822,11 +9822,11 @@
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S118" t="n">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="T118" t="n">
         <v>7</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44203</v>
+        <v>44175</v>
       </c>
       <c r="E119" t="n">
         <v>9</v>
@@ -9880,20 +9880,20 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="N119" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="O119" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="P119" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9902,11 +9902,11 @@
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S119" t="n">
-        <v>786</v>
+        <v>1286</v>
       </c>
       <c r="T119" t="n">
         <v>7</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E120" t="n">
         <v>9</v>
@@ -9964,29 +9964,29 @@
         </is>
       </c>
       <c r="M120" t="n">
-        <v>305</v>
+        <v>175</v>
       </c>
       <c r="N120" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O120" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P120" t="n">
-        <v>9410</v>
+        <v>7543</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R120" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S120" t="n">
-        <v>1344</v>
+        <v>1078</v>
       </c>
       <c r="T120" t="n">
         <v>7</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E121" t="n">
         <v>9</v>
@@ -10040,20 +10040,20 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="N121" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="O121" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="P121" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10062,11 +10062,11 @@
       </c>
       <c r="R121" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S121" t="n">
-        <v>1071</v>
+        <v>786</v>
       </c>
       <c r="T121" t="n">
         <v>7</v>
@@ -10120,20 +10120,20 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M122" t="n">
-        <v>110</v>
+        <v>305</v>
       </c>
       <c r="N122" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O122" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P122" t="n">
-        <v>7000</v>
+        <v>9410</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>1000</v>
+        <v>1344</v>
       </c>
       <c r="T122" t="n">
         <v>7</v>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44257</v>
+        <v>44162</v>
       </c>
       <c r="E123" t="n">
         <v>9</v>
@@ -10204,16 +10204,16 @@
         </is>
       </c>
       <c r="M123" t="n">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="N123" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="O123" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="P123" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>1000</v>
+        <v>1071</v>
       </c>
       <c r="T123" t="n">
         <v>7</v>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44244</v>
+        <v>44162</v>
       </c>
       <c r="E124" t="n">
         <v>9</v>
@@ -10280,33 +10280,33 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M124" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="N124" t="n">
         <v>7000</v>
       </c>
       <c r="O124" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P124" t="n">
-        <v>7462</v>
+        <v>7000</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R124" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S124" t="n">
-        <v>1066</v>
+        <v>1000</v>
       </c>
       <c r="T124" t="n">
         <v>7</v>
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E125" t="n">
         <v>9</v>
@@ -10360,20 +10360,20 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M125" t="n">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="N125" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O125" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P125" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>714</v>
+        <v>1000</v>
       </c>
       <c r="T125" t="n">
         <v>7</v>
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44211</v>
+        <v>44244</v>
       </c>
       <c r="E126" t="n">
         <v>9</v>
@@ -10444,7 +10444,7 @@
         </is>
       </c>
       <c r="M126" t="n">
-        <v>270</v>
+        <v>130</v>
       </c>
       <c r="N126" t="n">
         <v>7000</v>
@@ -10453,7 +10453,7 @@
         <v>8000</v>
       </c>
       <c r="P126" t="n">
-        <v>7556</v>
+        <v>7462</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>1079</v>
+        <v>1066</v>
       </c>
       <c r="T126" t="n">
         <v>7</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44323</v>
+        <v>44244</v>
       </c>
       <c r="E127" t="n">
         <v>9</v>
@@ -10520,20 +10520,20 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M127" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N127" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O127" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P127" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>1286</v>
+        <v>714</v>
       </c>
       <c r="T127" t="n">
         <v>7</v>
@@ -10567,68 +10567,228 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
+        <v>44211</v>
+      </c>
+      <c r="E128" t="n">
+        <v>9</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>270</v>
+      </c>
+      <c r="N128" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O128" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P128" t="n">
+        <v>7556</v>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>$/caja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R128" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="S128" t="n">
+        <v>1079</v>
+      </c>
+      <c r="T128" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>10</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D129" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E128" t="n">
-        <v>9</v>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G128" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I128" t="n">
-        <v>100112025</v>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>Frutilla</t>
-        </is>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L128" t="inlineStr">
+      <c r="E129" t="n">
+        <v>9</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>40</v>
+      </c>
+      <c r="N129" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O129" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P129" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>$/caja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R129" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="S129" t="n">
+        <v>1286</v>
+      </c>
+      <c r="T129" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>10</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D130" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E130" t="n">
+        <v>9</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M128" t="n">
+      <c r="M130" t="n">
         <v>30</v>
       </c>
-      <c r="N128" t="n">
+      <c r="N130" t="n">
         <v>4000</v>
       </c>
-      <c r="O128" t="n">
+      <c r="O130" t="n">
         <v>5000</v>
       </c>
-      <c r="P128" t="n">
+      <c r="P130" t="n">
         <v>4500</v>
       </c>
-      <c r="Q128" t="inlineStr">
+      <c r="Q130" t="inlineStr">
         <is>
           <t>$/caja 7 kilos</t>
         </is>
       </c>
-      <c r="R128" t="inlineStr">
+      <c r="R130" t="inlineStr">
         <is>
           <t>Región de La Araucanía</t>
         </is>
       </c>
-      <c r="S128" t="n">
+      <c r="S130" t="n">
         <v>643</v>
       </c>
-      <c r="T128" t="n">
+      <c r="T130" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T130"/>
+  <dimension ref="A1:T132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44462</v>
+        <v>44473</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>50</v>
+        <v>1300</v>
       </c>
       <c r="N21" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O21" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P21" t="n">
-        <v>10000</v>
+        <v>15538</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1429</v>
+        <v>2220</v>
       </c>
       <c r="T21" t="n">
         <v>7</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44179</v>
+        <v>44473</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="N22" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O22" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P22" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2142,11 +2142,11 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1500</v>
+        <v>1143</v>
       </c>
       <c r="T22" t="n">
         <v>7</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44179</v>
+        <v>44462</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2200,11 +2200,11 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N23" t="n">
         <v>10000</v>
@@ -2217,12 +2217,12 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S23" t="n">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44364</v>
+        <v>44179</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>40</v>
+        <v>600</v>
       </c>
       <c r="N24" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O24" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="P24" t="n">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2302,11 +2302,11 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2857</v>
+        <v>1500</v>
       </c>
       <c r="T24" t="n">
         <v>7</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44242</v>
+        <v>44179</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>145</v>
+        <v>200</v>
       </c>
       <c r="N25" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O25" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P25" t="n">
-        <v>7448</v>
+        <v>10000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1064</v>
+        <v>1429</v>
       </c>
       <c r="T25" t="n">
         <v>7</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44242</v>
+        <v>44364</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2440,33 +2440,33 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N26" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="O26" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="P26" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>714</v>
+        <v>2857</v>
       </c>
       <c r="T26" t="n">
         <v>7</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44258</v>
+        <v>44242</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>65</v>
+        <v>145</v>
       </c>
       <c r="N27" t="n">
         <v>7000</v>
       </c>
       <c r="O27" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P27" t="n">
-        <v>7000</v>
+        <v>7448</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1000</v>
+        <v>1064</v>
       </c>
       <c r="T27" t="n">
         <v>7</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44159</v>
+        <v>44242</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2600,33 +2600,33 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>550</v>
+        <v>45</v>
       </c>
       <c r="N28" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O28" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P28" t="n">
-        <v>9455</v>
+        <v>5000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1351</v>
+        <v>714</v>
       </c>
       <c r="T28" t="n">
         <v>7</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44159</v>
+        <v>44258</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>375</v>
+        <v>65</v>
       </c>
       <c r="N29" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="O29" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P29" t="n">
-        <v>7760</v>
+        <v>7000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1109</v>
+        <v>1000</v>
       </c>
       <c r="T29" t="n">
         <v>7</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>155</v>
+        <v>550</v>
       </c>
       <c r="N30" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O30" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="P30" t="n">
-        <v>7500</v>
+        <v>9455</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1071</v>
+        <v>1351</v>
       </c>
       <c r="T30" t="n">
         <v>7</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44302</v>
+        <v>44159</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>55</v>
+        <v>375</v>
       </c>
       <c r="N31" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="O31" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P31" t="n">
-        <v>6000</v>
+        <v>7760</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2862,11 +2862,11 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>857</v>
+        <v>1109</v>
       </c>
       <c r="T31" t="n">
         <v>7</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44459</v>
+        <v>44159</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="N32" t="n">
-        <v>16000</v>
+        <v>7500</v>
       </c>
       <c r="O32" t="n">
-        <v>16000</v>
+        <v>7500</v>
       </c>
       <c r="P32" t="n">
-        <v>16000</v>
+        <v>7500</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>2286</v>
+        <v>1071</v>
       </c>
       <c r="T32" t="n">
         <v>7</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44232</v>
+        <v>44302</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="N33" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O33" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P33" t="n">
-        <v>7550</v>
+        <v>6000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1079</v>
+        <v>857</v>
       </c>
       <c r="T33" t="n">
         <v>7</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44224</v>
+        <v>44459</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3080,33 +3080,33 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="N34" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="O34" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P34" t="n">
-        <v>7500</v>
+        <v>16000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1071</v>
+        <v>2286</v>
       </c>
       <c r="T34" t="n">
         <v>7</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44195</v>
+        <v>44232</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3164,29 +3164,29 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="N35" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O35" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P35" t="n">
-        <v>12583</v>
+        <v>7550</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1798</v>
+        <v>1079</v>
       </c>
       <c r="T35" t="n">
         <v>7</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N36" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O36" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P36" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1429</v>
+        <v>1071</v>
       </c>
       <c r="T36" t="n">
         <v>7</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44188</v>
+        <v>44195</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>90</v>
+        <v>240</v>
       </c>
       <c r="N37" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O37" t="n">
         <v>13000</v>
       </c>
       <c r="P37" t="n">
-        <v>13000</v>
+        <v>12583</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1857</v>
+        <v>1798</v>
       </c>
       <c r="T37" t="n">
         <v>7</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44263</v>
+        <v>44195</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3407,13 +3407,13 @@
         <v>200</v>
       </c>
       <c r="N38" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O38" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P38" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1000</v>
+        <v>1429</v>
       </c>
       <c r="T38" t="n">
         <v>7</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44272</v>
+        <v>44188</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3484,29 +3484,29 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="N39" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O39" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P39" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1000</v>
+        <v>1857</v>
       </c>
       <c r="T39" t="n">
         <v>7</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44271</v>
+        <v>44263</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="N40" t="n">
         <v>7000</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44333</v>
+        <v>44272</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N41" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O41" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P41" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1143</v>
+        <v>1000</v>
       </c>
       <c r="T41" t="n">
         <v>7</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44238</v>
+        <v>44271</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3724,16 +3724,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>235</v>
+        <v>65</v>
       </c>
       <c r="N42" t="n">
         <v>7000</v>
       </c>
       <c r="O42" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P42" t="n">
-        <v>7532</v>
+        <v>7000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3742,11 +3742,11 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1076</v>
+        <v>1000</v>
       </c>
       <c r="T42" t="n">
         <v>7</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44238</v>
+        <v>44333</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="N43" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O43" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P43" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3822,11 +3822,11 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>714</v>
+        <v>1143</v>
       </c>
       <c r="T43" t="n">
         <v>7</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44469</v>
+        <v>44238</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3884,29 +3884,29 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>3000</v>
+        <v>235</v>
       </c>
       <c r="N44" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O44" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P44" t="n">
-        <v>15333</v>
+        <v>7532</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>2190</v>
+        <v>1076</v>
       </c>
       <c r="T44" t="n">
         <v>7</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44469</v>
+        <v>44238</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3960,33 +3960,33 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="N45" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O45" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P45" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1000</v>
+        <v>714</v>
       </c>
       <c r="T45" t="n">
         <v>7</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44284</v>
+        <v>44469</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -4044,29 +4044,29 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>65</v>
+        <v>3000</v>
       </c>
       <c r="N46" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O46" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="P46" t="n">
-        <v>7000</v>
+        <v>15333</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1000</v>
+        <v>2190</v>
       </c>
       <c r="T46" t="n">
         <v>7</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44216</v>
+        <v>44469</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -4120,33 +4120,33 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="N47" t="n">
         <v>7000</v>
       </c>
       <c r="O47" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P47" t="n">
-        <v>7579</v>
+        <v>7000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1083</v>
+        <v>1000</v>
       </c>
       <c r="T47" t="n">
         <v>7</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44216</v>
+        <v>44284</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -4200,20 +4200,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N48" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O48" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P48" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4222,11 +4222,11 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>714</v>
+        <v>1000</v>
       </c>
       <c r="T48" t="n">
         <v>7</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44253</v>
+        <v>44216</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -4284,7 +4284,7 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="N49" t="n">
         <v>7000</v>
@@ -4293,7 +4293,7 @@
         <v>8000</v>
       </c>
       <c r="P49" t="n">
-        <v>7417</v>
+        <v>7579</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1060</v>
+        <v>1083</v>
       </c>
       <c r="T49" t="n">
         <v>7</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44253</v>
+        <v>44216</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -4364,7 +4364,7 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N50" t="n">
         <v>5000</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44245</v>
+        <v>44253</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4444,7 +4444,7 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="N51" t="n">
         <v>7000</v>
@@ -4453,7 +4453,7 @@
         <v>8000</v>
       </c>
       <c r="P51" t="n">
-        <v>7360</v>
+        <v>7417</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1051</v>
+        <v>1060</v>
       </c>
       <c r="T51" t="n">
         <v>7</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44245</v>
+        <v>44253</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4524,7 +4524,7 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N52" t="n">
         <v>5000</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44225</v>
+        <v>44245</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4604,7 +4604,7 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="N53" t="n">
         <v>7000</v>
@@ -4613,7 +4613,7 @@
         <v>8000</v>
       </c>
       <c r="P53" t="n">
-        <v>7500</v>
+        <v>7360</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>1071</v>
+        <v>1051</v>
       </c>
       <c r="T53" t="n">
         <v>7</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44399</v>
+        <v>44245</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4680,33 +4680,33 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N54" t="n">
-        <v>22000</v>
+        <v>5000</v>
       </c>
       <c r="O54" t="n">
-        <v>23000</v>
+        <v>5000</v>
       </c>
       <c r="P54" t="n">
-        <v>22538</v>
+        <v>5000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S54" t="n">
-        <v>3220</v>
+        <v>714</v>
       </c>
       <c r="T54" t="n">
         <v>7</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44218</v>
+        <v>44225</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4764,7 +4764,7 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="N55" t="n">
         <v>7000</v>
@@ -4773,7 +4773,7 @@
         <v>8000</v>
       </c>
       <c r="P55" t="n">
-        <v>7516</v>
+        <v>7500</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="T55" t="n">
         <v>7</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44218</v>
+        <v>44399</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4840,33 +4840,33 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M56" t="n">
         <v>65</v>
       </c>
       <c r="N56" t="n">
-        <v>5500</v>
+        <v>22000</v>
       </c>
       <c r="O56" t="n">
-        <v>5500</v>
+        <v>23000</v>
       </c>
       <c r="P56" t="n">
-        <v>5500</v>
+        <v>22538</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S56" t="n">
-        <v>786</v>
+        <v>3220</v>
       </c>
       <c r="T56" t="n">
         <v>7</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44223</v>
+        <v>44218</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4924,7 +4924,7 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="N57" t="n">
         <v>7000</v>
@@ -4933,7 +4933,7 @@
         <v>8000</v>
       </c>
       <c r="P57" t="n">
-        <v>7385</v>
+        <v>7516</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>1055</v>
+        <v>1074</v>
       </c>
       <c r="T57" t="n">
         <v>7</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44246</v>
+        <v>44218</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -5000,20 +5000,20 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N58" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="O58" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="P58" t="n">
-        <v>7417</v>
+        <v>5500</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>1060</v>
+        <v>786</v>
       </c>
       <c r="T58" t="n">
         <v>7</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44246</v>
+        <v>44223</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -5080,20 +5080,20 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="N59" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O59" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P59" t="n">
-        <v>5000</v>
+        <v>7385</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>714</v>
+        <v>1055</v>
       </c>
       <c r="T59" t="n">
         <v>7</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44161</v>
+        <v>44246</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -5164,29 +5164,29 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>550</v>
+        <v>60</v>
       </c>
       <c r="N60" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O60" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P60" t="n">
-        <v>9455</v>
+        <v>7417</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S60" t="n">
-        <v>1351</v>
+        <v>1060</v>
       </c>
       <c r="T60" t="n">
         <v>7</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44161</v>
+        <v>44246</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -5240,20 +5240,20 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>305</v>
+        <v>50</v>
       </c>
       <c r="N61" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="O61" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P61" t="n">
-        <v>6705</v>
+        <v>5000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>958</v>
+        <v>714</v>
       </c>
       <c r="T61" t="n">
         <v>7</v>
@@ -5320,33 +5320,33 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>180</v>
+        <v>550</v>
       </c>
       <c r="N62" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O62" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="P62" t="n">
-        <v>4000</v>
+        <v>9455</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S62" t="n">
-        <v>571</v>
+        <v>1351</v>
       </c>
       <c r="T62" t="n">
         <v>7</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44307</v>
+        <v>44161</v>
       </c>
       <c r="E63" t="n">
         <v>9</v>
@@ -5400,20 +5400,20 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>30</v>
+        <v>305</v>
       </c>
       <c r="N63" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="O63" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P63" t="n">
-        <v>5000</v>
+        <v>6705</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>714</v>
+        <v>958</v>
       </c>
       <c r="T63" t="n">
         <v>7</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44193</v>
+        <v>44161</v>
       </c>
       <c r="E64" t="n">
         <v>9</v>
@@ -5480,20 +5480,20 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N64" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="O64" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="P64" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>1429</v>
+        <v>571</v>
       </c>
       <c r="T64" t="n">
         <v>7</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44193</v>
+        <v>44307</v>
       </c>
       <c r="E65" t="n">
         <v>9</v>
@@ -5564,16 +5564,16 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="N65" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O65" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P65" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>1286</v>
+        <v>714</v>
       </c>
       <c r="T65" t="n">
         <v>7</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44274</v>
+        <v>44193</v>
       </c>
       <c r="E66" t="n">
         <v>9</v>
@@ -5644,16 +5644,16 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="N66" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O66" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P66" t="n">
-        <v>6579</v>
+        <v>10000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>940</v>
+        <v>1429</v>
       </c>
       <c r="T66" t="n">
         <v>7</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44200</v>
+        <v>44193</v>
       </c>
       <c r="E67" t="n">
         <v>9</v>
@@ -5720,20 +5720,20 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="N67" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O67" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P67" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5742,11 +5742,11 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S67" t="n">
-        <v>1000</v>
+        <v>1286</v>
       </c>
       <c r="T67" t="n">
         <v>7</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44200</v>
+        <v>44274</v>
       </c>
       <c r="E68" t="n">
         <v>9</v>
@@ -5800,20 +5800,20 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M68" t="n">
         <v>95</v>
       </c>
       <c r="N68" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="O68" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="P68" t="n">
-        <v>5500</v>
+        <v>6579</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5822,11 +5822,11 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S68" t="n">
-        <v>786</v>
+        <v>940</v>
       </c>
       <c r="T68" t="n">
         <v>7</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44214</v>
+        <v>44200</v>
       </c>
       <c r="E69" t="n">
         <v>9</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="N69" t="n">
         <v>7000</v>
       </c>
       <c r="O69" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P69" t="n">
-        <v>7455</v>
+        <v>7000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5902,11 +5902,11 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S69" t="n">
-        <v>1065</v>
+        <v>1000</v>
       </c>
       <c r="T69" t="n">
         <v>7</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44214</v>
+        <v>44200</v>
       </c>
       <c r="E70" t="n">
         <v>9</v>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="N70" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="O70" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="P70" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5982,11 +5982,11 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S70" t="n">
-        <v>643</v>
+        <v>786</v>
       </c>
       <c r="T70" t="n">
         <v>7</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44237</v>
+        <v>44214</v>
       </c>
       <c r="E71" t="n">
         <v>9</v>
@@ -6044,7 +6044,7 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="N71" t="n">
         <v>7000</v>
@@ -6053,7 +6053,7 @@
         <v>8000</v>
       </c>
       <c r="P71" t="n">
-        <v>7533</v>
+        <v>7455</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6062,11 +6062,11 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S71" t="n">
-        <v>1076</v>
+        <v>1065</v>
       </c>
       <c r="T71" t="n">
         <v>7</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44237</v>
+        <v>44214</v>
       </c>
       <c r="E72" t="n">
         <v>9</v>
@@ -6124,16 +6124,16 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N72" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="O72" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="P72" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6142,11 +6142,11 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S72" t="n">
-        <v>714</v>
+        <v>643</v>
       </c>
       <c r="T72" t="n">
         <v>7</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44285</v>
+        <v>44237</v>
       </c>
       <c r="E73" t="n">
         <v>9</v>
@@ -6204,16 +6204,16 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="N73" t="n">
         <v>7000</v>
       </c>
       <c r="O73" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P73" t="n">
-        <v>7000</v>
+        <v>7533</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6222,11 +6222,11 @@
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S73" t="n">
-        <v>1000</v>
+        <v>1076</v>
       </c>
       <c r="T73" t="n">
         <v>7</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44210</v>
+        <v>44237</v>
       </c>
       <c r="E74" t="n">
         <v>9</v>
@@ -6280,20 +6280,20 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>500</v>
+        <v>35</v>
       </c>
       <c r="N74" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O74" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P74" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6302,11 +6302,11 @@
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S74" t="n">
-        <v>1143</v>
+        <v>714</v>
       </c>
       <c r="T74" t="n">
         <v>7</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44217</v>
+        <v>44285</v>
       </c>
       <c r="E75" t="n">
         <v>9</v>
@@ -6364,16 +6364,16 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>235</v>
+        <v>55</v>
       </c>
       <c r="N75" t="n">
         <v>7000</v>
       </c>
       <c r="O75" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P75" t="n">
-        <v>7532</v>
+        <v>7000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>1076</v>
+        <v>1000</v>
       </c>
       <c r="T75" t="n">
         <v>7</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44217</v>
+        <v>44210</v>
       </c>
       <c r="E76" t="n">
         <v>9</v>
@@ -6440,20 +6440,20 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>85</v>
+        <v>500</v>
       </c>
       <c r="N76" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="O76" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P76" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>786</v>
+        <v>1143</v>
       </c>
       <c r="T76" t="n">
         <v>7</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44460</v>
+        <v>44217</v>
       </c>
       <c r="E77" t="n">
         <v>9</v>
@@ -6520,33 +6520,33 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>50</v>
+        <v>235</v>
       </c>
       <c r="N77" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O77" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="P77" t="n">
-        <v>20000</v>
+        <v>7532</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S77" t="n">
-        <v>2857</v>
+        <v>1076</v>
       </c>
       <c r="T77" t="n">
         <v>7</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44460</v>
+        <v>44217</v>
       </c>
       <c r="E78" t="n">
         <v>9</v>
@@ -6600,33 +6600,33 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="N78" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="O78" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="P78" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S78" t="n">
-        <v>1429</v>
+        <v>786</v>
       </c>
       <c r="T78" t="n">
         <v>7</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44165</v>
+        <v>44460</v>
       </c>
       <c r="E79" t="n">
         <v>9</v>
@@ -6680,20 +6680,20 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M79" t="n">
         <v>50</v>
       </c>
       <c r="N79" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O79" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="P79" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6702,11 +6702,11 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S79" t="n">
-        <v>1571</v>
+        <v>2857</v>
       </c>
       <c r="T79" t="n">
         <v>7</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44165</v>
+        <v>44460</v>
       </c>
       <c r="E80" t="n">
         <v>9</v>
@@ -6760,20 +6760,20 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>700</v>
+        <v>20</v>
       </c>
       <c r="N80" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O80" t="n">
         <v>10000</v>
       </c>
       <c r="P80" t="n">
-        <v>9571</v>
+        <v>10000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>1367</v>
+        <v>1429</v>
       </c>
       <c r="T80" t="n">
         <v>7</v>
@@ -6840,20 +6840,20 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="N81" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O81" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P81" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>1357</v>
+        <v>1571</v>
       </c>
       <c r="T81" t="n">
         <v>7</v>
@@ -6924,29 +6924,29 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N82" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O82" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P82" t="n">
-        <v>8500</v>
+        <v>9571</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S82" t="n">
-        <v>1214</v>
+        <v>1367</v>
       </c>
       <c r="T82" t="n">
         <v>7</v>
@@ -7000,20 +7000,20 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="N83" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O83" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P83" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7022,11 +7022,11 @@
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S83" t="n">
-        <v>1000</v>
+        <v>1357</v>
       </c>
       <c r="T83" t="n">
         <v>7</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44466</v>
+        <v>44165</v>
       </c>
       <c r="E84" t="n">
         <v>9</v>
@@ -7084,29 +7084,29 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N84" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="O84" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P84" t="n">
-        <v>16000</v>
+        <v>8500</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S84" t="n">
-        <v>2286</v>
+        <v>1214</v>
       </c>
       <c r="T84" t="n">
         <v>7</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44466</v>
+        <v>44165</v>
       </c>
       <c r="E85" t="n">
         <v>9</v>
@@ -7164,16 +7164,16 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N85" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O85" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="P85" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>1857</v>
+        <v>1000</v>
       </c>
       <c r="T85" t="n">
         <v>7</v>
@@ -7240,20 +7240,20 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="N86" t="n">
-        <v>800</v>
+        <v>16000</v>
       </c>
       <c r="O86" t="n">
-        <v>800</v>
+        <v>16000</v>
       </c>
       <c r="P86" t="n">
-        <v>800</v>
+        <v>16000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>114</v>
+        <v>2286</v>
       </c>
       <c r="T86" t="n">
         <v>7</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44249</v>
+        <v>44466</v>
       </c>
       <c r="E87" t="n">
         <v>9</v>
@@ -7320,33 +7320,33 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N87" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O87" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P87" t="n">
-        <v>7458</v>
+        <v>13000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S87" t="n">
-        <v>1065</v>
+        <v>1857</v>
       </c>
       <c r="T87" t="n">
         <v>7</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44249</v>
+        <v>44466</v>
       </c>
       <c r="E88" t="n">
         <v>9</v>
@@ -7400,33 +7400,33 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="N88" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="O88" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="P88" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S88" t="n">
-        <v>714</v>
+        <v>114</v>
       </c>
       <c r="T88" t="n">
         <v>7</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44201</v>
+        <v>44249</v>
       </c>
       <c r="E89" t="n">
         <v>9</v>
@@ -7484,16 +7484,16 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="N89" t="n">
         <v>7000</v>
       </c>
       <c r="O89" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P89" t="n">
-        <v>7000</v>
+        <v>7458</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>1000</v>
+        <v>1065</v>
       </c>
       <c r="T89" t="n">
         <v>7</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44280</v>
+        <v>44249</v>
       </c>
       <c r="E90" t="n">
         <v>9</v>
@@ -7560,20 +7560,20 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="N90" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O90" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P90" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7582,11 +7582,11 @@
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S90" t="n">
-        <v>1000</v>
+        <v>714</v>
       </c>
       <c r="T90" t="n">
         <v>7</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44270</v>
+        <v>44201</v>
       </c>
       <c r="E91" t="n">
         <v>9</v>
@@ -7662,7 +7662,7 @@
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S91" t="n">
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44260</v>
+        <v>44280</v>
       </c>
       <c r="E92" t="n">
         <v>9</v>
@@ -7724,7 +7724,7 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="N92" t="n">
         <v>7000</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44312</v>
+        <v>44270</v>
       </c>
       <c r="E93" t="n">
         <v>9</v>
@@ -7822,7 +7822,7 @@
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S93" t="n">
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44264</v>
+        <v>44260</v>
       </c>
       <c r="E94" t="n">
         <v>9</v>
@@ -7884,7 +7884,7 @@
         </is>
       </c>
       <c r="M94" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="N94" t="n">
         <v>7000</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44463</v>
+        <v>44312</v>
       </c>
       <c r="E95" t="n">
         <v>9</v>
@@ -7964,29 +7964,29 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="N95" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O95" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="P95" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S95" t="n">
-        <v>2857</v>
+        <v>1000</v>
       </c>
       <c r="T95" t="n">
         <v>7</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E96" t="n">
         <v>9</v>
@@ -8040,33 +8040,33 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N96" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O96" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P96" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S96" t="n">
-        <v>1429</v>
+        <v>1000</v>
       </c>
       <c r="T96" t="n">
         <v>7</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E97" t="n">
         <v>9</v>
@@ -8124,29 +8124,29 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="N97" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="O97" t="n">
-        <v>6500</v>
+        <v>20000</v>
       </c>
       <c r="P97" t="n">
-        <v>6194</v>
+        <v>20000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S97" t="n">
-        <v>885</v>
+        <v>2857</v>
       </c>
       <c r="T97" t="n">
         <v>7</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44251</v>
+        <v>44463</v>
       </c>
       <c r="E98" t="n">
         <v>9</v>
@@ -8200,33 +8200,33 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="N98" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O98" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P98" t="n">
-        <v>7467</v>
+        <v>10000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S98" t="n">
-        <v>1067</v>
+        <v>1429</v>
       </c>
       <c r="T98" t="n">
         <v>7</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E99" t="n">
         <v>9</v>
@@ -8280,20 +8280,20 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="N99" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O99" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="P99" t="n">
-        <v>5000</v>
+        <v>6194</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8302,11 +8302,11 @@
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S99" t="n">
-        <v>714</v>
+        <v>885</v>
       </c>
       <c r="T99" t="n">
         <v>7</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E100" t="n">
         <v>9</v>
@@ -8364,7 +8364,7 @@
         </is>
       </c>
       <c r="M100" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="N100" t="n">
         <v>7000</v>
@@ -8373,7 +8373,7 @@
         <v>8000</v>
       </c>
       <c r="P100" t="n">
-        <v>7450</v>
+        <v>7467</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="T100" t="n">
         <v>7</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E101" t="n">
         <v>9</v>
@@ -8444,7 +8444,7 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N101" t="n">
         <v>5000</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E102" t="n">
         <v>9</v>
@@ -8524,7 +8524,7 @@
         </is>
       </c>
       <c r="M102" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="N102" t="n">
         <v>7000</v>
@@ -8533,7 +8533,7 @@
         <v>8000</v>
       </c>
       <c r="P102" t="n">
-        <v>7568</v>
+        <v>7450</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>1081</v>
+        <v>1064</v>
       </c>
       <c r="T102" t="n">
         <v>7</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E103" t="n">
         <v>9</v>
@@ -8604,7 +8604,7 @@
         </is>
       </c>
       <c r="M103" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="N103" t="n">
         <v>5000</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E104" t="n">
         <v>9</v>
@@ -8684,7 +8684,7 @@
         </is>
       </c>
       <c r="M104" t="n">
-        <v>400</v>
+        <v>220</v>
       </c>
       <c r="N104" t="n">
         <v>7000</v>
@@ -8693,7 +8693,7 @@
         <v>8000</v>
       </c>
       <c r="P104" t="n">
-        <v>7500</v>
+        <v>7568</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>1071</v>
+        <v>1081</v>
       </c>
       <c r="T104" t="n">
         <v>7</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E105" t="n">
         <v>9</v>
@@ -8760,33 +8760,33 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>200</v>
+        <v>85</v>
       </c>
       <c r="N105" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O105" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P105" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S105" t="n">
-        <v>1714</v>
+        <v>714</v>
       </c>
       <c r="T105" t="n">
         <v>7</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E106" t="n">
         <v>9</v>
@@ -8844,29 +8844,29 @@
         </is>
       </c>
       <c r="M106" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N106" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O106" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P106" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S106" t="n">
-        <v>1429</v>
+        <v>1071</v>
       </c>
       <c r="T106" t="n">
         <v>7</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E107" t="n">
         <v>9</v>
@@ -8920,20 +8920,20 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="N107" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O107" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P107" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8942,11 +8942,11 @@
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S107" t="n">
-        <v>2143</v>
+        <v>1714</v>
       </c>
       <c r="T107" t="n">
         <v>7</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44221</v>
+        <v>44168</v>
       </c>
       <c r="E108" t="n">
         <v>9</v>
@@ -9004,29 +9004,29 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="N108" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O108" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P108" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S108" t="n">
-        <v>1000</v>
+        <v>1429</v>
       </c>
       <c r="T108" t="n">
         <v>7</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44397</v>
+        <v>44369</v>
       </c>
       <c r="E109" t="n">
         <v>9</v>
@@ -9084,16 +9084,16 @@
         </is>
       </c>
       <c r="M109" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N109" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O109" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P109" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>3143</v>
+        <v>2143</v>
       </c>
       <c r="T109" t="n">
         <v>7</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44277</v>
+        <v>44221</v>
       </c>
       <c r="E110" t="n">
         <v>9</v>
@@ -9164,16 +9164,16 @@
         </is>
       </c>
       <c r="M110" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N110" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O110" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P110" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         </is>
       </c>
       <c r="S110" t="n">
-        <v>857</v>
+        <v>1000</v>
       </c>
       <c r="T110" t="n">
         <v>7</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44291</v>
+        <v>44397</v>
       </c>
       <c r="E111" t="n">
         <v>9</v>
@@ -9244,29 +9244,29 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="N111" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="O111" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="P111" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S111" t="n">
-        <v>1000</v>
+        <v>3143</v>
       </c>
       <c r="T111" t="n">
         <v>7</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E112" t="n">
         <v>9</v>
@@ -9320,11 +9320,11 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M112" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N112" t="n">
         <v>6000</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E113" t="n">
         <v>9</v>
@@ -9404,16 +9404,16 @@
         </is>
       </c>
       <c r="M113" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N113" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O113" t="n">
         <v>7000</v>
       </c>
       <c r="P113" t="n">
-        <v>6562</v>
+        <v>7000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>937</v>
+        <v>1000</v>
       </c>
       <c r="T113" t="n">
         <v>7</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44372</v>
+        <v>44291</v>
       </c>
       <c r="E114" t="n">
         <v>9</v>
@@ -9480,33 +9480,33 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M114" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N114" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="O114" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="P114" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S114" t="n">
-        <v>2429</v>
+        <v>857</v>
       </c>
       <c r="T114" t="n">
         <v>7</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44286</v>
+        <v>44273</v>
       </c>
       <c r="E115" t="n">
         <v>9</v>
@@ -9564,16 +9564,16 @@
         </is>
       </c>
       <c r="M115" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="N115" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="O115" t="n">
         <v>7000</v>
       </c>
       <c r="P115" t="n">
-        <v>6786</v>
+        <v>6562</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -9582,11 +9582,11 @@
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S115" t="n">
-        <v>969</v>
+        <v>937</v>
       </c>
       <c r="T115" t="n">
         <v>7</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E116" t="n">
         <v>9</v>
@@ -9644,29 +9644,29 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="N116" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="O116" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="P116" t="n">
-        <v>8500</v>
+        <v>17000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S116" t="n">
-        <v>1214</v>
+        <v>2429</v>
       </c>
       <c r="T116" t="n">
         <v>7</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44160</v>
+        <v>44286</v>
       </c>
       <c r="E117" t="n">
         <v>9</v>
@@ -9724,16 +9724,16 @@
         </is>
       </c>
       <c r="M117" t="n">
-        <v>320</v>
+        <v>35</v>
       </c>
       <c r="N117" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="O117" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P117" t="n">
-        <v>7734</v>
+        <v>6786</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9742,11 +9742,11 @@
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S117" t="n">
-        <v>1105</v>
+        <v>969</v>
       </c>
       <c r="T117" t="n">
         <v>7</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44215</v>
+        <v>44209</v>
       </c>
       <c r="E118" t="n">
         <v>9</v>
@@ -9804,16 +9804,16 @@
         </is>
       </c>
       <c r="M118" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N118" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O118" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P118" t="n">
-        <v>7542</v>
+        <v>8500</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>1077</v>
+        <v>1214</v>
       </c>
       <c r="T118" t="n">
         <v>7</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44175</v>
+        <v>44160</v>
       </c>
       <c r="E119" t="n">
         <v>9</v>
@@ -9884,16 +9884,16 @@
         </is>
       </c>
       <c r="M119" t="n">
-        <v>155</v>
+        <v>320</v>
       </c>
       <c r="N119" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="O119" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P119" t="n">
-        <v>9000</v>
+        <v>7734</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>1286</v>
+        <v>1105</v>
       </c>
       <c r="T119" t="n">
         <v>7</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44203</v>
+        <v>44215</v>
       </c>
       <c r="E120" t="n">
         <v>9</v>
@@ -9964,7 +9964,7 @@
         </is>
       </c>
       <c r="M120" t="n">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="N120" t="n">
         <v>7000</v>
@@ -9973,7 +9973,7 @@
         <v>8000</v>
       </c>
       <c r="P120" t="n">
-        <v>7543</v>
+        <v>7542</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9982,11 +9982,11 @@
       </c>
       <c r="R120" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S120" t="n">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="T120" t="n">
         <v>7</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44203</v>
+        <v>44175</v>
       </c>
       <c r="E121" t="n">
         <v>9</v>
@@ -10040,20 +10040,20 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="N121" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="O121" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="P121" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10062,11 +10062,11 @@
       </c>
       <c r="R121" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S121" t="n">
-        <v>786</v>
+        <v>1286</v>
       </c>
       <c r="T121" t="n">
         <v>7</v>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E122" t="n">
         <v>9</v>
@@ -10124,29 +10124,29 @@
         </is>
       </c>
       <c r="M122" t="n">
-        <v>305</v>
+        <v>175</v>
       </c>
       <c r="N122" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O122" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P122" t="n">
-        <v>9410</v>
+        <v>7543</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R122" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S122" t="n">
-        <v>1344</v>
+        <v>1078</v>
       </c>
       <c r="T122" t="n">
         <v>7</v>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E123" t="n">
         <v>9</v>
@@ -10200,20 +10200,20 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M123" t="n">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="N123" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="O123" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="P123" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -10222,11 +10222,11 @@
       </c>
       <c r="R123" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S123" t="n">
-        <v>1071</v>
+        <v>786</v>
       </c>
       <c r="T123" t="n">
         <v>7</v>
@@ -10280,20 +10280,20 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M124" t="n">
-        <v>110</v>
+        <v>305</v>
       </c>
       <c r="N124" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O124" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P124" t="n">
-        <v>7000</v>
+        <v>9410</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="S124" t="n">
-        <v>1000</v>
+        <v>1344</v>
       </c>
       <c r="T124" t="n">
         <v>7</v>
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44257</v>
+        <v>44162</v>
       </c>
       <c r="E125" t="n">
         <v>9</v>
@@ -10364,16 +10364,16 @@
         </is>
       </c>
       <c r="M125" t="n">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="N125" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="O125" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="P125" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>1000</v>
+        <v>1071</v>
       </c>
       <c r="T125" t="n">
         <v>7</v>
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44244</v>
+        <v>44162</v>
       </c>
       <c r="E126" t="n">
         <v>9</v>
@@ -10440,33 +10440,33 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M126" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="N126" t="n">
         <v>7000</v>
       </c>
       <c r="O126" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P126" t="n">
-        <v>7462</v>
+        <v>7000</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R126" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S126" t="n">
-        <v>1066</v>
+        <v>1000</v>
       </c>
       <c r="T126" t="n">
         <v>7</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E127" t="n">
         <v>9</v>
@@ -10520,20 +10520,20 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M127" t="n">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="N127" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O127" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P127" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>714</v>
+        <v>1000</v>
       </c>
       <c r="T127" t="n">
         <v>7</v>
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44211</v>
+        <v>44244</v>
       </c>
       <c r="E128" t="n">
         <v>9</v>
@@ -10604,7 +10604,7 @@
         </is>
       </c>
       <c r="M128" t="n">
-        <v>270</v>
+        <v>130</v>
       </c>
       <c r="N128" t="n">
         <v>7000</v>
@@ -10613,7 +10613,7 @@
         <v>8000</v>
       </c>
       <c r="P128" t="n">
-        <v>7556</v>
+        <v>7462</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>1079</v>
+        <v>1066</v>
       </c>
       <c r="T128" t="n">
         <v>7</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44323</v>
+        <v>44244</v>
       </c>
       <c r="E129" t="n">
         <v>9</v>
@@ -10680,20 +10680,20 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M129" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N129" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O129" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P129" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         </is>
       </c>
       <c r="S129" t="n">
-        <v>1286</v>
+        <v>714</v>
       </c>
       <c r="T129" t="n">
         <v>7</v>
@@ -10727,68 +10727,228 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
+        <v>44211</v>
+      </c>
+      <c r="E130" t="n">
+        <v>9</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>270</v>
+      </c>
+      <c r="N130" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O130" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P130" t="n">
+        <v>7556</v>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>$/caja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R130" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="S130" t="n">
+        <v>1079</v>
+      </c>
+      <c r="T130" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>10</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D131" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E130" t="n">
-        <v>9</v>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G130" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I130" t="n">
-        <v>100112025</v>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>Frutilla</t>
-        </is>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L130" t="inlineStr">
+      <c r="E131" t="n">
+        <v>9</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>40</v>
+      </c>
+      <c r="N131" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O131" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P131" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>$/caja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R131" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="S131" t="n">
+        <v>1286</v>
+      </c>
+      <c r="T131" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>10</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D132" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E132" t="n">
+        <v>9</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M130" t="n">
+      <c r="M132" t="n">
         <v>30</v>
       </c>
-      <c r="N130" t="n">
+      <c r="N132" t="n">
         <v>4000</v>
       </c>
-      <c r="O130" t="n">
+      <c r="O132" t="n">
         <v>5000</v>
       </c>
-      <c r="P130" t="n">
+      <c r="P132" t="n">
         <v>4500</v>
       </c>
-      <c r="Q130" t="inlineStr">
+      <c r="Q132" t="inlineStr">
         <is>
           <t>$/caja 7 kilos</t>
         </is>
       </c>
-      <c r="R130" t="inlineStr">
+      <c r="R132" t="inlineStr">
         <is>
           <t>Región de La Araucanía</t>
         </is>
       </c>
-      <c r="S130" t="n">
+      <c r="S132" t="n">
         <v>643</v>
       </c>
-      <c r="T130" t="n">
+      <c r="T132" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T132"/>
+  <dimension ref="A1:T133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44372</v>
+        <v>44474</v>
       </c>
       <c r="E116" t="n">
         <v>9</v>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>35</v>
+        <v>300</v>
       </c>
       <c r="N116" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O116" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P116" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>2429</v>
+        <v>2000</v>
       </c>
       <c r="T116" t="n">
         <v>7</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E117" t="n">
         <v>9</v>
@@ -9727,26 +9727,26 @@
         <v>35</v>
       </c>
       <c r="N117" t="n">
-        <v>6500</v>
+        <v>17000</v>
       </c>
       <c r="O117" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="P117" t="n">
-        <v>6786</v>
+        <v>17000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S117" t="n">
-        <v>969</v>
+        <v>2429</v>
       </c>
       <c r="T117" t="n">
         <v>7</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E118" t="n">
         <v>9</v>
@@ -9804,16 +9804,16 @@
         </is>
       </c>
       <c r="M118" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="N118" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="O118" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P118" t="n">
-        <v>8500</v>
+        <v>6786</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9822,11 +9822,11 @@
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S118" t="n">
-        <v>1214</v>
+        <v>969</v>
       </c>
       <c r="T118" t="n">
         <v>7</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E119" t="n">
         <v>9</v>
@@ -9884,16 +9884,16 @@
         </is>
       </c>
       <c r="M119" t="n">
-        <v>320</v>
+        <v>100</v>
       </c>
       <c r="N119" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="O119" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P119" t="n">
-        <v>7734</v>
+        <v>8500</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>1105</v>
+        <v>1214</v>
       </c>
       <c r="T119" t="n">
         <v>7</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44215</v>
+        <v>44160</v>
       </c>
       <c r="E120" t="n">
         <v>9</v>
@@ -9964,16 +9964,16 @@
         </is>
       </c>
       <c r="M120" t="n">
-        <v>120</v>
+        <v>320</v>
       </c>
       <c r="N120" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="O120" t="n">
         <v>8000</v>
       </c>
       <c r="P120" t="n">
-        <v>7542</v>
+        <v>7734</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>1077</v>
+        <v>1105</v>
       </c>
       <c r="T120" t="n">
         <v>7</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E121" t="n">
         <v>9</v>
@@ -10044,16 +10044,16 @@
         </is>
       </c>
       <c r="M121" t="n">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="N121" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O121" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P121" t="n">
-        <v>9000</v>
+        <v>7542</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>1286</v>
+        <v>1077</v>
       </c>
       <c r="T121" t="n">
         <v>7</v>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44203</v>
+        <v>44175</v>
       </c>
       <c r="E122" t="n">
         <v>9</v>
@@ -10124,16 +10124,16 @@
         </is>
       </c>
       <c r="M122" t="n">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="N122" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O122" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P122" t="n">
-        <v>7543</v>
+        <v>9000</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
@@ -10142,11 +10142,11 @@
       </c>
       <c r="R122" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S122" t="n">
-        <v>1078</v>
+        <v>1286</v>
       </c>
       <c r="T122" t="n">
         <v>7</v>
@@ -10200,20 +10200,20 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M123" t="n">
-        <v>65</v>
+        <v>175</v>
       </c>
       <c r="N123" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="O123" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P123" t="n">
-        <v>5500</v>
+        <v>7543</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>786</v>
+        <v>1078</v>
       </c>
       <c r="T123" t="n">
         <v>7</v>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E124" t="n">
         <v>9</v>
@@ -10280,33 +10280,33 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M124" t="n">
-        <v>305</v>
+        <v>65</v>
       </c>
       <c r="N124" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="O124" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="P124" t="n">
-        <v>9410</v>
+        <v>5500</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R124" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S124" t="n">
-        <v>1344</v>
+        <v>786</v>
       </c>
       <c r="T124" t="n">
         <v>7</v>
@@ -10364,29 +10364,29 @@
         </is>
       </c>
       <c r="M125" t="n">
-        <v>165</v>
+        <v>305</v>
       </c>
       <c r="N125" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O125" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="P125" t="n">
-        <v>7500</v>
+        <v>9410</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R125" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S125" t="n">
-        <v>1071</v>
+        <v>1344</v>
       </c>
       <c r="T125" t="n">
         <v>7</v>
@@ -10440,33 +10440,33 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M126" t="n">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="N126" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="O126" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="P126" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R126" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S126" t="n">
-        <v>1000</v>
+        <v>1071</v>
       </c>
       <c r="T126" t="n">
         <v>7</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44257</v>
+        <v>44162</v>
       </c>
       <c r="E127" t="n">
         <v>9</v>
@@ -10520,11 +10520,11 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M127" t="n">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="N127" t="n">
         <v>7000</v>
@@ -10537,12 +10537,12 @@
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R127" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S127" t="n">
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E128" t="n">
         <v>9</v>
@@ -10604,16 +10604,16 @@
         </is>
       </c>
       <c r="M128" t="n">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="N128" t="n">
         <v>7000</v>
       </c>
       <c r="O128" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P128" t="n">
-        <v>7462</v>
+        <v>7000</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>1066</v>
+        <v>1000</v>
       </c>
       <c r="T128" t="n">
         <v>7</v>
@@ -10680,20 +10680,20 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M129" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="N129" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O129" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P129" t="n">
-        <v>5000</v>
+        <v>7462</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         </is>
       </c>
       <c r="S129" t="n">
-        <v>714</v>
+        <v>1066</v>
       </c>
       <c r="T129" t="n">
         <v>7</v>
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44211</v>
+        <v>44244</v>
       </c>
       <c r="E130" t="n">
         <v>9</v>
@@ -10760,20 +10760,20 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M130" t="n">
-        <v>270</v>
+        <v>55</v>
       </c>
       <c r="N130" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O130" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P130" t="n">
-        <v>7556</v>
+        <v>5000</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         </is>
       </c>
       <c r="S130" t="n">
-        <v>1079</v>
+        <v>714</v>
       </c>
       <c r="T130" t="n">
         <v>7</v>
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E131" t="n">
         <v>9</v>
@@ -10844,16 +10844,16 @@
         </is>
       </c>
       <c r="M131" t="n">
-        <v>40</v>
+        <v>270</v>
       </c>
       <c r="N131" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O131" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P131" t="n">
-        <v>9000</v>
+        <v>7556</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         </is>
       </c>
       <c r="S131" t="n">
-        <v>1286</v>
+        <v>1079</v>
       </c>
       <c r="T131" t="n">
         <v>7</v>
@@ -10920,35 +10920,115 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>40</v>
+      </c>
+      <c r="N132" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O132" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P132" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>$/caja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R132" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="S132" t="n">
+        <v>1286</v>
+      </c>
+      <c r="T132" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>10</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D133" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E133" t="n">
+        <v>9</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M132" t="n">
+      <c r="M133" t="n">
         <v>30</v>
       </c>
-      <c r="N132" t="n">
+      <c r="N133" t="n">
         <v>4000</v>
       </c>
-      <c r="O132" t="n">
+      <c r="O133" t="n">
         <v>5000</v>
       </c>
-      <c r="P132" t="n">
+      <c r="P133" t="n">
         <v>4500</v>
       </c>
-      <c r="Q132" t="inlineStr">
+      <c r="Q133" t="inlineStr">
         <is>
           <t>$/caja 7 kilos</t>
         </is>
       </c>
-      <c r="R132" t="inlineStr">
+      <c r="R133" t="inlineStr">
         <is>
           <t>Región de La Araucanía</t>
         </is>
       </c>
-      <c r="S132" t="n">
+      <c r="S133" t="n">
         <v>643</v>
       </c>
-      <c r="T132" t="n">
+      <c r="T133" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T133"/>
+  <dimension ref="A1:T135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44181</v>
+        <v>44400</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,29 +524,29 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>260</v>
+        <v>15</v>
       </c>
       <c r="N2" t="n">
-        <v>9000</v>
+        <v>23000</v>
       </c>
       <c r="O2" t="n">
-        <v>10000</v>
+        <v>23000</v>
       </c>
       <c r="P2" t="n">
-        <v>9462</v>
+        <v>23000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1352</v>
+        <v>3286</v>
       </c>
       <c r="T2" t="n">
         <v>7</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44235</v>
+        <v>44162</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -604,29 +604,29 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>80</v>
+        <v>305</v>
       </c>
       <c r="N3" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O3" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P3" t="n">
-        <v>8000</v>
+        <v>9410</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1143</v>
+        <v>1344</v>
       </c>
       <c r="T3" t="n">
         <v>7</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44235</v>
+        <v>44162</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>65</v>
+        <v>165</v>
       </c>
       <c r="N4" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="O4" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="P4" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>714</v>
+        <v>1071</v>
       </c>
       <c r="T4" t="n">
         <v>7</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44295</v>
+        <v>44162</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -760,11 +760,11 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N5" t="n">
         <v>7000</v>
@@ -777,12 +777,12 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S5" t="n">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44204</v>
+        <v>44305</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
         <v>7000</v>
       </c>
       <c r="O6" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P6" t="n">
-        <v>7390</v>
+        <v>7000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1056</v>
+        <v>1000</v>
       </c>
       <c r="T6" t="n">
         <v>7</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44204</v>
+        <v>44285</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N7" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="O7" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="P7" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>786</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
         <v>7</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44294</v>
+        <v>44189</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N8" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O8" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P8" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1000</v>
+        <v>1286</v>
       </c>
       <c r="T8" t="n">
         <v>7</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44305</v>
+        <v>44259</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="N9" t="n">
         <v>7000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44259</v>
+        <v>44181</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>155</v>
+        <v>260</v>
       </c>
       <c r="N10" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O10" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P10" t="n">
-        <v>7000</v>
+        <v>9462</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1000</v>
+        <v>1352</v>
       </c>
       <c r="T10" t="n">
         <v>7</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44194</v>
+        <v>44249</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,29 +1244,29 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>600</v>
+        <v>120</v>
       </c>
       <c r="N11" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O11" t="n">
         <v>8000</v>
       </c>
       <c r="P11" t="n">
-        <v>8000</v>
+        <v>7458</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1143</v>
+        <v>1065</v>
       </c>
       <c r="T11" t="n">
         <v>7</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44194</v>
+        <v>44249</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="N12" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O12" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P12" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1214</v>
+        <v>714</v>
       </c>
       <c r="T12" t="n">
         <v>7</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44174</v>
+        <v>44221</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O13" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P13" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1429</v>
+        <v>1000</v>
       </c>
       <c r="T13" t="n">
         <v>7</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44186</v>
+        <v>44251</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,29 +1484,29 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>625</v>
+        <v>75</v>
       </c>
       <c r="N14" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O14" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P14" t="n">
-        <v>11584</v>
+        <v>7467</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1655</v>
+        <v>1067</v>
       </c>
       <c r="T14" t="n">
         <v>7</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44186</v>
+        <v>44251</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>235</v>
+        <v>55</v>
       </c>
       <c r="N15" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O15" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="P15" t="n">
-        <v>10532</v>
+        <v>5000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1505</v>
+        <v>714</v>
       </c>
       <c r="T15" t="n">
         <v>7</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44454</v>
+        <v>44277</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1640,33 +1640,33 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>80</v>
       </c>
       <c r="N16" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="O16" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="P16" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2571</v>
+        <v>857</v>
       </c>
       <c r="T16" t="n">
         <v>7</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44189</v>
+        <v>44237</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>400</v>
+        <v>75</v>
       </c>
       <c r="N17" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O17" t="n">
         <v>8000</v>
       </c>
-      <c r="O17" t="n">
-        <v>10000</v>
-      </c>
       <c r="P17" t="n">
-        <v>9000</v>
+        <v>7533</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1742,11 +1742,11 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1286</v>
+        <v>1076</v>
       </c>
       <c r="T17" t="n">
         <v>7</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44202</v>
+        <v>44237</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="N18" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O18" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P18" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1000</v>
+        <v>714</v>
       </c>
       <c r="T18" t="n">
         <v>7</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44236</v>
+        <v>44179</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,29 +1884,29 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>120</v>
+        <v>600</v>
       </c>
       <c r="N19" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O19" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P19" t="n">
-        <v>7542</v>
+        <v>10500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1077</v>
+        <v>1500</v>
       </c>
       <c r="T19" t="n">
         <v>7</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44236</v>
+        <v>44179</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="N20" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O20" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P20" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1982,11 +1982,11 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>714</v>
+        <v>1429</v>
       </c>
       <c r="T20" t="n">
         <v>7</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44473</v>
+        <v>44302</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2044,29 +2044,29 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>1300</v>
+        <v>55</v>
       </c>
       <c r="N21" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="O21" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="P21" t="n">
-        <v>15538</v>
+        <v>6000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>2220</v>
+        <v>857</v>
       </c>
       <c r="T21" t="n">
         <v>7</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44473</v>
+        <v>44253</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2120,33 +2120,33 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N22" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O22" t="n">
         <v>8000</v>
       </c>
       <c r="P22" t="n">
-        <v>8000</v>
+        <v>7417</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1143</v>
+        <v>1060</v>
       </c>
       <c r="T22" t="n">
         <v>7</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44462</v>
+        <v>44253</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2200,33 +2200,33 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N23" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O23" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P23" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1429</v>
+        <v>714</v>
       </c>
       <c r="T23" t="n">
         <v>7</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44179</v>
+        <v>44459</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="N24" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O24" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P24" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2302,11 +2302,11 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1500</v>
+        <v>2286</v>
       </c>
       <c r="T24" t="n">
         <v>7</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44179</v>
+        <v>44323</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N25" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O25" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P25" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1429</v>
+        <v>1286</v>
       </c>
       <c r="T25" t="n">
         <v>7</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44364</v>
+        <v>44323</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2440,33 +2440,33 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N26" t="n">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="O26" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="P26" t="n">
-        <v>20000</v>
+        <v>4500</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>2857</v>
+        <v>643</v>
       </c>
       <c r="T26" t="n">
         <v>7</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44242</v>
+        <v>44462</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2520,33 +2520,33 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>145</v>
+        <v>50</v>
       </c>
       <c r="N27" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O27" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P27" t="n">
-        <v>7448</v>
+        <v>10000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1064</v>
+        <v>1429</v>
       </c>
       <c r="T27" t="n">
         <v>7</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44242</v>
+        <v>44194</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2600,33 +2600,33 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>45</v>
+        <v>600</v>
       </c>
       <c r="N28" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O28" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P28" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>714</v>
+        <v>1143</v>
       </c>
       <c r="T28" t="n">
         <v>7</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44258</v>
+        <v>44194</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>65</v>
+        <v>400</v>
       </c>
       <c r="N29" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O29" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P29" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1000</v>
+        <v>1214</v>
       </c>
       <c r="T29" t="n">
         <v>7</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44159</v>
+        <v>44160</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2764,29 +2764,29 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>550</v>
+        <v>320</v>
       </c>
       <c r="N30" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="O30" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P30" t="n">
-        <v>9455</v>
+        <v>7734</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1351</v>
+        <v>1105</v>
       </c>
       <c r="T30" t="n">
         <v>7</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44159</v>
+        <v>44460</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2840,33 +2840,33 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>375</v>
+        <v>50</v>
       </c>
       <c r="N31" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="O31" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P31" t="n">
-        <v>7760</v>
+        <v>20000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1109</v>
+        <v>2857</v>
       </c>
       <c r="T31" t="n">
         <v>7</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44159</v>
+        <v>44460</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="N32" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="O32" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="P32" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1071</v>
+        <v>1429</v>
       </c>
       <c r="T32" t="n">
         <v>7</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44302</v>
+        <v>44217</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>55</v>
+        <v>235</v>
       </c>
       <c r="N33" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O33" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P33" t="n">
-        <v>6000</v>
+        <v>7532</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3022,11 +3022,11 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>857</v>
+        <v>1076</v>
       </c>
       <c r="T33" t="n">
         <v>7</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44459</v>
+        <v>44217</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3084,29 +3084,29 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="N34" t="n">
-        <v>16000</v>
+        <v>5500</v>
       </c>
       <c r="O34" t="n">
-        <v>16000</v>
+        <v>5500</v>
       </c>
       <c r="P34" t="n">
-        <v>16000</v>
+        <v>5500</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>2286</v>
+        <v>786</v>
       </c>
       <c r="T34" t="n">
         <v>7</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44232</v>
+        <v>44238</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>100</v>
+        <v>235</v>
       </c>
       <c r="N35" t="n">
         <v>7000</v>
@@ -3173,7 +3173,7 @@
         <v>8000</v>
       </c>
       <c r="P35" t="n">
-        <v>7550</v>
+        <v>7532</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="T35" t="n">
         <v>7</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44224</v>
+        <v>44238</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>600</v>
+        <v>85</v>
       </c>
       <c r="N36" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O36" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P36" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3262,11 +3262,11 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1071</v>
+        <v>714</v>
       </c>
       <c r="T36" t="n">
         <v>7</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44195</v>
+        <v>44260</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3324,29 +3324,29 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="N37" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O37" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="P37" t="n">
-        <v>12583</v>
+        <v>7000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1798</v>
+        <v>1000</v>
       </c>
       <c r="T37" t="n">
         <v>7</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44195</v>
+        <v>44211</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="N38" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O38" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P38" t="n">
-        <v>10000</v>
+        <v>7556</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1429</v>
+        <v>1079</v>
       </c>
       <c r="T38" t="n">
         <v>7</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44188</v>
+        <v>44272</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3484,29 +3484,29 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="N39" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O39" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="P39" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1857</v>
+        <v>1000</v>
       </c>
       <c r="T39" t="n">
         <v>7</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44263</v>
+        <v>44218</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="N40" t="n">
         <v>7000</v>
       </c>
       <c r="O40" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P40" t="n">
-        <v>7000</v>
+        <v>7516</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1000</v>
+        <v>1074</v>
       </c>
       <c r="T40" t="n">
         <v>7</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44272</v>
+        <v>44218</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M41" t="n">
         <v>65</v>
       </c>
       <c r="N41" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="O41" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="P41" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1000</v>
+        <v>786</v>
       </c>
       <c r="T41" t="n">
         <v>7</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44271</v>
+        <v>44210</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3724,16 +3724,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="N42" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O42" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P42" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1000</v>
+        <v>1143</v>
       </c>
       <c r="T42" t="n">
         <v>7</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44333</v>
+        <v>44257</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3804,16 +3804,16 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="N43" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O43" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P43" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1143</v>
+        <v>1000</v>
       </c>
       <c r="T43" t="n">
         <v>7</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44238</v>
+        <v>44200</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3884,16 +3884,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>235</v>
+        <v>110</v>
       </c>
       <c r="N44" t="n">
         <v>7000</v>
       </c>
       <c r="O44" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P44" t="n">
-        <v>7532</v>
+        <v>7000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1076</v>
+        <v>1000</v>
       </c>
       <c r="T44" t="n">
         <v>7</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44238</v>
+        <v>44200</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3964,16 +3964,16 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="N45" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="O45" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="P45" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>714</v>
+        <v>786</v>
       </c>
       <c r="T45" t="n">
         <v>7</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44469</v>
+        <v>44246</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -4044,29 +4044,29 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>3000</v>
+        <v>60</v>
       </c>
       <c r="N46" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O46" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P46" t="n">
-        <v>15333</v>
+        <v>7417</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>2190</v>
+        <v>1060</v>
       </c>
       <c r="T46" t="n">
         <v>7</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44469</v>
+        <v>44246</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -4120,33 +4120,33 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N47" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O47" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P47" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1000</v>
+        <v>714</v>
       </c>
       <c r="T47" t="n">
         <v>7</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44284</v>
+        <v>44295</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="N48" t="n">
         <v>7000</v>
@@ -4222,7 +4222,7 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S48" t="n">
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44216</v>
+        <v>44225</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -4284,7 +4284,7 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="N49" t="n">
         <v>7000</v>
@@ -4293,7 +4293,7 @@
         <v>8000</v>
       </c>
       <c r="P49" t="n">
-        <v>7579</v>
+        <v>7500</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1083</v>
+        <v>1071</v>
       </c>
       <c r="T49" t="n">
         <v>7</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44216</v>
+        <v>44399</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -4360,33 +4360,33 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N50" t="n">
-        <v>5000</v>
+        <v>22000</v>
       </c>
       <c r="O50" t="n">
-        <v>5000</v>
+        <v>23000</v>
       </c>
       <c r="P50" t="n">
-        <v>5000</v>
+        <v>22538</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S50" t="n">
-        <v>714</v>
+        <v>3220</v>
       </c>
       <c r="T50" t="n">
         <v>7</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44253</v>
+        <v>44175</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4444,16 +4444,16 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>60</v>
+        <v>155</v>
       </c>
       <c r="N51" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O51" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P51" t="n">
-        <v>7417</v>
+        <v>9000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1060</v>
+        <v>1286</v>
       </c>
       <c r="T51" t="n">
         <v>7</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44253</v>
+        <v>44364</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4520,33 +4520,33 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M52" t="n">
         <v>40</v>
       </c>
       <c r="N52" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="O52" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="P52" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S52" t="n">
-        <v>714</v>
+        <v>2857</v>
       </c>
       <c r="T52" t="n">
         <v>7</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44245</v>
+        <v>44188</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4604,29 +4604,29 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="N53" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O53" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P53" t="n">
-        <v>7360</v>
+        <v>13000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S53" t="n">
-        <v>1051</v>
+        <v>1857</v>
       </c>
       <c r="T53" t="n">
         <v>7</v>
@@ -4680,20 +4680,20 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="N54" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O54" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P54" t="n">
-        <v>5000</v>
+        <v>7360</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>714</v>
+        <v>1051</v>
       </c>
       <c r="T54" t="n">
         <v>7</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44225</v>
+        <v>44245</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4760,20 +4760,20 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="N55" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O55" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P55" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>1071</v>
+        <v>714</v>
       </c>
       <c r="T55" t="n">
         <v>7</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44399</v>
+        <v>44216</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4844,29 +4844,29 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="N56" t="n">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="O56" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="P56" t="n">
-        <v>22538</v>
+        <v>7579</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S56" t="n">
-        <v>3220</v>
+        <v>1083</v>
       </c>
       <c r="T56" t="n">
         <v>7</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44218</v>
+        <v>44216</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4920,20 +4920,20 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="N57" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O57" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P57" t="n">
-        <v>7516</v>
+        <v>5000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>1074</v>
+        <v>714</v>
       </c>
       <c r="T57" t="n">
         <v>7</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44218</v>
+        <v>44284</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -5000,20 +5000,20 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M58" t="n">
         <v>65</v>
       </c>
       <c r="N58" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="O58" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="P58" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5022,11 +5022,11 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S58" t="n">
-        <v>786</v>
+        <v>1000</v>
       </c>
       <c r="T58" t="n">
         <v>7</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44223</v>
+        <v>44174</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -5084,16 +5084,16 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="N59" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O59" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P59" t="n">
-        <v>7385</v>
+        <v>10000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>1055</v>
+        <v>1429</v>
       </c>
       <c r="T59" t="n">
         <v>7</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44246</v>
+        <v>44244</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -5164,7 +5164,7 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="N60" t="n">
         <v>7000</v>
@@ -5173,7 +5173,7 @@
         <v>8000</v>
       </c>
       <c r="P60" t="n">
-        <v>7417</v>
+        <v>7462</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>1060</v>
+        <v>1066</v>
       </c>
       <c r="T60" t="n">
         <v>7</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44246</v>
+        <v>44244</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N61" t="n">
         <v>5000</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44161</v>
+        <v>44271</v>
       </c>
       <c r="E62" t="n">
         <v>9</v>
@@ -5324,29 +5324,29 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>550</v>
+        <v>65</v>
       </c>
       <c r="N62" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O62" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P62" t="n">
-        <v>9455</v>
+        <v>7000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S62" t="n">
-        <v>1351</v>
+        <v>1000</v>
       </c>
       <c r="T62" t="n">
         <v>7</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44161</v>
+        <v>44463</v>
       </c>
       <c r="E63" t="n">
         <v>9</v>
@@ -5404,29 +5404,29 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>305</v>
+        <v>150</v>
       </c>
       <c r="N63" t="n">
-        <v>6500</v>
+        <v>20000</v>
       </c>
       <c r="O63" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="P63" t="n">
-        <v>6705</v>
+        <v>20000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S63" t="n">
-        <v>958</v>
+        <v>2857</v>
       </c>
       <c r="T63" t="n">
         <v>7</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44161</v>
+        <v>44463</v>
       </c>
       <c r="E64" t="n">
         <v>9</v>
@@ -5480,33 +5480,33 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="N64" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O64" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="P64" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S64" t="n">
-        <v>571</v>
+        <v>1429</v>
       </c>
       <c r="T64" t="n">
         <v>7</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44307</v>
+        <v>44224</v>
       </c>
       <c r="E65" t="n">
         <v>9</v>
@@ -5560,20 +5560,20 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>30</v>
+        <v>600</v>
       </c>
       <c r="N65" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O65" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P65" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>714</v>
+        <v>1071</v>
       </c>
       <c r="T65" t="n">
         <v>7</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44193</v>
+        <v>44264</v>
       </c>
       <c r="E66" t="n">
         <v>9</v>
@@ -5644,16 +5644,16 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="N66" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O66" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P66" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>1429</v>
+        <v>1000</v>
       </c>
       <c r="T66" t="n">
         <v>7</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44193</v>
+        <v>44195</v>
       </c>
       <c r="E67" t="n">
         <v>9</v>
@@ -5720,33 +5720,33 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>90</v>
+        <v>240</v>
       </c>
       <c r="N67" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O67" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P67" t="n">
-        <v>9000</v>
+        <v>12583</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S67" t="n">
-        <v>1286</v>
+        <v>1798</v>
       </c>
       <c r="T67" t="n">
         <v>7</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44274</v>
+        <v>44195</v>
       </c>
       <c r="E68" t="n">
         <v>9</v>
@@ -5804,16 +5804,16 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="N68" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O68" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P68" t="n">
-        <v>6579</v>
+        <v>10000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>940</v>
+        <v>1429</v>
       </c>
       <c r="T68" t="n">
         <v>7</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44200</v>
+        <v>44209</v>
       </c>
       <c r="E69" t="n">
         <v>9</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="N69" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O69" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P69" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5902,11 +5902,11 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S69" t="n">
-        <v>1000</v>
+        <v>1214</v>
       </c>
       <c r="T69" t="n">
         <v>7</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44200</v>
+        <v>44294</v>
       </c>
       <c r="E70" t="n">
         <v>9</v>
@@ -5960,20 +5960,20 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="N70" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="O70" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="P70" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5982,11 +5982,11 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S70" t="n">
-        <v>786</v>
+        <v>1000</v>
       </c>
       <c r="T70" t="n">
         <v>7</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44214</v>
+        <v>44232</v>
       </c>
       <c r="E71" t="n">
         <v>9</v>
@@ -6044,7 +6044,7 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="N71" t="n">
         <v>7000</v>
@@ -6053,7 +6053,7 @@
         <v>8000</v>
       </c>
       <c r="P71" t="n">
-        <v>7455</v>
+        <v>7550</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6062,11 +6062,11 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S71" t="n">
-        <v>1065</v>
+        <v>1079</v>
       </c>
       <c r="T71" t="n">
         <v>7</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44214</v>
+        <v>44454</v>
       </c>
       <c r="E72" t="n">
         <v>9</v>
@@ -6120,33 +6120,33 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N72" t="n">
-        <v>4500</v>
+        <v>18000</v>
       </c>
       <c r="O72" t="n">
-        <v>4500</v>
+        <v>18000</v>
       </c>
       <c r="P72" t="n">
-        <v>4500</v>
+        <v>18000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S72" t="n">
-        <v>643</v>
+        <v>2571</v>
       </c>
       <c r="T72" t="n">
         <v>7</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44237</v>
+        <v>44473</v>
       </c>
       <c r="E73" t="n">
         <v>9</v>
@@ -6204,29 +6204,29 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>75</v>
+        <v>1300</v>
       </c>
       <c r="N73" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O73" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P73" t="n">
-        <v>7533</v>
+        <v>15538</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S73" t="n">
-        <v>1076</v>
+        <v>2220</v>
       </c>
       <c r="T73" t="n">
         <v>7</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44237</v>
+        <v>44473</v>
       </c>
       <c r="E74" t="n">
         <v>9</v>
@@ -6284,29 +6284,29 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="N74" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O74" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P74" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S74" t="n">
-        <v>714</v>
+        <v>1143</v>
       </c>
       <c r="T74" t="n">
         <v>7</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44285</v>
+        <v>44273</v>
       </c>
       <c r="E75" t="n">
         <v>9</v>
@@ -6364,16 +6364,16 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="N75" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O75" t="n">
         <v>7000</v>
       </c>
       <c r="P75" t="n">
-        <v>7000</v>
+        <v>6562</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>1000</v>
+        <v>937</v>
       </c>
       <c r="T75" t="n">
         <v>7</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44210</v>
+        <v>44236</v>
       </c>
       <c r="E76" t="n">
         <v>9</v>
@@ -6444,16 +6444,16 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="N76" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O76" t="n">
         <v>8000</v>
       </c>
       <c r="P76" t="n">
-        <v>8000</v>
+        <v>7542</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6462,11 +6462,11 @@
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S76" t="n">
-        <v>1143</v>
+        <v>1077</v>
       </c>
       <c r="T76" t="n">
         <v>7</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44217</v>
+        <v>44236</v>
       </c>
       <c r="E77" t="n">
         <v>9</v>
@@ -6520,20 +6520,20 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>235</v>
+        <v>45</v>
       </c>
       <c r="N77" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O77" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P77" t="n">
-        <v>7532</v>
+        <v>5000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6542,11 +6542,11 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S77" t="n">
-        <v>1076</v>
+        <v>714</v>
       </c>
       <c r="T77" t="n">
         <v>7</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44217</v>
+        <v>44215</v>
       </c>
       <c r="E78" t="n">
         <v>9</v>
@@ -6600,20 +6600,20 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="N78" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="O78" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P78" t="n">
-        <v>5500</v>
+        <v>7542</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>786</v>
+        <v>1077</v>
       </c>
       <c r="T78" t="n">
         <v>7</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44460</v>
+        <v>44235</v>
       </c>
       <c r="E79" t="n">
         <v>9</v>
@@ -6680,33 +6680,33 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N79" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="O79" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="P79" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S79" t="n">
-        <v>2857</v>
+        <v>1143</v>
       </c>
       <c r="T79" t="n">
         <v>7</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44460</v>
+        <v>44235</v>
       </c>
       <c r="E80" t="n">
         <v>9</v>
@@ -6760,33 +6760,33 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="N80" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O80" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P80" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S80" t="n">
-        <v>1429</v>
+        <v>714</v>
       </c>
       <c r="T80" t="n">
         <v>7</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44165</v>
+        <v>44203</v>
       </c>
       <c r="E81" t="n">
         <v>9</v>
@@ -6840,33 +6840,33 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c r="N81" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O81" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P81" t="n">
-        <v>11000</v>
+        <v>7543</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S81" t="n">
-        <v>1571</v>
+        <v>1078</v>
       </c>
       <c r="T81" t="n">
         <v>7</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44165</v>
+        <v>44203</v>
       </c>
       <c r="E82" t="n">
         <v>9</v>
@@ -6920,33 +6920,33 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>700</v>
+        <v>65</v>
       </c>
       <c r="N82" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="O82" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="P82" t="n">
-        <v>9571</v>
+        <v>5500</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S82" t="n">
-        <v>1367</v>
+        <v>786</v>
       </c>
       <c r="T82" t="n">
         <v>7</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44165</v>
+        <v>44291</v>
       </c>
       <c r="E83" t="n">
         <v>9</v>
@@ -7004,29 +7004,29 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N83" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O83" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P83" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S83" t="n">
-        <v>1357</v>
+        <v>1000</v>
       </c>
       <c r="T83" t="n">
         <v>7</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44165</v>
+        <v>44291</v>
       </c>
       <c r="E84" t="n">
         <v>9</v>
@@ -7080,20 +7080,20 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="N84" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O84" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P84" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>1214</v>
+        <v>857</v>
       </c>
       <c r="T84" t="n">
         <v>7</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44165</v>
+        <v>44469</v>
       </c>
       <c r="E85" t="n">
         <v>9</v>
@@ -7160,20 +7160,20 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="N85" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O85" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="P85" t="n">
-        <v>7000</v>
+        <v>15333</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>1000</v>
+        <v>2190</v>
       </c>
       <c r="T85" t="n">
         <v>7</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44466</v>
+        <v>44469</v>
       </c>
       <c r="E86" t="n">
         <v>9</v>
@@ -7240,20 +7240,20 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="N86" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="O86" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="P86" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>2286</v>
+        <v>1000</v>
       </c>
       <c r="T86" t="n">
         <v>7</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44466</v>
+        <v>44168</v>
       </c>
       <c r="E87" t="n">
         <v>9</v>
@@ -7320,20 +7320,20 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M87" t="n">
         <v>200</v>
       </c>
       <c r="N87" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O87" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P87" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7342,11 +7342,11 @@
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S87" t="n">
-        <v>1857</v>
+        <v>1714</v>
       </c>
       <c r="T87" t="n">
         <v>7</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44466</v>
+        <v>44168</v>
       </c>
       <c r="E88" t="n">
         <v>9</v>
@@ -7400,20 +7400,20 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="N88" t="n">
-        <v>800</v>
+        <v>10000</v>
       </c>
       <c r="O88" t="n">
-        <v>800</v>
+        <v>10000</v>
       </c>
       <c r="P88" t="n">
-        <v>800</v>
+        <v>10000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7422,11 +7422,11 @@
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S88" t="n">
-        <v>114</v>
+        <v>1429</v>
       </c>
       <c r="T88" t="n">
         <v>7</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44249</v>
+        <v>44161</v>
       </c>
       <c r="E89" t="n">
         <v>9</v>
@@ -7484,29 +7484,29 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>120</v>
+        <v>550</v>
       </c>
       <c r="N89" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O89" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P89" t="n">
-        <v>7458</v>
+        <v>9455</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S89" t="n">
-        <v>1065</v>
+        <v>1351</v>
       </c>
       <c r="T89" t="n">
         <v>7</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44249</v>
+        <v>44161</v>
       </c>
       <c r="E90" t="n">
         <v>9</v>
@@ -7560,20 +7560,20 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>45</v>
+        <v>305</v>
       </c>
       <c r="N90" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="O90" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P90" t="n">
-        <v>5000</v>
+        <v>6705</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7582,11 +7582,11 @@
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S90" t="n">
-        <v>714</v>
+        <v>958</v>
       </c>
       <c r="T90" t="n">
         <v>7</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44201</v>
+        <v>44161</v>
       </c>
       <c r="E91" t="n">
         <v>9</v>
@@ -7640,20 +7640,20 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="N91" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="O91" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="P91" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7662,11 +7662,11 @@
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S91" t="n">
-        <v>1000</v>
+        <v>571</v>
       </c>
       <c r="T91" t="n">
         <v>7</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E92" t="n">
         <v>9</v>
@@ -7724,16 +7724,16 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="N92" t="n">
         <v>7000</v>
       </c>
       <c r="O92" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P92" t="n">
-        <v>7000</v>
+        <v>7455</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>1000</v>
+        <v>1065</v>
       </c>
       <c r="T92" t="n">
         <v>7</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44270</v>
+        <v>44214</v>
       </c>
       <c r="E93" t="n">
         <v>9</v>
@@ -7800,20 +7800,20 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="N93" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="O93" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="P93" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>1000</v>
+        <v>643</v>
       </c>
       <c r="T93" t="n">
         <v>7</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44260</v>
+        <v>44280</v>
       </c>
       <c r="E94" t="n">
         <v>9</v>
@@ -7884,7 +7884,7 @@
         </is>
       </c>
       <c r="M94" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="N94" t="n">
         <v>7000</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44312</v>
+        <v>44274</v>
       </c>
       <c r="E95" t="n">
         <v>9</v>
@@ -7964,16 +7964,16 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="N95" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O95" t="n">
         <v>7000</v>
       </c>
       <c r="P95" t="n">
-        <v>7000</v>
+        <v>6579</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7982,11 +7982,11 @@
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S95" t="n">
-        <v>1000</v>
+        <v>940</v>
       </c>
       <c r="T95" t="n">
         <v>7</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44264</v>
+        <v>44165</v>
       </c>
       <c r="E96" t="n">
         <v>9</v>
@@ -8040,33 +8040,33 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N96" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O96" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P96" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S96" t="n">
-        <v>1000</v>
+        <v>1571</v>
       </c>
       <c r="T96" t="n">
         <v>7</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44463</v>
+        <v>44165</v>
       </c>
       <c r="E97" t="n">
         <v>9</v>
@@ -8124,16 +8124,16 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>150</v>
+        <v>700</v>
       </c>
       <c r="N97" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O97" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P97" t="n">
-        <v>20000</v>
+        <v>9571</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="S97" t="n">
-        <v>2857</v>
+        <v>1367</v>
       </c>
       <c r="T97" t="n">
         <v>7</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44463</v>
+        <v>44165</v>
       </c>
       <c r="E98" t="n">
         <v>9</v>
@@ -8200,20 +8200,20 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>40</v>
+        <v>800</v>
       </c>
       <c r="N98" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O98" t="n">
         <v>10000</v>
       </c>
       <c r="P98" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -8222,11 +8222,11 @@
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S98" t="n">
-        <v>1429</v>
+        <v>1357</v>
       </c>
       <c r="T98" t="n">
         <v>7</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44301</v>
+        <v>44165</v>
       </c>
       <c r="E99" t="n">
         <v>9</v>
@@ -8284,16 +8284,16 @@
         </is>
       </c>
       <c r="M99" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="N99" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O99" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="P99" t="n">
-        <v>6194</v>
+        <v>8500</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8302,11 +8302,11 @@
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S99" t="n">
-        <v>885</v>
+        <v>1214</v>
       </c>
       <c r="T99" t="n">
         <v>7</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44251</v>
+        <v>44165</v>
       </c>
       <c r="E100" t="n">
         <v>9</v>
@@ -8360,33 +8360,33 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="N100" t="n">
         <v>7000</v>
       </c>
       <c r="O100" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P100" t="n">
-        <v>7467</v>
+        <v>7000</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S100" t="n">
-        <v>1067</v>
+        <v>1000</v>
       </c>
       <c r="T100" t="n">
         <v>7</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44251</v>
+        <v>44258</v>
       </c>
       <c r="E101" t="n">
         <v>9</v>
@@ -8440,20 +8440,20 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="N101" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O101" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P101" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>714</v>
+        <v>1000</v>
       </c>
       <c r="T101" t="n">
         <v>7</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44243</v>
+        <v>44475</v>
       </c>
       <c r="E102" t="n">
         <v>9</v>
@@ -8524,29 +8524,29 @@
         </is>
       </c>
       <c r="M102" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N102" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O102" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P102" t="n">
-        <v>7450</v>
+        <v>15000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S102" t="n">
-        <v>1064</v>
+        <v>2143</v>
       </c>
       <c r="T102" t="n">
         <v>7</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44243</v>
+        <v>44474</v>
       </c>
       <c r="E103" t="n">
         <v>9</v>
@@ -8600,33 +8600,33 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="N103" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="O103" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="P103" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S103" t="n">
-        <v>714</v>
+        <v>2000</v>
       </c>
       <c r="T103" t="n">
         <v>7</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44166</v>
+        <v>44204</v>
       </c>
       <c r="E106" t="n">
         <v>9</v>
@@ -8844,7 +8844,7 @@
         </is>
       </c>
       <c r="M106" t="n">
-        <v>400</v>
+        <v>205</v>
       </c>
       <c r="N106" t="n">
         <v>7000</v>
@@ -8853,7 +8853,7 @@
         <v>8000</v>
       </c>
       <c r="P106" t="n">
-        <v>7500</v>
+        <v>7390</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8862,11 +8862,11 @@
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S106" t="n">
-        <v>1071</v>
+        <v>1056</v>
       </c>
       <c r="T106" t="n">
         <v>7</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44168</v>
+        <v>44204</v>
       </c>
       <c r="E107" t="n">
         <v>9</v>
@@ -8920,33 +8920,33 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="N107" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="O107" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="P107" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S107" t="n">
-        <v>1714</v>
+        <v>786</v>
       </c>
       <c r="T107" t="n">
         <v>7</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44168</v>
+        <v>44186</v>
       </c>
       <c r="E108" t="n">
         <v>9</v>
@@ -9004,16 +9004,16 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>600</v>
+        <v>625</v>
       </c>
       <c r="N108" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O108" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P108" t="n">
-        <v>10000</v>
+        <v>11584</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>1429</v>
+        <v>1655</v>
       </c>
       <c r="T108" t="n">
         <v>7</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44369</v>
+        <v>44186</v>
       </c>
       <c r="E109" t="n">
         <v>9</v>
@@ -9084,29 +9084,29 @@
         </is>
       </c>
       <c r="M109" t="n">
-        <v>25</v>
+        <v>235</v>
       </c>
       <c r="N109" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O109" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P109" t="n">
-        <v>15000</v>
+        <v>10532</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S109" t="n">
-        <v>2143</v>
+        <v>1505</v>
       </c>
       <c r="T109" t="n">
         <v>7</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44221</v>
+        <v>44372</v>
       </c>
       <c r="E110" t="n">
         <v>9</v>
@@ -9164,29 +9164,29 @@
         </is>
       </c>
       <c r="M110" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="N110" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="O110" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="P110" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S110" t="n">
-        <v>1000</v>
+        <v>2429</v>
       </c>
       <c r="T110" t="n">
         <v>7</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44397</v>
+        <v>44243</v>
       </c>
       <c r="E111" t="n">
         <v>9</v>
@@ -9244,29 +9244,29 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="N111" t="n">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="O111" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="P111" t="n">
-        <v>22000</v>
+        <v>7450</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S111" t="n">
-        <v>3143</v>
+        <v>1064</v>
       </c>
       <c r="T111" t="n">
         <v>7</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44277</v>
+        <v>44243</v>
       </c>
       <c r="E112" t="n">
         <v>9</v>
@@ -9320,20 +9320,20 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M112" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N112" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O112" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P112" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>857</v>
+        <v>714</v>
       </c>
       <c r="T112" t="n">
         <v>7</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44291</v>
+        <v>44202</v>
       </c>
       <c r="E113" t="n">
         <v>9</v>
@@ -9404,7 +9404,7 @@
         </is>
       </c>
       <c r="M113" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="N113" t="n">
         <v>7000</v>
@@ -9422,7 +9422,7 @@
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S113" t="n">
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44291</v>
+        <v>44242</v>
       </c>
       <c r="E114" t="n">
         <v>9</v>
@@ -9480,20 +9480,20 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M114" t="n">
-        <v>60</v>
+        <v>145</v>
       </c>
       <c r="N114" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O114" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P114" t="n">
-        <v>6000</v>
+        <v>7448</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>857</v>
+        <v>1064</v>
       </c>
       <c r="T114" t="n">
         <v>7</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44273</v>
+        <v>44242</v>
       </c>
       <c r="E115" t="n">
         <v>9</v>
@@ -9560,20 +9560,20 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="N115" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O115" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P115" t="n">
-        <v>6562</v>
+        <v>5000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>937</v>
+        <v>714</v>
       </c>
       <c r="T115" t="n">
         <v>7</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44474</v>
+        <v>44307</v>
       </c>
       <c r="E116" t="n">
         <v>9</v>
@@ -9640,33 +9640,33 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M116" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="N116" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="O116" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="P116" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S116" t="n">
-        <v>2000</v>
+        <v>714</v>
       </c>
       <c r="T116" t="n">
         <v>7</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44372</v>
+        <v>44159</v>
       </c>
       <c r="E117" t="n">
         <v>9</v>
@@ -9724,16 +9724,16 @@
         </is>
       </c>
       <c r="M117" t="n">
-        <v>35</v>
+        <v>550</v>
       </c>
       <c r="N117" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="O117" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P117" t="n">
-        <v>17000</v>
+        <v>9455</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>2429</v>
+        <v>1351</v>
       </c>
       <c r="T117" t="n">
         <v>7</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44286</v>
+        <v>44159</v>
       </c>
       <c r="E118" t="n">
         <v>9</v>
@@ -9804,16 +9804,16 @@
         </is>
       </c>
       <c r="M118" t="n">
-        <v>35</v>
+        <v>375</v>
       </c>
       <c r="N118" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="O118" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P118" t="n">
-        <v>6786</v>
+        <v>7760</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9822,11 +9822,11 @@
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S118" t="n">
-        <v>969</v>
+        <v>1109</v>
       </c>
       <c r="T118" t="n">
         <v>7</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44209</v>
+        <v>44159</v>
       </c>
       <c r="E119" t="n">
         <v>9</v>
@@ -9880,33 +9880,33 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="N119" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="O119" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="P119" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S119" t="n">
-        <v>1214</v>
+        <v>1071</v>
       </c>
       <c r="T119" t="n">
         <v>7</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44160</v>
+        <v>44166</v>
       </c>
       <c r="E120" t="n">
         <v>9</v>
@@ -9964,16 +9964,16 @@
         </is>
       </c>
       <c r="M120" t="n">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="N120" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="O120" t="n">
         <v>8000</v>
       </c>
       <c r="P120" t="n">
-        <v>7734</v>
+        <v>7500</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>1105</v>
+        <v>1071</v>
       </c>
       <c r="T120" t="n">
         <v>7</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44215</v>
+        <v>44263</v>
       </c>
       <c r="E121" t="n">
         <v>9</v>
@@ -10044,16 +10044,16 @@
         </is>
       </c>
       <c r="M121" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N121" t="n">
         <v>7000</v>
       </c>
       <c r="O121" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P121" t="n">
-        <v>7542</v>
+        <v>7000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>1077</v>
+        <v>1000</v>
       </c>
       <c r="T121" t="n">
         <v>7</v>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44175</v>
+        <v>44369</v>
       </c>
       <c r="E122" t="n">
         <v>9</v>
@@ -10124,29 +10124,29 @@
         </is>
       </c>
       <c r="M122" t="n">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="N122" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O122" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P122" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R122" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S122" t="n">
-        <v>1286</v>
+        <v>2143</v>
       </c>
       <c r="T122" t="n">
         <v>7</v>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44203</v>
+        <v>44301</v>
       </c>
       <c r="E123" t="n">
         <v>9</v>
@@ -10204,16 +10204,16 @@
         </is>
       </c>
       <c r="M123" t="n">
-        <v>175</v>
+        <v>90</v>
       </c>
       <c r="N123" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O123" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="P123" t="n">
-        <v>7543</v>
+        <v>6194</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>1078</v>
+        <v>885</v>
       </c>
       <c r="T123" t="n">
         <v>7</v>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44203</v>
+        <v>44223</v>
       </c>
       <c r="E124" t="n">
         <v>9</v>
@@ -10280,20 +10280,20 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M124" t="n">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="N124" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="O124" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P124" t="n">
-        <v>5500</v>
+        <v>7385</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -10302,11 +10302,11 @@
       </c>
       <c r="R124" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S124" t="n">
-        <v>786</v>
+        <v>1055</v>
       </c>
       <c r="T124" t="n">
         <v>7</v>
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44162</v>
+        <v>44397</v>
       </c>
       <c r="E125" t="n">
         <v>9</v>
@@ -10364,16 +10364,16 @@
         </is>
       </c>
       <c r="M125" t="n">
-        <v>305</v>
+        <v>55</v>
       </c>
       <c r="N125" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="O125" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="P125" t="n">
-        <v>9410</v>
+        <v>22000</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>1344</v>
+        <v>3143</v>
       </c>
       <c r="T125" t="n">
         <v>7</v>
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44162</v>
+        <v>44333</v>
       </c>
       <c r="E126" t="n">
         <v>9</v>
@@ -10444,16 +10444,16 @@
         </is>
       </c>
       <c r="M126" t="n">
-        <v>165</v>
+        <v>50</v>
       </c>
       <c r="N126" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="O126" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="P126" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>1071</v>
+        <v>1143</v>
       </c>
       <c r="T126" t="n">
         <v>7</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44162</v>
+        <v>44466</v>
       </c>
       <c r="E127" t="n">
         <v>9</v>
@@ -10520,20 +10520,20 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M127" t="n">
-        <v>110</v>
+        <v>800</v>
       </c>
       <c r="N127" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="O127" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="P127" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>1000</v>
+        <v>2286</v>
       </c>
       <c r="T127" t="n">
         <v>7</v>
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44257</v>
+        <v>44466</v>
       </c>
       <c r="E128" t="n">
         <v>9</v>
@@ -10600,33 +10600,33 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M128" t="n">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="N128" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O128" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P128" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R128" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S128" t="n">
-        <v>1000</v>
+        <v>1857</v>
       </c>
       <c r="T128" t="n">
         <v>7</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44244</v>
+        <v>44466</v>
       </c>
       <c r="E129" t="n">
         <v>9</v>
@@ -10680,33 +10680,33 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M129" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="N129" t="n">
-        <v>7000</v>
+        <v>800</v>
       </c>
       <c r="O129" t="n">
-        <v>8000</v>
+        <v>800</v>
       </c>
       <c r="P129" t="n">
-        <v>7462</v>
+        <v>800</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R129" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S129" t="n">
-        <v>1066</v>
+        <v>114</v>
       </c>
       <c r="T129" t="n">
         <v>7</v>
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44244</v>
+        <v>44270</v>
       </c>
       <c r="E130" t="n">
         <v>9</v>
@@ -10760,20 +10760,20 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M130" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="N130" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O130" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P130" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         </is>
       </c>
       <c r="S130" t="n">
-        <v>714</v>
+        <v>1000</v>
       </c>
       <c r="T130" t="n">
         <v>7</v>
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44211</v>
+        <v>44201</v>
       </c>
       <c r="E131" t="n">
         <v>9</v>
@@ -10844,16 +10844,16 @@
         </is>
       </c>
       <c r="M131" t="n">
-        <v>270</v>
+        <v>65</v>
       </c>
       <c r="N131" t="n">
         <v>7000</v>
       </c>
       <c r="O131" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P131" t="n">
-        <v>7556</v>
+        <v>7000</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
@@ -10862,11 +10862,11 @@
       </c>
       <c r="R131" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S131" t="n">
-        <v>1079</v>
+        <v>1000</v>
       </c>
       <c r="T131" t="n">
         <v>7</v>
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44323</v>
+        <v>44193</v>
       </c>
       <c r="E132" t="n">
         <v>9</v>
@@ -10924,16 +10924,16 @@
         </is>
       </c>
       <c r="M132" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N132" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O132" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P132" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="S132" t="n">
-        <v>1286</v>
+        <v>1429</v>
       </c>
       <c r="T132" t="n">
         <v>7</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44323</v>
+        <v>44193</v>
       </c>
       <c r="E133" t="n">
         <v>9</v>
@@ -11004,16 +11004,16 @@
         </is>
       </c>
       <c r="M133" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="N133" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O133" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P133" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
@@ -11026,9 +11026,169 @@
         </is>
       </c>
       <c r="S133" t="n">
-        <v>643</v>
+        <v>1286</v>
       </c>
       <c r="T133" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>10</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E134" t="n">
+        <v>9</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>35</v>
+      </c>
+      <c r="N134" t="n">
+        <v>6500</v>
+      </c>
+      <c r="O134" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P134" t="n">
+        <v>6786</v>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>$/caja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R134" t="inlineStr">
+        <is>
+          <t>Provincia de Cautín</t>
+        </is>
+      </c>
+      <c r="S134" t="n">
+        <v>969</v>
+      </c>
+      <c r="T134" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>10</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D135" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E135" t="n">
+        <v>9</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>65</v>
+      </c>
+      <c r="N135" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O135" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P135" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>$/caja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R135" t="inlineStr">
+        <is>
+          <t>Provincia de Cautín</t>
+        </is>
+      </c>
+      <c r="S135" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T135" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T135"/>
+  <dimension ref="A1:T138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44263</v>
+        <v>44476</v>
       </c>
       <c r="E121" t="n">
         <v>9</v>
@@ -10044,29 +10044,29 @@
         </is>
       </c>
       <c r="M121" t="n">
-        <v>200</v>
+        <v>4000</v>
       </c>
       <c r="N121" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O121" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P121" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R121" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S121" t="n">
-        <v>1000</v>
+        <v>2143</v>
       </c>
       <c r="T121" t="n">
         <v>7</v>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44369</v>
+        <v>44476</v>
       </c>
       <c r="E122" t="n">
         <v>9</v>
@@ -10120,20 +10120,20 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M122" t="n">
-        <v>25</v>
+        <v>400</v>
       </c>
       <c r="N122" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O122" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P122" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>2143</v>
+        <v>1857</v>
       </c>
       <c r="T122" t="n">
         <v>7</v>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44301</v>
+        <v>44476</v>
       </c>
       <c r="E123" t="n">
         <v>9</v>
@@ -10200,33 +10200,33 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M123" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N123" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O123" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="P123" t="n">
-        <v>6194</v>
+        <v>8000</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R123" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S123" t="n">
-        <v>885</v>
+        <v>1143</v>
       </c>
       <c r="T123" t="n">
         <v>7</v>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44223</v>
+        <v>44263</v>
       </c>
       <c r="E124" t="n">
         <v>9</v>
@@ -10284,16 +10284,16 @@
         </is>
       </c>
       <c r="M124" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="N124" t="n">
         <v>7000</v>
       </c>
       <c r="O124" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P124" t="n">
-        <v>7385</v>
+        <v>7000</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="S124" t="n">
-        <v>1055</v>
+        <v>1000</v>
       </c>
       <c r="T124" t="n">
         <v>7</v>
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44397</v>
+        <v>44369</v>
       </c>
       <c r="E125" t="n">
         <v>9</v>
@@ -10364,16 +10364,16 @@
         </is>
       </c>
       <c r="M125" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N125" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O125" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P125" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>3143</v>
+        <v>2143</v>
       </c>
       <c r="T125" t="n">
         <v>7</v>
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44333</v>
+        <v>44301</v>
       </c>
       <c r="E126" t="n">
         <v>9</v>
@@ -10444,16 +10444,16 @@
         </is>
       </c>
       <c r="M126" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="N126" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O126" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="P126" t="n">
-        <v>8000</v>
+        <v>6194</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -10462,11 +10462,11 @@
       </c>
       <c r="R126" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S126" t="n">
-        <v>1143</v>
+        <v>885</v>
       </c>
       <c r="T126" t="n">
         <v>7</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44466</v>
+        <v>44223</v>
       </c>
       <c r="E127" t="n">
         <v>9</v>
@@ -10524,29 +10524,29 @@
         </is>
       </c>
       <c r="M127" t="n">
-        <v>800</v>
+        <v>130</v>
       </c>
       <c r="N127" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="O127" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P127" t="n">
-        <v>16000</v>
+        <v>7385</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R127" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S127" t="n">
-        <v>2286</v>
+        <v>1055</v>
       </c>
       <c r="T127" t="n">
         <v>7</v>
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44466</v>
+        <v>44397</v>
       </c>
       <c r="E128" t="n">
         <v>9</v>
@@ -10600,20 +10600,20 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M128" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="N128" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="O128" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P128" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>1857</v>
+        <v>3143</v>
       </c>
       <c r="T128" t="n">
         <v>7</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44466</v>
+        <v>44333</v>
       </c>
       <c r="E129" t="n">
         <v>9</v>
@@ -10680,33 +10680,33 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M129" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N129" t="n">
-        <v>800</v>
+        <v>8000</v>
       </c>
       <c r="O129" t="n">
-        <v>800</v>
+        <v>8000</v>
       </c>
       <c r="P129" t="n">
-        <v>800</v>
+        <v>8000</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R129" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S129" t="n">
-        <v>114</v>
+        <v>1143</v>
       </c>
       <c r="T129" t="n">
         <v>7</v>
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E130" t="n">
         <v>9</v>
@@ -10764,29 +10764,29 @@
         </is>
       </c>
       <c r="M130" t="n">
-        <v>65</v>
+        <v>800</v>
       </c>
       <c r="N130" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="O130" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="P130" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R130" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S130" t="n">
-        <v>1000</v>
+        <v>2286</v>
       </c>
       <c r="T130" t="n">
         <v>7</v>
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44201</v>
+        <v>44466</v>
       </c>
       <c r="E131" t="n">
         <v>9</v>
@@ -10840,33 +10840,33 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M131" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="N131" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O131" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P131" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R131" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S131" t="n">
-        <v>1000</v>
+        <v>1857</v>
       </c>
       <c r="T131" t="n">
         <v>7</v>
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44193</v>
+        <v>44466</v>
       </c>
       <c r="E132" t="n">
         <v>9</v>
@@ -10920,33 +10920,33 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M132" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N132" t="n">
-        <v>10000</v>
+        <v>800</v>
       </c>
       <c r="O132" t="n">
-        <v>10000</v>
+        <v>800</v>
       </c>
       <c r="P132" t="n">
-        <v>10000</v>
+        <v>800</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R132" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S132" t="n">
-        <v>1429</v>
+        <v>114</v>
       </c>
       <c r="T132" t="n">
         <v>7</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44193</v>
+        <v>44270</v>
       </c>
       <c r="E133" t="n">
         <v>9</v>
@@ -11000,20 +11000,20 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M133" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="N133" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O133" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P133" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         </is>
       </c>
       <c r="S133" t="n">
-        <v>1286</v>
+        <v>1000</v>
       </c>
       <c r="T133" t="n">
         <v>7</v>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44286</v>
+        <v>44201</v>
       </c>
       <c r="E134" t="n">
         <v>9</v>
@@ -11084,16 +11084,16 @@
         </is>
       </c>
       <c r="M134" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="N134" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="O134" t="n">
         <v>7000</v>
       </c>
       <c r="P134" t="n">
-        <v>6786</v>
+        <v>7000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>969</v>
+        <v>1000</v>
       </c>
       <c r="T134" t="n">
         <v>7</v>
@@ -11127,68 +11127,308 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
+        <v>44193</v>
+      </c>
+      <c r="E135" t="n">
+        <v>9</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>150</v>
+      </c>
+      <c r="N135" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O135" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P135" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>$/caja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R135" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="S135" t="n">
+        <v>1429</v>
+      </c>
+      <c r="T135" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>10</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>44193</v>
+      </c>
+      <c r="E136" t="n">
+        <v>9</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>90</v>
+      </c>
+      <c r="N136" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O136" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P136" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>$/caja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R136" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="S136" t="n">
+        <v>1286</v>
+      </c>
+      <c r="T136" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>10</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D137" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E137" t="n">
+        <v>9</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>35</v>
+      </c>
+      <c r="N137" t="n">
+        <v>6500</v>
+      </c>
+      <c r="O137" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P137" t="n">
+        <v>6786</v>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>$/caja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R137" t="inlineStr">
+        <is>
+          <t>Provincia de Cautín</t>
+        </is>
+      </c>
+      <c r="S137" t="n">
+        <v>969</v>
+      </c>
+      <c r="T137" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>10</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D138" s="2" t="n">
         <v>44312</v>
       </c>
-      <c r="E135" t="n">
-        <v>9</v>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G135" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I135" t="n">
-        <v>100112025</v>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>Frutilla</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L135" t="inlineStr">
+      <c r="E138" t="n">
+        <v>9</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M135" t="n">
+      <c r="M138" t="n">
         <v>65</v>
       </c>
-      <c r="N135" t="n">
+      <c r="N138" t="n">
         <v>7000</v>
       </c>
-      <c r="O135" t="n">
+      <c r="O138" t="n">
         <v>7000</v>
       </c>
-      <c r="P135" t="n">
+      <c r="P138" t="n">
         <v>7000</v>
       </c>
-      <c r="Q135" t="inlineStr">
+      <c r="Q138" t="inlineStr">
         <is>
           <t>$/caja 7 kilos</t>
         </is>
       </c>
-      <c r="R135" t="inlineStr">
+      <c r="R138" t="inlineStr">
         <is>
           <t>Provincia de Cautín</t>
         </is>
       </c>
-      <c r="S135" t="n">
+      <c r="S138" t="n">
         <v>1000</v>
       </c>
-      <c r="T135" t="n">
+      <c r="T138" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T138"/>
+  <dimension ref="A1:T141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44245</v>
+        <v>44477</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4684,29 +4684,29 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>125</v>
+        <v>800</v>
       </c>
       <c r="N54" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O54" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P54" t="n">
-        <v>7360</v>
+        <v>14000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S54" t="n">
-        <v>1051</v>
+        <v>2000</v>
       </c>
       <c r="T54" t="n">
         <v>7</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44245</v>
+        <v>44477</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4764,29 +4764,29 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="N55" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O55" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P55" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S55" t="n">
-        <v>714</v>
+        <v>1571</v>
       </c>
       <c r="T55" t="n">
         <v>7</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44216</v>
+        <v>44477</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4840,33 +4840,33 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="N56" t="n">
         <v>7000</v>
       </c>
       <c r="O56" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P56" t="n">
-        <v>7579</v>
+        <v>7000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S56" t="n">
-        <v>1083</v>
+        <v>1000</v>
       </c>
       <c r="T56" t="n">
         <v>7</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44216</v>
+        <v>44245</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4920,20 +4920,20 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="N57" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O57" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P57" t="n">
-        <v>5000</v>
+        <v>7360</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>714</v>
+        <v>1051</v>
       </c>
       <c r="T57" t="n">
         <v>7</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44284</v>
+        <v>44245</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -5000,20 +5000,20 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N58" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O58" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P58" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5022,11 +5022,11 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S58" t="n">
-        <v>1000</v>
+        <v>714</v>
       </c>
       <c r="T58" t="n">
         <v>7</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44174</v>
+        <v>44216</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -5084,16 +5084,16 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="N59" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O59" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P59" t="n">
-        <v>10000</v>
+        <v>7579</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>1429</v>
+        <v>1083</v>
       </c>
       <c r="T59" t="n">
         <v>7</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44244</v>
+        <v>44216</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -5160,20 +5160,20 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="N60" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O60" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P60" t="n">
-        <v>7462</v>
+        <v>5000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>1066</v>
+        <v>714</v>
       </c>
       <c r="T60" t="n">
         <v>7</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44244</v>
+        <v>44284</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -5240,20 +5240,20 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="N61" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O61" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P61" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5262,11 +5262,11 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S61" t="n">
-        <v>714</v>
+        <v>1000</v>
       </c>
       <c r="T61" t="n">
         <v>7</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44271</v>
+        <v>44174</v>
       </c>
       <c r="E62" t="n">
         <v>9</v>
@@ -5324,16 +5324,16 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="N62" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O62" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P62" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>1000</v>
+        <v>1429</v>
       </c>
       <c r="T62" t="n">
         <v>7</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44463</v>
+        <v>44244</v>
       </c>
       <c r="E63" t="n">
         <v>9</v>
@@ -5404,29 +5404,29 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="N63" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O63" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="P63" t="n">
-        <v>20000</v>
+        <v>7462</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S63" t="n">
-        <v>2857</v>
+        <v>1066</v>
       </c>
       <c r="T63" t="n">
         <v>7</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44463</v>
+        <v>44244</v>
       </c>
       <c r="E64" t="n">
         <v>9</v>
@@ -5480,33 +5480,33 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N64" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O64" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P64" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S64" t="n">
-        <v>1429</v>
+        <v>714</v>
       </c>
       <c r="T64" t="n">
         <v>7</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44224</v>
+        <v>44271</v>
       </c>
       <c r="E65" t="n">
         <v>9</v>
@@ -5564,16 +5564,16 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>600</v>
+        <v>65</v>
       </c>
       <c r="N65" t="n">
         <v>7000</v>
       </c>
       <c r="O65" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P65" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>1071</v>
+        <v>1000</v>
       </c>
       <c r="T65" t="n">
         <v>7</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44264</v>
+        <v>44463</v>
       </c>
       <c r="E66" t="n">
         <v>9</v>
@@ -5644,29 +5644,29 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N66" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O66" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="P66" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S66" t="n">
-        <v>1000</v>
+        <v>2857</v>
       </c>
       <c r="T66" t="n">
         <v>7</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44195</v>
+        <v>44463</v>
       </c>
       <c r="E67" t="n">
         <v>9</v>
@@ -5720,20 +5720,20 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="N67" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O67" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P67" t="n">
-        <v>12583</v>
+        <v>10000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5742,11 +5742,11 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S67" t="n">
-        <v>1798</v>
+        <v>1429</v>
       </c>
       <c r="T67" t="n">
         <v>7</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E68" t="n">
         <v>9</v>
@@ -5804,16 +5804,16 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N68" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O68" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P68" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>1429</v>
+        <v>1071</v>
       </c>
       <c r="T68" t="n">
         <v>7</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44209</v>
+        <v>44264</v>
       </c>
       <c r="E69" t="n">
         <v>9</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N69" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O69" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P69" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>1214</v>
+        <v>1000</v>
       </c>
       <c r="T69" t="n">
         <v>7</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44294</v>
+        <v>44195</v>
       </c>
       <c r="E70" t="n">
         <v>9</v>
@@ -5964,29 +5964,29 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="N70" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O70" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P70" t="n">
-        <v>7000</v>
+        <v>12583</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S70" t="n">
-        <v>1000</v>
+        <v>1798</v>
       </c>
       <c r="T70" t="n">
         <v>7</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44232</v>
+        <v>44195</v>
       </c>
       <c r="E71" t="n">
         <v>9</v>
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N71" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O71" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P71" t="n">
-        <v>7550</v>
+        <v>10000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6062,11 +6062,11 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S71" t="n">
-        <v>1079</v>
+        <v>1429</v>
       </c>
       <c r="T71" t="n">
         <v>7</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44454</v>
+        <v>44209</v>
       </c>
       <c r="E72" t="n">
         <v>9</v>
@@ -6120,33 +6120,33 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N72" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="O72" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="P72" t="n">
-        <v>18000</v>
+        <v>8500</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S72" t="n">
-        <v>2571</v>
+        <v>1214</v>
       </c>
       <c r="T72" t="n">
         <v>7</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44473</v>
+        <v>44294</v>
       </c>
       <c r="E73" t="n">
         <v>9</v>
@@ -6204,29 +6204,29 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>1300</v>
+        <v>100</v>
       </c>
       <c r="N73" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O73" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="P73" t="n">
-        <v>15538</v>
+        <v>7000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S73" t="n">
-        <v>2220</v>
+        <v>1000</v>
       </c>
       <c r="T73" t="n">
         <v>7</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44473</v>
+        <v>44232</v>
       </c>
       <c r="E74" t="n">
         <v>9</v>
@@ -6280,33 +6280,33 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N74" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O74" t="n">
         <v>8000</v>
       </c>
       <c r="P74" t="n">
-        <v>8000</v>
+        <v>7550</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S74" t="n">
-        <v>1143</v>
+        <v>1079</v>
       </c>
       <c r="T74" t="n">
         <v>7</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44273</v>
+        <v>44454</v>
       </c>
       <c r="E75" t="n">
         <v>9</v>
@@ -6360,33 +6360,33 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M75" t="n">
         <v>80</v>
       </c>
       <c r="N75" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="O75" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="P75" t="n">
-        <v>6562</v>
+        <v>18000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S75" t="n">
-        <v>937</v>
+        <v>2571</v>
       </c>
       <c r="T75" t="n">
         <v>7</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44236</v>
+        <v>44473</v>
       </c>
       <c r="E76" t="n">
         <v>9</v>
@@ -6444,29 +6444,29 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>120</v>
+        <v>1300</v>
       </c>
       <c r="N76" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O76" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P76" t="n">
-        <v>7542</v>
+        <v>15538</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S76" t="n">
-        <v>1077</v>
+        <v>2220</v>
       </c>
       <c r="T76" t="n">
         <v>7</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44236</v>
+        <v>44473</v>
       </c>
       <c r="E77" t="n">
         <v>9</v>
@@ -6524,29 +6524,29 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="N77" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O77" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P77" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S77" t="n">
-        <v>714</v>
+        <v>1143</v>
       </c>
       <c r="T77" t="n">
         <v>7</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44215</v>
+        <v>44273</v>
       </c>
       <c r="E78" t="n">
         <v>9</v>
@@ -6604,16 +6604,16 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N78" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O78" t="n">
         <v>7000</v>
       </c>
-      <c r="O78" t="n">
-        <v>8000</v>
-      </c>
       <c r="P78" t="n">
-        <v>7542</v>
+        <v>6562</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>1077</v>
+        <v>937</v>
       </c>
       <c r="T78" t="n">
         <v>7</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44235</v>
+        <v>44236</v>
       </c>
       <c r="E79" t="n">
         <v>9</v>
@@ -6684,16 +6684,16 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N79" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O79" t="n">
         <v>8000</v>
       </c>
       <c r="P79" t="n">
-        <v>8000</v>
+        <v>7542</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>1143</v>
+        <v>1077</v>
       </c>
       <c r="T79" t="n">
         <v>7</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44235</v>
+        <v>44236</v>
       </c>
       <c r="E80" t="n">
         <v>9</v>
@@ -6764,7 +6764,7 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N80" t="n">
         <v>5000</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44203</v>
+        <v>44215</v>
       </c>
       <c r="E81" t="n">
         <v>9</v>
@@ -6844,7 +6844,7 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="N81" t="n">
         <v>7000</v>
@@ -6853,7 +6853,7 @@
         <v>8000</v>
       </c>
       <c r="P81" t="n">
-        <v>7543</v>
+        <v>7542</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6862,11 +6862,11 @@
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S81" t="n">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="T81" t="n">
         <v>7</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44203</v>
+        <v>44235</v>
       </c>
       <c r="E82" t="n">
         <v>9</v>
@@ -6920,20 +6920,20 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N82" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="O82" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P82" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>786</v>
+        <v>1143</v>
       </c>
       <c r="T82" t="n">
         <v>7</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44291</v>
+        <v>44235</v>
       </c>
       <c r="E83" t="n">
         <v>9</v>
@@ -7000,20 +7000,20 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="N83" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O83" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P83" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7022,11 +7022,11 @@
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S83" t="n">
-        <v>1000</v>
+        <v>714</v>
       </c>
       <c r="T83" t="n">
         <v>7</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44291</v>
+        <v>44203</v>
       </c>
       <c r="E84" t="n">
         <v>9</v>
@@ -7080,20 +7080,20 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>60</v>
+        <v>175</v>
       </c>
       <c r="N84" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O84" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P84" t="n">
-        <v>6000</v>
+        <v>7543</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7102,11 +7102,11 @@
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S84" t="n">
-        <v>857</v>
+        <v>1078</v>
       </c>
       <c r="T84" t="n">
         <v>7</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44469</v>
+        <v>44203</v>
       </c>
       <c r="E85" t="n">
         <v>9</v>
@@ -7160,33 +7160,33 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>3000</v>
+        <v>65</v>
       </c>
       <c r="N85" t="n">
-        <v>14000</v>
+        <v>5500</v>
       </c>
       <c r="O85" t="n">
-        <v>16000</v>
+        <v>5500</v>
       </c>
       <c r="P85" t="n">
-        <v>15333</v>
+        <v>5500</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S85" t="n">
-        <v>2190</v>
+        <v>786</v>
       </c>
       <c r="T85" t="n">
         <v>7</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44469</v>
+        <v>44291</v>
       </c>
       <c r="E86" t="n">
         <v>9</v>
@@ -7240,11 +7240,11 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N86" t="n">
         <v>7000</v>
@@ -7257,12 +7257,12 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S86" t="n">
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44168</v>
+        <v>44291</v>
       </c>
       <c r="E87" t="n">
         <v>9</v>
@@ -7320,33 +7320,33 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N87" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O87" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P87" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S87" t="n">
-        <v>1714</v>
+        <v>857</v>
       </c>
       <c r="T87" t="n">
         <v>7</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E88" t="n">
         <v>9</v>
@@ -7404,16 +7404,16 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="N88" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O88" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P88" t="n">
-        <v>10000</v>
+        <v>15333</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7422,11 +7422,11 @@
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S88" t="n">
-        <v>1429</v>
+        <v>2190</v>
       </c>
       <c r="T88" t="n">
         <v>7</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44161</v>
+        <v>44469</v>
       </c>
       <c r="E89" t="n">
         <v>9</v>
@@ -7480,20 +7480,20 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>550</v>
+        <v>100</v>
       </c>
       <c r="N89" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O89" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P89" t="n">
-        <v>9455</v>
+        <v>7000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>1351</v>
+        <v>1000</v>
       </c>
       <c r="T89" t="n">
         <v>7</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44161</v>
+        <v>44168</v>
       </c>
       <c r="E90" t="n">
         <v>9</v>
@@ -7560,33 +7560,33 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>305</v>
+        <v>200</v>
       </c>
       <c r="N90" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="O90" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P90" t="n">
-        <v>6705</v>
+        <v>12000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S90" t="n">
-        <v>958</v>
+        <v>1714</v>
       </c>
       <c r="T90" t="n">
         <v>7</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44161</v>
+        <v>44168</v>
       </c>
       <c r="E91" t="n">
         <v>9</v>
@@ -7640,33 +7640,33 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>180</v>
+        <v>600</v>
       </c>
       <c r="N91" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O91" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="P91" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S91" t="n">
-        <v>571</v>
+        <v>1429</v>
       </c>
       <c r="T91" t="n">
         <v>7</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44214</v>
+        <v>44161</v>
       </c>
       <c r="E92" t="n">
         <v>9</v>
@@ -7724,29 +7724,29 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>55</v>
+        <v>550</v>
       </c>
       <c r="N92" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O92" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P92" t="n">
-        <v>7455</v>
+        <v>9455</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S92" t="n">
-        <v>1065</v>
+        <v>1351</v>
       </c>
       <c r="T92" t="n">
         <v>7</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44214</v>
+        <v>44161</v>
       </c>
       <c r="E93" t="n">
         <v>9</v>
@@ -7800,20 +7800,20 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>40</v>
+        <v>305</v>
       </c>
       <c r="N93" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="O93" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="P93" t="n">
-        <v>4500</v>
+        <v>6705</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>643</v>
+        <v>958</v>
       </c>
       <c r="T93" t="n">
         <v>7</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44280</v>
+        <v>44161</v>
       </c>
       <c r="E94" t="n">
         <v>9</v>
@@ -7880,20 +7880,20 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N94" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="O94" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="P94" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>1000</v>
+        <v>571</v>
       </c>
       <c r="T94" t="n">
         <v>7</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44274</v>
+        <v>44214</v>
       </c>
       <c r="E95" t="n">
         <v>9</v>
@@ -7964,16 +7964,16 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="N95" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O95" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P95" t="n">
-        <v>6579</v>
+        <v>7455</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>940</v>
+        <v>1065</v>
       </c>
       <c r="T95" t="n">
         <v>7</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44165</v>
+        <v>44214</v>
       </c>
       <c r="E96" t="n">
         <v>9</v>
@@ -8040,33 +8040,33 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N96" t="n">
-        <v>11000</v>
+        <v>4500</v>
       </c>
       <c r="O96" t="n">
-        <v>11000</v>
+        <v>4500</v>
       </c>
       <c r="P96" t="n">
-        <v>11000</v>
+        <v>4500</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S96" t="n">
-        <v>1571</v>
+        <v>643</v>
       </c>
       <c r="T96" t="n">
         <v>7</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44165</v>
+        <v>44280</v>
       </c>
       <c r="E97" t="n">
         <v>9</v>
@@ -8124,29 +8124,29 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="N97" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O97" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P97" t="n">
-        <v>9571</v>
+        <v>7000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S97" t="n">
-        <v>1367</v>
+        <v>1000</v>
       </c>
       <c r="T97" t="n">
         <v>7</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44165</v>
+        <v>44274</v>
       </c>
       <c r="E98" t="n">
         <v>9</v>
@@ -8204,29 +8204,29 @@
         </is>
       </c>
       <c r="M98" t="n">
-        <v>800</v>
+        <v>95</v>
       </c>
       <c r="N98" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O98" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P98" t="n">
-        <v>9500</v>
+        <v>6579</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S98" t="n">
-        <v>1357</v>
+        <v>940</v>
       </c>
       <c r="T98" t="n">
         <v>7</v>
@@ -8280,33 +8280,33 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="N99" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O99" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P99" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S99" t="n">
-        <v>1214</v>
+        <v>1571</v>
       </c>
       <c r="T99" t="n">
         <v>7</v>
@@ -8360,20 +8360,20 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="N100" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O100" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P100" t="n">
-        <v>7000</v>
+        <v>9571</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>1000</v>
+        <v>1367</v>
       </c>
       <c r="T100" t="n">
         <v>7</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44258</v>
+        <v>44165</v>
       </c>
       <c r="E101" t="n">
         <v>9</v>
@@ -8444,29 +8444,29 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>65</v>
+        <v>800</v>
       </c>
       <c r="N101" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O101" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P101" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S101" t="n">
-        <v>1000</v>
+        <v>1357</v>
       </c>
       <c r="T101" t="n">
         <v>7</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44475</v>
+        <v>44165</v>
       </c>
       <c r="E102" t="n">
         <v>9</v>
@@ -8524,29 +8524,29 @@
         </is>
       </c>
       <c r="M102" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N102" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O102" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P102" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S102" t="n">
-        <v>2143</v>
+        <v>1214</v>
       </c>
       <c r="T102" t="n">
         <v>7</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44474</v>
+        <v>44165</v>
       </c>
       <c r="E103" t="n">
         <v>9</v>
@@ -8600,20 +8600,20 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N103" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O103" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="P103" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="T103" t="n">
         <v>7</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44252</v>
+        <v>44258</v>
       </c>
       <c r="E104" t="n">
         <v>9</v>
@@ -8684,16 +8684,16 @@
         </is>
       </c>
       <c r="M104" t="n">
-        <v>220</v>
+        <v>65</v>
       </c>
       <c r="N104" t="n">
         <v>7000</v>
       </c>
       <c r="O104" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P104" t="n">
-        <v>7568</v>
+        <v>7000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>1081</v>
+        <v>1000</v>
       </c>
       <c r="T104" t="n">
         <v>7</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44252</v>
+        <v>44475</v>
       </c>
       <c r="E105" t="n">
         <v>9</v>
@@ -8760,33 +8760,33 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="N105" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="O105" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="P105" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S105" t="n">
-        <v>714</v>
+        <v>2143</v>
       </c>
       <c r="T105" t="n">
         <v>7</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44204</v>
+        <v>44474</v>
       </c>
       <c r="E106" t="n">
         <v>9</v>
@@ -8844,29 +8844,29 @@
         </is>
       </c>
       <c r="M106" t="n">
-        <v>205</v>
+        <v>300</v>
       </c>
       <c r="N106" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O106" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P106" t="n">
-        <v>7390</v>
+        <v>14000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S106" t="n">
-        <v>1056</v>
+        <v>2000</v>
       </c>
       <c r="T106" t="n">
         <v>7</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E107" t="n">
         <v>9</v>
@@ -8920,20 +8920,20 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>45</v>
+        <v>220</v>
       </c>
       <c r="N107" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="O107" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P107" t="n">
-        <v>5500</v>
+        <v>7568</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8942,11 +8942,11 @@
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S107" t="n">
-        <v>786</v>
+        <v>1081</v>
       </c>
       <c r="T107" t="n">
         <v>7</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44186</v>
+        <v>44252</v>
       </c>
       <c r="E108" t="n">
         <v>9</v>
@@ -9000,33 +9000,33 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M108" t="n">
-        <v>625</v>
+        <v>85</v>
       </c>
       <c r="N108" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="O108" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P108" t="n">
-        <v>11584</v>
+        <v>5000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S108" t="n">
-        <v>1655</v>
+        <v>714</v>
       </c>
       <c r="T108" t="n">
         <v>7</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44186</v>
+        <v>44204</v>
       </c>
       <c r="E109" t="n">
         <v>9</v>
@@ -9084,16 +9084,16 @@
         </is>
       </c>
       <c r="M109" t="n">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="N109" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O109" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P109" t="n">
-        <v>10532</v>
+        <v>7390</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>1505</v>
+        <v>1056</v>
       </c>
       <c r="T109" t="n">
         <v>7</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44372</v>
+        <v>44204</v>
       </c>
       <c r="E110" t="n">
         <v>9</v>
@@ -9160,33 +9160,33 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N110" t="n">
-        <v>17000</v>
+        <v>5500</v>
       </c>
       <c r="O110" t="n">
-        <v>17000</v>
+        <v>5500</v>
       </c>
       <c r="P110" t="n">
-        <v>17000</v>
+        <v>5500</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S110" t="n">
-        <v>2429</v>
+        <v>786</v>
       </c>
       <c r="T110" t="n">
         <v>7</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44243</v>
+        <v>44186</v>
       </c>
       <c r="E111" t="n">
         <v>9</v>
@@ -9244,29 +9244,29 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>100</v>
+        <v>625</v>
       </c>
       <c r="N111" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O111" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P111" t="n">
-        <v>7450</v>
+        <v>11584</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S111" t="n">
-        <v>1064</v>
+        <v>1655</v>
       </c>
       <c r="T111" t="n">
         <v>7</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44243</v>
+        <v>44186</v>
       </c>
       <c r="E112" t="n">
         <v>9</v>
@@ -9320,20 +9320,20 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M112" t="n">
-        <v>40</v>
+        <v>235</v>
       </c>
       <c r="N112" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O112" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="P112" t="n">
-        <v>5000</v>
+        <v>10532</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9342,11 +9342,11 @@
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S112" t="n">
-        <v>714</v>
+        <v>1505</v>
       </c>
       <c r="T112" t="n">
         <v>7</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44202</v>
+        <v>44372</v>
       </c>
       <c r="E113" t="n">
         <v>9</v>
@@ -9404,29 +9404,29 @@
         </is>
       </c>
       <c r="M113" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="N113" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="O113" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="P113" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S113" t="n">
-        <v>1000</v>
+        <v>2429</v>
       </c>
       <c r="T113" t="n">
         <v>7</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44242</v>
+        <v>44243</v>
       </c>
       <c r="E114" t="n">
         <v>9</v>
@@ -9484,7 +9484,7 @@
         </is>
       </c>
       <c r="M114" t="n">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="N114" t="n">
         <v>7000</v>
@@ -9493,7 +9493,7 @@
         <v>8000</v>
       </c>
       <c r="P114" t="n">
-        <v>7448</v>
+        <v>7450</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44242</v>
+        <v>44243</v>
       </c>
       <c r="E115" t="n">
         <v>9</v>
@@ -9564,7 +9564,7 @@
         </is>
       </c>
       <c r="M115" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N115" t="n">
         <v>5000</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44307</v>
+        <v>44202</v>
       </c>
       <c r="E116" t="n">
         <v>9</v>
@@ -9640,20 +9640,20 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M116" t="n">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="N116" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O116" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P116" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -9662,11 +9662,11 @@
       </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S116" t="n">
-        <v>714</v>
+        <v>1000</v>
       </c>
       <c r="T116" t="n">
         <v>7</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44159</v>
+        <v>44242</v>
       </c>
       <c r="E117" t="n">
         <v>9</v>
@@ -9724,29 +9724,29 @@
         </is>
       </c>
       <c r="M117" t="n">
-        <v>550</v>
+        <v>145</v>
       </c>
       <c r="N117" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O117" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P117" t="n">
-        <v>9455</v>
+        <v>7448</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S117" t="n">
-        <v>1351</v>
+        <v>1064</v>
       </c>
       <c r="T117" t="n">
         <v>7</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44159</v>
+        <v>44242</v>
       </c>
       <c r="E118" t="n">
         <v>9</v>
@@ -9800,20 +9800,20 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>375</v>
+        <v>45</v>
       </c>
       <c r="N118" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="O118" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P118" t="n">
-        <v>7760</v>
+        <v>5000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>1109</v>
+        <v>714</v>
       </c>
       <c r="T118" t="n">
         <v>7</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44159</v>
+        <v>44307</v>
       </c>
       <c r="E119" t="n">
         <v>9</v>
@@ -9884,29 +9884,29 @@
         </is>
       </c>
       <c r="M119" t="n">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="N119" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="O119" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="P119" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S119" t="n">
-        <v>1071</v>
+        <v>714</v>
       </c>
       <c r="T119" t="n">
         <v>7</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E120" t="n">
         <v>9</v>
@@ -9964,29 +9964,29 @@
         </is>
       </c>
       <c r="M120" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N120" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O120" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P120" t="n">
-        <v>7500</v>
+        <v>9455</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R120" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S120" t="n">
-        <v>1071</v>
+        <v>1351</v>
       </c>
       <c r="T120" t="n">
         <v>7</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44476</v>
+        <v>44159</v>
       </c>
       <c r="E121" t="n">
         <v>9</v>
@@ -10044,29 +10044,29 @@
         </is>
       </c>
       <c r="M121" t="n">
-        <v>4000</v>
+        <v>375</v>
       </c>
       <c r="N121" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="O121" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P121" t="n">
-        <v>15000</v>
+        <v>7760</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R121" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S121" t="n">
-        <v>2143</v>
+        <v>1109</v>
       </c>
       <c r="T121" t="n">
         <v>7</v>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44476</v>
+        <v>44159</v>
       </c>
       <c r="E122" t="n">
         <v>9</v>
@@ -10124,16 +10124,16 @@
         </is>
       </c>
       <c r="M122" t="n">
-        <v>400</v>
+        <v>155</v>
       </c>
       <c r="N122" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="O122" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="P122" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>1857</v>
+        <v>1071</v>
       </c>
       <c r="T122" t="n">
         <v>7</v>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44476</v>
+        <v>44166</v>
       </c>
       <c r="E123" t="n">
         <v>9</v>
@@ -10200,33 +10200,33 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M123" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N123" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O123" t="n">
         <v>8000</v>
       </c>
       <c r="P123" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R123" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S123" t="n">
-        <v>1143</v>
+        <v>1071</v>
       </c>
       <c r="T123" t="n">
         <v>7</v>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44263</v>
+        <v>44476</v>
       </c>
       <c r="E124" t="n">
         <v>9</v>
@@ -10284,29 +10284,29 @@
         </is>
       </c>
       <c r="M124" t="n">
-        <v>200</v>
+        <v>4000</v>
       </c>
       <c r="N124" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O124" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P124" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R124" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S124" t="n">
-        <v>1000</v>
+        <v>2143</v>
       </c>
       <c r="T124" t="n">
         <v>7</v>
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44369</v>
+        <v>44476</v>
       </c>
       <c r="E125" t="n">
         <v>9</v>
@@ -10360,20 +10360,20 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M125" t="n">
-        <v>25</v>
+        <v>400</v>
       </c>
       <c r="N125" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O125" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P125" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>2143</v>
+        <v>1857</v>
       </c>
       <c r="T125" t="n">
         <v>7</v>
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44301</v>
+        <v>44476</v>
       </c>
       <c r="E126" t="n">
         <v>9</v>
@@ -10440,33 +10440,33 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M126" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N126" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O126" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="P126" t="n">
-        <v>6194</v>
+        <v>8000</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R126" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S126" t="n">
-        <v>885</v>
+        <v>1143</v>
       </c>
       <c r="T126" t="n">
         <v>7</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44223</v>
+        <v>44263</v>
       </c>
       <c r="E127" t="n">
         <v>9</v>
@@ -10524,16 +10524,16 @@
         </is>
       </c>
       <c r="M127" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="N127" t="n">
         <v>7000</v>
       </c>
       <c r="O127" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P127" t="n">
-        <v>7385</v>
+        <v>7000</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>1055</v>
+        <v>1000</v>
       </c>
       <c r="T127" t="n">
         <v>7</v>
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44397</v>
+        <v>44369</v>
       </c>
       <c r="E128" t="n">
         <v>9</v>
@@ -10604,16 +10604,16 @@
         </is>
       </c>
       <c r="M128" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N128" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O128" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P128" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>3143</v>
+        <v>2143</v>
       </c>
       <c r="T128" t="n">
         <v>7</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44333</v>
+        <v>44301</v>
       </c>
       <c r="E129" t="n">
         <v>9</v>
@@ -10684,16 +10684,16 @@
         </is>
       </c>
       <c r="M129" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="N129" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O129" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="P129" t="n">
-        <v>8000</v>
+        <v>6194</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
@@ -10702,11 +10702,11 @@
       </c>
       <c r="R129" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S129" t="n">
-        <v>1143</v>
+        <v>885</v>
       </c>
       <c r="T129" t="n">
         <v>7</v>
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44466</v>
+        <v>44223</v>
       </c>
       <c r="E130" t="n">
         <v>9</v>
@@ -10764,29 +10764,29 @@
         </is>
       </c>
       <c r="M130" t="n">
-        <v>800</v>
+        <v>130</v>
       </c>
       <c r="N130" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="O130" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P130" t="n">
-        <v>16000</v>
+        <v>7385</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R130" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S130" t="n">
-        <v>2286</v>
+        <v>1055</v>
       </c>
       <c r="T130" t="n">
         <v>7</v>
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44466</v>
+        <v>44397</v>
       </c>
       <c r="E131" t="n">
         <v>9</v>
@@ -10840,20 +10840,20 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M131" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="N131" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="O131" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P131" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         </is>
       </c>
       <c r="S131" t="n">
-        <v>1857</v>
+        <v>3143</v>
       </c>
       <c r="T131" t="n">
         <v>7</v>
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44466</v>
+        <v>44333</v>
       </c>
       <c r="E132" t="n">
         <v>9</v>
@@ -10920,33 +10920,33 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M132" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N132" t="n">
-        <v>800</v>
+        <v>8000</v>
       </c>
       <c r="O132" t="n">
-        <v>800</v>
+        <v>8000</v>
       </c>
       <c r="P132" t="n">
-        <v>800</v>
+        <v>8000</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R132" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S132" t="n">
-        <v>114</v>
+        <v>1143</v>
       </c>
       <c r="T132" t="n">
         <v>7</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E133" t="n">
         <v>9</v>
@@ -11004,29 +11004,29 @@
         </is>
       </c>
       <c r="M133" t="n">
-        <v>65</v>
+        <v>800</v>
       </c>
       <c r="N133" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="O133" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="P133" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R133" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S133" t="n">
-        <v>1000</v>
+        <v>2286</v>
       </c>
       <c r="T133" t="n">
         <v>7</v>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44201</v>
+        <v>44466</v>
       </c>
       <c r="E134" t="n">
         <v>9</v>
@@ -11080,33 +11080,33 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M134" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="N134" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O134" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P134" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R134" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S134" t="n">
-        <v>1000</v>
+        <v>1857</v>
       </c>
       <c r="T134" t="n">
         <v>7</v>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44193</v>
+        <v>44466</v>
       </c>
       <c r="E135" t="n">
         <v>9</v>
@@ -11160,33 +11160,33 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M135" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N135" t="n">
-        <v>10000</v>
+        <v>800</v>
       </c>
       <c r="O135" t="n">
-        <v>10000</v>
+        <v>800</v>
       </c>
       <c r="P135" t="n">
-        <v>10000</v>
+        <v>800</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R135" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S135" t="n">
-        <v>1429</v>
+        <v>114</v>
       </c>
       <c r="T135" t="n">
         <v>7</v>
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44193</v>
+        <v>44270</v>
       </c>
       <c r="E136" t="n">
         <v>9</v>
@@ -11240,20 +11240,20 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M136" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="N136" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O136" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P136" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>1286</v>
+        <v>1000</v>
       </c>
       <c r="T136" t="n">
         <v>7</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44286</v>
+        <v>44201</v>
       </c>
       <c r="E137" t="n">
         <v>9</v>
@@ -11324,16 +11324,16 @@
         </is>
       </c>
       <c r="M137" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="N137" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="O137" t="n">
         <v>7000</v>
       </c>
       <c r="P137" t="n">
-        <v>6786</v>
+        <v>7000</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="S137" t="n">
-        <v>969</v>
+        <v>1000</v>
       </c>
       <c r="T137" t="n">
         <v>7</v>
@@ -11367,68 +11367,308 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
+        <v>44193</v>
+      </c>
+      <c r="E138" t="n">
+        <v>9</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>150</v>
+      </c>
+      <c r="N138" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O138" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P138" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>$/caja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R138" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="S138" t="n">
+        <v>1429</v>
+      </c>
+      <c r="T138" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>10</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D139" s="2" t="n">
+        <v>44193</v>
+      </c>
+      <c r="E139" t="n">
+        <v>9</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>90</v>
+      </c>
+      <c r="N139" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O139" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P139" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>$/caja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R139" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="S139" t="n">
+        <v>1286</v>
+      </c>
+      <c r="T139" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>10</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D140" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E140" t="n">
+        <v>9</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>35</v>
+      </c>
+      <c r="N140" t="n">
+        <v>6500</v>
+      </c>
+      <c r="O140" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P140" t="n">
+        <v>6786</v>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>$/caja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R140" t="inlineStr">
+        <is>
+          <t>Provincia de Cautín</t>
+        </is>
+      </c>
+      <c r="S140" t="n">
+        <v>969</v>
+      </c>
+      <c r="T140" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>10</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D141" s="2" t="n">
         <v>44312</v>
       </c>
-      <c r="E138" t="n">
-        <v>9</v>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G138" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I138" t="n">
-        <v>100112025</v>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>Frutilla</t>
-        </is>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L138" t="inlineStr">
+      <c r="E141" t="n">
+        <v>9</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M138" t="n">
+      <c r="M141" t="n">
         <v>65</v>
       </c>
-      <c r="N138" t="n">
+      <c r="N141" t="n">
         <v>7000</v>
       </c>
-      <c r="O138" t="n">
+      <c r="O141" t="n">
         <v>7000</v>
       </c>
-      <c r="P138" t="n">
+      <c r="P141" t="n">
         <v>7000</v>
       </c>
-      <c r="Q138" t="inlineStr">
+      <c r="Q141" t="inlineStr">
         <is>
           <t>$/caja 7 kilos</t>
         </is>
       </c>
-      <c r="R138" t="inlineStr">
+      <c r="R141" t="inlineStr">
         <is>
           <t>Provincia de Cautín</t>
         </is>
       </c>
-      <c r="S138" t="n">
+      <c r="S141" t="n">
         <v>1000</v>
       </c>
-      <c r="T138" t="n">
+      <c r="T141" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T141"/>
+  <dimension ref="A1:T142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44271</v>
+        <v>44482</v>
       </c>
       <c r="E65" t="n">
         <v>9</v>
@@ -5564,29 +5564,29 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="N65" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O65" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P65" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S65" t="n">
-        <v>1000</v>
+        <v>1714</v>
       </c>
       <c r="T65" t="n">
         <v>7</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44463</v>
+        <v>44271</v>
       </c>
       <c r="E66" t="n">
         <v>9</v>
@@ -5644,29 +5644,29 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="N66" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O66" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="P66" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S66" t="n">
-        <v>2857</v>
+        <v>1000</v>
       </c>
       <c r="T66" t="n">
         <v>7</v>
@@ -5720,20 +5720,20 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N67" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O67" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P67" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>1429</v>
+        <v>2857</v>
       </c>
       <c r="T67" t="n">
         <v>7</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44224</v>
+        <v>44463</v>
       </c>
       <c r="E68" t="n">
         <v>9</v>
@@ -5800,33 +5800,33 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>600</v>
+        <v>40</v>
       </c>
       <c r="N68" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O68" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P68" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S68" t="n">
-        <v>1071</v>
+        <v>1429</v>
       </c>
       <c r="T68" t="n">
         <v>7</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44264</v>
+        <v>44224</v>
       </c>
       <c r="E69" t="n">
         <v>9</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>80</v>
+        <v>600</v>
       </c>
       <c r="N69" t="n">
         <v>7000</v>
       </c>
       <c r="O69" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P69" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>1000</v>
+        <v>1071</v>
       </c>
       <c r="T69" t="n">
         <v>7</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44195</v>
+        <v>44264</v>
       </c>
       <c r="E70" t="n">
         <v>9</v>
@@ -5964,29 +5964,29 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N70" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O70" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="P70" t="n">
-        <v>12583</v>
+        <v>7000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S70" t="n">
-        <v>1798</v>
+        <v>1000</v>
       </c>
       <c r="T70" t="n">
         <v>7</v>
@@ -6044,29 +6044,29 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N71" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O71" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P71" t="n">
-        <v>10000</v>
+        <v>12583</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S71" t="n">
-        <v>1429</v>
+        <v>1798</v>
       </c>
       <c r="T71" t="n">
         <v>7</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44209</v>
+        <v>44195</v>
       </c>
       <c r="E72" t="n">
         <v>9</v>
@@ -6124,16 +6124,16 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N72" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O72" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P72" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>1214</v>
+        <v>1429</v>
       </c>
       <c r="T72" t="n">
         <v>7</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44294</v>
+        <v>44209</v>
       </c>
       <c r="E73" t="n">
         <v>9</v>
@@ -6207,13 +6207,13 @@
         <v>100</v>
       </c>
       <c r="N73" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O73" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P73" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>1000</v>
+        <v>1214</v>
       </c>
       <c r="T73" t="n">
         <v>7</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44232</v>
+        <v>44294</v>
       </c>
       <c r="E74" t="n">
         <v>9</v>
@@ -6290,10 +6290,10 @@
         <v>7000</v>
       </c>
       <c r="O74" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P74" t="n">
-        <v>7550</v>
+        <v>7000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6302,11 +6302,11 @@
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S74" t="n">
-        <v>1079</v>
+        <v>1000</v>
       </c>
       <c r="T74" t="n">
         <v>7</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44454</v>
+        <v>44232</v>
       </c>
       <c r="E75" t="n">
         <v>9</v>
@@ -6360,33 +6360,33 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N75" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="O75" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="P75" t="n">
-        <v>18000</v>
+        <v>7550</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S75" t="n">
-        <v>2571</v>
+        <v>1079</v>
       </c>
       <c r="T75" t="n">
         <v>7</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44473</v>
+        <v>44454</v>
       </c>
       <c r="E76" t="n">
         <v>9</v>
@@ -6440,20 +6440,20 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>1300</v>
+        <v>80</v>
       </c>
       <c r="N76" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O76" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P76" t="n">
-        <v>15538</v>
+        <v>18000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>2220</v>
+        <v>2571</v>
       </c>
       <c r="T76" t="n">
         <v>7</v>
@@ -6520,20 +6520,20 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>200</v>
+        <v>1300</v>
       </c>
       <c r="N77" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O77" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P77" t="n">
-        <v>8000</v>
+        <v>15538</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>1143</v>
+        <v>2220</v>
       </c>
       <c r="T77" t="n">
         <v>7</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44273</v>
+        <v>44473</v>
       </c>
       <c r="E78" t="n">
         <v>9</v>
@@ -6600,33 +6600,33 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N78" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O78" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P78" t="n">
-        <v>6562</v>
+        <v>8000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S78" t="n">
-        <v>937</v>
+        <v>1143</v>
       </c>
       <c r="T78" t="n">
         <v>7</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44236</v>
+        <v>44273</v>
       </c>
       <c r="E79" t="n">
         <v>9</v>
@@ -6684,16 +6684,16 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N79" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O79" t="n">
         <v>7000</v>
       </c>
-      <c r="O79" t="n">
-        <v>8000</v>
-      </c>
       <c r="P79" t="n">
-        <v>7542</v>
+        <v>6562</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6702,11 +6702,11 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S79" t="n">
-        <v>1077</v>
+        <v>937</v>
       </c>
       <c r="T79" t="n">
         <v>7</v>
@@ -6760,20 +6760,20 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="N80" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O80" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P80" t="n">
-        <v>5000</v>
+        <v>7542</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>714</v>
+        <v>1077</v>
       </c>
       <c r="T80" t="n">
         <v>7</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44215</v>
+        <v>44236</v>
       </c>
       <c r="E81" t="n">
         <v>9</v>
@@ -6840,20 +6840,20 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="N81" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O81" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P81" t="n">
-        <v>7542</v>
+        <v>5000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6862,11 +6862,11 @@
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S81" t="n">
-        <v>1077</v>
+        <v>714</v>
       </c>
       <c r="T81" t="n">
         <v>7</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44235</v>
+        <v>44215</v>
       </c>
       <c r="E82" t="n">
         <v>9</v>
@@ -6924,16 +6924,16 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N82" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O82" t="n">
         <v>8000</v>
       </c>
       <c r="P82" t="n">
-        <v>8000</v>
+        <v>7542</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6942,11 +6942,11 @@
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S82" t="n">
-        <v>1143</v>
+        <v>1077</v>
       </c>
       <c r="T82" t="n">
         <v>7</v>
@@ -7000,20 +7000,20 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N83" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O83" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P83" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>714</v>
+        <v>1143</v>
       </c>
       <c r="T83" t="n">
         <v>7</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44203</v>
+        <v>44235</v>
       </c>
       <c r="E84" t="n">
         <v>9</v>
@@ -7080,20 +7080,20 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>175</v>
+        <v>65</v>
       </c>
       <c r="N84" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O84" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P84" t="n">
-        <v>7543</v>
+        <v>5000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>1078</v>
+        <v>714</v>
       </c>
       <c r="T84" t="n">
         <v>7</v>
@@ -7160,20 +7160,20 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>65</v>
+        <v>175</v>
       </c>
       <c r="N85" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="O85" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P85" t="n">
-        <v>5500</v>
+        <v>7543</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>786</v>
+        <v>1078</v>
       </c>
       <c r="T85" t="n">
         <v>7</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44291</v>
+        <v>44203</v>
       </c>
       <c r="E86" t="n">
         <v>9</v>
@@ -7240,20 +7240,20 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="N86" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="O86" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="P86" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7262,11 +7262,11 @@
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S86" t="n">
-        <v>1000</v>
+        <v>786</v>
       </c>
       <c r="T86" t="n">
         <v>7</v>
@@ -7320,20 +7320,20 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N87" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O87" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P87" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>857</v>
+        <v>1000</v>
       </c>
       <c r="T87" t="n">
         <v>7</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44469</v>
+        <v>44291</v>
       </c>
       <c r="E88" t="n">
         <v>9</v>
@@ -7400,33 +7400,33 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>3000</v>
+        <v>60</v>
       </c>
       <c r="N88" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="O88" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="P88" t="n">
-        <v>15333</v>
+        <v>6000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S88" t="n">
-        <v>2190</v>
+        <v>857</v>
       </c>
       <c r="T88" t="n">
         <v>7</v>
@@ -7480,20 +7480,20 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="N89" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O89" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="P89" t="n">
-        <v>7000</v>
+        <v>15333</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>1000</v>
+        <v>2190</v>
       </c>
       <c r="T89" t="n">
         <v>7</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E90" t="n">
         <v>9</v>
@@ -7560,20 +7560,20 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N90" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O90" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P90" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7582,11 +7582,11 @@
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S90" t="n">
-        <v>1714</v>
+        <v>1000</v>
       </c>
       <c r="T90" t="n">
         <v>7</v>
@@ -7640,20 +7640,20 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="N91" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O91" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P91" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>1429</v>
+        <v>1714</v>
       </c>
       <c r="T91" t="n">
         <v>7</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44161</v>
+        <v>44168</v>
       </c>
       <c r="E92" t="n">
         <v>9</v>
@@ -7724,16 +7724,16 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="N92" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O92" t="n">
         <v>10000</v>
       </c>
       <c r="P92" t="n">
-        <v>9455</v>
+        <v>10000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7742,11 +7742,11 @@
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S92" t="n">
-        <v>1351</v>
+        <v>1429</v>
       </c>
       <c r="T92" t="n">
         <v>7</v>
@@ -7804,29 +7804,29 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>305</v>
+        <v>550</v>
       </c>
       <c r="N93" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="O93" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P93" t="n">
-        <v>6705</v>
+        <v>9455</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S93" t="n">
-        <v>958</v>
+        <v>1351</v>
       </c>
       <c r="T93" t="n">
         <v>7</v>
@@ -7880,20 +7880,20 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>180</v>
+        <v>305</v>
       </c>
       <c r="N94" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="O94" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="P94" t="n">
-        <v>4000</v>
+        <v>6705</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>571</v>
+        <v>958</v>
       </c>
       <c r="T94" t="n">
         <v>7</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44214</v>
+        <v>44161</v>
       </c>
       <c r="E95" t="n">
         <v>9</v>
@@ -7960,20 +7960,20 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="N95" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="O95" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P95" t="n">
-        <v>7455</v>
+        <v>4000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>1065</v>
+        <v>571</v>
       </c>
       <c r="T95" t="n">
         <v>7</v>
@@ -8040,20 +8040,20 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N96" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="O96" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="P96" t="n">
-        <v>4500</v>
+        <v>7455</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>643</v>
+        <v>1065</v>
       </c>
       <c r="T96" t="n">
         <v>7</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E97" t="n">
         <v>9</v>
@@ -8120,20 +8120,20 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N97" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="O97" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="P97" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="S97" t="n">
-        <v>1000</v>
+        <v>643</v>
       </c>
       <c r="T97" t="n">
         <v>7</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44274</v>
+        <v>44280</v>
       </c>
       <c r="E98" t="n">
         <v>9</v>
@@ -8204,16 +8204,16 @@
         </is>
       </c>
       <c r="M98" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="N98" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O98" t="n">
         <v>7000</v>
       </c>
       <c r="P98" t="n">
-        <v>6579</v>
+        <v>7000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>940</v>
+        <v>1000</v>
       </c>
       <c r="T98" t="n">
         <v>7</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44165</v>
+        <v>44274</v>
       </c>
       <c r="E99" t="n">
         <v>9</v>
@@ -8280,33 +8280,33 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="N99" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="O99" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P99" t="n">
-        <v>11000</v>
+        <v>6579</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S99" t="n">
-        <v>1571</v>
+        <v>940</v>
       </c>
       <c r="T99" t="n">
         <v>7</v>
@@ -8360,20 +8360,20 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>700</v>
+        <v>50</v>
       </c>
       <c r="N100" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O100" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P100" t="n">
-        <v>9571</v>
+        <v>11000</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8382,11 +8382,11 @@
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S100" t="n">
-        <v>1367</v>
+        <v>1571</v>
       </c>
       <c r="T100" t="n">
         <v>7</v>
@@ -8444,7 +8444,7 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N101" t="n">
         <v>9000</v>
@@ -8453,7 +8453,7 @@
         <v>10000</v>
       </c>
       <c r="P101" t="n">
-        <v>9500</v>
+        <v>9571</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8462,11 +8462,11 @@
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S101" t="n">
-        <v>1357</v>
+        <v>1367</v>
       </c>
       <c r="T101" t="n">
         <v>7</v>
@@ -8524,29 +8524,29 @@
         </is>
       </c>
       <c r="M102" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N102" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O102" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P102" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S102" t="n">
-        <v>1214</v>
+        <v>1357</v>
       </c>
       <c r="T102" t="n">
         <v>7</v>
@@ -8600,33 +8600,33 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N103" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O103" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P103" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S103" t="n">
-        <v>1000</v>
+        <v>1214</v>
       </c>
       <c r="T103" t="n">
         <v>7</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44258</v>
+        <v>44165</v>
       </c>
       <c r="E104" t="n">
         <v>9</v>
@@ -8680,11 +8680,11 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="N104" t="n">
         <v>7000</v>
@@ -8697,12 +8697,12 @@
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S104" t="n">
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E105" t="n">
         <v>9</v>
@@ -8764,29 +8764,29 @@
         </is>
       </c>
       <c r="M105" t="n">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="N105" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O105" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="P105" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S105" t="n">
-        <v>2143</v>
+        <v>1000</v>
       </c>
       <c r="T105" t="n">
         <v>7</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E106" t="n">
         <v>9</v>
@@ -8844,16 +8844,16 @@
         </is>
       </c>
       <c r="M106" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N106" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O106" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P106" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>2000</v>
+        <v>2143</v>
       </c>
       <c r="T106" t="n">
         <v>7</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E107" t="n">
         <v>9</v>
@@ -8924,29 +8924,29 @@
         </is>
       </c>
       <c r="M107" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="N107" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O107" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P107" t="n">
-        <v>7568</v>
+        <v>14000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S107" t="n">
-        <v>1081</v>
+        <v>2000</v>
       </c>
       <c r="T107" t="n">
         <v>7</v>
@@ -9000,20 +9000,20 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M108" t="n">
-        <v>85</v>
+        <v>220</v>
       </c>
       <c r="N108" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O108" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P108" t="n">
-        <v>5000</v>
+        <v>7568</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>714</v>
+        <v>1081</v>
       </c>
       <c r="T108" t="n">
         <v>7</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E109" t="n">
         <v>9</v>
@@ -9080,20 +9080,20 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>205</v>
+        <v>85</v>
       </c>
       <c r="N109" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O109" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P109" t="n">
-        <v>7390</v>
+        <v>5000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9102,11 +9102,11 @@
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S109" t="n">
-        <v>1056</v>
+        <v>714</v>
       </c>
       <c r="T109" t="n">
         <v>7</v>
@@ -9160,20 +9160,20 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>45</v>
+        <v>205</v>
       </c>
       <c r="N110" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="O110" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P110" t="n">
-        <v>5500</v>
+        <v>7390</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         </is>
       </c>
       <c r="S110" t="n">
-        <v>786</v>
+        <v>1056</v>
       </c>
       <c r="T110" t="n">
         <v>7</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44186</v>
+        <v>44204</v>
       </c>
       <c r="E111" t="n">
         <v>9</v>
@@ -9240,33 +9240,33 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M111" t="n">
-        <v>625</v>
+        <v>45</v>
       </c>
       <c r="N111" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="O111" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="P111" t="n">
-        <v>11584</v>
+        <v>5500</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S111" t="n">
-        <v>1655</v>
+        <v>786</v>
       </c>
       <c r="T111" t="n">
         <v>7</v>
@@ -9324,29 +9324,29 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>235</v>
+        <v>625</v>
       </c>
       <c r="N112" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O112" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P112" t="n">
-        <v>10532</v>
+        <v>11584</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S112" t="n">
-        <v>1505</v>
+        <v>1655</v>
       </c>
       <c r="T112" t="n">
         <v>7</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44372</v>
+        <v>44186</v>
       </c>
       <c r="E113" t="n">
         <v>9</v>
@@ -9404,29 +9404,29 @@
         </is>
       </c>
       <c r="M113" t="n">
-        <v>35</v>
+        <v>235</v>
       </c>
       <c r="N113" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O113" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P113" t="n">
-        <v>17000</v>
+        <v>10532</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S113" t="n">
-        <v>2429</v>
+        <v>1505</v>
       </c>
       <c r="T113" t="n">
         <v>7</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44243</v>
+        <v>44372</v>
       </c>
       <c r="E114" t="n">
         <v>9</v>
@@ -9484,29 +9484,29 @@
         </is>
       </c>
       <c r="M114" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="N114" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="O114" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="P114" t="n">
-        <v>7450</v>
+        <v>17000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S114" t="n">
-        <v>1064</v>
+        <v>2429</v>
       </c>
       <c r="T114" t="n">
         <v>7</v>
@@ -9560,20 +9560,20 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N115" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O115" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P115" t="n">
-        <v>5000</v>
+        <v>7450</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>714</v>
+        <v>1064</v>
       </c>
       <c r="T115" t="n">
         <v>7</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44202</v>
+        <v>44243</v>
       </c>
       <c r="E116" t="n">
         <v>9</v>
@@ -9640,20 +9640,20 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M116" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="N116" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O116" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P116" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -9662,11 +9662,11 @@
       </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S116" t="n">
-        <v>1000</v>
+        <v>714</v>
       </c>
       <c r="T116" t="n">
         <v>7</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44242</v>
+        <v>44202</v>
       </c>
       <c r="E117" t="n">
         <v>9</v>
@@ -9724,16 +9724,16 @@
         </is>
       </c>
       <c r="M117" t="n">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="N117" t="n">
         <v>7000</v>
       </c>
       <c r="O117" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P117" t="n">
-        <v>7448</v>
+        <v>7000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9742,11 +9742,11 @@
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S117" t="n">
-        <v>1064</v>
+        <v>1000</v>
       </c>
       <c r="T117" t="n">
         <v>7</v>
@@ -9800,20 +9800,20 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="N118" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O118" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P118" t="n">
-        <v>5000</v>
+        <v>7448</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>714</v>
+        <v>1064</v>
       </c>
       <c r="T118" t="n">
         <v>7</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44307</v>
+        <v>44242</v>
       </c>
       <c r="E119" t="n">
         <v>9</v>
@@ -9884,7 +9884,7 @@
         </is>
       </c>
       <c r="M119" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N119" t="n">
         <v>5000</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44159</v>
+        <v>44307</v>
       </c>
       <c r="E120" t="n">
         <v>9</v>
@@ -9960,33 +9960,33 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>550</v>
+        <v>30</v>
       </c>
       <c r="N120" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O120" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P120" t="n">
-        <v>9455</v>
+        <v>5000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R120" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S120" t="n">
-        <v>1351</v>
+        <v>714</v>
       </c>
       <c r="T120" t="n">
         <v>7</v>
@@ -10044,29 +10044,29 @@
         </is>
       </c>
       <c r="M121" t="n">
-        <v>375</v>
+        <v>550</v>
       </c>
       <c r="N121" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O121" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P121" t="n">
-        <v>7760</v>
+        <v>9455</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R121" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S121" t="n">
-        <v>1109</v>
+        <v>1351</v>
       </c>
       <c r="T121" t="n">
         <v>7</v>
@@ -10120,33 +10120,33 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M122" t="n">
-        <v>155</v>
+        <v>375</v>
       </c>
       <c r="N122" t="n">
         <v>7500</v>
       </c>
       <c r="O122" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="P122" t="n">
-        <v>7500</v>
+        <v>7760</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R122" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S122" t="n">
-        <v>1071</v>
+        <v>1109</v>
       </c>
       <c r="T122" t="n">
         <v>7</v>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E123" t="n">
         <v>9</v>
@@ -10200,29 +10200,29 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M123" t="n">
-        <v>400</v>
+        <v>155</v>
       </c>
       <c r="N123" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="O123" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="P123" t="n">
         <v>7500</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R123" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S123" t="n">
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44476</v>
+        <v>44166</v>
       </c>
       <c r="E124" t="n">
         <v>9</v>
@@ -10284,29 +10284,29 @@
         </is>
       </c>
       <c r="M124" t="n">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="N124" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O124" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P124" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R124" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S124" t="n">
-        <v>2143</v>
+        <v>1071</v>
       </c>
       <c r="T124" t="n">
         <v>7</v>
@@ -10360,20 +10360,20 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M125" t="n">
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="N125" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O125" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P125" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>1857</v>
+        <v>2143</v>
       </c>
       <c r="T125" t="n">
         <v>7</v>
@@ -10440,20 +10440,20 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M126" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N126" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O126" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P126" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>1143</v>
+        <v>1857</v>
       </c>
       <c r="T126" t="n">
         <v>7</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44263</v>
+        <v>44476</v>
       </c>
       <c r="E127" t="n">
         <v>9</v>
@@ -10520,33 +10520,33 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M127" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N127" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O127" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P127" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R127" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S127" t="n">
-        <v>1000</v>
+        <v>1143</v>
       </c>
       <c r="T127" t="n">
         <v>7</v>
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44369</v>
+        <v>44263</v>
       </c>
       <c r="E128" t="n">
         <v>9</v>
@@ -10604,29 +10604,29 @@
         </is>
       </c>
       <c r="M128" t="n">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="N128" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O128" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="P128" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R128" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S128" t="n">
-        <v>2143</v>
+        <v>1000</v>
       </c>
       <c r="T128" t="n">
         <v>7</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E129" t="n">
         <v>9</v>
@@ -10684,29 +10684,29 @@
         </is>
       </c>
       <c r="M129" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="N129" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="O129" t="n">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="P129" t="n">
-        <v>6194</v>
+        <v>15000</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R129" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S129" t="n">
-        <v>885</v>
+        <v>2143</v>
       </c>
       <c r="T129" t="n">
         <v>7</v>
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44223</v>
+        <v>44301</v>
       </c>
       <c r="E130" t="n">
         <v>9</v>
@@ -10764,16 +10764,16 @@
         </is>
       </c>
       <c r="M130" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="N130" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O130" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="P130" t="n">
-        <v>7385</v>
+        <v>6194</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
@@ -10782,11 +10782,11 @@
       </c>
       <c r="R130" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S130" t="n">
-        <v>1055</v>
+        <v>885</v>
       </c>
       <c r="T130" t="n">
         <v>7</v>
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44397</v>
+        <v>44223</v>
       </c>
       <c r="E131" t="n">
         <v>9</v>
@@ -10844,29 +10844,29 @@
         </is>
       </c>
       <c r="M131" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="N131" t="n">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="O131" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="P131" t="n">
-        <v>22000</v>
+        <v>7385</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R131" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S131" t="n">
-        <v>3143</v>
+        <v>1055</v>
       </c>
       <c r="T131" t="n">
         <v>7</v>
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E132" t="n">
         <v>9</v>
@@ -10924,29 +10924,29 @@
         </is>
       </c>
       <c r="M132" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N132" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="O132" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="P132" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R132" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S132" t="n">
-        <v>1143</v>
+        <v>3143</v>
       </c>
       <c r="T132" t="n">
         <v>7</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44466</v>
+        <v>44333</v>
       </c>
       <c r="E133" t="n">
         <v>9</v>
@@ -11004,29 +11004,29 @@
         </is>
       </c>
       <c r="M133" t="n">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="N133" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="O133" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P133" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R133" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S133" t="n">
-        <v>2286</v>
+        <v>1143</v>
       </c>
       <c r="T133" t="n">
         <v>7</v>
@@ -11080,20 +11080,20 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M134" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="N134" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O134" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P134" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>1857</v>
+        <v>2286</v>
       </c>
       <c r="T134" t="n">
         <v>7</v>
@@ -11160,20 +11160,20 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M135" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N135" t="n">
-        <v>800</v>
+        <v>13000</v>
       </c>
       <c r="O135" t="n">
-        <v>800</v>
+        <v>13000</v>
       </c>
       <c r="P135" t="n">
-        <v>800</v>
+        <v>13000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         </is>
       </c>
       <c r="S135" t="n">
-        <v>114</v>
+        <v>1857</v>
       </c>
       <c r="T135" t="n">
         <v>7</v>
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E136" t="n">
         <v>9</v>
@@ -11240,33 +11240,33 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M136" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="N136" t="n">
-        <v>7000</v>
+        <v>800</v>
       </c>
       <c r="O136" t="n">
-        <v>7000</v>
+        <v>800</v>
       </c>
       <c r="P136" t="n">
-        <v>7000</v>
+        <v>800</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R136" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S136" t="n">
-        <v>1000</v>
+        <v>114</v>
       </c>
       <c r="T136" t="n">
         <v>7</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44201</v>
+        <v>44270</v>
       </c>
       <c r="E137" t="n">
         <v>9</v>
@@ -11342,7 +11342,7 @@
       </c>
       <c r="R137" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S137" t="n">
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E138" t="n">
         <v>9</v>
@@ -11404,16 +11404,16 @@
         </is>
       </c>
       <c r="M138" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="N138" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O138" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P138" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
@@ -11422,11 +11422,11 @@
       </c>
       <c r="R138" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S138" t="n">
-        <v>1429</v>
+        <v>1000</v>
       </c>
       <c r="T138" t="n">
         <v>7</v>
@@ -11480,20 +11480,20 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M139" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="N139" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O139" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P139" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>1286</v>
+        <v>1429</v>
       </c>
       <c r="T139" t="n">
         <v>7</v>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E140" t="n">
         <v>9</v>
@@ -11560,20 +11560,20 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M140" t="n">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="N140" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="O140" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P140" t="n">
-        <v>6786</v>
+        <v>9000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
@@ -11582,11 +11582,11 @@
       </c>
       <c r="R140" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S140" t="n">
-        <v>969</v>
+        <v>1286</v>
       </c>
       <c r="T140" t="n">
         <v>7</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E141" t="n">
         <v>9</v>
@@ -11644,31 +11644,111 @@
         </is>
       </c>
       <c r="M141" t="n">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="N141" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="O141" t="n">
         <v>7000</v>
       </c>
       <c r="P141" t="n">
+        <v>6786</v>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>$/caja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R141" t="inlineStr">
+        <is>
+          <t>Provincia de Cautín</t>
+        </is>
+      </c>
+      <c r="S141" t="n">
+        <v>969</v>
+      </c>
+      <c r="T141" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>10</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E142" t="n">
+        <v>9</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>65</v>
+      </c>
+      <c r="N142" t="n">
         <v>7000</v>
       </c>
-      <c r="Q141" t="inlineStr">
+      <c r="O142" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P142" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q142" t="inlineStr">
         <is>
           <t>$/caja 7 kilos</t>
         </is>
       </c>
-      <c r="R141" t="inlineStr">
+      <c r="R142" t="inlineStr">
         <is>
           <t>Provincia de Cautín</t>
         </is>
       </c>
-      <c r="S141" t="n">
+      <c r="S142" t="n">
         <v>1000</v>
       </c>
-      <c r="T141" t="n">
+      <c r="T142" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T142"/>
+  <dimension ref="A1:T143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44400</v>
+        <v>44162</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>15</v>
+        <v>305</v>
       </c>
       <c r="N2" t="n">
-        <v>23000</v>
+        <v>9000</v>
       </c>
       <c r="O2" t="n">
-        <v>23000</v>
+        <v>10000</v>
       </c>
       <c r="P2" t="n">
-        <v>23000</v>
+        <v>9410</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3286</v>
+        <v>1344</v>
       </c>
       <c r="T2" t="n">
         <v>7</v>
@@ -604,29 +604,29 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>305</v>
+        <v>165</v>
       </c>
       <c r="N3" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="O3" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="P3" t="n">
-        <v>9410</v>
+        <v>7500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1344</v>
+        <v>1071</v>
       </c>
       <c r="T3" t="n">
         <v>7</v>
@@ -680,33 +680,33 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>165</v>
+        <v>110</v>
       </c>
       <c r="N4" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="O4" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="P4" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1071</v>
+        <v>1000</v>
       </c>
       <c r="T4" t="n">
         <v>7</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44162</v>
+        <v>44305</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -760,11 +760,11 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
         <v>7000</v>
@@ -777,12 +777,12 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S5" t="n">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44305</v>
+        <v>44285</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="N6" t="n">
         <v>7000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44285</v>
+        <v>44189</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>55</v>
+        <v>400</v>
       </c>
       <c r="N7" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O7" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P7" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>1286</v>
       </c>
       <c r="T7" t="n">
         <v>7</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44189</v>
+        <v>44259</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>400</v>
+        <v>155</v>
       </c>
       <c r="N8" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O8" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P8" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1286</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
         <v>7</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44259</v>
+        <v>44181</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>155</v>
+        <v>260</v>
       </c>
       <c r="N9" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O9" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P9" t="n">
-        <v>7000</v>
+        <v>9462</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>1352</v>
       </c>
       <c r="T9" t="n">
         <v>7</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44181</v>
+        <v>44249</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>260</v>
+        <v>120</v>
       </c>
       <c r="N10" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O10" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P10" t="n">
-        <v>9462</v>
+        <v>7458</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1352</v>
+        <v>1065</v>
       </c>
       <c r="T10" t="n">
         <v>7</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="N11" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O11" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P11" t="n">
-        <v>7458</v>
+        <v>5000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1065</v>
+        <v>714</v>
       </c>
       <c r="T11" t="n">
         <v>7</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44249</v>
+        <v>44221</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O12" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P12" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>714</v>
+        <v>1000</v>
       </c>
       <c r="T12" t="n">
         <v>7</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44221</v>
+        <v>44251</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="N13" t="n">
         <v>7000</v>
       </c>
       <c r="O13" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P13" t="n">
-        <v>7000</v>
+        <v>7467</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1000</v>
+        <v>1067</v>
       </c>
       <c r="T13" t="n">
         <v>7</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="N14" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O14" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P14" t="n">
-        <v>7467</v>
+        <v>5000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1067</v>
+        <v>714</v>
       </c>
       <c r="T14" t="n">
         <v>7</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44251</v>
+        <v>44277</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="N15" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O15" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P15" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>714</v>
+        <v>857</v>
       </c>
       <c r="T15" t="n">
         <v>7</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44277</v>
+        <v>44237</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N16" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O16" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P16" t="n">
-        <v>6000</v>
+        <v>7533</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>857</v>
+        <v>1076</v>
       </c>
       <c r="T16" t="n">
         <v>7</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="N17" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O17" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P17" t="n">
-        <v>7533</v>
+        <v>5000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1076</v>
+        <v>714</v>
       </c>
       <c r="T17" t="n">
         <v>7</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44237</v>
+        <v>44179</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1800,33 +1800,33 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>35</v>
+        <v>600</v>
       </c>
       <c r="N18" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O18" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="P18" t="n">
-        <v>5000</v>
+        <v>10500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>714</v>
+        <v>1500</v>
       </c>
       <c r="T18" t="n">
         <v>7</v>
@@ -1884,29 +1884,29 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="N19" t="n">
         <v>10000</v>
       </c>
       <c r="O19" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P19" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1500</v>
+        <v>1429</v>
       </c>
       <c r="T19" t="n">
         <v>7</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="N20" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O20" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P20" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1982,11 +1982,11 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1429</v>
+        <v>857</v>
       </c>
       <c r="T20" t="n">
         <v>7</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44302</v>
+        <v>44253</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="N21" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O21" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P21" t="n">
-        <v>6000</v>
+        <v>7417</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2062,11 +2062,11 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>857</v>
+        <v>1060</v>
       </c>
       <c r="T21" t="n">
         <v>7</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N22" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O22" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P22" t="n">
-        <v>7417</v>
+        <v>5000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1060</v>
+        <v>714</v>
       </c>
       <c r="T22" t="n">
         <v>7</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44253</v>
+        <v>44459</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2204,29 +2204,29 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N23" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="O23" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="P23" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>714</v>
+        <v>2286</v>
       </c>
       <c r="T23" t="n">
         <v>7</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44459</v>
+        <v>44323</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2280,33 +2280,33 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N24" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="O24" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P24" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2286</v>
+        <v>1286</v>
       </c>
       <c r="T24" t="n">
         <v>7</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N25" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O25" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P25" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1286</v>
+        <v>643</v>
       </c>
       <c r="T25" t="n">
         <v>7</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44323</v>
+        <v>44462</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2440,33 +2440,33 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N26" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O26" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P26" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>643</v>
+        <v>1429</v>
       </c>
       <c r="T26" t="n">
         <v>7</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44462</v>
+        <v>44194</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>50</v>
+        <v>600</v>
       </c>
       <c r="N27" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O27" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P27" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1429</v>
+        <v>1143</v>
       </c>
       <c r="T27" t="n">
         <v>7</v>
@@ -2604,29 +2604,29 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N28" t="n">
         <v>8000</v>
       </c>
       <c r="O28" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P28" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T28" t="n">
         <v>7</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44194</v>
+        <v>44160</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="N29" t="n">
+        <v>7500</v>
+      </c>
+      <c r="O29" t="n">
         <v>8000</v>
       </c>
-      <c r="O29" t="n">
-        <v>9000</v>
-      </c>
       <c r="P29" t="n">
-        <v>8500</v>
+        <v>7734</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1214</v>
+        <v>1105</v>
       </c>
       <c r="T29" t="n">
         <v>7</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44160</v>
+        <v>44460</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2760,33 +2760,33 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>320</v>
+        <v>50</v>
       </c>
       <c r="N30" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="O30" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P30" t="n">
-        <v>7734</v>
+        <v>20000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1105</v>
+        <v>2857</v>
       </c>
       <c r="T30" t="n">
         <v>7</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N31" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O31" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P31" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>2857</v>
+        <v>1429</v>
       </c>
       <c r="T31" t="n">
         <v>7</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44460</v>
+        <v>44217</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2920,33 +2920,33 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>20</v>
+        <v>235</v>
       </c>
       <c r="N32" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O32" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P32" t="n">
-        <v>10000</v>
+        <v>7532</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1429</v>
+        <v>1076</v>
       </c>
       <c r="T32" t="n">
         <v>7</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>235</v>
+        <v>85</v>
       </c>
       <c r="N33" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="O33" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="P33" t="n">
-        <v>7532</v>
+        <v>5500</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1076</v>
+        <v>786</v>
       </c>
       <c r="T33" t="n">
         <v>7</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44217</v>
+        <v>44238</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="N34" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="O34" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P34" t="n">
-        <v>5500</v>
+        <v>7532</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3102,11 +3102,11 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>786</v>
+        <v>1076</v>
       </c>
       <c r="T34" t="n">
         <v>7</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>235</v>
+        <v>85</v>
       </c>
       <c r="N35" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O35" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P35" t="n">
-        <v>7532</v>
+        <v>5000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1076</v>
+        <v>714</v>
       </c>
       <c r="T35" t="n">
         <v>7</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44238</v>
+        <v>44260</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="N36" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O36" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P36" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3262,11 +3262,11 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>714</v>
+        <v>1000</v>
       </c>
       <c r="T36" t="n">
         <v>7</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44260</v>
+        <v>44211</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>45</v>
+        <v>270</v>
       </c>
       <c r="N37" t="n">
         <v>7000</v>
       </c>
       <c r="O37" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P37" t="n">
-        <v>7000</v>
+        <v>7556</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1000</v>
+        <v>1079</v>
       </c>
       <c r="T37" t="n">
         <v>7</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44211</v>
+        <v>44272</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>270</v>
+        <v>65</v>
       </c>
       <c r="N38" t="n">
         <v>7000</v>
       </c>
       <c r="O38" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P38" t="n">
-        <v>7556</v>
+        <v>7000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1079</v>
+        <v>1000</v>
       </c>
       <c r="T38" t="n">
         <v>7</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44272</v>
+        <v>44218</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="N39" t="n">
         <v>7000</v>
       </c>
       <c r="O39" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P39" t="n">
-        <v>7000</v>
+        <v>7516</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1000</v>
+        <v>1074</v>
       </c>
       <c r="T39" t="n">
         <v>7</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>155</v>
+        <v>65</v>
       </c>
       <c r="N40" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="O40" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="P40" t="n">
-        <v>7516</v>
+        <v>5500</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1074</v>
+        <v>786</v>
       </c>
       <c r="T40" t="n">
         <v>7</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44218</v>
+        <v>44210</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="N41" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="O41" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P41" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>786</v>
+        <v>1143</v>
       </c>
       <c r="T41" t="n">
         <v>7</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44210</v>
+        <v>44257</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3724,16 +3724,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>500</v>
+        <v>125</v>
       </c>
       <c r="N42" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O42" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P42" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1143</v>
+        <v>1000</v>
       </c>
       <c r="T42" t="n">
         <v>7</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44257</v>
+        <v>44200</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3804,7 +3804,7 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="N43" t="n">
         <v>7000</v>
@@ -3822,7 +3822,7 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S43" t="n">
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="N44" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="O44" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="P44" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1000</v>
+        <v>786</v>
       </c>
       <c r="T44" t="n">
         <v>7</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44200</v>
+        <v>44246</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="N45" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="O45" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P45" t="n">
-        <v>5500</v>
+        <v>7417</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3982,11 +3982,11 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>786</v>
+        <v>1060</v>
       </c>
       <c r="T45" t="n">
         <v>7</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N46" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O46" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P46" t="n">
-        <v>7417</v>
+        <v>5000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1060</v>
+        <v>714</v>
       </c>
       <c r="T46" t="n">
         <v>7</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44246</v>
+        <v>44295</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N47" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O47" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P47" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>714</v>
+        <v>1000</v>
       </c>
       <c r="T47" t="n">
         <v>7</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44295</v>
+        <v>44225</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -4210,10 +4210,10 @@
         <v>7000</v>
       </c>
       <c r="O48" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P48" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1000</v>
+        <v>1071</v>
       </c>
       <c r="T48" t="n">
         <v>7</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44225</v>
+        <v>44399</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -4284,29 +4284,29 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="N49" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="O49" t="n">
-        <v>8000</v>
+        <v>23000</v>
       </c>
       <c r="P49" t="n">
-        <v>7500</v>
+        <v>22538</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1071</v>
+        <v>3220</v>
       </c>
       <c r="T49" t="n">
         <v>7</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44399</v>
+        <v>44175</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -4364,29 +4364,29 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="N50" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="O50" t="n">
-        <v>23000</v>
+        <v>9000</v>
       </c>
       <c r="P50" t="n">
-        <v>22538</v>
+        <v>9000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S50" t="n">
-        <v>3220</v>
+        <v>1286</v>
       </c>
       <c r="T50" t="n">
         <v>7</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44175</v>
+        <v>44364</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4444,29 +4444,29 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="N51" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O51" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="P51" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1286</v>
+        <v>2857</v>
       </c>
       <c r="T51" t="n">
         <v>7</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44364</v>
+        <v>44188</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4524,16 +4524,16 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="N52" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O52" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P52" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4542,11 +4542,11 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S52" t="n">
-        <v>2857</v>
+        <v>1857</v>
       </c>
       <c r="T52" t="n">
         <v>7</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44188</v>
+        <v>44477</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4604,16 +4604,16 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>90</v>
+        <v>800</v>
       </c>
       <c r="N53" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O53" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P53" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4622,11 +4622,11 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S53" t="n">
-        <v>1857</v>
+        <v>2000</v>
       </c>
       <c r="T53" t="n">
         <v>7</v>
@@ -4680,20 +4680,20 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N54" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O54" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P54" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>2000</v>
+        <v>1571</v>
       </c>
       <c r="T54" t="n">
         <v>7</v>
@@ -4760,20 +4760,20 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N55" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O55" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P55" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>1571</v>
+        <v>1000</v>
       </c>
       <c r="T55" t="n">
         <v>7</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44477</v>
+        <v>44245</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4840,33 +4840,33 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="N56" t="n">
         <v>7000</v>
       </c>
       <c r="O56" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P56" t="n">
-        <v>7000</v>
+        <v>7360</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S56" t="n">
-        <v>1000</v>
+        <v>1051</v>
       </c>
       <c r="T56" t="n">
         <v>7</v>
@@ -4920,20 +4920,20 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="N57" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O57" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P57" t="n">
-        <v>7360</v>
+        <v>5000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>1051</v>
+        <v>714</v>
       </c>
       <c r="T57" t="n">
         <v>7</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44245</v>
+        <v>44216</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -5000,20 +5000,20 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="N58" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O58" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P58" t="n">
-        <v>5000</v>
+        <v>7579</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>714</v>
+        <v>1083</v>
       </c>
       <c r="T58" t="n">
         <v>7</v>
@@ -5080,20 +5080,20 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="N59" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O59" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P59" t="n">
-        <v>7579</v>
+        <v>5000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>1083</v>
+        <v>714</v>
       </c>
       <c r="T59" t="n">
         <v>7</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44216</v>
+        <v>44284</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -5160,20 +5160,20 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N60" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O60" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P60" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5182,11 +5182,11 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S60" t="n">
-        <v>714</v>
+        <v>1000</v>
       </c>
       <c r="T60" t="n">
         <v>7</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44284</v>
+        <v>44174</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -5244,16 +5244,16 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="N61" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O61" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P61" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5262,11 +5262,11 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S61" t="n">
-        <v>1000</v>
+        <v>1429</v>
       </c>
       <c r="T61" t="n">
         <v>7</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44174</v>
+        <v>44244</v>
       </c>
       <c r="E62" t="n">
         <v>9</v>
@@ -5324,16 +5324,16 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="N62" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O62" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P62" t="n">
-        <v>10000</v>
+        <v>7462</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>1429</v>
+        <v>1066</v>
       </c>
       <c r="T62" t="n">
         <v>7</v>
@@ -5400,20 +5400,20 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="N63" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O63" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P63" t="n">
-        <v>7462</v>
+        <v>5000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>1066</v>
+        <v>714</v>
       </c>
       <c r="T63" t="n">
         <v>7</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44244</v>
+        <v>44482</v>
       </c>
       <c r="E64" t="n">
         <v>9</v>
@@ -5480,33 +5480,33 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="N64" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O64" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P64" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S64" t="n">
-        <v>714</v>
+        <v>1714</v>
       </c>
       <c r="T64" t="n">
         <v>7</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44482</v>
+        <v>44271</v>
       </c>
       <c r="E65" t="n">
         <v>9</v>
@@ -5564,29 +5564,29 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="N65" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O65" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P65" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S65" t="n">
-        <v>1714</v>
+        <v>1000</v>
       </c>
       <c r="T65" t="n">
         <v>7</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44271</v>
+        <v>44483</v>
       </c>
       <c r="E66" t="n">
         <v>9</v>
@@ -5644,29 +5644,29 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>65</v>
+        <v>265</v>
       </c>
       <c r="N66" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O66" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P66" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S66" t="n">
-        <v>1000</v>
+        <v>1714</v>
       </c>
       <c r="T66" t="n">
         <v>7</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44463</v>
+        <v>44483</v>
       </c>
       <c r="E67" t="n">
         <v>9</v>
@@ -5720,20 +5720,20 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="N67" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O67" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="P67" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>2857</v>
+        <v>1000</v>
       </c>
       <c r="T67" t="n">
         <v>7</v>
@@ -5800,20 +5800,20 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N68" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O68" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P68" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>1429</v>
+        <v>2857</v>
       </c>
       <c r="T68" t="n">
         <v>7</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44224</v>
+        <v>44463</v>
       </c>
       <c r="E69" t="n">
         <v>9</v>
@@ -5880,33 +5880,33 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>600</v>
+        <v>40</v>
       </c>
       <c r="N69" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O69" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P69" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S69" t="n">
-        <v>1071</v>
+        <v>1429</v>
       </c>
       <c r="T69" t="n">
         <v>7</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44264</v>
+        <v>44224</v>
       </c>
       <c r="E70" t="n">
         <v>9</v>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>80</v>
+        <v>600</v>
       </c>
       <c r="N70" t="n">
         <v>7000</v>
       </c>
       <c r="O70" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P70" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>1000</v>
+        <v>1071</v>
       </c>
       <c r="T70" t="n">
         <v>7</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44195</v>
+        <v>44264</v>
       </c>
       <c r="E71" t="n">
         <v>9</v>
@@ -6044,29 +6044,29 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N71" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O71" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="P71" t="n">
-        <v>12583</v>
+        <v>7000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S71" t="n">
-        <v>1798</v>
+        <v>1000</v>
       </c>
       <c r="T71" t="n">
         <v>7</v>
@@ -6124,29 +6124,29 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N72" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O72" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P72" t="n">
-        <v>10000</v>
+        <v>12583</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S72" t="n">
-        <v>1429</v>
+        <v>1798</v>
       </c>
       <c r="T72" t="n">
         <v>7</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44209</v>
+        <v>44195</v>
       </c>
       <c r="E73" t="n">
         <v>9</v>
@@ -6204,16 +6204,16 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N73" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O73" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P73" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>1214</v>
+        <v>1429</v>
       </c>
       <c r="T73" t="n">
         <v>7</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44294</v>
+        <v>44209</v>
       </c>
       <c r="E74" t="n">
         <v>9</v>
@@ -6287,13 +6287,13 @@
         <v>100</v>
       </c>
       <c r="N74" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O74" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P74" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>1000</v>
+        <v>1214</v>
       </c>
       <c r="T74" t="n">
         <v>7</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44232</v>
+        <v>44294</v>
       </c>
       <c r="E75" t="n">
         <v>9</v>
@@ -6370,10 +6370,10 @@
         <v>7000</v>
       </c>
       <c r="O75" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P75" t="n">
-        <v>7550</v>
+        <v>7000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6382,11 +6382,11 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S75" t="n">
-        <v>1079</v>
+        <v>1000</v>
       </c>
       <c r="T75" t="n">
         <v>7</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44454</v>
+        <v>44232</v>
       </c>
       <c r="E76" t="n">
         <v>9</v>
@@ -6440,33 +6440,33 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N76" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="O76" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="P76" t="n">
-        <v>18000</v>
+        <v>7550</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S76" t="n">
-        <v>2571</v>
+        <v>1079</v>
       </c>
       <c r="T76" t="n">
         <v>7</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44473</v>
+        <v>44454</v>
       </c>
       <c r="E77" t="n">
         <v>9</v>
@@ -6520,20 +6520,20 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>1300</v>
+        <v>80</v>
       </c>
       <c r="N77" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O77" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P77" t="n">
-        <v>15538</v>
+        <v>18000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>2220</v>
+        <v>2571</v>
       </c>
       <c r="T77" t="n">
         <v>7</v>
@@ -6600,20 +6600,20 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>200</v>
+        <v>1300</v>
       </c>
       <c r="N78" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O78" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P78" t="n">
-        <v>8000</v>
+        <v>15538</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>1143</v>
+        <v>2220</v>
       </c>
       <c r="T78" t="n">
         <v>7</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44273</v>
+        <v>44473</v>
       </c>
       <c r="E79" t="n">
         <v>9</v>
@@ -6680,33 +6680,33 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N79" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O79" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P79" t="n">
-        <v>6562</v>
+        <v>8000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S79" t="n">
-        <v>937</v>
+        <v>1143</v>
       </c>
       <c r="T79" t="n">
         <v>7</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44236</v>
+        <v>44273</v>
       </c>
       <c r="E80" t="n">
         <v>9</v>
@@ -6764,16 +6764,16 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N80" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O80" t="n">
         <v>7000</v>
       </c>
-      <c r="O80" t="n">
-        <v>8000</v>
-      </c>
       <c r="P80" t="n">
-        <v>7542</v>
+        <v>6562</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6782,11 +6782,11 @@
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S80" t="n">
-        <v>1077</v>
+        <v>937</v>
       </c>
       <c r="T80" t="n">
         <v>7</v>
@@ -6840,20 +6840,20 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="N81" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O81" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P81" t="n">
-        <v>5000</v>
+        <v>7542</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>714</v>
+        <v>1077</v>
       </c>
       <c r="T81" t="n">
         <v>7</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44215</v>
+        <v>44236</v>
       </c>
       <c r="E82" t="n">
         <v>9</v>
@@ -6920,20 +6920,20 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="N82" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O82" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P82" t="n">
-        <v>7542</v>
+        <v>5000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6942,11 +6942,11 @@
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S82" t="n">
-        <v>1077</v>
+        <v>714</v>
       </c>
       <c r="T82" t="n">
         <v>7</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44235</v>
+        <v>44215</v>
       </c>
       <c r="E83" t="n">
         <v>9</v>
@@ -7004,16 +7004,16 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N83" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O83" t="n">
         <v>8000</v>
       </c>
       <c r="P83" t="n">
-        <v>8000</v>
+        <v>7542</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7022,11 +7022,11 @@
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S83" t="n">
-        <v>1143</v>
+        <v>1077</v>
       </c>
       <c r="T83" t="n">
         <v>7</v>
@@ -7080,20 +7080,20 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N84" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O84" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P84" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>714</v>
+        <v>1143</v>
       </c>
       <c r="T84" t="n">
         <v>7</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44203</v>
+        <v>44235</v>
       </c>
       <c r="E85" t="n">
         <v>9</v>
@@ -7160,20 +7160,20 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>175</v>
+        <v>65</v>
       </c>
       <c r="N85" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O85" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P85" t="n">
-        <v>7543</v>
+        <v>5000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>1078</v>
+        <v>714</v>
       </c>
       <c r="T85" t="n">
         <v>7</v>
@@ -7240,20 +7240,20 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>65</v>
+        <v>175</v>
       </c>
       <c r="N86" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="O86" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P86" t="n">
-        <v>5500</v>
+        <v>7543</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>786</v>
+        <v>1078</v>
       </c>
       <c r="T86" t="n">
         <v>7</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44291</v>
+        <v>44203</v>
       </c>
       <c r="E87" t="n">
         <v>9</v>
@@ -7320,20 +7320,20 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="N87" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="O87" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="P87" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7342,11 +7342,11 @@
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S87" t="n">
-        <v>1000</v>
+        <v>786</v>
       </c>
       <c r="T87" t="n">
         <v>7</v>
@@ -7400,20 +7400,20 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N88" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O88" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P88" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>857</v>
+        <v>1000</v>
       </c>
       <c r="T88" t="n">
         <v>7</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44469</v>
+        <v>44291</v>
       </c>
       <c r="E89" t="n">
         <v>9</v>
@@ -7480,33 +7480,33 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>3000</v>
+        <v>60</v>
       </c>
       <c r="N89" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="O89" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="P89" t="n">
-        <v>15333</v>
+        <v>6000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S89" t="n">
-        <v>2190</v>
+        <v>857</v>
       </c>
       <c r="T89" t="n">
         <v>7</v>
@@ -7560,20 +7560,20 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="N90" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O90" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="P90" t="n">
-        <v>7000</v>
+        <v>15333</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>1000</v>
+        <v>2190</v>
       </c>
       <c r="T90" t="n">
         <v>7</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E91" t="n">
         <v>9</v>
@@ -7640,20 +7640,20 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N91" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O91" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P91" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7662,11 +7662,11 @@
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S91" t="n">
-        <v>1714</v>
+        <v>1000</v>
       </c>
       <c r="T91" t="n">
         <v>7</v>
@@ -7720,20 +7720,20 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="N92" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O92" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P92" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>1429</v>
+        <v>1714</v>
       </c>
       <c r="T92" t="n">
         <v>7</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44161</v>
+        <v>44168</v>
       </c>
       <c r="E93" t="n">
         <v>9</v>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="N93" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O93" t="n">
         <v>10000</v>
       </c>
       <c r="P93" t="n">
-        <v>9455</v>
+        <v>10000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7822,11 +7822,11 @@
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S93" t="n">
-        <v>1351</v>
+        <v>1429</v>
       </c>
       <c r="T93" t="n">
         <v>7</v>
@@ -7884,29 +7884,29 @@
         </is>
       </c>
       <c r="M94" t="n">
-        <v>305</v>
+        <v>550</v>
       </c>
       <c r="N94" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="O94" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P94" t="n">
-        <v>6705</v>
+        <v>9455</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S94" t="n">
-        <v>958</v>
+        <v>1351</v>
       </c>
       <c r="T94" t="n">
         <v>7</v>
@@ -7960,20 +7960,20 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>180</v>
+        <v>305</v>
       </c>
       <c r="N95" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="O95" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="P95" t="n">
-        <v>4000</v>
+        <v>6705</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>571</v>
+        <v>958</v>
       </c>
       <c r="T95" t="n">
         <v>7</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44214</v>
+        <v>44161</v>
       </c>
       <c r="E96" t="n">
         <v>9</v>
@@ -8040,20 +8040,20 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="N96" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="O96" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P96" t="n">
-        <v>7455</v>
+        <v>4000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>1065</v>
+        <v>571</v>
       </c>
       <c r="T96" t="n">
         <v>7</v>
@@ -8120,20 +8120,20 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N97" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="O97" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="P97" t="n">
-        <v>4500</v>
+        <v>7455</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="S97" t="n">
-        <v>643</v>
+        <v>1065</v>
       </c>
       <c r="T97" t="n">
         <v>7</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E98" t="n">
         <v>9</v>
@@ -8200,20 +8200,20 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N98" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="O98" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="P98" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>1000</v>
+        <v>643</v>
       </c>
       <c r="T98" t="n">
         <v>7</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44274</v>
+        <v>44280</v>
       </c>
       <c r="E99" t="n">
         <v>9</v>
@@ -8284,16 +8284,16 @@
         </is>
       </c>
       <c r="M99" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="N99" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O99" t="n">
         <v>7000</v>
       </c>
       <c r="P99" t="n">
-        <v>6579</v>
+        <v>7000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>940</v>
+        <v>1000</v>
       </c>
       <c r="T99" t="n">
         <v>7</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44165</v>
+        <v>44274</v>
       </c>
       <c r="E100" t="n">
         <v>9</v>
@@ -8360,33 +8360,33 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="N100" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="O100" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P100" t="n">
-        <v>11000</v>
+        <v>6579</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S100" t="n">
-        <v>1571</v>
+        <v>940</v>
       </c>
       <c r="T100" t="n">
         <v>7</v>
@@ -8440,20 +8440,20 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>700</v>
+        <v>50</v>
       </c>
       <c r="N101" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O101" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P101" t="n">
-        <v>9571</v>
+        <v>11000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8462,11 +8462,11 @@
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S101" t="n">
-        <v>1367</v>
+        <v>1571</v>
       </c>
       <c r="T101" t="n">
         <v>7</v>
@@ -8524,7 +8524,7 @@
         </is>
       </c>
       <c r="M102" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N102" t="n">
         <v>9000</v>
@@ -8533,7 +8533,7 @@
         <v>10000</v>
       </c>
       <c r="P102" t="n">
-        <v>9500</v>
+        <v>9571</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -8542,11 +8542,11 @@
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S102" t="n">
-        <v>1357</v>
+        <v>1367</v>
       </c>
       <c r="T102" t="n">
         <v>7</v>
@@ -8604,29 +8604,29 @@
         </is>
       </c>
       <c r="M103" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N103" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O103" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P103" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S103" t="n">
-        <v>1214</v>
+        <v>1357</v>
       </c>
       <c r="T103" t="n">
         <v>7</v>
@@ -8680,33 +8680,33 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N104" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O104" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P104" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S104" t="n">
-        <v>1000</v>
+        <v>1214</v>
       </c>
       <c r="T104" t="n">
         <v>7</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44258</v>
+        <v>44165</v>
       </c>
       <c r="E105" t="n">
         <v>9</v>
@@ -8760,11 +8760,11 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="N105" t="n">
         <v>7000</v>
@@ -8777,12 +8777,12 @@
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S105" t="n">
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E106" t="n">
         <v>9</v>
@@ -8844,29 +8844,29 @@
         </is>
       </c>
       <c r="M106" t="n">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="N106" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O106" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="P106" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S106" t="n">
-        <v>2143</v>
+        <v>1000</v>
       </c>
       <c r="T106" t="n">
         <v>7</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E107" t="n">
         <v>9</v>
@@ -8924,16 +8924,16 @@
         </is>
       </c>
       <c r="M107" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N107" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O107" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P107" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>2000</v>
+        <v>2143</v>
       </c>
       <c r="T107" t="n">
         <v>7</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E108" t="n">
         <v>9</v>
@@ -9004,29 +9004,29 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="N108" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O108" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P108" t="n">
-        <v>7568</v>
+        <v>14000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S108" t="n">
-        <v>1081</v>
+        <v>2000</v>
       </c>
       <c r="T108" t="n">
         <v>7</v>
@@ -9080,20 +9080,20 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>85</v>
+        <v>220</v>
       </c>
       <c r="N109" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O109" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P109" t="n">
-        <v>5000</v>
+        <v>7568</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>714</v>
+        <v>1081</v>
       </c>
       <c r="T109" t="n">
         <v>7</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E110" t="n">
         <v>9</v>
@@ -9160,20 +9160,20 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>205</v>
+        <v>85</v>
       </c>
       <c r="N110" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O110" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P110" t="n">
-        <v>7390</v>
+        <v>5000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -9182,11 +9182,11 @@
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S110" t="n">
-        <v>1056</v>
+        <v>714</v>
       </c>
       <c r="T110" t="n">
         <v>7</v>
@@ -9240,20 +9240,20 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M111" t="n">
-        <v>45</v>
+        <v>205</v>
       </c>
       <c r="N111" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="O111" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P111" t="n">
-        <v>5500</v>
+        <v>7390</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         </is>
       </c>
       <c r="S111" t="n">
-        <v>786</v>
+        <v>1056</v>
       </c>
       <c r="T111" t="n">
         <v>7</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44186</v>
+        <v>44204</v>
       </c>
       <c r="E112" t="n">
         <v>9</v>
@@ -9320,33 +9320,33 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M112" t="n">
-        <v>625</v>
+        <v>45</v>
       </c>
       <c r="N112" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="O112" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="P112" t="n">
-        <v>11584</v>
+        <v>5500</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S112" t="n">
-        <v>1655</v>
+        <v>786</v>
       </c>
       <c r="T112" t="n">
         <v>7</v>
@@ -9404,29 +9404,29 @@
         </is>
       </c>
       <c r="M113" t="n">
-        <v>235</v>
+        <v>625</v>
       </c>
       <c r="N113" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O113" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P113" t="n">
-        <v>10532</v>
+        <v>11584</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S113" t="n">
-        <v>1505</v>
+        <v>1655</v>
       </c>
       <c r="T113" t="n">
         <v>7</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44372</v>
+        <v>44186</v>
       </c>
       <c r="E114" t="n">
         <v>9</v>
@@ -9484,29 +9484,29 @@
         </is>
       </c>
       <c r="M114" t="n">
-        <v>35</v>
+        <v>235</v>
       </c>
       <c r="N114" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O114" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P114" t="n">
-        <v>17000</v>
+        <v>10532</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S114" t="n">
-        <v>2429</v>
+        <v>1505</v>
       </c>
       <c r="T114" t="n">
         <v>7</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44243</v>
+        <v>44372</v>
       </c>
       <c r="E115" t="n">
         <v>9</v>
@@ -9564,29 +9564,29 @@
         </is>
       </c>
       <c r="M115" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="N115" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="O115" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="P115" t="n">
-        <v>7450</v>
+        <v>17000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S115" t="n">
-        <v>1064</v>
+        <v>2429</v>
       </c>
       <c r="T115" t="n">
         <v>7</v>
@@ -9640,20 +9640,20 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M116" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N116" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O116" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P116" t="n">
-        <v>5000</v>
+        <v>7450</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>714</v>
+        <v>1064</v>
       </c>
       <c r="T116" t="n">
         <v>7</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44202</v>
+        <v>44243</v>
       </c>
       <c r="E117" t="n">
         <v>9</v>
@@ -9720,20 +9720,20 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="N117" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O117" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P117" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9742,11 +9742,11 @@
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S117" t="n">
-        <v>1000</v>
+        <v>714</v>
       </c>
       <c r="T117" t="n">
         <v>7</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44242</v>
+        <v>44202</v>
       </c>
       <c r="E118" t="n">
         <v>9</v>
@@ -9804,16 +9804,16 @@
         </is>
       </c>
       <c r="M118" t="n">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="N118" t="n">
         <v>7000</v>
       </c>
       <c r="O118" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P118" t="n">
-        <v>7448</v>
+        <v>7000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9822,11 +9822,11 @@
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S118" t="n">
-        <v>1064</v>
+        <v>1000</v>
       </c>
       <c r="T118" t="n">
         <v>7</v>
@@ -9880,20 +9880,20 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="N119" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O119" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P119" t="n">
-        <v>5000</v>
+        <v>7448</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>714</v>
+        <v>1064</v>
       </c>
       <c r="T119" t="n">
         <v>7</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44307</v>
+        <v>44242</v>
       </c>
       <c r="E120" t="n">
         <v>9</v>
@@ -9964,7 +9964,7 @@
         </is>
       </c>
       <c r="M120" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N120" t="n">
         <v>5000</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44159</v>
+        <v>44307</v>
       </c>
       <c r="E121" t="n">
         <v>9</v>
@@ -10040,33 +10040,33 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>550</v>
+        <v>30</v>
       </c>
       <c r="N121" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O121" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P121" t="n">
-        <v>9455</v>
+        <v>5000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R121" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S121" t="n">
-        <v>1351</v>
+        <v>714</v>
       </c>
       <c r="T121" t="n">
         <v>7</v>
@@ -10124,29 +10124,29 @@
         </is>
       </c>
       <c r="M122" t="n">
-        <v>375</v>
+        <v>550</v>
       </c>
       <c r="N122" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O122" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P122" t="n">
-        <v>7760</v>
+        <v>9455</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R122" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S122" t="n">
-        <v>1109</v>
+        <v>1351</v>
       </c>
       <c r="T122" t="n">
         <v>7</v>
@@ -10200,33 +10200,33 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M123" t="n">
-        <v>155</v>
+        <v>375</v>
       </c>
       <c r="N123" t="n">
         <v>7500</v>
       </c>
       <c r="O123" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="P123" t="n">
-        <v>7500</v>
+        <v>7760</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R123" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S123" t="n">
-        <v>1071</v>
+        <v>1109</v>
       </c>
       <c r="T123" t="n">
         <v>7</v>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E124" t="n">
         <v>9</v>
@@ -10280,29 +10280,29 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M124" t="n">
-        <v>400</v>
+        <v>155</v>
       </c>
       <c r="N124" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="O124" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="P124" t="n">
         <v>7500</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R124" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S124" t="n">
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44476</v>
+        <v>44166</v>
       </c>
       <c r="E125" t="n">
         <v>9</v>
@@ -10364,29 +10364,29 @@
         </is>
       </c>
       <c r="M125" t="n">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="N125" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O125" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P125" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R125" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S125" t="n">
-        <v>2143</v>
+        <v>1071</v>
       </c>
       <c r="T125" t="n">
         <v>7</v>
@@ -10440,20 +10440,20 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M126" t="n">
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="N126" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O126" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P126" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>1857</v>
+        <v>2143</v>
       </c>
       <c r="T126" t="n">
         <v>7</v>
@@ -10520,20 +10520,20 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M127" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N127" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O127" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P127" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>1143</v>
+        <v>1857</v>
       </c>
       <c r="T127" t="n">
         <v>7</v>
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44263</v>
+        <v>44476</v>
       </c>
       <c r="E128" t="n">
         <v>9</v>
@@ -10600,33 +10600,33 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M128" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N128" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O128" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P128" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R128" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S128" t="n">
-        <v>1000</v>
+        <v>1143</v>
       </c>
       <c r="T128" t="n">
         <v>7</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44369</v>
+        <v>44263</v>
       </c>
       <c r="E129" t="n">
         <v>9</v>
@@ -10684,29 +10684,29 @@
         </is>
       </c>
       <c r="M129" t="n">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="N129" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O129" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="P129" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R129" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S129" t="n">
-        <v>2143</v>
+        <v>1000</v>
       </c>
       <c r="T129" t="n">
         <v>7</v>
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E130" t="n">
         <v>9</v>
@@ -10764,29 +10764,29 @@
         </is>
       </c>
       <c r="M130" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="N130" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="O130" t="n">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="P130" t="n">
-        <v>6194</v>
+        <v>15000</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R130" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S130" t="n">
-        <v>885</v>
+        <v>2143</v>
       </c>
       <c r="T130" t="n">
         <v>7</v>
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44223</v>
+        <v>44301</v>
       </c>
       <c r="E131" t="n">
         <v>9</v>
@@ -10844,16 +10844,16 @@
         </is>
       </c>
       <c r="M131" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="N131" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O131" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="P131" t="n">
-        <v>7385</v>
+        <v>6194</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
@@ -10862,11 +10862,11 @@
       </c>
       <c r="R131" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S131" t="n">
-        <v>1055</v>
+        <v>885</v>
       </c>
       <c r="T131" t="n">
         <v>7</v>
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44397</v>
+        <v>44223</v>
       </c>
       <c r="E132" t="n">
         <v>9</v>
@@ -10924,29 +10924,29 @@
         </is>
       </c>
       <c r="M132" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="N132" t="n">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="O132" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="P132" t="n">
-        <v>22000</v>
+        <v>7385</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R132" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S132" t="n">
-        <v>3143</v>
+        <v>1055</v>
       </c>
       <c r="T132" t="n">
         <v>7</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E133" t="n">
         <v>9</v>
@@ -11004,29 +11004,29 @@
         </is>
       </c>
       <c r="M133" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N133" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="O133" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="P133" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R133" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S133" t="n">
-        <v>1143</v>
+        <v>3143</v>
       </c>
       <c r="T133" t="n">
         <v>7</v>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44466</v>
+        <v>44333</v>
       </c>
       <c r="E134" t="n">
         <v>9</v>
@@ -11084,29 +11084,29 @@
         </is>
       </c>
       <c r="M134" t="n">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="N134" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="O134" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P134" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R134" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S134" t="n">
-        <v>2286</v>
+        <v>1143</v>
       </c>
       <c r="T134" t="n">
         <v>7</v>
@@ -11160,20 +11160,20 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M135" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="N135" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O135" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P135" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         </is>
       </c>
       <c r="S135" t="n">
-        <v>1857</v>
+        <v>2286</v>
       </c>
       <c r="T135" t="n">
         <v>7</v>
@@ -11240,20 +11240,20 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M136" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N136" t="n">
-        <v>800</v>
+        <v>13000</v>
       </c>
       <c r="O136" t="n">
-        <v>800</v>
+        <v>13000</v>
       </c>
       <c r="P136" t="n">
-        <v>800</v>
+        <v>13000</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>114</v>
+        <v>1857</v>
       </c>
       <c r="T136" t="n">
         <v>7</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E137" t="n">
         <v>9</v>
@@ -11320,33 +11320,33 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M137" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="N137" t="n">
-        <v>7000</v>
+        <v>800</v>
       </c>
       <c r="O137" t="n">
-        <v>7000</v>
+        <v>800</v>
       </c>
       <c r="P137" t="n">
-        <v>7000</v>
+        <v>800</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R137" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S137" t="n">
-        <v>1000</v>
+        <v>114</v>
       </c>
       <c r="T137" t="n">
         <v>7</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44201</v>
+        <v>44270</v>
       </c>
       <c r="E138" t="n">
         <v>9</v>
@@ -11422,7 +11422,7 @@
       </c>
       <c r="R138" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S138" t="n">
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E139" t="n">
         <v>9</v>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="M139" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="N139" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O139" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P139" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -11502,11 +11502,11 @@
       </c>
       <c r="R139" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S139" t="n">
-        <v>1429</v>
+        <v>1000</v>
       </c>
       <c r="T139" t="n">
         <v>7</v>
@@ -11560,20 +11560,20 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M140" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="N140" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O140" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P140" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>1286</v>
+        <v>1429</v>
       </c>
       <c r="T140" t="n">
         <v>7</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E141" t="n">
         <v>9</v>
@@ -11640,20 +11640,20 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M141" t="n">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="N141" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="O141" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P141" t="n">
-        <v>6786</v>
+        <v>9000</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
@@ -11662,11 +11662,11 @@
       </c>
       <c r="R141" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S141" t="n">
-        <v>969</v>
+        <v>1286</v>
       </c>
       <c r="T141" t="n">
         <v>7</v>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E142" t="n">
         <v>9</v>
@@ -11724,31 +11724,111 @@
         </is>
       </c>
       <c r="M142" t="n">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="N142" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="O142" t="n">
         <v>7000</v>
       </c>
       <c r="P142" t="n">
+        <v>6786</v>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>$/caja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R142" t="inlineStr">
+        <is>
+          <t>Provincia de Cautín</t>
+        </is>
+      </c>
+      <c r="S142" t="n">
+        <v>969</v>
+      </c>
+      <c r="T142" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>10</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D143" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E143" t="n">
+        <v>9</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>65</v>
+      </c>
+      <c r="N143" t="n">
         <v>7000</v>
       </c>
-      <c r="Q142" t="inlineStr">
+      <c r="O143" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P143" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q143" t="inlineStr">
         <is>
           <t>$/caja 7 kilos</t>
         </is>
       </c>
-      <c r="R142" t="inlineStr">
+      <c r="R143" t="inlineStr">
         <is>
           <t>Provincia de Cautín</t>
         </is>
       </c>
-      <c r="S142" t="n">
+      <c r="S143" t="n">
         <v>1000</v>
       </c>
-      <c r="T142" t="n">
+      <c r="T143" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T143"/>
+  <dimension ref="A1:T145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44294</v>
+        <v>44484</v>
       </c>
       <c r="E75" t="n">
         <v>9</v>
@@ -6364,29 +6364,29 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="N75" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O75" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P75" t="n">
-        <v>7000</v>
+        <v>11432</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S75" t="n">
-        <v>1000</v>
+        <v>1633</v>
       </c>
       <c r="T75" t="n">
         <v>7</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44232</v>
+        <v>44484</v>
       </c>
       <c r="E76" t="n">
         <v>9</v>
@@ -6440,33 +6440,33 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="N76" t="n">
         <v>7000</v>
       </c>
       <c r="O76" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P76" t="n">
-        <v>7550</v>
+        <v>7000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S76" t="n">
-        <v>1079</v>
+        <v>1000</v>
       </c>
       <c r="T76" t="n">
         <v>7</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44454</v>
+        <v>44294</v>
       </c>
       <c r="E77" t="n">
         <v>9</v>
@@ -6520,33 +6520,33 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N77" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="O77" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="P77" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S77" t="n">
-        <v>2571</v>
+        <v>1000</v>
       </c>
       <c r="T77" t="n">
         <v>7</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44473</v>
+        <v>44232</v>
       </c>
       <c r="E78" t="n">
         <v>9</v>
@@ -6604,29 +6604,29 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>1300</v>
+        <v>100</v>
       </c>
       <c r="N78" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O78" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P78" t="n">
-        <v>15538</v>
+        <v>7550</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S78" t="n">
-        <v>2220</v>
+        <v>1079</v>
       </c>
       <c r="T78" t="n">
         <v>7</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44473</v>
+        <v>44454</v>
       </c>
       <c r="E79" t="n">
         <v>9</v>
@@ -6680,20 +6680,20 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N79" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="O79" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="P79" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>1143</v>
+        <v>2571</v>
       </c>
       <c r="T79" t="n">
         <v>7</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44273</v>
+        <v>44473</v>
       </c>
       <c r="E80" t="n">
         <v>9</v>
@@ -6764,29 +6764,29 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>80</v>
+        <v>1300</v>
       </c>
       <c r="N80" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="O80" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="P80" t="n">
-        <v>6562</v>
+        <v>15538</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S80" t="n">
-        <v>937</v>
+        <v>2220</v>
       </c>
       <c r="T80" t="n">
         <v>7</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44236</v>
+        <v>44473</v>
       </c>
       <c r="E81" t="n">
         <v>9</v>
@@ -6840,33 +6840,33 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N81" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O81" t="n">
         <v>8000</v>
       </c>
       <c r="P81" t="n">
-        <v>7542</v>
+        <v>8000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S81" t="n">
-        <v>1077</v>
+        <v>1143</v>
       </c>
       <c r="T81" t="n">
         <v>7</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44236</v>
+        <v>44273</v>
       </c>
       <c r="E82" t="n">
         <v>9</v>
@@ -6920,20 +6920,20 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="N82" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O82" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P82" t="n">
-        <v>5000</v>
+        <v>6562</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6942,11 +6942,11 @@
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S82" t="n">
-        <v>714</v>
+        <v>937</v>
       </c>
       <c r="T82" t="n">
         <v>7</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44215</v>
+        <v>44236</v>
       </c>
       <c r="E83" t="n">
         <v>9</v>
@@ -7022,7 +7022,7 @@
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S83" t="n">
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44235</v>
+        <v>44236</v>
       </c>
       <c r="E84" t="n">
         <v>9</v>
@@ -7080,20 +7080,20 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="N84" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O84" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P84" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>1143</v>
+        <v>714</v>
       </c>
       <c r="T84" t="n">
         <v>7</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44235</v>
+        <v>44215</v>
       </c>
       <c r="E85" t="n">
         <v>9</v>
@@ -7160,20 +7160,20 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="N85" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O85" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P85" t="n">
-        <v>5000</v>
+        <v>7542</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7182,11 +7182,11 @@
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S85" t="n">
-        <v>714</v>
+        <v>1077</v>
       </c>
       <c r="T85" t="n">
         <v>7</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44203</v>
+        <v>44235</v>
       </c>
       <c r="E86" t="n">
         <v>9</v>
@@ -7244,16 +7244,16 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="N86" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O86" t="n">
         <v>8000</v>
       </c>
       <c r="P86" t="n">
-        <v>7543</v>
+        <v>8000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>1078</v>
+        <v>1143</v>
       </c>
       <c r="T86" t="n">
         <v>7</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44203</v>
+        <v>44235</v>
       </c>
       <c r="E87" t="n">
         <v>9</v>
@@ -7327,13 +7327,13 @@
         <v>65</v>
       </c>
       <c r="N87" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="O87" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="P87" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>786</v>
+        <v>714</v>
       </c>
       <c r="T87" t="n">
         <v>7</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44291</v>
+        <v>44203</v>
       </c>
       <c r="E88" t="n">
         <v>9</v>
@@ -7404,16 +7404,16 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="N88" t="n">
         <v>7000</v>
       </c>
       <c r="O88" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P88" t="n">
-        <v>7000</v>
+        <v>7543</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7422,11 +7422,11 @@
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S88" t="n">
-        <v>1000</v>
+        <v>1078</v>
       </c>
       <c r="T88" t="n">
         <v>7</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44291</v>
+        <v>44203</v>
       </c>
       <c r="E89" t="n">
         <v>9</v>
@@ -7484,16 +7484,16 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N89" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="O89" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="P89" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7502,11 +7502,11 @@
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S89" t="n">
-        <v>857</v>
+        <v>786</v>
       </c>
       <c r="T89" t="n">
         <v>7</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44469</v>
+        <v>44291</v>
       </c>
       <c r="E90" t="n">
         <v>9</v>
@@ -7564,29 +7564,29 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>3000</v>
+        <v>200</v>
       </c>
       <c r="N90" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O90" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="P90" t="n">
-        <v>15333</v>
+        <v>7000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S90" t="n">
-        <v>2190</v>
+        <v>1000</v>
       </c>
       <c r="T90" t="n">
         <v>7</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44469</v>
+        <v>44291</v>
       </c>
       <c r="E91" t="n">
         <v>9</v>
@@ -7640,33 +7640,33 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N91" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O91" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P91" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S91" t="n">
-        <v>1000</v>
+        <v>857</v>
       </c>
       <c r="T91" t="n">
         <v>7</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E92" t="n">
         <v>9</v>
@@ -7720,20 +7720,20 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>200</v>
+        <v>3000</v>
       </c>
       <c r="N92" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O92" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P92" t="n">
-        <v>12000</v>
+        <v>15333</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7742,11 +7742,11 @@
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S92" t="n">
-        <v>1714</v>
+        <v>2190</v>
       </c>
       <c r="T92" t="n">
         <v>7</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E93" t="n">
         <v>9</v>
@@ -7800,20 +7800,20 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="N93" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O93" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P93" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7822,11 +7822,11 @@
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S93" t="n">
-        <v>1429</v>
+        <v>1000</v>
       </c>
       <c r="T93" t="n">
         <v>7</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44161</v>
+        <v>44168</v>
       </c>
       <c r="E94" t="n">
         <v>9</v>
@@ -7880,20 +7880,20 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="N94" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O94" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P94" t="n">
-        <v>9455</v>
+        <v>12000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7902,11 +7902,11 @@
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S94" t="n">
-        <v>1351</v>
+        <v>1714</v>
       </c>
       <c r="T94" t="n">
         <v>7</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44161</v>
+        <v>44168</v>
       </c>
       <c r="E95" t="n">
         <v>9</v>
@@ -7964,29 +7964,29 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>305</v>
+        <v>600</v>
       </c>
       <c r="N95" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="O95" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P95" t="n">
-        <v>6705</v>
+        <v>10000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S95" t="n">
-        <v>958</v>
+        <v>1429</v>
       </c>
       <c r="T95" t="n">
         <v>7</v>
@@ -8040,33 +8040,33 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>180</v>
+        <v>550</v>
       </c>
       <c r="N96" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O96" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="P96" t="n">
-        <v>4000</v>
+        <v>9455</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S96" t="n">
-        <v>571</v>
+        <v>1351</v>
       </c>
       <c r="T96" t="n">
         <v>7</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44214</v>
+        <v>44161</v>
       </c>
       <c r="E97" t="n">
         <v>9</v>
@@ -8124,16 +8124,16 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>55</v>
+        <v>305</v>
       </c>
       <c r="N97" t="n">
+        <v>6500</v>
+      </c>
+      <c r="O97" t="n">
         <v>7000</v>
       </c>
-      <c r="O97" t="n">
-        <v>8000</v>
-      </c>
       <c r="P97" t="n">
-        <v>7455</v>
+        <v>6705</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="S97" t="n">
-        <v>1065</v>
+        <v>958</v>
       </c>
       <c r="T97" t="n">
         <v>7</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44214</v>
+        <v>44161</v>
       </c>
       <c r="E98" t="n">
         <v>9</v>
@@ -8204,16 +8204,16 @@
         </is>
       </c>
       <c r="M98" t="n">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="N98" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="O98" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="P98" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>643</v>
+        <v>571</v>
       </c>
       <c r="T98" t="n">
         <v>7</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E99" t="n">
         <v>9</v>
@@ -8284,16 +8284,16 @@
         </is>
       </c>
       <c r="M99" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="N99" t="n">
         <v>7000</v>
       </c>
       <c r="O99" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P99" t="n">
-        <v>7000</v>
+        <v>7455</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>1000</v>
+        <v>1065</v>
       </c>
       <c r="T99" t="n">
         <v>7</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44274</v>
+        <v>44214</v>
       </c>
       <c r="E100" t="n">
         <v>9</v>
@@ -8360,20 +8360,20 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="N100" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="O100" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="P100" t="n">
-        <v>6579</v>
+        <v>4500</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>940</v>
+        <v>643</v>
       </c>
       <c r="T100" t="n">
         <v>7</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44165</v>
+        <v>44280</v>
       </c>
       <c r="E101" t="n">
         <v>9</v>
@@ -8440,33 +8440,33 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N101" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O101" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P101" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S101" t="n">
-        <v>1571</v>
+        <v>1000</v>
       </c>
       <c r="T101" t="n">
         <v>7</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44165</v>
+        <v>44274</v>
       </c>
       <c r="E102" t="n">
         <v>9</v>
@@ -8524,29 +8524,29 @@
         </is>
       </c>
       <c r="M102" t="n">
-        <v>700</v>
+        <v>95</v>
       </c>
       <c r="N102" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O102" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P102" t="n">
-        <v>9571</v>
+        <v>6579</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S102" t="n">
-        <v>1367</v>
+        <v>940</v>
       </c>
       <c r="T102" t="n">
         <v>7</v>
@@ -8600,20 +8600,20 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="N103" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O103" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P103" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>1357</v>
+        <v>1571</v>
       </c>
       <c r="T103" t="n">
         <v>7</v>
@@ -8684,29 +8684,29 @@
         </is>
       </c>
       <c r="M104" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N104" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O104" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P104" t="n">
-        <v>8500</v>
+        <v>9571</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S104" t="n">
-        <v>1214</v>
+        <v>1367</v>
       </c>
       <c r="T104" t="n">
         <v>7</v>
@@ -8760,20 +8760,20 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="N105" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O105" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P105" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -8782,11 +8782,11 @@
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S105" t="n">
-        <v>1000</v>
+        <v>1357</v>
       </c>
       <c r="T105" t="n">
         <v>7</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44258</v>
+        <v>44165</v>
       </c>
       <c r="E106" t="n">
         <v>9</v>
@@ -8844,16 +8844,16 @@
         </is>
       </c>
       <c r="M106" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="N106" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O106" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P106" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>1000</v>
+        <v>1214</v>
       </c>
       <c r="T106" t="n">
         <v>7</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44475</v>
+        <v>44165</v>
       </c>
       <c r="E107" t="n">
         <v>9</v>
@@ -8920,20 +8920,20 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N107" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O107" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="P107" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>2143</v>
+        <v>1000</v>
       </c>
       <c r="T107" t="n">
         <v>7</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44474</v>
+        <v>44258</v>
       </c>
       <c r="E108" t="n">
         <v>9</v>
@@ -9004,29 +9004,29 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>300</v>
+        <v>65</v>
       </c>
       <c r="N108" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O108" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="P108" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S108" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="T108" t="n">
         <v>7</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44252</v>
+        <v>44475</v>
       </c>
       <c r="E109" t="n">
         <v>9</v>
@@ -9084,29 +9084,29 @@
         </is>
       </c>
       <c r="M109" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N109" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O109" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P109" t="n">
-        <v>7568</v>
+        <v>15000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S109" t="n">
-        <v>1081</v>
+        <v>2143</v>
       </c>
       <c r="T109" t="n">
         <v>7</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E110" t="n">
         <v>9</v>
@@ -9160,33 +9160,33 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="N110" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="O110" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="P110" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S110" t="n">
-        <v>714</v>
+        <v>2000</v>
       </c>
       <c r="T110" t="n">
         <v>7</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E111" t="n">
         <v>9</v>
@@ -9244,7 +9244,7 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="N111" t="n">
         <v>7000</v>
@@ -9253,7 +9253,7 @@
         <v>8000</v>
       </c>
       <c r="P111" t="n">
-        <v>7390</v>
+        <v>7568</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -9262,11 +9262,11 @@
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S111" t="n">
-        <v>1056</v>
+        <v>1081</v>
       </c>
       <c r="T111" t="n">
         <v>7</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E112" t="n">
         <v>9</v>
@@ -9324,16 +9324,16 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="N112" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="O112" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="P112" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9342,11 +9342,11 @@
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S112" t="n">
-        <v>786</v>
+        <v>714</v>
       </c>
       <c r="T112" t="n">
         <v>7</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44186</v>
+        <v>44204</v>
       </c>
       <c r="E113" t="n">
         <v>9</v>
@@ -9404,29 +9404,29 @@
         </is>
       </c>
       <c r="M113" t="n">
-        <v>625</v>
+        <v>205</v>
       </c>
       <c r="N113" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O113" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P113" t="n">
-        <v>11584</v>
+        <v>7390</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S113" t="n">
-        <v>1655</v>
+        <v>1056</v>
       </c>
       <c r="T113" t="n">
         <v>7</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44186</v>
+        <v>44204</v>
       </c>
       <c r="E114" t="n">
         <v>9</v>
@@ -9480,20 +9480,20 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M114" t="n">
-        <v>235</v>
+        <v>45</v>
       </c>
       <c r="N114" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="O114" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="P114" t="n">
-        <v>10532</v>
+        <v>5500</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>1505</v>
+        <v>786</v>
       </c>
       <c r="T114" t="n">
         <v>7</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44372</v>
+        <v>44186</v>
       </c>
       <c r="E115" t="n">
         <v>9</v>
@@ -9564,16 +9564,16 @@
         </is>
       </c>
       <c r="M115" t="n">
-        <v>35</v>
+        <v>625</v>
       </c>
       <c r="N115" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="O115" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P115" t="n">
-        <v>17000</v>
+        <v>11584</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -9582,11 +9582,11 @@
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S115" t="n">
-        <v>2429</v>
+        <v>1655</v>
       </c>
       <c r="T115" t="n">
         <v>7</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44243</v>
+        <v>44186</v>
       </c>
       <c r="E116" t="n">
         <v>9</v>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>100</v>
+        <v>235</v>
       </c>
       <c r="N116" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O116" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P116" t="n">
-        <v>7450</v>
+        <v>10532</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -9662,11 +9662,11 @@
       </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S116" t="n">
-        <v>1064</v>
+        <v>1505</v>
       </c>
       <c r="T116" t="n">
         <v>7</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44243</v>
+        <v>44372</v>
       </c>
       <c r="E117" t="n">
         <v>9</v>
@@ -9720,33 +9720,33 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N117" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="O117" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="P117" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S117" t="n">
-        <v>714</v>
+        <v>2429</v>
       </c>
       <c r="T117" t="n">
         <v>7</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44202</v>
+        <v>44243</v>
       </c>
       <c r="E118" t="n">
         <v>9</v>
@@ -9804,16 +9804,16 @@
         </is>
       </c>
       <c r="M118" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="N118" t="n">
         <v>7000</v>
       </c>
       <c r="O118" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P118" t="n">
-        <v>7000</v>
+        <v>7450</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9822,11 +9822,11 @@
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S118" t="n">
-        <v>1000</v>
+        <v>1064</v>
       </c>
       <c r="T118" t="n">
         <v>7</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44242</v>
+        <v>44243</v>
       </c>
       <c r="E119" t="n">
         <v>9</v>
@@ -9880,20 +9880,20 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="N119" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O119" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P119" t="n">
-        <v>7448</v>
+        <v>5000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>1064</v>
+        <v>714</v>
       </c>
       <c r="T119" t="n">
         <v>7</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44242</v>
+        <v>44202</v>
       </c>
       <c r="E120" t="n">
         <v>9</v>
@@ -9960,20 +9960,20 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="N120" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O120" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P120" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9982,11 +9982,11 @@
       </c>
       <c r="R120" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S120" t="n">
-        <v>714</v>
+        <v>1000</v>
       </c>
       <c r="T120" t="n">
         <v>7</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44307</v>
+        <v>44242</v>
       </c>
       <c r="E121" t="n">
         <v>9</v>
@@ -10040,20 +10040,20 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="N121" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O121" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P121" t="n">
-        <v>5000</v>
+        <v>7448</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>714</v>
+        <v>1064</v>
       </c>
       <c r="T121" t="n">
         <v>7</v>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44159</v>
+        <v>44242</v>
       </c>
       <c r="E122" t="n">
         <v>9</v>
@@ -10120,33 +10120,33 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M122" t="n">
-        <v>550</v>
+        <v>45</v>
       </c>
       <c r="N122" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O122" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P122" t="n">
-        <v>9455</v>
+        <v>5000</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R122" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S122" t="n">
-        <v>1351</v>
+        <v>714</v>
       </c>
       <c r="T122" t="n">
         <v>7</v>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44159</v>
+        <v>44307</v>
       </c>
       <c r="E123" t="n">
         <v>9</v>
@@ -10200,20 +10200,20 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M123" t="n">
-        <v>375</v>
+        <v>30</v>
       </c>
       <c r="N123" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="O123" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P123" t="n">
-        <v>7760</v>
+        <v>5000</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>1109</v>
+        <v>714</v>
       </c>
       <c r="T123" t="n">
         <v>7</v>
@@ -10280,20 +10280,20 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M124" t="n">
-        <v>155</v>
+        <v>550</v>
       </c>
       <c r="N124" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O124" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="P124" t="n">
-        <v>7500</v>
+        <v>9455</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="S124" t="n">
-        <v>1071</v>
+        <v>1351</v>
       </c>
       <c r="T124" t="n">
         <v>7</v>
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E125" t="n">
         <v>9</v>
@@ -10364,16 +10364,16 @@
         </is>
       </c>
       <c r="M125" t="n">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="N125" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="O125" t="n">
         <v>8000</v>
       </c>
       <c r="P125" t="n">
-        <v>7500</v>
+        <v>7760</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>1071</v>
+        <v>1109</v>
       </c>
       <c r="T125" t="n">
         <v>7</v>
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44476</v>
+        <v>44159</v>
       </c>
       <c r="E126" t="n">
         <v>9</v>
@@ -10440,20 +10440,20 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M126" t="n">
-        <v>4000</v>
+        <v>155</v>
       </c>
       <c r="N126" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="O126" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="P126" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>2143</v>
+        <v>1071</v>
       </c>
       <c r="T126" t="n">
         <v>7</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44476</v>
+        <v>44166</v>
       </c>
       <c r="E127" t="n">
         <v>9</v>
@@ -10520,33 +10520,33 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M127" t="n">
         <v>400</v>
       </c>
       <c r="N127" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O127" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P127" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R127" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S127" t="n">
-        <v>1857</v>
+        <v>1071</v>
       </c>
       <c r="T127" t="n">
         <v>7</v>
@@ -10600,20 +10600,20 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M128" t="n">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="N128" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O128" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P128" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>1143</v>
+        <v>2143</v>
       </c>
       <c r="T128" t="n">
         <v>7</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44263</v>
+        <v>44476</v>
       </c>
       <c r="E129" t="n">
         <v>9</v>
@@ -10680,33 +10680,33 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M129" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N129" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O129" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P129" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R129" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S129" t="n">
-        <v>1000</v>
+        <v>1857</v>
       </c>
       <c r="T129" t="n">
         <v>7</v>
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44369</v>
+        <v>44476</v>
       </c>
       <c r="E130" t="n">
         <v>9</v>
@@ -10760,20 +10760,20 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M130" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N130" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O130" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P130" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         </is>
       </c>
       <c r="S130" t="n">
-        <v>2143</v>
+        <v>1143</v>
       </c>
       <c r="T130" t="n">
         <v>7</v>
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44301</v>
+        <v>44263</v>
       </c>
       <c r="E131" t="n">
         <v>9</v>
@@ -10844,16 +10844,16 @@
         </is>
       </c>
       <c r="M131" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="N131" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O131" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="P131" t="n">
-        <v>6194</v>
+        <v>7000</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
@@ -10862,11 +10862,11 @@
       </c>
       <c r="R131" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S131" t="n">
-        <v>885</v>
+        <v>1000</v>
       </c>
       <c r="T131" t="n">
         <v>7</v>
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44223</v>
+        <v>44369</v>
       </c>
       <c r="E132" t="n">
         <v>9</v>
@@ -10924,29 +10924,29 @@
         </is>
       </c>
       <c r="M132" t="n">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="N132" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O132" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P132" t="n">
-        <v>7385</v>
+        <v>15000</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R132" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S132" t="n">
-        <v>1055</v>
+        <v>2143</v>
       </c>
       <c r="T132" t="n">
         <v>7</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44397</v>
+        <v>44301</v>
       </c>
       <c r="E133" t="n">
         <v>9</v>
@@ -11004,29 +11004,29 @@
         </is>
       </c>
       <c r="M133" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="N133" t="n">
-        <v>22000</v>
+        <v>6000</v>
       </c>
       <c r="O133" t="n">
-        <v>22000</v>
+        <v>6500</v>
       </c>
       <c r="P133" t="n">
-        <v>22000</v>
+        <v>6194</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R133" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S133" t="n">
-        <v>3143</v>
+        <v>885</v>
       </c>
       <c r="T133" t="n">
         <v>7</v>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44333</v>
+        <v>44223</v>
       </c>
       <c r="E134" t="n">
         <v>9</v>
@@ -11084,16 +11084,16 @@
         </is>
       </c>
       <c r="M134" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="N134" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O134" t="n">
         <v>8000</v>
       </c>
       <c r="P134" t="n">
-        <v>8000</v>
+        <v>7385</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>1143</v>
+        <v>1055</v>
       </c>
       <c r="T134" t="n">
         <v>7</v>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44466</v>
+        <v>44397</v>
       </c>
       <c r="E135" t="n">
         <v>9</v>
@@ -11164,16 +11164,16 @@
         </is>
       </c>
       <c r="M135" t="n">
-        <v>800</v>
+        <v>55</v>
       </c>
       <c r="N135" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O135" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P135" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         </is>
       </c>
       <c r="S135" t="n">
-        <v>2286</v>
+        <v>3143</v>
       </c>
       <c r="T135" t="n">
         <v>7</v>
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44466</v>
+        <v>44333</v>
       </c>
       <c r="E136" t="n">
         <v>9</v>
@@ -11240,33 +11240,33 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M136" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N136" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O136" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P136" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R136" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S136" t="n">
-        <v>1857</v>
+        <v>1143</v>
       </c>
       <c r="T136" t="n">
         <v>7</v>
@@ -11320,20 +11320,20 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M137" t="n">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="N137" t="n">
-        <v>800</v>
+        <v>16000</v>
       </c>
       <c r="O137" t="n">
-        <v>800</v>
+        <v>16000</v>
       </c>
       <c r="P137" t="n">
-        <v>800</v>
+        <v>16000</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="S137" t="n">
-        <v>114</v>
+        <v>2286</v>
       </c>
       <c r="T137" t="n">
         <v>7</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E138" t="n">
         <v>9</v>
@@ -11400,33 +11400,33 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M138" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="N138" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O138" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P138" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R138" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S138" t="n">
-        <v>1000</v>
+        <v>1857</v>
       </c>
       <c r="T138" t="n">
         <v>7</v>
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44201</v>
+        <v>44466</v>
       </c>
       <c r="E139" t="n">
         <v>9</v>
@@ -11480,33 +11480,33 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M139" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="N139" t="n">
-        <v>7000</v>
+        <v>800</v>
       </c>
       <c r="O139" t="n">
-        <v>7000</v>
+        <v>800</v>
       </c>
       <c r="P139" t="n">
-        <v>7000</v>
+        <v>800</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R139" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S139" t="n">
-        <v>1000</v>
+        <v>114</v>
       </c>
       <c r="T139" t="n">
         <v>7</v>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44193</v>
+        <v>44270</v>
       </c>
       <c r="E140" t="n">
         <v>9</v>
@@ -11564,16 +11564,16 @@
         </is>
       </c>
       <c r="M140" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="N140" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O140" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P140" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>1429</v>
+        <v>1000</v>
       </c>
       <c r="T140" t="n">
         <v>7</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E141" t="n">
         <v>9</v>
@@ -11640,20 +11640,20 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M141" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="N141" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O141" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P141" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
@@ -11662,11 +11662,11 @@
       </c>
       <c r="R141" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S141" t="n">
-        <v>1286</v>
+        <v>1000</v>
       </c>
       <c r="T141" t="n">
         <v>7</v>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E142" t="n">
         <v>9</v>
@@ -11724,16 +11724,16 @@
         </is>
       </c>
       <c r="M142" t="n">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="N142" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="O142" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P142" t="n">
-        <v>6786</v>
+        <v>10000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
@@ -11742,11 +11742,11 @@
       </c>
       <c r="R142" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S142" t="n">
-        <v>969</v>
+        <v>1429</v>
       </c>
       <c r="T142" t="n">
         <v>7</v>
@@ -11767,68 +11767,228 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
+        <v>44193</v>
+      </c>
+      <c r="E143" t="n">
+        <v>9</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>90</v>
+      </c>
+      <c r="N143" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O143" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P143" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>$/caja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R143" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="S143" t="n">
+        <v>1286</v>
+      </c>
+      <c r="T143" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>10</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D144" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E144" t="n">
+        <v>9</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>35</v>
+      </c>
+      <c r="N144" t="n">
+        <v>6500</v>
+      </c>
+      <c r="O144" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P144" t="n">
+        <v>6786</v>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>$/caja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R144" t="inlineStr">
+        <is>
+          <t>Provincia de Cautín</t>
+        </is>
+      </c>
+      <c r="S144" t="n">
+        <v>969</v>
+      </c>
+      <c r="T144" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>10</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D145" s="2" t="n">
         <v>44312</v>
       </c>
-      <c r="E143" t="n">
-        <v>9</v>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G143" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I143" t="n">
-        <v>100112025</v>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>Frutilla</t>
-        </is>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L143" t="inlineStr">
+      <c r="E145" t="n">
+        <v>9</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M143" t="n">
+      <c r="M145" t="n">
         <v>65</v>
       </c>
-      <c r="N143" t="n">
+      <c r="N145" t="n">
         <v>7000</v>
       </c>
-      <c r="O143" t="n">
+      <c r="O145" t="n">
         <v>7000</v>
       </c>
-      <c r="P143" t="n">
+      <c r="P145" t="n">
         <v>7000</v>
       </c>
-      <c r="Q143" t="inlineStr">
+      <c r="Q145" t="inlineStr">
         <is>
           <t>$/caja 7 kilos</t>
         </is>
       </c>
-      <c r="R143" t="inlineStr">
+      <c r="R145" t="inlineStr">
         <is>
           <t>Provincia de Cautín</t>
         </is>
       </c>
-      <c r="S143" t="n">
+      <c r="S145" t="n">
         <v>1000</v>
       </c>
-      <c r="T143" t="n">
+      <c r="T145" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T145"/>
+  <dimension ref="A1:T147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44217</v>
+        <v>44487</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2924,29 +2924,29 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>235</v>
+        <v>2700</v>
       </c>
       <c r="N32" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O32" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P32" t="n">
-        <v>7532</v>
+        <v>11556</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1076</v>
+        <v>1651</v>
       </c>
       <c r="T32" t="n">
         <v>7</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44217</v>
+        <v>44487</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3000,33 +3000,33 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="N33" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="O33" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="P33" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>786</v>
+        <v>857</v>
       </c>
       <c r="T33" t="n">
         <v>7</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44238</v>
+        <v>44217</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3102,7 +3102,7 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S34" t="n">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44238</v>
+        <v>44217</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3167,13 +3167,13 @@
         <v>85</v>
       </c>
       <c r="N35" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="O35" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="P35" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3182,11 +3182,11 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>714</v>
+        <v>786</v>
       </c>
       <c r="T35" t="n">
         <v>7</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44260</v>
+        <v>44238</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>45</v>
+        <v>235</v>
       </c>
       <c r="N36" t="n">
         <v>7000</v>
       </c>
       <c r="O36" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P36" t="n">
-        <v>7000</v>
+        <v>7532</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3262,11 +3262,11 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1000</v>
+        <v>1076</v>
       </c>
       <c r="T36" t="n">
         <v>7</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44211</v>
+        <v>44238</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>270</v>
+        <v>85</v>
       </c>
       <c r="N37" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O37" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P37" t="n">
-        <v>7556</v>
+        <v>5000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3342,11 +3342,11 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1079</v>
+        <v>714</v>
       </c>
       <c r="T37" t="n">
         <v>7</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44272</v>
+        <v>44260</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3404,7 +3404,7 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N38" t="n">
         <v>7000</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44218</v>
+        <v>44211</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3484,7 +3484,7 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>155</v>
+        <v>270</v>
       </c>
       <c r="N39" t="n">
         <v>7000</v>
@@ -3493,7 +3493,7 @@
         <v>8000</v>
       </c>
       <c r="P39" t="n">
-        <v>7516</v>
+        <v>7556</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1074</v>
+        <v>1079</v>
       </c>
       <c r="T39" t="n">
         <v>7</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44218</v>
+        <v>44272</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
         <v>65</v>
       </c>
       <c r="N40" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="O40" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="P40" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>786</v>
+        <v>1000</v>
       </c>
       <c r="T40" t="n">
         <v>7</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44210</v>
+        <v>44218</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>500</v>
+        <v>155</v>
       </c>
       <c r="N41" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O41" t="n">
         <v>8000</v>
       </c>
       <c r="P41" t="n">
-        <v>8000</v>
+        <v>7516</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1143</v>
+        <v>1074</v>
       </c>
       <c r="T41" t="n">
         <v>7</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44257</v>
+        <v>44218</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="N42" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="O42" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="P42" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1000</v>
+        <v>786</v>
       </c>
       <c r="T42" t="n">
         <v>7</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44200</v>
+        <v>44210</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3804,16 +3804,16 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="N43" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O43" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P43" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3822,11 +3822,11 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1000</v>
+        <v>1143</v>
       </c>
       <c r="T43" t="n">
         <v>7</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44200</v>
+        <v>44257</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="N44" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="O44" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="P44" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3902,11 +3902,11 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>786</v>
+        <v>1000</v>
       </c>
       <c r="T44" t="n">
         <v>7</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44246</v>
+        <v>44200</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3964,16 +3964,16 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="N45" t="n">
         <v>7000</v>
       </c>
       <c r="O45" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P45" t="n">
-        <v>7417</v>
+        <v>7000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3982,11 +3982,11 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1060</v>
+        <v>1000</v>
       </c>
       <c r="T45" t="n">
         <v>7</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44246</v>
+        <v>44200</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -4044,16 +4044,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="N46" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="O46" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="P46" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4062,11 +4062,11 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>714</v>
+        <v>786</v>
       </c>
       <c r="T46" t="n">
         <v>7</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44295</v>
+        <v>44246</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N47" t="n">
         <v>7000</v>
       </c>
       <c r="O47" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P47" t="n">
-        <v>7000</v>
+        <v>7417</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1000</v>
+        <v>1060</v>
       </c>
       <c r="T47" t="n">
         <v>7</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44225</v>
+        <v>44246</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -4200,20 +4200,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N48" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O48" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P48" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1071</v>
+        <v>714</v>
       </c>
       <c r="T48" t="n">
         <v>7</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44399</v>
+        <v>44295</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -4284,29 +4284,29 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="N49" t="n">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="O49" t="n">
-        <v>23000</v>
+        <v>7000</v>
       </c>
       <c r="P49" t="n">
-        <v>22538</v>
+        <v>7000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S49" t="n">
-        <v>3220</v>
+        <v>1000</v>
       </c>
       <c r="T49" t="n">
         <v>7</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44175</v>
+        <v>44225</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -4364,16 +4364,16 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="N50" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O50" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P50" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1286</v>
+        <v>1071</v>
       </c>
       <c r="T50" t="n">
         <v>7</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44364</v>
+        <v>44399</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4444,16 +4444,16 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="N51" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O51" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="P51" t="n">
-        <v>20000</v>
+        <v>22538</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>2857</v>
+        <v>3220</v>
       </c>
       <c r="T51" t="n">
         <v>7</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44188</v>
+        <v>44175</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4524,29 +4524,29 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="N52" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O52" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P52" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1857</v>
+        <v>1286</v>
       </c>
       <c r="T52" t="n">
         <v>7</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44477</v>
+        <v>44364</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4604,16 +4604,16 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>800</v>
+        <v>40</v>
       </c>
       <c r="N53" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O53" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P53" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>2000</v>
+        <v>2857</v>
       </c>
       <c r="T53" t="n">
         <v>7</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44477</v>
+        <v>44188</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4680,20 +4680,20 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="N54" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O54" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P54" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4702,11 +4702,11 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S54" t="n">
-        <v>1571</v>
+        <v>1857</v>
       </c>
       <c r="T54" t="n">
         <v>7</v>
@@ -4760,20 +4760,20 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>80</v>
+        <v>800</v>
       </c>
       <c r="N55" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O55" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="P55" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T55" t="n">
         <v>7</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44245</v>
+        <v>44477</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4840,33 +4840,33 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="N56" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O56" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P56" t="n">
-        <v>7360</v>
+        <v>11000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S56" t="n">
-        <v>1051</v>
+        <v>1571</v>
       </c>
       <c r="T56" t="n">
         <v>7</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44245</v>
+        <v>44477</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4920,33 +4920,33 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="N57" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O57" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P57" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S57" t="n">
-        <v>714</v>
+        <v>1000</v>
       </c>
       <c r="T57" t="n">
         <v>7</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44216</v>
+        <v>44245</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -5004,7 +5004,7 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="N58" t="n">
         <v>7000</v>
@@ -5013,7 +5013,7 @@
         <v>8000</v>
       </c>
       <c r="P58" t="n">
-        <v>7579</v>
+        <v>7360</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>1083</v>
+        <v>1051</v>
       </c>
       <c r="T58" t="n">
         <v>7</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44216</v>
+        <v>44245</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -5084,7 +5084,7 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="N59" t="n">
         <v>5000</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44284</v>
+        <v>44216</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -5164,16 +5164,16 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="N60" t="n">
         <v>7000</v>
       </c>
       <c r="O60" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P60" t="n">
-        <v>7000</v>
+        <v>7579</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5182,11 +5182,11 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S60" t="n">
-        <v>1000</v>
+        <v>1083</v>
       </c>
       <c r="T60" t="n">
         <v>7</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44174</v>
+        <v>44216</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -5240,20 +5240,20 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="N61" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O61" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P61" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>1429</v>
+        <v>714</v>
       </c>
       <c r="T61" t="n">
         <v>7</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44244</v>
+        <v>44284</v>
       </c>
       <c r="E62" t="n">
         <v>9</v>
@@ -5324,16 +5324,16 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="N62" t="n">
         <v>7000</v>
       </c>
       <c r="O62" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P62" t="n">
-        <v>7462</v>
+        <v>7000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5342,11 +5342,11 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S62" t="n">
-        <v>1066</v>
+        <v>1000</v>
       </c>
       <c r="T62" t="n">
         <v>7</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44244</v>
+        <v>44174</v>
       </c>
       <c r="E63" t="n">
         <v>9</v>
@@ -5400,20 +5400,20 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="N63" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O63" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P63" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>714</v>
+        <v>1429</v>
       </c>
       <c r="T63" t="n">
         <v>7</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44482</v>
+        <v>44244</v>
       </c>
       <c r="E64" t="n">
         <v>9</v>
@@ -5484,29 +5484,29 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="N64" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O64" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P64" t="n">
-        <v>12000</v>
+        <v>7462</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S64" t="n">
-        <v>1714</v>
+        <v>1066</v>
       </c>
       <c r="T64" t="n">
         <v>7</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44271</v>
+        <v>44244</v>
       </c>
       <c r="E65" t="n">
         <v>9</v>
@@ -5560,20 +5560,20 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N65" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O65" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P65" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>1000</v>
+        <v>714</v>
       </c>
       <c r="T65" t="n">
         <v>7</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44483</v>
+        <v>44482</v>
       </c>
       <c r="E66" t="n">
         <v>9</v>
@@ -5644,7 +5644,7 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>265</v>
+        <v>110</v>
       </c>
       <c r="N66" t="n">
         <v>12000</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44483</v>
+        <v>44271</v>
       </c>
       <c r="E67" t="n">
         <v>9</v>
@@ -5720,11 +5720,11 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="N67" t="n">
         <v>7000</v>
@@ -5737,12 +5737,12 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S67" t="n">
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44463</v>
+        <v>44483</v>
       </c>
       <c r="E68" t="n">
         <v>9</v>
@@ -5804,16 +5804,16 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>150</v>
+        <v>265</v>
       </c>
       <c r="N68" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O68" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P68" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>2857</v>
+        <v>1714</v>
       </c>
       <c r="T68" t="n">
         <v>7</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44463</v>
+        <v>44483</v>
       </c>
       <c r="E69" t="n">
         <v>9</v>
@@ -5880,20 +5880,20 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="N69" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O69" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P69" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>1429</v>
+        <v>1000</v>
       </c>
       <c r="T69" t="n">
         <v>7</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44224</v>
+        <v>44463</v>
       </c>
       <c r="E70" t="n">
         <v>9</v>
@@ -5964,29 +5964,29 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="N70" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O70" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P70" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S70" t="n">
-        <v>1071</v>
+        <v>2857</v>
       </c>
       <c r="T70" t="n">
         <v>7</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44264</v>
+        <v>44463</v>
       </c>
       <c r="E71" t="n">
         <v>9</v>
@@ -6040,33 +6040,33 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N71" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O71" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P71" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S71" t="n">
-        <v>1000</v>
+        <v>1429</v>
       </c>
       <c r="T71" t="n">
         <v>7</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E72" t="n">
         <v>9</v>
@@ -6124,29 +6124,29 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="N72" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O72" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P72" t="n">
-        <v>12583</v>
+        <v>7500</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S72" t="n">
-        <v>1798</v>
+        <v>1071</v>
       </c>
       <c r="T72" t="n">
         <v>7</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44195</v>
+        <v>44264</v>
       </c>
       <c r="E73" t="n">
         <v>9</v>
@@ -6204,16 +6204,16 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N73" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O73" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P73" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>1429</v>
+        <v>1000</v>
       </c>
       <c r="T73" t="n">
         <v>7</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44209</v>
+        <v>44195</v>
       </c>
       <c r="E74" t="n">
         <v>9</v>
@@ -6284,29 +6284,29 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="N74" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O74" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P74" t="n">
-        <v>8500</v>
+        <v>12583</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S74" t="n">
-        <v>1214</v>
+        <v>1798</v>
       </c>
       <c r="T74" t="n">
         <v>7</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44484</v>
+        <v>44195</v>
       </c>
       <c r="E75" t="n">
         <v>9</v>
@@ -6364,29 +6364,29 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N75" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O75" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P75" t="n">
-        <v>11432</v>
+        <v>10000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S75" t="n">
-        <v>1633</v>
+        <v>1429</v>
       </c>
       <c r="T75" t="n">
         <v>7</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44484</v>
+        <v>44209</v>
       </c>
       <c r="E76" t="n">
         <v>9</v>
@@ -6440,33 +6440,33 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="N76" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O76" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P76" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S76" t="n">
-        <v>1000</v>
+        <v>1214</v>
       </c>
       <c r="T76" t="n">
         <v>7</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44294</v>
+        <v>44484</v>
       </c>
       <c r="E77" t="n">
         <v>9</v>
@@ -6524,29 +6524,29 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="N77" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O77" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P77" t="n">
-        <v>7000</v>
+        <v>11432</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S77" t="n">
-        <v>1000</v>
+        <v>1633</v>
       </c>
       <c r="T77" t="n">
         <v>7</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44232</v>
+        <v>44484</v>
       </c>
       <c r="E78" t="n">
         <v>9</v>
@@ -6600,33 +6600,33 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="N78" t="n">
         <v>7000</v>
       </c>
       <c r="O78" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P78" t="n">
-        <v>7550</v>
+        <v>7000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S78" t="n">
-        <v>1079</v>
+        <v>1000</v>
       </c>
       <c r="T78" t="n">
         <v>7</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44454</v>
+        <v>44294</v>
       </c>
       <c r="E79" t="n">
         <v>9</v>
@@ -6680,33 +6680,33 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N79" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="O79" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="P79" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S79" t="n">
-        <v>2571</v>
+        <v>1000</v>
       </c>
       <c r="T79" t="n">
         <v>7</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44473</v>
+        <v>44232</v>
       </c>
       <c r="E80" t="n">
         <v>9</v>
@@ -6764,29 +6764,29 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>1300</v>
+        <v>100</v>
       </c>
       <c r="N80" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O80" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P80" t="n">
-        <v>15538</v>
+        <v>7550</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S80" t="n">
-        <v>2220</v>
+        <v>1079</v>
       </c>
       <c r="T80" t="n">
         <v>7</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44473</v>
+        <v>44454</v>
       </c>
       <c r="E81" t="n">
         <v>9</v>
@@ -6840,20 +6840,20 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N81" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="O81" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="P81" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>1143</v>
+        <v>2571</v>
       </c>
       <c r="T81" t="n">
         <v>7</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44273</v>
+        <v>44473</v>
       </c>
       <c r="E82" t="n">
         <v>9</v>
@@ -6924,29 +6924,29 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>80</v>
+        <v>1300</v>
       </c>
       <c r="N82" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="O82" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="P82" t="n">
-        <v>6562</v>
+        <v>15538</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S82" t="n">
-        <v>937</v>
+        <v>2220</v>
       </c>
       <c r="T82" t="n">
         <v>7</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44236</v>
+        <v>44473</v>
       </c>
       <c r="E83" t="n">
         <v>9</v>
@@ -7000,33 +7000,33 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N83" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O83" t="n">
         <v>8000</v>
       </c>
       <c r="P83" t="n">
-        <v>7542</v>
+        <v>8000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S83" t="n">
-        <v>1077</v>
+        <v>1143</v>
       </c>
       <c r="T83" t="n">
         <v>7</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44236</v>
+        <v>44273</v>
       </c>
       <c r="E84" t="n">
         <v>9</v>
@@ -7080,20 +7080,20 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="N84" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O84" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P84" t="n">
-        <v>5000</v>
+        <v>6562</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7102,11 +7102,11 @@
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S84" t="n">
-        <v>714</v>
+        <v>937</v>
       </c>
       <c r="T84" t="n">
         <v>7</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44215</v>
+        <v>44236</v>
       </c>
       <c r="E85" t="n">
         <v>9</v>
@@ -7182,7 +7182,7 @@
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S85" t="n">
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44235</v>
+        <v>44236</v>
       </c>
       <c r="E86" t="n">
         <v>9</v>
@@ -7240,20 +7240,20 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="N86" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O86" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P86" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>1143</v>
+        <v>714</v>
       </c>
       <c r="T86" t="n">
         <v>7</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44235</v>
+        <v>44215</v>
       </c>
       <c r="E87" t="n">
         <v>9</v>
@@ -7320,20 +7320,20 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="N87" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O87" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P87" t="n">
-        <v>5000</v>
+        <v>7542</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7342,11 +7342,11 @@
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S87" t="n">
-        <v>714</v>
+        <v>1077</v>
       </c>
       <c r="T87" t="n">
         <v>7</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44203</v>
+        <v>44235</v>
       </c>
       <c r="E88" t="n">
         <v>9</v>
@@ -7404,16 +7404,16 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="N88" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O88" t="n">
         <v>8000</v>
       </c>
       <c r="P88" t="n">
-        <v>7543</v>
+        <v>8000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>1078</v>
+        <v>1143</v>
       </c>
       <c r="T88" t="n">
         <v>7</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44203</v>
+        <v>44235</v>
       </c>
       <c r="E89" t="n">
         <v>9</v>
@@ -7487,13 +7487,13 @@
         <v>65</v>
       </c>
       <c r="N89" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="O89" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="P89" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>786</v>
+        <v>714</v>
       </c>
       <c r="T89" t="n">
         <v>7</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44291</v>
+        <v>44203</v>
       </c>
       <c r="E90" t="n">
         <v>9</v>
@@ -7564,16 +7564,16 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="N90" t="n">
         <v>7000</v>
       </c>
       <c r="O90" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P90" t="n">
-        <v>7000</v>
+        <v>7543</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7582,11 +7582,11 @@
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S90" t="n">
-        <v>1000</v>
+        <v>1078</v>
       </c>
       <c r="T90" t="n">
         <v>7</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44291</v>
+        <v>44203</v>
       </c>
       <c r="E91" t="n">
         <v>9</v>
@@ -7644,16 +7644,16 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N91" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="O91" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="P91" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7662,11 +7662,11 @@
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S91" t="n">
-        <v>857</v>
+        <v>786</v>
       </c>
       <c r="T91" t="n">
         <v>7</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44469</v>
+        <v>44291</v>
       </c>
       <c r="E92" t="n">
         <v>9</v>
@@ -7724,29 +7724,29 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>3000</v>
+        <v>200</v>
       </c>
       <c r="N92" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O92" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="P92" t="n">
-        <v>15333</v>
+        <v>7000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S92" t="n">
-        <v>2190</v>
+        <v>1000</v>
       </c>
       <c r="T92" t="n">
         <v>7</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44469</v>
+        <v>44291</v>
       </c>
       <c r="E93" t="n">
         <v>9</v>
@@ -7800,33 +7800,33 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N93" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O93" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P93" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S93" t="n">
-        <v>1000</v>
+        <v>857</v>
       </c>
       <c r="T93" t="n">
         <v>7</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E94" t="n">
         <v>9</v>
@@ -7880,20 +7880,20 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>200</v>
+        <v>3000</v>
       </c>
       <c r="N94" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O94" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P94" t="n">
-        <v>12000</v>
+        <v>15333</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7902,11 +7902,11 @@
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S94" t="n">
-        <v>1714</v>
+        <v>2190</v>
       </c>
       <c r="T94" t="n">
         <v>7</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E95" t="n">
         <v>9</v>
@@ -7960,20 +7960,20 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="N95" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O95" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P95" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7982,11 +7982,11 @@
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S95" t="n">
-        <v>1429</v>
+        <v>1000</v>
       </c>
       <c r="T95" t="n">
         <v>7</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44161</v>
+        <v>44168</v>
       </c>
       <c r="E96" t="n">
         <v>9</v>
@@ -8040,20 +8040,20 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="N96" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O96" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P96" t="n">
-        <v>9455</v>
+        <v>12000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8062,11 +8062,11 @@
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S96" t="n">
-        <v>1351</v>
+        <v>1714</v>
       </c>
       <c r="T96" t="n">
         <v>7</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44161</v>
+        <v>44168</v>
       </c>
       <c r="E97" t="n">
         <v>9</v>
@@ -8124,29 +8124,29 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>305</v>
+        <v>600</v>
       </c>
       <c r="N97" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="O97" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P97" t="n">
-        <v>6705</v>
+        <v>10000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S97" t="n">
-        <v>958</v>
+        <v>1429</v>
       </c>
       <c r="T97" t="n">
         <v>7</v>
@@ -8200,33 +8200,33 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>180</v>
+        <v>550</v>
       </c>
       <c r="N98" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O98" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="P98" t="n">
-        <v>4000</v>
+        <v>9455</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S98" t="n">
-        <v>571</v>
+        <v>1351</v>
       </c>
       <c r="T98" t="n">
         <v>7</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44214</v>
+        <v>44161</v>
       </c>
       <c r="E99" t="n">
         <v>9</v>
@@ -8284,16 +8284,16 @@
         </is>
       </c>
       <c r="M99" t="n">
-        <v>55</v>
+        <v>305</v>
       </c>
       <c r="N99" t="n">
+        <v>6500</v>
+      </c>
+      <c r="O99" t="n">
         <v>7000</v>
       </c>
-      <c r="O99" t="n">
-        <v>8000</v>
-      </c>
       <c r="P99" t="n">
-        <v>7455</v>
+        <v>6705</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>1065</v>
+        <v>958</v>
       </c>
       <c r="T99" t="n">
         <v>7</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44214</v>
+        <v>44161</v>
       </c>
       <c r="E100" t="n">
         <v>9</v>
@@ -8364,16 +8364,16 @@
         </is>
       </c>
       <c r="M100" t="n">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="N100" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="O100" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="P100" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>643</v>
+        <v>571</v>
       </c>
       <c r="T100" t="n">
         <v>7</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E101" t="n">
         <v>9</v>
@@ -8444,16 +8444,16 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="N101" t="n">
         <v>7000</v>
       </c>
       <c r="O101" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P101" t="n">
-        <v>7000</v>
+        <v>7455</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>1000</v>
+        <v>1065</v>
       </c>
       <c r="T101" t="n">
         <v>7</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44274</v>
+        <v>44214</v>
       </c>
       <c r="E102" t="n">
         <v>9</v>
@@ -8520,20 +8520,20 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="N102" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="O102" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="P102" t="n">
-        <v>6579</v>
+        <v>4500</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>940</v>
+        <v>643</v>
       </c>
       <c r="T102" t="n">
         <v>7</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44165</v>
+        <v>44280</v>
       </c>
       <c r="E103" t="n">
         <v>9</v>
@@ -8600,33 +8600,33 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N103" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O103" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P103" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S103" t="n">
-        <v>1571</v>
+        <v>1000</v>
       </c>
       <c r="T103" t="n">
         <v>7</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44165</v>
+        <v>44274</v>
       </c>
       <c r="E104" t="n">
         <v>9</v>
@@ -8684,29 +8684,29 @@
         </is>
       </c>
       <c r="M104" t="n">
-        <v>700</v>
+        <v>95</v>
       </c>
       <c r="N104" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O104" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P104" t="n">
-        <v>9571</v>
+        <v>6579</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S104" t="n">
-        <v>1367</v>
+        <v>940</v>
       </c>
       <c r="T104" t="n">
         <v>7</v>
@@ -8760,20 +8760,20 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="N105" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O105" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P105" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>1357</v>
+        <v>1571</v>
       </c>
       <c r="T105" t="n">
         <v>7</v>
@@ -8844,29 +8844,29 @@
         </is>
       </c>
       <c r="M106" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N106" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O106" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P106" t="n">
-        <v>8500</v>
+        <v>9571</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S106" t="n">
-        <v>1214</v>
+        <v>1367</v>
       </c>
       <c r="T106" t="n">
         <v>7</v>
@@ -8920,20 +8920,20 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="N107" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O107" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P107" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8942,11 +8942,11 @@
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S107" t="n">
-        <v>1000</v>
+        <v>1357</v>
       </c>
       <c r="T107" t="n">
         <v>7</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44258</v>
+        <v>44165</v>
       </c>
       <c r="E108" t="n">
         <v>9</v>
@@ -9004,16 +9004,16 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="N108" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O108" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P108" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>1000</v>
+        <v>1214</v>
       </c>
       <c r="T108" t="n">
         <v>7</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44475</v>
+        <v>44165</v>
       </c>
       <c r="E109" t="n">
         <v>9</v>
@@ -9080,20 +9080,20 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N109" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O109" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="P109" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>2143</v>
+        <v>1000</v>
       </c>
       <c r="T109" t="n">
         <v>7</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44474</v>
+        <v>44258</v>
       </c>
       <c r="E110" t="n">
         <v>9</v>
@@ -9164,29 +9164,29 @@
         </is>
       </c>
       <c r="M110" t="n">
-        <v>300</v>
+        <v>65</v>
       </c>
       <c r="N110" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O110" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="P110" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S110" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="T110" t="n">
         <v>7</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44252</v>
+        <v>44475</v>
       </c>
       <c r="E111" t="n">
         <v>9</v>
@@ -9244,29 +9244,29 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N111" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O111" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P111" t="n">
-        <v>7568</v>
+        <v>15000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S111" t="n">
-        <v>1081</v>
+        <v>2143</v>
       </c>
       <c r="T111" t="n">
         <v>7</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E112" t="n">
         <v>9</v>
@@ -9320,33 +9320,33 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M112" t="n">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="N112" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="O112" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="P112" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S112" t="n">
-        <v>714</v>
+        <v>2000</v>
       </c>
       <c r="T112" t="n">
         <v>7</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E113" t="n">
         <v>9</v>
@@ -9404,7 +9404,7 @@
         </is>
       </c>
       <c r="M113" t="n">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="N113" t="n">
         <v>7000</v>
@@ -9413,7 +9413,7 @@
         <v>8000</v>
       </c>
       <c r="P113" t="n">
-        <v>7390</v>
+        <v>7568</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9422,11 +9422,11 @@
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S113" t="n">
-        <v>1056</v>
+        <v>1081</v>
       </c>
       <c r="T113" t="n">
         <v>7</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E114" t="n">
         <v>9</v>
@@ -9484,16 +9484,16 @@
         </is>
       </c>
       <c r="M114" t="n">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="N114" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="O114" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="P114" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -9502,11 +9502,11 @@
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S114" t="n">
-        <v>786</v>
+        <v>714</v>
       </c>
       <c r="T114" t="n">
         <v>7</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44186</v>
+        <v>44204</v>
       </c>
       <c r="E115" t="n">
         <v>9</v>
@@ -9564,29 +9564,29 @@
         </is>
       </c>
       <c r="M115" t="n">
-        <v>625</v>
+        <v>205</v>
       </c>
       <c r="N115" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O115" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P115" t="n">
-        <v>11584</v>
+        <v>7390</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S115" t="n">
-        <v>1655</v>
+        <v>1056</v>
       </c>
       <c r="T115" t="n">
         <v>7</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44186</v>
+        <v>44204</v>
       </c>
       <c r="E116" t="n">
         <v>9</v>
@@ -9640,20 +9640,20 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M116" t="n">
-        <v>235</v>
+        <v>45</v>
       </c>
       <c r="N116" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="O116" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="P116" t="n">
-        <v>10532</v>
+        <v>5500</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>1505</v>
+        <v>786</v>
       </c>
       <c r="T116" t="n">
         <v>7</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44372</v>
+        <v>44186</v>
       </c>
       <c r="E117" t="n">
         <v>9</v>
@@ -9724,16 +9724,16 @@
         </is>
       </c>
       <c r="M117" t="n">
-        <v>35</v>
+        <v>625</v>
       </c>
       <c r="N117" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="O117" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P117" t="n">
-        <v>17000</v>
+        <v>11584</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9742,11 +9742,11 @@
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S117" t="n">
-        <v>2429</v>
+        <v>1655</v>
       </c>
       <c r="T117" t="n">
         <v>7</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44243</v>
+        <v>44186</v>
       </c>
       <c r="E118" t="n">
         <v>9</v>
@@ -9804,16 +9804,16 @@
         </is>
       </c>
       <c r="M118" t="n">
-        <v>100</v>
+        <v>235</v>
       </c>
       <c r="N118" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O118" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P118" t="n">
-        <v>7450</v>
+        <v>10532</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9822,11 +9822,11 @@
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S118" t="n">
-        <v>1064</v>
+        <v>1505</v>
       </c>
       <c r="T118" t="n">
         <v>7</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44243</v>
+        <v>44372</v>
       </c>
       <c r="E119" t="n">
         <v>9</v>
@@ -9880,33 +9880,33 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N119" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="O119" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="P119" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S119" t="n">
-        <v>714</v>
+        <v>2429</v>
       </c>
       <c r="T119" t="n">
         <v>7</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44202</v>
+        <v>44243</v>
       </c>
       <c r="E120" t="n">
         <v>9</v>
@@ -9964,16 +9964,16 @@
         </is>
       </c>
       <c r="M120" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="N120" t="n">
         <v>7000</v>
       </c>
       <c r="O120" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P120" t="n">
-        <v>7000</v>
+        <v>7450</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9982,11 +9982,11 @@
       </c>
       <c r="R120" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S120" t="n">
-        <v>1000</v>
+        <v>1064</v>
       </c>
       <c r="T120" t="n">
         <v>7</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44242</v>
+        <v>44243</v>
       </c>
       <c r="E121" t="n">
         <v>9</v>
@@ -10040,20 +10040,20 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="N121" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O121" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P121" t="n">
-        <v>7448</v>
+        <v>5000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>1064</v>
+        <v>714</v>
       </c>
       <c r="T121" t="n">
         <v>7</v>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44242</v>
+        <v>44202</v>
       </c>
       <c r="E122" t="n">
         <v>9</v>
@@ -10120,20 +10120,20 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M122" t="n">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="N122" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O122" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P122" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
@@ -10142,11 +10142,11 @@
       </c>
       <c r="R122" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S122" t="n">
-        <v>714</v>
+        <v>1000</v>
       </c>
       <c r="T122" t="n">
         <v>7</v>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44307</v>
+        <v>44242</v>
       </c>
       <c r="E123" t="n">
         <v>9</v>
@@ -10200,20 +10200,20 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M123" t="n">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="N123" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O123" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P123" t="n">
-        <v>5000</v>
+        <v>7448</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>714</v>
+        <v>1064</v>
       </c>
       <c r="T123" t="n">
         <v>7</v>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44159</v>
+        <v>44242</v>
       </c>
       <c r="E124" t="n">
         <v>9</v>
@@ -10280,33 +10280,33 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M124" t="n">
-        <v>550</v>
+        <v>45</v>
       </c>
       <c r="N124" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O124" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P124" t="n">
-        <v>9455</v>
+        <v>5000</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R124" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S124" t="n">
-        <v>1351</v>
+        <v>714</v>
       </c>
       <c r="T124" t="n">
         <v>7</v>
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44159</v>
+        <v>44307</v>
       </c>
       <c r="E125" t="n">
         <v>9</v>
@@ -10360,20 +10360,20 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M125" t="n">
-        <v>375</v>
+        <v>30</v>
       </c>
       <c r="N125" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="O125" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P125" t="n">
-        <v>7760</v>
+        <v>5000</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>1109</v>
+        <v>714</v>
       </c>
       <c r="T125" t="n">
         <v>7</v>
@@ -10440,20 +10440,20 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M126" t="n">
-        <v>155</v>
+        <v>550</v>
       </c>
       <c r="N126" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O126" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="P126" t="n">
-        <v>7500</v>
+        <v>9455</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>1071</v>
+        <v>1351</v>
       </c>
       <c r="T126" t="n">
         <v>7</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E127" t="n">
         <v>9</v>
@@ -10524,16 +10524,16 @@
         </is>
       </c>
       <c r="M127" t="n">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="N127" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="O127" t="n">
         <v>8000</v>
       </c>
       <c r="P127" t="n">
-        <v>7500</v>
+        <v>7760</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>1071</v>
+        <v>1109</v>
       </c>
       <c r="T127" t="n">
         <v>7</v>
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44476</v>
+        <v>44159</v>
       </c>
       <c r="E128" t="n">
         <v>9</v>
@@ -10600,20 +10600,20 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M128" t="n">
-        <v>4000</v>
+        <v>155</v>
       </c>
       <c r="N128" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="O128" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="P128" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>2143</v>
+        <v>1071</v>
       </c>
       <c r="T128" t="n">
         <v>7</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44476</v>
+        <v>44166</v>
       </c>
       <c r="E129" t="n">
         <v>9</v>
@@ -10680,33 +10680,33 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M129" t="n">
         <v>400</v>
       </c>
       <c r="N129" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O129" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P129" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R129" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S129" t="n">
-        <v>1857</v>
+        <v>1071</v>
       </c>
       <c r="T129" t="n">
         <v>7</v>
@@ -10760,20 +10760,20 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M130" t="n">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="N130" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O130" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P130" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         </is>
       </c>
       <c r="S130" t="n">
-        <v>1143</v>
+        <v>2143</v>
       </c>
       <c r="T130" t="n">
         <v>7</v>
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44263</v>
+        <v>44476</v>
       </c>
       <c r="E131" t="n">
         <v>9</v>
@@ -10840,33 +10840,33 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M131" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N131" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O131" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P131" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R131" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S131" t="n">
-        <v>1000</v>
+        <v>1857</v>
       </c>
       <c r="T131" t="n">
         <v>7</v>
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44369</v>
+        <v>44476</v>
       </c>
       <c r="E132" t="n">
         <v>9</v>
@@ -10920,20 +10920,20 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M132" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N132" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O132" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P132" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="S132" t="n">
-        <v>2143</v>
+        <v>1143</v>
       </c>
       <c r="T132" t="n">
         <v>7</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44301</v>
+        <v>44263</v>
       </c>
       <c r="E133" t="n">
         <v>9</v>
@@ -11004,16 +11004,16 @@
         </is>
       </c>
       <c r="M133" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="N133" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O133" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="P133" t="n">
-        <v>6194</v>
+        <v>7000</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
@@ -11022,11 +11022,11 @@
       </c>
       <c r="R133" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S133" t="n">
-        <v>885</v>
+        <v>1000</v>
       </c>
       <c r="T133" t="n">
         <v>7</v>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44223</v>
+        <v>44369</v>
       </c>
       <c r="E134" t="n">
         <v>9</v>
@@ -11084,29 +11084,29 @@
         </is>
       </c>
       <c r="M134" t="n">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="N134" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O134" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P134" t="n">
-        <v>7385</v>
+        <v>15000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R134" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S134" t="n">
-        <v>1055</v>
+        <v>2143</v>
       </c>
       <c r="T134" t="n">
         <v>7</v>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44397</v>
+        <v>44301</v>
       </c>
       <c r="E135" t="n">
         <v>9</v>
@@ -11164,29 +11164,29 @@
         </is>
       </c>
       <c r="M135" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="N135" t="n">
-        <v>22000</v>
+        <v>6000</v>
       </c>
       <c r="O135" t="n">
-        <v>22000</v>
+        <v>6500</v>
       </c>
       <c r="P135" t="n">
-        <v>22000</v>
+        <v>6194</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R135" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S135" t="n">
-        <v>3143</v>
+        <v>885</v>
       </c>
       <c r="T135" t="n">
         <v>7</v>
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44333</v>
+        <v>44223</v>
       </c>
       <c r="E136" t="n">
         <v>9</v>
@@ -11244,16 +11244,16 @@
         </is>
       </c>
       <c r="M136" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="N136" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O136" t="n">
         <v>8000</v>
       </c>
       <c r="P136" t="n">
-        <v>8000</v>
+        <v>7385</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>1143</v>
+        <v>1055</v>
       </c>
       <c r="T136" t="n">
         <v>7</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44466</v>
+        <v>44397</v>
       </c>
       <c r="E137" t="n">
         <v>9</v>
@@ -11324,16 +11324,16 @@
         </is>
       </c>
       <c r="M137" t="n">
-        <v>800</v>
+        <v>55</v>
       </c>
       <c r="N137" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O137" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P137" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="S137" t="n">
-        <v>2286</v>
+        <v>3143</v>
       </c>
       <c r="T137" t="n">
         <v>7</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44466</v>
+        <v>44333</v>
       </c>
       <c r="E138" t="n">
         <v>9</v>
@@ -11400,33 +11400,33 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M138" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N138" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O138" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P138" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R138" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S138" t="n">
-        <v>1857</v>
+        <v>1143</v>
       </c>
       <c r="T138" t="n">
         <v>7</v>
@@ -11480,20 +11480,20 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M139" t="n">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="N139" t="n">
-        <v>800</v>
+        <v>16000</v>
       </c>
       <c r="O139" t="n">
-        <v>800</v>
+        <v>16000</v>
       </c>
       <c r="P139" t="n">
-        <v>800</v>
+        <v>16000</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>114</v>
+        <v>2286</v>
       </c>
       <c r="T139" t="n">
         <v>7</v>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E140" t="n">
         <v>9</v>
@@ -11560,33 +11560,33 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M140" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="N140" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O140" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P140" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R140" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S140" t="n">
-        <v>1000</v>
+        <v>1857</v>
       </c>
       <c r="T140" t="n">
         <v>7</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44201</v>
+        <v>44466</v>
       </c>
       <c r="E141" t="n">
         <v>9</v>
@@ -11640,33 +11640,33 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M141" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="N141" t="n">
-        <v>7000</v>
+        <v>800</v>
       </c>
       <c r="O141" t="n">
-        <v>7000</v>
+        <v>800</v>
       </c>
       <c r="P141" t="n">
-        <v>7000</v>
+        <v>800</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R141" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S141" t="n">
-        <v>1000</v>
+        <v>114</v>
       </c>
       <c r="T141" t="n">
         <v>7</v>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44193</v>
+        <v>44270</v>
       </c>
       <c r="E142" t="n">
         <v>9</v>
@@ -11724,16 +11724,16 @@
         </is>
       </c>
       <c r="M142" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="N142" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O142" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P142" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="S142" t="n">
-        <v>1429</v>
+        <v>1000</v>
       </c>
       <c r="T142" t="n">
         <v>7</v>
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E143" t="n">
         <v>9</v>
@@ -11800,20 +11800,20 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M143" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="N143" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O143" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P143" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
@@ -11822,11 +11822,11 @@
       </c>
       <c r="R143" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S143" t="n">
-        <v>1286</v>
+        <v>1000</v>
       </c>
       <c r="T143" t="n">
         <v>7</v>
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E144" t="n">
         <v>9</v>
@@ -11884,16 +11884,16 @@
         </is>
       </c>
       <c r="M144" t="n">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="N144" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="O144" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P144" t="n">
-        <v>6786</v>
+        <v>10000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
@@ -11902,11 +11902,11 @@
       </c>
       <c r="R144" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S144" t="n">
-        <v>969</v>
+        <v>1429</v>
       </c>
       <c r="T144" t="n">
         <v>7</v>
@@ -11927,68 +11927,228 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
+        <v>44193</v>
+      </c>
+      <c r="E145" t="n">
+        <v>9</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>90</v>
+      </c>
+      <c r="N145" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O145" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P145" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>$/caja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R145" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="S145" t="n">
+        <v>1286</v>
+      </c>
+      <c r="T145" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>10</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D146" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E146" t="n">
+        <v>9</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>35</v>
+      </c>
+      <c r="N146" t="n">
+        <v>6500</v>
+      </c>
+      <c r="O146" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P146" t="n">
+        <v>6786</v>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>$/caja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R146" t="inlineStr">
+        <is>
+          <t>Provincia de Cautín</t>
+        </is>
+      </c>
+      <c r="S146" t="n">
+        <v>969</v>
+      </c>
+      <c r="T146" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>10</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D147" s="2" t="n">
         <v>44312</v>
       </c>
-      <c r="E145" t="n">
-        <v>9</v>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G145" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I145" t="n">
-        <v>100112025</v>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>Frutilla</t>
-        </is>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L145" t="inlineStr">
+      <c r="E147" t="n">
+        <v>9</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M145" t="n">
+      <c r="M147" t="n">
         <v>65</v>
       </c>
-      <c r="N145" t="n">
+      <c r="N147" t="n">
         <v>7000</v>
       </c>
-      <c r="O145" t="n">
+      <c r="O147" t="n">
         <v>7000</v>
       </c>
-      <c r="P145" t="n">
+      <c r="P147" t="n">
         <v>7000</v>
       </c>
-      <c r="Q145" t="inlineStr">
+      <c r="Q147" t="inlineStr">
         <is>
           <t>$/caja 7 kilos</t>
         </is>
       </c>
-      <c r="R145" t="inlineStr">
+      <c r="R147" t="inlineStr">
         <is>
           <t>Provincia de Cautín</t>
         </is>
       </c>
-      <c r="S145" t="n">
+      <c r="S147" t="n">
         <v>1000</v>
       </c>
-      <c r="T145" t="n">
+      <c r="T147" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T147"/>
+  <dimension ref="A1:T149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44168</v>
+        <v>44488</v>
       </c>
       <c r="E96" t="n">
         <v>9</v>
@@ -8040,20 +8040,20 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="N96" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O96" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P96" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8062,11 +8062,11 @@
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S96" t="n">
-        <v>1714</v>
+        <v>1429</v>
       </c>
       <c r="T96" t="n">
         <v>7</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44168</v>
+        <v>44488</v>
       </c>
       <c r="E97" t="n">
         <v>9</v>
@@ -8120,20 +8120,20 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="N97" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O97" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P97" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8142,11 +8142,11 @@
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S97" t="n">
-        <v>1429</v>
+        <v>1000</v>
       </c>
       <c r="T97" t="n">
         <v>7</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44161</v>
+        <v>44168</v>
       </c>
       <c r="E98" t="n">
         <v>9</v>
@@ -8200,20 +8200,20 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="N98" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O98" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P98" t="n">
-        <v>9455</v>
+        <v>12000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -8222,11 +8222,11 @@
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S98" t="n">
-        <v>1351</v>
+        <v>1714</v>
       </c>
       <c r="T98" t="n">
         <v>7</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44161</v>
+        <v>44168</v>
       </c>
       <c r="E99" t="n">
         <v>9</v>
@@ -8284,29 +8284,29 @@
         </is>
       </c>
       <c r="M99" t="n">
-        <v>305</v>
+        <v>600</v>
       </c>
       <c r="N99" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="O99" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P99" t="n">
-        <v>6705</v>
+        <v>10000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S99" t="n">
-        <v>958</v>
+        <v>1429</v>
       </c>
       <c r="T99" t="n">
         <v>7</v>
@@ -8360,33 +8360,33 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>180</v>
+        <v>550</v>
       </c>
       <c r="N100" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O100" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="P100" t="n">
-        <v>4000</v>
+        <v>9455</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S100" t="n">
-        <v>571</v>
+        <v>1351</v>
       </c>
       <c r="T100" t="n">
         <v>7</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44214</v>
+        <v>44161</v>
       </c>
       <c r="E101" t="n">
         <v>9</v>
@@ -8444,16 +8444,16 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>55</v>
+        <v>305</v>
       </c>
       <c r="N101" t="n">
+        <v>6500</v>
+      </c>
+      <c r="O101" t="n">
         <v>7000</v>
       </c>
-      <c r="O101" t="n">
-        <v>8000</v>
-      </c>
       <c r="P101" t="n">
-        <v>7455</v>
+        <v>6705</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>1065</v>
+        <v>958</v>
       </c>
       <c r="T101" t="n">
         <v>7</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44214</v>
+        <v>44161</v>
       </c>
       <c r="E102" t="n">
         <v>9</v>
@@ -8524,16 +8524,16 @@
         </is>
       </c>
       <c r="M102" t="n">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="N102" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="O102" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="P102" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>643</v>
+        <v>571</v>
       </c>
       <c r="T102" t="n">
         <v>7</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E103" t="n">
         <v>9</v>
@@ -8604,16 +8604,16 @@
         </is>
       </c>
       <c r="M103" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="N103" t="n">
         <v>7000</v>
       </c>
       <c r="O103" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P103" t="n">
-        <v>7000</v>
+        <v>7455</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>1000</v>
+        <v>1065</v>
       </c>
       <c r="T103" t="n">
         <v>7</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44274</v>
+        <v>44214</v>
       </c>
       <c r="E104" t="n">
         <v>9</v>
@@ -8680,20 +8680,20 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="N104" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="O104" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="P104" t="n">
-        <v>6579</v>
+        <v>4500</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>940</v>
+        <v>643</v>
       </c>
       <c r="T104" t="n">
         <v>7</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44165</v>
+        <v>44280</v>
       </c>
       <c r="E105" t="n">
         <v>9</v>
@@ -8760,33 +8760,33 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N105" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O105" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P105" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S105" t="n">
-        <v>1571</v>
+        <v>1000</v>
       </c>
       <c r="T105" t="n">
         <v>7</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44165</v>
+        <v>44274</v>
       </c>
       <c r="E106" t="n">
         <v>9</v>
@@ -8844,29 +8844,29 @@
         </is>
       </c>
       <c r="M106" t="n">
-        <v>700</v>
+        <v>95</v>
       </c>
       <c r="N106" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O106" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P106" t="n">
-        <v>9571</v>
+        <v>6579</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S106" t="n">
-        <v>1367</v>
+        <v>940</v>
       </c>
       <c r="T106" t="n">
         <v>7</v>
@@ -8920,20 +8920,20 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="N107" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O107" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P107" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>1357</v>
+        <v>1571</v>
       </c>
       <c r="T107" t="n">
         <v>7</v>
@@ -9004,29 +9004,29 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N108" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O108" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P108" t="n">
-        <v>8500</v>
+        <v>9571</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S108" t="n">
-        <v>1214</v>
+        <v>1367</v>
       </c>
       <c r="T108" t="n">
         <v>7</v>
@@ -9080,20 +9080,20 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="N109" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O109" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P109" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9102,11 +9102,11 @@
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S109" t="n">
-        <v>1000</v>
+        <v>1357</v>
       </c>
       <c r="T109" t="n">
         <v>7</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44258</v>
+        <v>44165</v>
       </c>
       <c r="E110" t="n">
         <v>9</v>
@@ -9164,16 +9164,16 @@
         </is>
       </c>
       <c r="M110" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="N110" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O110" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P110" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         </is>
       </c>
       <c r="S110" t="n">
-        <v>1000</v>
+        <v>1214</v>
       </c>
       <c r="T110" t="n">
         <v>7</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44475</v>
+        <v>44165</v>
       </c>
       <c r="E111" t="n">
         <v>9</v>
@@ -9240,20 +9240,20 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M111" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N111" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O111" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="P111" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         </is>
       </c>
       <c r="S111" t="n">
-        <v>2143</v>
+        <v>1000</v>
       </c>
       <c r="T111" t="n">
         <v>7</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44474</v>
+        <v>44258</v>
       </c>
       <c r="E112" t="n">
         <v>9</v>
@@ -9324,29 +9324,29 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>300</v>
+        <v>65</v>
       </c>
       <c r="N112" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O112" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="P112" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S112" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="T112" t="n">
         <v>7</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44252</v>
+        <v>44475</v>
       </c>
       <c r="E113" t="n">
         <v>9</v>
@@ -9404,29 +9404,29 @@
         </is>
       </c>
       <c r="M113" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N113" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O113" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P113" t="n">
-        <v>7568</v>
+        <v>15000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S113" t="n">
-        <v>1081</v>
+        <v>2143</v>
       </c>
       <c r="T113" t="n">
         <v>7</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E114" t="n">
         <v>9</v>
@@ -9480,33 +9480,33 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M114" t="n">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="N114" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="O114" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="P114" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S114" t="n">
-        <v>714</v>
+        <v>2000</v>
       </c>
       <c r="T114" t="n">
         <v>7</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E115" t="n">
         <v>9</v>
@@ -9564,7 +9564,7 @@
         </is>
       </c>
       <c r="M115" t="n">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="N115" t="n">
         <v>7000</v>
@@ -9573,7 +9573,7 @@
         <v>8000</v>
       </c>
       <c r="P115" t="n">
-        <v>7390</v>
+        <v>7568</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -9582,11 +9582,11 @@
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S115" t="n">
-        <v>1056</v>
+        <v>1081</v>
       </c>
       <c r="T115" t="n">
         <v>7</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E116" t="n">
         <v>9</v>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="N116" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="O116" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="P116" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -9662,11 +9662,11 @@
       </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S116" t="n">
-        <v>786</v>
+        <v>714</v>
       </c>
       <c r="T116" t="n">
         <v>7</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44186</v>
+        <v>44204</v>
       </c>
       <c r="E117" t="n">
         <v>9</v>
@@ -9724,29 +9724,29 @@
         </is>
       </c>
       <c r="M117" t="n">
-        <v>625</v>
+        <v>205</v>
       </c>
       <c r="N117" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O117" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P117" t="n">
-        <v>11584</v>
+        <v>7390</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S117" t="n">
-        <v>1655</v>
+        <v>1056</v>
       </c>
       <c r="T117" t="n">
         <v>7</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44186</v>
+        <v>44204</v>
       </c>
       <c r="E118" t="n">
         <v>9</v>
@@ -9800,20 +9800,20 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>235</v>
+        <v>45</v>
       </c>
       <c r="N118" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="O118" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="P118" t="n">
-        <v>10532</v>
+        <v>5500</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>1505</v>
+        <v>786</v>
       </c>
       <c r="T118" t="n">
         <v>7</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44372</v>
+        <v>44186</v>
       </c>
       <c r="E119" t="n">
         <v>9</v>
@@ -9884,16 +9884,16 @@
         </is>
       </c>
       <c r="M119" t="n">
-        <v>35</v>
+        <v>625</v>
       </c>
       <c r="N119" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="O119" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P119" t="n">
-        <v>17000</v>
+        <v>11584</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9902,11 +9902,11 @@
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S119" t="n">
-        <v>2429</v>
+        <v>1655</v>
       </c>
       <c r="T119" t="n">
         <v>7</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44243</v>
+        <v>44186</v>
       </c>
       <c r="E120" t="n">
         <v>9</v>
@@ -9964,16 +9964,16 @@
         </is>
       </c>
       <c r="M120" t="n">
-        <v>100</v>
+        <v>235</v>
       </c>
       <c r="N120" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O120" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P120" t="n">
-        <v>7450</v>
+        <v>10532</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9982,11 +9982,11 @@
       </c>
       <c r="R120" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S120" t="n">
-        <v>1064</v>
+        <v>1505</v>
       </c>
       <c r="T120" t="n">
         <v>7</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44243</v>
+        <v>44372</v>
       </c>
       <c r="E121" t="n">
         <v>9</v>
@@ -10040,33 +10040,33 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N121" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="O121" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="P121" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R121" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S121" t="n">
-        <v>714</v>
+        <v>2429</v>
       </c>
       <c r="T121" t="n">
         <v>7</v>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44202</v>
+        <v>44243</v>
       </c>
       <c r="E122" t="n">
         <v>9</v>
@@ -10124,16 +10124,16 @@
         </is>
       </c>
       <c r="M122" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="N122" t="n">
         <v>7000</v>
       </c>
       <c r="O122" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P122" t="n">
-        <v>7000</v>
+        <v>7450</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
@@ -10142,11 +10142,11 @@
       </c>
       <c r="R122" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S122" t="n">
-        <v>1000</v>
+        <v>1064</v>
       </c>
       <c r="T122" t="n">
         <v>7</v>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44242</v>
+        <v>44243</v>
       </c>
       <c r="E123" t="n">
         <v>9</v>
@@ -10200,20 +10200,20 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M123" t="n">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="N123" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O123" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P123" t="n">
-        <v>7448</v>
+        <v>5000</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>1064</v>
+        <v>714</v>
       </c>
       <c r="T123" t="n">
         <v>7</v>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44242</v>
+        <v>44202</v>
       </c>
       <c r="E124" t="n">
         <v>9</v>
@@ -10280,20 +10280,20 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M124" t="n">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="N124" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O124" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P124" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -10302,11 +10302,11 @@
       </c>
       <c r="R124" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S124" t="n">
-        <v>714</v>
+        <v>1000</v>
       </c>
       <c r="T124" t="n">
         <v>7</v>
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44307</v>
+        <v>44242</v>
       </c>
       <c r="E125" t="n">
         <v>9</v>
@@ -10360,20 +10360,20 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M125" t="n">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="N125" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O125" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P125" t="n">
-        <v>5000</v>
+        <v>7448</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>714</v>
+        <v>1064</v>
       </c>
       <c r="T125" t="n">
         <v>7</v>
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44159</v>
+        <v>44242</v>
       </c>
       <c r="E126" t="n">
         <v>9</v>
@@ -10440,33 +10440,33 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M126" t="n">
-        <v>550</v>
+        <v>45</v>
       </c>
       <c r="N126" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O126" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P126" t="n">
-        <v>9455</v>
+        <v>5000</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R126" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S126" t="n">
-        <v>1351</v>
+        <v>714</v>
       </c>
       <c r="T126" t="n">
         <v>7</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44159</v>
+        <v>44307</v>
       </c>
       <c r="E127" t="n">
         <v>9</v>
@@ -10520,20 +10520,20 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M127" t="n">
-        <v>375</v>
+        <v>30</v>
       </c>
       <c r="N127" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="O127" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P127" t="n">
-        <v>7760</v>
+        <v>5000</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>1109</v>
+        <v>714</v>
       </c>
       <c r="T127" t="n">
         <v>7</v>
@@ -10600,20 +10600,20 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M128" t="n">
-        <v>155</v>
+        <v>550</v>
       </c>
       <c r="N128" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O128" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="P128" t="n">
-        <v>7500</v>
+        <v>9455</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>1071</v>
+        <v>1351</v>
       </c>
       <c r="T128" t="n">
         <v>7</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E129" t="n">
         <v>9</v>
@@ -10684,16 +10684,16 @@
         </is>
       </c>
       <c r="M129" t="n">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="N129" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="O129" t="n">
         <v>8000</v>
       </c>
       <c r="P129" t="n">
-        <v>7500</v>
+        <v>7760</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         </is>
       </c>
       <c r="S129" t="n">
-        <v>1071</v>
+        <v>1109</v>
       </c>
       <c r="T129" t="n">
         <v>7</v>
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44476</v>
+        <v>44159</v>
       </c>
       <c r="E130" t="n">
         <v>9</v>
@@ -10760,20 +10760,20 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M130" t="n">
-        <v>4000</v>
+        <v>155</v>
       </c>
       <c r="N130" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="O130" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="P130" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         </is>
       </c>
       <c r="S130" t="n">
-        <v>2143</v>
+        <v>1071</v>
       </c>
       <c r="T130" t="n">
         <v>7</v>
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44476</v>
+        <v>44166</v>
       </c>
       <c r="E131" t="n">
         <v>9</v>
@@ -10840,33 +10840,33 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M131" t="n">
         <v>400</v>
       </c>
       <c r="N131" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O131" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P131" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R131" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S131" t="n">
-        <v>1857</v>
+        <v>1071</v>
       </c>
       <c r="T131" t="n">
         <v>7</v>
@@ -10920,20 +10920,20 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M132" t="n">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="N132" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O132" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P132" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="S132" t="n">
-        <v>1143</v>
+        <v>2143</v>
       </c>
       <c r="T132" t="n">
         <v>7</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44263</v>
+        <v>44476</v>
       </c>
       <c r="E133" t="n">
         <v>9</v>
@@ -11000,33 +11000,33 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M133" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N133" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O133" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P133" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R133" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S133" t="n">
-        <v>1000</v>
+        <v>1857</v>
       </c>
       <c r="T133" t="n">
         <v>7</v>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44369</v>
+        <v>44476</v>
       </c>
       <c r="E134" t="n">
         <v>9</v>
@@ -11080,20 +11080,20 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M134" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N134" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O134" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P134" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>2143</v>
+        <v>1143</v>
       </c>
       <c r="T134" t="n">
         <v>7</v>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44301</v>
+        <v>44263</v>
       </c>
       <c r="E135" t="n">
         <v>9</v>
@@ -11164,16 +11164,16 @@
         </is>
       </c>
       <c r="M135" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="N135" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O135" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="P135" t="n">
-        <v>6194</v>
+        <v>7000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
@@ -11182,11 +11182,11 @@
       </c>
       <c r="R135" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S135" t="n">
-        <v>885</v>
+        <v>1000</v>
       </c>
       <c r="T135" t="n">
         <v>7</v>
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44223</v>
+        <v>44369</v>
       </c>
       <c r="E136" t="n">
         <v>9</v>
@@ -11244,29 +11244,29 @@
         </is>
       </c>
       <c r="M136" t="n">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="N136" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O136" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P136" t="n">
-        <v>7385</v>
+        <v>15000</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R136" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S136" t="n">
-        <v>1055</v>
+        <v>2143</v>
       </c>
       <c r="T136" t="n">
         <v>7</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44397</v>
+        <v>44301</v>
       </c>
       <c r="E137" t="n">
         <v>9</v>
@@ -11324,29 +11324,29 @@
         </is>
       </c>
       <c r="M137" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="N137" t="n">
-        <v>22000</v>
+        <v>6000</v>
       </c>
       <c r="O137" t="n">
-        <v>22000</v>
+        <v>6500</v>
       </c>
       <c r="P137" t="n">
-        <v>22000</v>
+        <v>6194</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R137" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S137" t="n">
-        <v>3143</v>
+        <v>885</v>
       </c>
       <c r="T137" t="n">
         <v>7</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44333</v>
+        <v>44223</v>
       </c>
       <c r="E138" t="n">
         <v>9</v>
@@ -11404,16 +11404,16 @@
         </is>
       </c>
       <c r="M138" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="N138" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O138" t="n">
         <v>8000</v>
       </c>
       <c r="P138" t="n">
-        <v>8000</v>
+        <v>7385</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         </is>
       </c>
       <c r="S138" t="n">
-        <v>1143</v>
+        <v>1055</v>
       </c>
       <c r="T138" t="n">
         <v>7</v>
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44466</v>
+        <v>44397</v>
       </c>
       <c r="E139" t="n">
         <v>9</v>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="M139" t="n">
-        <v>800</v>
+        <v>55</v>
       </c>
       <c r="N139" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O139" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P139" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>2286</v>
+        <v>3143</v>
       </c>
       <c r="T139" t="n">
         <v>7</v>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44466</v>
+        <v>44333</v>
       </c>
       <c r="E140" t="n">
         <v>9</v>
@@ -11560,33 +11560,33 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M140" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N140" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O140" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P140" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R140" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S140" t="n">
-        <v>1857</v>
+        <v>1143</v>
       </c>
       <c r="T140" t="n">
         <v>7</v>
@@ -11640,20 +11640,20 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M141" t="n">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="N141" t="n">
-        <v>800</v>
+        <v>16000</v>
       </c>
       <c r="O141" t="n">
-        <v>800</v>
+        <v>16000</v>
       </c>
       <c r="P141" t="n">
-        <v>800</v>
+        <v>16000</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         </is>
       </c>
       <c r="S141" t="n">
-        <v>114</v>
+        <v>2286</v>
       </c>
       <c r="T141" t="n">
         <v>7</v>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E142" t="n">
         <v>9</v>
@@ -11720,33 +11720,33 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M142" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="N142" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O142" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P142" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R142" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S142" t="n">
-        <v>1000</v>
+        <v>1857</v>
       </c>
       <c r="T142" t="n">
         <v>7</v>
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44201</v>
+        <v>44466</v>
       </c>
       <c r="E143" t="n">
         <v>9</v>
@@ -11800,33 +11800,33 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M143" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="N143" t="n">
-        <v>7000</v>
+        <v>800</v>
       </c>
       <c r="O143" t="n">
-        <v>7000</v>
+        <v>800</v>
       </c>
       <c r="P143" t="n">
-        <v>7000</v>
+        <v>800</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R143" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S143" t="n">
-        <v>1000</v>
+        <v>114</v>
       </c>
       <c r="T143" t="n">
         <v>7</v>
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44193</v>
+        <v>44270</v>
       </c>
       <c r="E144" t="n">
         <v>9</v>
@@ -11884,16 +11884,16 @@
         </is>
       </c>
       <c r="M144" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="N144" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O144" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P144" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         </is>
       </c>
       <c r="S144" t="n">
-        <v>1429</v>
+        <v>1000</v>
       </c>
       <c r="T144" t="n">
         <v>7</v>
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E145" t="n">
         <v>9</v>
@@ -11960,20 +11960,20 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M145" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="N145" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O145" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P145" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -11982,11 +11982,11 @@
       </c>
       <c r="R145" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S145" t="n">
-        <v>1286</v>
+        <v>1000</v>
       </c>
       <c r="T145" t="n">
         <v>7</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E146" t="n">
         <v>9</v>
@@ -12044,16 +12044,16 @@
         </is>
       </c>
       <c r="M146" t="n">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="N146" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="O146" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P146" t="n">
-        <v>6786</v>
+        <v>10000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -12062,11 +12062,11 @@
       </c>
       <c r="R146" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S146" t="n">
-        <v>969</v>
+        <v>1429</v>
       </c>
       <c r="T146" t="n">
         <v>7</v>
@@ -12087,68 +12087,228 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
+        <v>44193</v>
+      </c>
+      <c r="E147" t="n">
+        <v>9</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>90</v>
+      </c>
+      <c r="N147" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O147" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P147" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>$/caja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R147" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="S147" t="n">
+        <v>1286</v>
+      </c>
+      <c r="T147" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>10</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D148" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E148" t="n">
+        <v>9</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>35</v>
+      </c>
+      <c r="N148" t="n">
+        <v>6500</v>
+      </c>
+      <c r="O148" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P148" t="n">
+        <v>6786</v>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>$/caja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R148" t="inlineStr">
+        <is>
+          <t>Provincia de Cautín</t>
+        </is>
+      </c>
+      <c r="S148" t="n">
+        <v>969</v>
+      </c>
+      <c r="T148" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>10</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D149" s="2" t="n">
         <v>44312</v>
       </c>
-      <c r="E147" t="n">
-        <v>9</v>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G147" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I147" t="n">
-        <v>100112025</v>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>Frutilla</t>
-        </is>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L147" t="inlineStr">
+      <c r="E149" t="n">
+        <v>9</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M147" t="n">
+      <c r="M149" t="n">
         <v>65</v>
       </c>
-      <c r="N147" t="n">
+      <c r="N149" t="n">
         <v>7000</v>
       </c>
-      <c r="O147" t="n">
+      <c r="O149" t="n">
         <v>7000</v>
       </c>
-      <c r="P147" t="n">
+      <c r="P149" t="n">
         <v>7000</v>
       </c>
-      <c r="Q147" t="inlineStr">
+      <c r="Q149" t="inlineStr">
         <is>
           <t>$/caja 7 kilos</t>
         </is>
       </c>
-      <c r="R147" t="inlineStr">
+      <c r="R149" t="inlineStr">
         <is>
           <t>Provincia de Cautín</t>
         </is>
       </c>
-      <c r="S147" t="n">
+      <c r="S149" t="n">
         <v>1000</v>
       </c>
-      <c r="T147" t="n">
+      <c r="T149" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T149"/>
+  <dimension ref="A1:T150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44165</v>
+        <v>44489</v>
       </c>
       <c r="E107" t="n">
         <v>9</v>
@@ -8920,20 +8920,20 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>50</v>
+        <v>1500</v>
       </c>
       <c r="N107" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O107" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P107" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8942,11 +8942,11 @@
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S107" t="n">
-        <v>1571</v>
+        <v>1286</v>
       </c>
       <c r="T107" t="n">
         <v>7</v>
@@ -9000,20 +9000,20 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M108" t="n">
-        <v>700</v>
+        <v>50</v>
       </c>
       <c r="N108" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O108" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P108" t="n">
-        <v>9571</v>
+        <v>11000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
@@ -9022,11 +9022,11 @@
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S108" t="n">
-        <v>1367</v>
+        <v>1571</v>
       </c>
       <c r="T108" t="n">
         <v>7</v>
@@ -9084,7 +9084,7 @@
         </is>
       </c>
       <c r="M109" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N109" t="n">
         <v>9000</v>
@@ -9093,7 +9093,7 @@
         <v>10000</v>
       </c>
       <c r="P109" t="n">
-        <v>9500</v>
+        <v>9571</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9102,11 +9102,11 @@
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S109" t="n">
-        <v>1357</v>
+        <v>1367</v>
       </c>
       <c r="T109" t="n">
         <v>7</v>
@@ -9164,29 +9164,29 @@
         </is>
       </c>
       <c r="M110" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N110" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O110" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P110" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S110" t="n">
-        <v>1214</v>
+        <v>1357</v>
       </c>
       <c r="T110" t="n">
         <v>7</v>
@@ -9240,33 +9240,33 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M111" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N111" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O111" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P111" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S111" t="n">
-        <v>1000</v>
+        <v>1214</v>
       </c>
       <c r="T111" t="n">
         <v>7</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44258</v>
+        <v>44165</v>
       </c>
       <c r="E112" t="n">
         <v>9</v>
@@ -9320,11 +9320,11 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M112" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="N112" t="n">
         <v>7000</v>
@@ -9337,12 +9337,12 @@
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S112" t="n">
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E113" t="n">
         <v>9</v>
@@ -9404,29 +9404,29 @@
         </is>
       </c>
       <c r="M113" t="n">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="N113" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O113" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="P113" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S113" t="n">
-        <v>2143</v>
+        <v>1000</v>
       </c>
       <c r="T113" t="n">
         <v>7</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E114" t="n">
         <v>9</v>
@@ -9484,16 +9484,16 @@
         </is>
       </c>
       <c r="M114" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N114" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O114" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P114" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>2000</v>
+        <v>2143</v>
       </c>
       <c r="T114" t="n">
         <v>7</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E115" t="n">
         <v>9</v>
@@ -9564,29 +9564,29 @@
         </is>
       </c>
       <c r="M115" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="N115" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O115" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P115" t="n">
-        <v>7568</v>
+        <v>14000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S115" t="n">
-        <v>1081</v>
+        <v>2000</v>
       </c>
       <c r="T115" t="n">
         <v>7</v>
@@ -9640,20 +9640,20 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M116" t="n">
-        <v>85</v>
+        <v>220</v>
       </c>
       <c r="N116" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O116" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P116" t="n">
-        <v>5000</v>
+        <v>7568</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>714</v>
+        <v>1081</v>
       </c>
       <c r="T116" t="n">
         <v>7</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E117" t="n">
         <v>9</v>
@@ -9720,20 +9720,20 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>205</v>
+        <v>85</v>
       </c>
       <c r="N117" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O117" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P117" t="n">
-        <v>7390</v>
+        <v>5000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9742,11 +9742,11 @@
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S117" t="n">
-        <v>1056</v>
+        <v>714</v>
       </c>
       <c r="T117" t="n">
         <v>7</v>
@@ -9800,20 +9800,20 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>45</v>
+        <v>205</v>
       </c>
       <c r="N118" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="O118" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P118" t="n">
-        <v>5500</v>
+        <v>7390</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>786</v>
+        <v>1056</v>
       </c>
       <c r="T118" t="n">
         <v>7</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44186</v>
+        <v>44204</v>
       </c>
       <c r="E119" t="n">
         <v>9</v>
@@ -9880,33 +9880,33 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>625</v>
+        <v>45</v>
       </c>
       <c r="N119" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="O119" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="P119" t="n">
-        <v>11584</v>
+        <v>5500</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S119" t="n">
-        <v>1655</v>
+        <v>786</v>
       </c>
       <c r="T119" t="n">
         <v>7</v>
@@ -9964,29 +9964,29 @@
         </is>
       </c>
       <c r="M120" t="n">
-        <v>235</v>
+        <v>625</v>
       </c>
       <c r="N120" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O120" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P120" t="n">
-        <v>10532</v>
+        <v>11584</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R120" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S120" t="n">
-        <v>1505</v>
+        <v>1655</v>
       </c>
       <c r="T120" t="n">
         <v>7</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44372</v>
+        <v>44186</v>
       </c>
       <c r="E121" t="n">
         <v>9</v>
@@ -10044,29 +10044,29 @@
         </is>
       </c>
       <c r="M121" t="n">
-        <v>35</v>
+        <v>235</v>
       </c>
       <c r="N121" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O121" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P121" t="n">
-        <v>17000</v>
+        <v>10532</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R121" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S121" t="n">
-        <v>2429</v>
+        <v>1505</v>
       </c>
       <c r="T121" t="n">
         <v>7</v>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44243</v>
+        <v>44372</v>
       </c>
       <c r="E122" t="n">
         <v>9</v>
@@ -10124,29 +10124,29 @@
         </is>
       </c>
       <c r="M122" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="N122" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="O122" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="P122" t="n">
-        <v>7450</v>
+        <v>17000</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R122" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S122" t="n">
-        <v>1064</v>
+        <v>2429</v>
       </c>
       <c r="T122" t="n">
         <v>7</v>
@@ -10200,20 +10200,20 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M123" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N123" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O123" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P123" t="n">
-        <v>5000</v>
+        <v>7450</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>714</v>
+        <v>1064</v>
       </c>
       <c r="T123" t="n">
         <v>7</v>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44202</v>
+        <v>44243</v>
       </c>
       <c r="E124" t="n">
         <v>9</v>
@@ -10280,20 +10280,20 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M124" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="N124" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O124" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P124" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -10302,11 +10302,11 @@
       </c>
       <c r="R124" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S124" t="n">
-        <v>1000</v>
+        <v>714</v>
       </c>
       <c r="T124" t="n">
         <v>7</v>
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44242</v>
+        <v>44202</v>
       </c>
       <c r="E125" t="n">
         <v>9</v>
@@ -10364,16 +10364,16 @@
         </is>
       </c>
       <c r="M125" t="n">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="N125" t="n">
         <v>7000</v>
       </c>
       <c r="O125" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P125" t="n">
-        <v>7448</v>
+        <v>7000</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -10382,11 +10382,11 @@
       </c>
       <c r="R125" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S125" t="n">
-        <v>1064</v>
+        <v>1000</v>
       </c>
       <c r="T125" t="n">
         <v>7</v>
@@ -10440,20 +10440,20 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M126" t="n">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="N126" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O126" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P126" t="n">
-        <v>5000</v>
+        <v>7448</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>714</v>
+        <v>1064</v>
       </c>
       <c r="T126" t="n">
         <v>7</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44307</v>
+        <v>44242</v>
       </c>
       <c r="E127" t="n">
         <v>9</v>
@@ -10524,7 +10524,7 @@
         </is>
       </c>
       <c r="M127" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N127" t="n">
         <v>5000</v>
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44159</v>
+        <v>44307</v>
       </c>
       <c r="E128" t="n">
         <v>9</v>
@@ -10600,33 +10600,33 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M128" t="n">
-        <v>550</v>
+        <v>30</v>
       </c>
       <c r="N128" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O128" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P128" t="n">
-        <v>9455</v>
+        <v>5000</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R128" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S128" t="n">
-        <v>1351</v>
+        <v>714</v>
       </c>
       <c r="T128" t="n">
         <v>7</v>
@@ -10684,29 +10684,29 @@
         </is>
       </c>
       <c r="M129" t="n">
-        <v>375</v>
+        <v>550</v>
       </c>
       <c r="N129" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O129" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P129" t="n">
-        <v>7760</v>
+        <v>9455</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R129" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S129" t="n">
-        <v>1109</v>
+        <v>1351</v>
       </c>
       <c r="T129" t="n">
         <v>7</v>
@@ -10760,33 +10760,33 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M130" t="n">
-        <v>155</v>
+        <v>375</v>
       </c>
       <c r="N130" t="n">
         <v>7500</v>
       </c>
       <c r="O130" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="P130" t="n">
-        <v>7500</v>
+        <v>7760</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R130" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S130" t="n">
-        <v>1071</v>
+        <v>1109</v>
       </c>
       <c r="T130" t="n">
         <v>7</v>
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E131" t="n">
         <v>9</v>
@@ -10840,29 +10840,29 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M131" t="n">
-        <v>400</v>
+        <v>155</v>
       </c>
       <c r="N131" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="O131" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="P131" t="n">
         <v>7500</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R131" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S131" t="n">
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44476</v>
+        <v>44166</v>
       </c>
       <c r="E132" t="n">
         <v>9</v>
@@ -10924,29 +10924,29 @@
         </is>
       </c>
       <c r="M132" t="n">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="N132" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O132" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P132" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R132" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S132" t="n">
-        <v>2143</v>
+        <v>1071</v>
       </c>
       <c r="T132" t="n">
         <v>7</v>
@@ -11000,20 +11000,20 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M133" t="n">
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="N133" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O133" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P133" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         </is>
       </c>
       <c r="S133" t="n">
-        <v>1857</v>
+        <v>2143</v>
       </c>
       <c r="T133" t="n">
         <v>7</v>
@@ -11080,20 +11080,20 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M134" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N134" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O134" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P134" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>1143</v>
+        <v>1857</v>
       </c>
       <c r="T134" t="n">
         <v>7</v>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44263</v>
+        <v>44476</v>
       </c>
       <c r="E135" t="n">
         <v>9</v>
@@ -11160,33 +11160,33 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M135" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N135" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O135" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P135" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R135" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S135" t="n">
-        <v>1000</v>
+        <v>1143</v>
       </c>
       <c r="T135" t="n">
         <v>7</v>
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44369</v>
+        <v>44263</v>
       </c>
       <c r="E136" t="n">
         <v>9</v>
@@ -11244,29 +11244,29 @@
         </is>
       </c>
       <c r="M136" t="n">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="N136" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O136" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="P136" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R136" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S136" t="n">
-        <v>2143</v>
+        <v>1000</v>
       </c>
       <c r="T136" t="n">
         <v>7</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E137" t="n">
         <v>9</v>
@@ -11324,29 +11324,29 @@
         </is>
       </c>
       <c r="M137" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="N137" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="O137" t="n">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="P137" t="n">
-        <v>6194</v>
+        <v>15000</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R137" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S137" t="n">
-        <v>885</v>
+        <v>2143</v>
       </c>
       <c r="T137" t="n">
         <v>7</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44223</v>
+        <v>44301</v>
       </c>
       <c r="E138" t="n">
         <v>9</v>
@@ -11404,16 +11404,16 @@
         </is>
       </c>
       <c r="M138" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="N138" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O138" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="P138" t="n">
-        <v>7385</v>
+        <v>6194</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
@@ -11422,11 +11422,11 @@
       </c>
       <c r="R138" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S138" t="n">
-        <v>1055</v>
+        <v>885</v>
       </c>
       <c r="T138" t="n">
         <v>7</v>
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44397</v>
+        <v>44223</v>
       </c>
       <c r="E139" t="n">
         <v>9</v>
@@ -11484,29 +11484,29 @@
         </is>
       </c>
       <c r="M139" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="N139" t="n">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="O139" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="P139" t="n">
-        <v>22000</v>
+        <v>7385</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R139" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S139" t="n">
-        <v>3143</v>
+        <v>1055</v>
       </c>
       <c r="T139" t="n">
         <v>7</v>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E140" t="n">
         <v>9</v>
@@ -11564,29 +11564,29 @@
         </is>
       </c>
       <c r="M140" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N140" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="O140" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="P140" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R140" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S140" t="n">
-        <v>1143</v>
+        <v>3143</v>
       </c>
       <c r="T140" t="n">
         <v>7</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44466</v>
+        <v>44333</v>
       </c>
       <c r="E141" t="n">
         <v>9</v>
@@ -11644,29 +11644,29 @@
         </is>
       </c>
       <c r="M141" t="n">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="N141" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="O141" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P141" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R141" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S141" t="n">
-        <v>2286</v>
+        <v>1143</v>
       </c>
       <c r="T141" t="n">
         <v>7</v>
@@ -11720,20 +11720,20 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M142" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="N142" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O142" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P142" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="S142" t="n">
-        <v>1857</v>
+        <v>2286</v>
       </c>
       <c r="T142" t="n">
         <v>7</v>
@@ -11800,20 +11800,20 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M143" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N143" t="n">
-        <v>800</v>
+        <v>13000</v>
       </c>
       <c r="O143" t="n">
-        <v>800</v>
+        <v>13000</v>
       </c>
       <c r="P143" t="n">
-        <v>800</v>
+        <v>13000</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
@@ -11826,7 +11826,7 @@
         </is>
       </c>
       <c r="S143" t="n">
-        <v>114</v>
+        <v>1857</v>
       </c>
       <c r="T143" t="n">
         <v>7</v>
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E144" t="n">
         <v>9</v>
@@ -11880,33 +11880,33 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M144" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="N144" t="n">
-        <v>7000</v>
+        <v>800</v>
       </c>
       <c r="O144" t="n">
-        <v>7000</v>
+        <v>800</v>
       </c>
       <c r="P144" t="n">
-        <v>7000</v>
+        <v>800</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R144" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S144" t="n">
-        <v>1000</v>
+        <v>114</v>
       </c>
       <c r="T144" t="n">
         <v>7</v>
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44201</v>
+        <v>44270</v>
       </c>
       <c r="E145" t="n">
         <v>9</v>
@@ -11982,7 +11982,7 @@
       </c>
       <c r="R145" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S145" t="n">
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E146" t="n">
         <v>9</v>
@@ -12044,16 +12044,16 @@
         </is>
       </c>
       <c r="M146" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="N146" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O146" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P146" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -12062,11 +12062,11 @@
       </c>
       <c r="R146" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S146" t="n">
-        <v>1429</v>
+        <v>1000</v>
       </c>
       <c r="T146" t="n">
         <v>7</v>
@@ -12120,20 +12120,20 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M147" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="N147" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O147" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P147" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>1286</v>
+        <v>1429</v>
       </c>
       <c r="T147" t="n">
         <v>7</v>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E148" t="n">
         <v>9</v>
@@ -12200,20 +12200,20 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M148" t="n">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="N148" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="O148" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P148" t="n">
-        <v>6786</v>
+        <v>9000</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
@@ -12222,11 +12222,11 @@
       </c>
       <c r="R148" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S148" t="n">
-        <v>969</v>
+        <v>1286</v>
       </c>
       <c r="T148" t="n">
         <v>7</v>
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E149" t="n">
         <v>9</v>
@@ -12284,31 +12284,111 @@
         </is>
       </c>
       <c r="M149" t="n">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="N149" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="O149" t="n">
         <v>7000</v>
       </c>
       <c r="P149" t="n">
+        <v>6786</v>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>$/caja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R149" t="inlineStr">
+        <is>
+          <t>Provincia de Cautín</t>
+        </is>
+      </c>
+      <c r="S149" t="n">
+        <v>969</v>
+      </c>
+      <c r="T149" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>10</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D150" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E150" t="n">
+        <v>9</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>65</v>
+      </c>
+      <c r="N150" t="n">
         <v>7000</v>
       </c>
-      <c r="Q149" t="inlineStr">
+      <c r="O150" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P150" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q150" t="inlineStr">
         <is>
           <t>$/caja 7 kilos</t>
         </is>
       </c>
-      <c r="R149" t="inlineStr">
+      <c r="R150" t="inlineStr">
         <is>
           <t>Provincia de Cautín</t>
         </is>
       </c>
-      <c r="S149" t="n">
+      <c r="S150" t="n">
         <v>1000</v>
       </c>
-      <c r="T149" t="n">
+      <c r="T150" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T150"/>
+  <dimension ref="A1:T152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44277</v>
+        <v>44490</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,29 +1564,29 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>80</v>
+        <v>3200</v>
       </c>
       <c r="N15" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O15" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P15" t="n">
-        <v>6000</v>
+        <v>9469</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>857</v>
+        <v>1353</v>
       </c>
       <c r="T15" t="n">
         <v>7</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44237</v>
+        <v>44490</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1640,33 +1640,33 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="N16" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O16" t="n">
         <v>8000</v>
       </c>
       <c r="P16" t="n">
-        <v>7533</v>
+        <v>8000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1076</v>
+        <v>1143</v>
       </c>
       <c r="T16" t="n">
         <v>7</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44237</v>
+        <v>44277</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="N17" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O17" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P17" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1742,11 +1742,11 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>714</v>
+        <v>857</v>
       </c>
       <c r="T17" t="n">
         <v>7</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44179</v>
+        <v>44237</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,29 +1804,29 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>600</v>
+        <v>75</v>
       </c>
       <c r="N18" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O18" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P18" t="n">
-        <v>10500</v>
+        <v>7533</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1500</v>
+        <v>1076</v>
       </c>
       <c r="T18" t="n">
         <v>7</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44179</v>
+        <v>44237</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="N19" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O19" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P19" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1902,11 +1902,11 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1429</v>
+        <v>714</v>
       </c>
       <c r="T19" t="n">
         <v>7</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44302</v>
+        <v>44179</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1964,29 +1964,29 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>55</v>
+        <v>600</v>
       </c>
       <c r="N20" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O20" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="P20" t="n">
-        <v>6000</v>
+        <v>10500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>857</v>
+        <v>1500</v>
       </c>
       <c r="T20" t="n">
         <v>7</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44253</v>
+        <v>44179</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N21" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O21" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P21" t="n">
-        <v>7417</v>
+        <v>10000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1060</v>
+        <v>1429</v>
       </c>
       <c r="T21" t="n">
         <v>7</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44253</v>
+        <v>44302</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N22" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O22" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P22" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2142,11 +2142,11 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>714</v>
+        <v>857</v>
       </c>
       <c r="T22" t="n">
         <v>7</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44459</v>
+        <v>44253</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2200,33 +2200,33 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N23" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="O23" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P23" t="n">
-        <v>16000</v>
+        <v>7417</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2286</v>
+        <v>1060</v>
       </c>
       <c r="T23" t="n">
         <v>7</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44323</v>
+        <v>44253</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>40</v>
       </c>
       <c r="N24" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O24" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P24" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1286</v>
+        <v>714</v>
       </c>
       <c r="T24" t="n">
         <v>7</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44323</v>
+        <v>44459</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2364,29 +2364,29 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N25" t="n">
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="O25" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="P25" t="n">
-        <v>4500</v>
+        <v>16000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>643</v>
+        <v>2286</v>
       </c>
       <c r="T25" t="n">
         <v>7</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44462</v>
+        <v>44323</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2440,33 +2440,33 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N26" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O26" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P26" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1429</v>
+        <v>1286</v>
       </c>
       <c r="T26" t="n">
         <v>7</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44194</v>
+        <v>44323</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2520,33 +2520,33 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>600</v>
+        <v>30</v>
       </c>
       <c r="N27" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O27" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P27" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1143</v>
+        <v>643</v>
       </c>
       <c r="T27" t="n">
         <v>7</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44194</v>
+        <v>44462</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2600,33 +2600,33 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="N28" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O28" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P28" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1214</v>
+        <v>1429</v>
       </c>
       <c r="T28" t="n">
         <v>7</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44160</v>
+        <v>44194</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2684,29 +2684,29 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>320</v>
+        <v>600</v>
       </c>
       <c r="N29" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="O29" t="n">
         <v>8000</v>
       </c>
       <c r="P29" t="n">
-        <v>7734</v>
+        <v>8000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1105</v>
+        <v>1143</v>
       </c>
       <c r="T29" t="n">
         <v>7</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44460</v>
+        <v>44194</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2760,33 +2760,33 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="N30" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="O30" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="P30" t="n">
-        <v>20000</v>
+        <v>8500</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>2857</v>
+        <v>1214</v>
       </c>
       <c r="T30" t="n">
         <v>7</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44460</v>
+        <v>44160</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2840,33 +2840,33 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>20</v>
+        <v>320</v>
       </c>
       <c r="N31" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="O31" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P31" t="n">
-        <v>10000</v>
+        <v>7734</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1429</v>
+        <v>1105</v>
       </c>
       <c r="T31" t="n">
         <v>7</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44487</v>
+        <v>44460</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>2700</v>
+        <v>50</v>
       </c>
       <c r="N32" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O32" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P32" t="n">
-        <v>11556</v>
+        <v>20000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1651</v>
+        <v>2857</v>
       </c>
       <c r="T32" t="n">
         <v>7</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44487</v>
+        <v>44460</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="N33" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O33" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P33" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>857</v>
+        <v>1429</v>
       </c>
       <c r="T33" t="n">
         <v>7</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44217</v>
+        <v>44487</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3084,29 +3084,29 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>235</v>
+        <v>2700</v>
       </c>
       <c r="N34" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O34" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P34" t="n">
-        <v>7532</v>
+        <v>11556</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1076</v>
+        <v>1651</v>
       </c>
       <c r="T34" t="n">
         <v>7</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44217</v>
+        <v>44487</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3160,33 +3160,33 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="N35" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="O35" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="P35" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>786</v>
+        <v>857</v>
       </c>
       <c r="T35" t="n">
         <v>7</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44238</v>
+        <v>44217</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S36" t="n">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44238</v>
+        <v>44217</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3327,13 +3327,13 @@
         <v>85</v>
       </c>
       <c r="N37" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="O37" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="P37" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3342,11 +3342,11 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>714</v>
+        <v>786</v>
       </c>
       <c r="T37" t="n">
         <v>7</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44260</v>
+        <v>44238</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>45</v>
+        <v>235</v>
       </c>
       <c r="N38" t="n">
         <v>7000</v>
       </c>
       <c r="O38" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P38" t="n">
-        <v>7000</v>
+        <v>7532</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3422,11 +3422,11 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1000</v>
+        <v>1076</v>
       </c>
       <c r="T38" t="n">
         <v>7</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44211</v>
+        <v>44238</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>270</v>
+        <v>85</v>
       </c>
       <c r="N39" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O39" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P39" t="n">
-        <v>7556</v>
+        <v>5000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3502,11 +3502,11 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1079</v>
+        <v>714</v>
       </c>
       <c r="T39" t="n">
         <v>7</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44272</v>
+        <v>44260</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N40" t="n">
         <v>7000</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44218</v>
+        <v>44211</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3644,7 +3644,7 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>155</v>
+        <v>270</v>
       </c>
       <c r="N41" t="n">
         <v>7000</v>
@@ -3653,7 +3653,7 @@
         <v>8000</v>
       </c>
       <c r="P41" t="n">
-        <v>7516</v>
+        <v>7556</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1074</v>
+        <v>1079</v>
       </c>
       <c r="T41" t="n">
         <v>7</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44218</v>
+        <v>44272</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
         <v>65</v>
       </c>
       <c r="N42" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="O42" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="P42" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>786</v>
+        <v>1000</v>
       </c>
       <c r="T42" t="n">
         <v>7</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44210</v>
+        <v>44218</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3804,16 +3804,16 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>500</v>
+        <v>155</v>
       </c>
       <c r="N43" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O43" t="n">
         <v>8000</v>
       </c>
       <c r="P43" t="n">
-        <v>8000</v>
+        <v>7516</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1143</v>
+        <v>1074</v>
       </c>
       <c r="T43" t="n">
         <v>7</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44257</v>
+        <v>44218</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="N44" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="O44" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="P44" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1000</v>
+        <v>786</v>
       </c>
       <c r="T44" t="n">
         <v>7</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44200</v>
+        <v>44210</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3964,16 +3964,16 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="N45" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O45" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P45" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3982,11 +3982,11 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1000</v>
+        <v>1143</v>
       </c>
       <c r="T45" t="n">
         <v>7</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44200</v>
+        <v>44257</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="N46" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="O46" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="P46" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4062,11 +4062,11 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>786</v>
+        <v>1000</v>
       </c>
       <c r="T46" t="n">
         <v>7</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44246</v>
+        <v>44200</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="N47" t="n">
         <v>7000</v>
       </c>
       <c r="O47" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P47" t="n">
-        <v>7417</v>
+        <v>7000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4142,11 +4142,11 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1060</v>
+        <v>1000</v>
       </c>
       <c r="T47" t="n">
         <v>7</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44246</v>
+        <v>44200</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -4204,16 +4204,16 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="N48" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="O48" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="P48" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4222,11 +4222,11 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>714</v>
+        <v>786</v>
       </c>
       <c r="T48" t="n">
         <v>7</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44295</v>
+        <v>44246</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -4284,16 +4284,16 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N49" t="n">
         <v>7000</v>
       </c>
       <c r="O49" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P49" t="n">
-        <v>7000</v>
+        <v>7417</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1000</v>
+        <v>1060</v>
       </c>
       <c r="T49" t="n">
         <v>7</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44225</v>
+        <v>44246</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -4360,20 +4360,20 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N50" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O50" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P50" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1071</v>
+        <v>714</v>
       </c>
       <c r="T50" t="n">
         <v>7</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44399</v>
+        <v>44295</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4444,29 +4444,29 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="N51" t="n">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="O51" t="n">
-        <v>23000</v>
+        <v>7000</v>
       </c>
       <c r="P51" t="n">
-        <v>22538</v>
+        <v>7000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S51" t="n">
-        <v>3220</v>
+        <v>1000</v>
       </c>
       <c r="T51" t="n">
         <v>7</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44175</v>
+        <v>44225</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4524,16 +4524,16 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="N52" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O52" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P52" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1286</v>
+        <v>1071</v>
       </c>
       <c r="T52" t="n">
         <v>7</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44364</v>
+        <v>44399</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4604,16 +4604,16 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="N53" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O53" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="P53" t="n">
-        <v>20000</v>
+        <v>22538</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>2857</v>
+        <v>3220</v>
       </c>
       <c r="T53" t="n">
         <v>7</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44188</v>
+        <v>44175</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4684,29 +4684,29 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="N54" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O54" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P54" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S54" t="n">
-        <v>1857</v>
+        <v>1286</v>
       </c>
       <c r="T54" t="n">
         <v>7</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44477</v>
+        <v>44364</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4764,16 +4764,16 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>800</v>
+        <v>40</v>
       </c>
       <c r="N55" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O55" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P55" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>2000</v>
+        <v>2857</v>
       </c>
       <c r="T55" t="n">
         <v>7</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44477</v>
+        <v>44188</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4840,20 +4840,20 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="N56" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O56" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P56" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4862,11 +4862,11 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S56" t="n">
-        <v>1571</v>
+        <v>1857</v>
       </c>
       <c r="T56" t="n">
         <v>7</v>
@@ -4920,20 +4920,20 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>80</v>
+        <v>800</v>
       </c>
       <c r="N57" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O57" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="P57" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T57" t="n">
         <v>7</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44245</v>
+        <v>44477</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -5000,33 +5000,33 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="N58" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O58" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P58" t="n">
-        <v>7360</v>
+        <v>11000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S58" t="n">
-        <v>1051</v>
+        <v>1571</v>
       </c>
       <c r="T58" t="n">
         <v>7</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44245</v>
+        <v>44477</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -5080,33 +5080,33 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="N59" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O59" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P59" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S59" t="n">
-        <v>714</v>
+        <v>1000</v>
       </c>
       <c r="T59" t="n">
         <v>7</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44216</v>
+        <v>44245</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -5164,7 +5164,7 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="N60" t="n">
         <v>7000</v>
@@ -5173,7 +5173,7 @@
         <v>8000</v>
       </c>
       <c r="P60" t="n">
-        <v>7579</v>
+        <v>7360</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>1083</v>
+        <v>1051</v>
       </c>
       <c r="T60" t="n">
         <v>7</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44216</v>
+        <v>44245</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="N61" t="n">
         <v>5000</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44284</v>
+        <v>44216</v>
       </c>
       <c r="E62" t="n">
         <v>9</v>
@@ -5324,16 +5324,16 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="N62" t="n">
         <v>7000</v>
       </c>
       <c r="O62" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P62" t="n">
-        <v>7000</v>
+        <v>7579</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5342,11 +5342,11 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S62" t="n">
-        <v>1000</v>
+        <v>1083</v>
       </c>
       <c r="T62" t="n">
         <v>7</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44174</v>
+        <v>44216</v>
       </c>
       <c r="E63" t="n">
         <v>9</v>
@@ -5400,20 +5400,20 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="N63" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O63" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P63" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>1429</v>
+        <v>714</v>
       </c>
       <c r="T63" t="n">
         <v>7</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44244</v>
+        <v>44284</v>
       </c>
       <c r="E64" t="n">
         <v>9</v>
@@ -5484,16 +5484,16 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="N64" t="n">
         <v>7000</v>
       </c>
       <c r="O64" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P64" t="n">
-        <v>7462</v>
+        <v>7000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5502,11 +5502,11 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S64" t="n">
-        <v>1066</v>
+        <v>1000</v>
       </c>
       <c r="T64" t="n">
         <v>7</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44244</v>
+        <v>44174</v>
       </c>
       <c r="E65" t="n">
         <v>9</v>
@@ -5560,20 +5560,20 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="N65" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O65" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P65" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>714</v>
+        <v>1429</v>
       </c>
       <c r="T65" t="n">
         <v>7</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44482</v>
+        <v>44244</v>
       </c>
       <c r="E66" t="n">
         <v>9</v>
@@ -5644,29 +5644,29 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="N66" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O66" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P66" t="n">
-        <v>12000</v>
+        <v>7462</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S66" t="n">
-        <v>1714</v>
+        <v>1066</v>
       </c>
       <c r="T66" t="n">
         <v>7</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44271</v>
+        <v>44244</v>
       </c>
       <c r="E67" t="n">
         <v>9</v>
@@ -5720,20 +5720,20 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N67" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O67" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P67" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>1000</v>
+        <v>714</v>
       </c>
       <c r="T67" t="n">
         <v>7</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44483</v>
+        <v>44482</v>
       </c>
       <c r="E68" t="n">
         <v>9</v>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>265</v>
+        <v>110</v>
       </c>
       <c r="N68" t="n">
         <v>12000</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44483</v>
+        <v>44271</v>
       </c>
       <c r="E69" t="n">
         <v>9</v>
@@ -5880,11 +5880,11 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="N69" t="n">
         <v>7000</v>
@@ -5897,12 +5897,12 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S69" t="n">
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44463</v>
+        <v>44483</v>
       </c>
       <c r="E70" t="n">
         <v>9</v>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>150</v>
+        <v>265</v>
       </c>
       <c r="N70" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O70" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P70" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>2857</v>
+        <v>1714</v>
       </c>
       <c r="T70" t="n">
         <v>7</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44463</v>
+        <v>44483</v>
       </c>
       <c r="E71" t="n">
         <v>9</v>
@@ -6040,20 +6040,20 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="N71" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O71" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P71" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>1429</v>
+        <v>1000</v>
       </c>
       <c r="T71" t="n">
         <v>7</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44224</v>
+        <v>44463</v>
       </c>
       <c r="E72" t="n">
         <v>9</v>
@@ -6124,29 +6124,29 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="N72" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O72" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P72" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S72" t="n">
-        <v>1071</v>
+        <v>2857</v>
       </c>
       <c r="T72" t="n">
         <v>7</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44264</v>
+        <v>44463</v>
       </c>
       <c r="E73" t="n">
         <v>9</v>
@@ -6200,33 +6200,33 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N73" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O73" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P73" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S73" t="n">
-        <v>1000</v>
+        <v>1429</v>
       </c>
       <c r="T73" t="n">
         <v>7</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E74" t="n">
         <v>9</v>
@@ -6284,29 +6284,29 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="N74" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O74" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P74" t="n">
-        <v>12583</v>
+        <v>7500</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S74" t="n">
-        <v>1798</v>
+        <v>1071</v>
       </c>
       <c r="T74" t="n">
         <v>7</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44195</v>
+        <v>44264</v>
       </c>
       <c r="E75" t="n">
         <v>9</v>
@@ -6364,16 +6364,16 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N75" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O75" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P75" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>1429</v>
+        <v>1000</v>
       </c>
       <c r="T75" t="n">
         <v>7</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44209</v>
+        <v>44195</v>
       </c>
       <c r="E76" t="n">
         <v>9</v>
@@ -6444,29 +6444,29 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="N76" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O76" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P76" t="n">
-        <v>8500</v>
+        <v>12583</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S76" t="n">
-        <v>1214</v>
+        <v>1798</v>
       </c>
       <c r="T76" t="n">
         <v>7</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44484</v>
+        <v>44195</v>
       </c>
       <c r="E77" t="n">
         <v>9</v>
@@ -6524,29 +6524,29 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N77" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O77" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P77" t="n">
-        <v>11432</v>
+        <v>10000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S77" t="n">
-        <v>1633</v>
+        <v>1429</v>
       </c>
       <c r="T77" t="n">
         <v>7</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44484</v>
+        <v>44209</v>
       </c>
       <c r="E78" t="n">
         <v>9</v>
@@ -6600,33 +6600,33 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="N78" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O78" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P78" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S78" t="n">
-        <v>1000</v>
+        <v>1214</v>
       </c>
       <c r="T78" t="n">
         <v>7</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44294</v>
+        <v>44484</v>
       </c>
       <c r="E79" t="n">
         <v>9</v>
@@ -6684,29 +6684,29 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="N79" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O79" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P79" t="n">
-        <v>7000</v>
+        <v>11432</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S79" t="n">
-        <v>1000</v>
+        <v>1633</v>
       </c>
       <c r="T79" t="n">
         <v>7</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44232</v>
+        <v>44484</v>
       </c>
       <c r="E80" t="n">
         <v>9</v>
@@ -6760,33 +6760,33 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="N80" t="n">
         <v>7000</v>
       </c>
       <c r="O80" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P80" t="n">
-        <v>7550</v>
+        <v>7000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S80" t="n">
-        <v>1079</v>
+        <v>1000</v>
       </c>
       <c r="T80" t="n">
         <v>7</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44454</v>
+        <v>44294</v>
       </c>
       <c r="E81" t="n">
         <v>9</v>
@@ -6840,33 +6840,33 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N81" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="O81" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="P81" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S81" t="n">
-        <v>2571</v>
+        <v>1000</v>
       </c>
       <c r="T81" t="n">
         <v>7</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44473</v>
+        <v>44232</v>
       </c>
       <c r="E82" t="n">
         <v>9</v>
@@ -6924,29 +6924,29 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>1300</v>
+        <v>100</v>
       </c>
       <c r="N82" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O82" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P82" t="n">
-        <v>15538</v>
+        <v>7550</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S82" t="n">
-        <v>2220</v>
+        <v>1079</v>
       </c>
       <c r="T82" t="n">
         <v>7</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44473</v>
+        <v>44454</v>
       </c>
       <c r="E83" t="n">
         <v>9</v>
@@ -7000,20 +7000,20 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N83" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="O83" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="P83" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>1143</v>
+        <v>2571</v>
       </c>
       <c r="T83" t="n">
         <v>7</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44273</v>
+        <v>44473</v>
       </c>
       <c r="E84" t="n">
         <v>9</v>
@@ -7084,29 +7084,29 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>80</v>
+        <v>1300</v>
       </c>
       <c r="N84" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="O84" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="P84" t="n">
-        <v>6562</v>
+        <v>15538</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S84" t="n">
-        <v>937</v>
+        <v>2220</v>
       </c>
       <c r="T84" t="n">
         <v>7</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44236</v>
+        <v>44473</v>
       </c>
       <c r="E85" t="n">
         <v>9</v>
@@ -7160,33 +7160,33 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N85" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O85" t="n">
         <v>8000</v>
       </c>
       <c r="P85" t="n">
-        <v>7542</v>
+        <v>8000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S85" t="n">
-        <v>1077</v>
+        <v>1143</v>
       </c>
       <c r="T85" t="n">
         <v>7</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44236</v>
+        <v>44273</v>
       </c>
       <c r="E86" t="n">
         <v>9</v>
@@ -7240,20 +7240,20 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="N86" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O86" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P86" t="n">
-        <v>5000</v>
+        <v>6562</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7262,11 +7262,11 @@
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S86" t="n">
-        <v>714</v>
+        <v>937</v>
       </c>
       <c r="T86" t="n">
         <v>7</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44215</v>
+        <v>44236</v>
       </c>
       <c r="E87" t="n">
         <v>9</v>
@@ -7342,7 +7342,7 @@
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S87" t="n">
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44235</v>
+        <v>44236</v>
       </c>
       <c r="E88" t="n">
         <v>9</v>
@@ -7400,20 +7400,20 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="N88" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O88" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P88" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>1143</v>
+        <v>714</v>
       </c>
       <c r="T88" t="n">
         <v>7</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44235</v>
+        <v>44215</v>
       </c>
       <c r="E89" t="n">
         <v>9</v>
@@ -7480,20 +7480,20 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="N89" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O89" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P89" t="n">
-        <v>5000</v>
+        <v>7542</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7502,11 +7502,11 @@
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S89" t="n">
-        <v>714</v>
+        <v>1077</v>
       </c>
       <c r="T89" t="n">
         <v>7</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44203</v>
+        <v>44235</v>
       </c>
       <c r="E90" t="n">
         <v>9</v>
@@ -7564,16 +7564,16 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="N90" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O90" t="n">
         <v>8000</v>
       </c>
       <c r="P90" t="n">
-        <v>7543</v>
+        <v>8000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>1078</v>
+        <v>1143</v>
       </c>
       <c r="T90" t="n">
         <v>7</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44203</v>
+        <v>44235</v>
       </c>
       <c r="E91" t="n">
         <v>9</v>
@@ -7647,13 +7647,13 @@
         <v>65</v>
       </c>
       <c r="N91" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="O91" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="P91" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>786</v>
+        <v>714</v>
       </c>
       <c r="T91" t="n">
         <v>7</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44291</v>
+        <v>44203</v>
       </c>
       <c r="E92" t="n">
         <v>9</v>
@@ -7724,16 +7724,16 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="N92" t="n">
         <v>7000</v>
       </c>
       <c r="O92" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P92" t="n">
-        <v>7000</v>
+        <v>7543</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7742,11 +7742,11 @@
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S92" t="n">
-        <v>1000</v>
+        <v>1078</v>
       </c>
       <c r="T92" t="n">
         <v>7</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44291</v>
+        <v>44203</v>
       </c>
       <c r="E93" t="n">
         <v>9</v>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N93" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="O93" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="P93" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7822,11 +7822,11 @@
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S93" t="n">
-        <v>857</v>
+        <v>786</v>
       </c>
       <c r="T93" t="n">
         <v>7</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44469</v>
+        <v>44291</v>
       </c>
       <c r="E94" t="n">
         <v>9</v>
@@ -7884,29 +7884,29 @@
         </is>
       </c>
       <c r="M94" t="n">
-        <v>3000</v>
+        <v>200</v>
       </c>
       <c r="N94" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O94" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="P94" t="n">
-        <v>15333</v>
+        <v>7000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S94" t="n">
-        <v>2190</v>
+        <v>1000</v>
       </c>
       <c r="T94" t="n">
         <v>7</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44469</v>
+        <v>44291</v>
       </c>
       <c r="E95" t="n">
         <v>9</v>
@@ -7960,33 +7960,33 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N95" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O95" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P95" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S95" t="n">
-        <v>1000</v>
+        <v>857</v>
       </c>
       <c r="T95" t="n">
         <v>7</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44488</v>
+        <v>44469</v>
       </c>
       <c r="E96" t="n">
         <v>9</v>
@@ -8044,16 +8044,16 @@
         </is>
       </c>
       <c r="M96" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="N96" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O96" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P96" t="n">
-        <v>10000</v>
+        <v>15333</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>1429</v>
+        <v>2190</v>
       </c>
       <c r="T96" t="n">
         <v>7</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44488</v>
+        <v>44469</v>
       </c>
       <c r="E97" t="n">
         <v>9</v>
@@ -8124,7 +8124,7 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N97" t="n">
         <v>7000</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44168</v>
+        <v>44488</v>
       </c>
       <c r="E98" t="n">
         <v>9</v>
@@ -8200,20 +8200,20 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="N98" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O98" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P98" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -8222,11 +8222,11 @@
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S98" t="n">
-        <v>1714</v>
+        <v>1429</v>
       </c>
       <c r="T98" t="n">
         <v>7</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44168</v>
+        <v>44488</v>
       </c>
       <c r="E99" t="n">
         <v>9</v>
@@ -8280,20 +8280,20 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="N99" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O99" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P99" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8302,11 +8302,11 @@
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S99" t="n">
-        <v>1429</v>
+        <v>1000</v>
       </c>
       <c r="T99" t="n">
         <v>7</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44161</v>
+        <v>44168</v>
       </c>
       <c r="E100" t="n">
         <v>9</v>
@@ -8360,20 +8360,20 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="N100" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O100" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P100" t="n">
-        <v>9455</v>
+        <v>12000</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8382,11 +8382,11 @@
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S100" t="n">
-        <v>1351</v>
+        <v>1714</v>
       </c>
       <c r="T100" t="n">
         <v>7</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44161</v>
+        <v>44168</v>
       </c>
       <c r="E101" t="n">
         <v>9</v>
@@ -8444,29 +8444,29 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>305</v>
+        <v>600</v>
       </c>
       <c r="N101" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="O101" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P101" t="n">
-        <v>6705</v>
+        <v>10000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S101" t="n">
-        <v>958</v>
+        <v>1429</v>
       </c>
       <c r="T101" t="n">
         <v>7</v>
@@ -8520,33 +8520,33 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>180</v>
+        <v>550</v>
       </c>
       <c r="N102" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O102" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="P102" t="n">
-        <v>4000</v>
+        <v>9455</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S102" t="n">
-        <v>571</v>
+        <v>1351</v>
       </c>
       <c r="T102" t="n">
         <v>7</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44214</v>
+        <v>44161</v>
       </c>
       <c r="E103" t="n">
         <v>9</v>
@@ -8604,16 +8604,16 @@
         </is>
       </c>
       <c r="M103" t="n">
-        <v>55</v>
+        <v>305</v>
       </c>
       <c r="N103" t="n">
+        <v>6500</v>
+      </c>
+      <c r="O103" t="n">
         <v>7000</v>
       </c>
-      <c r="O103" t="n">
-        <v>8000</v>
-      </c>
       <c r="P103" t="n">
-        <v>7455</v>
+        <v>6705</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>1065</v>
+        <v>958</v>
       </c>
       <c r="T103" t="n">
         <v>7</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44214</v>
+        <v>44161</v>
       </c>
       <c r="E104" t="n">
         <v>9</v>
@@ -8684,16 +8684,16 @@
         </is>
       </c>
       <c r="M104" t="n">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="N104" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="O104" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="P104" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>643</v>
+        <v>571</v>
       </c>
       <c r="T104" t="n">
         <v>7</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E105" t="n">
         <v>9</v>
@@ -8764,16 +8764,16 @@
         </is>
       </c>
       <c r="M105" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="N105" t="n">
         <v>7000</v>
       </c>
       <c r="O105" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P105" t="n">
-        <v>7000</v>
+        <v>7455</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>1000</v>
+        <v>1065</v>
       </c>
       <c r="T105" t="n">
         <v>7</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44274</v>
+        <v>44214</v>
       </c>
       <c r="E106" t="n">
         <v>9</v>
@@ -8840,20 +8840,20 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="N106" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="O106" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="P106" t="n">
-        <v>6579</v>
+        <v>4500</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>940</v>
+        <v>643</v>
       </c>
       <c r="T106" t="n">
         <v>7</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44489</v>
+        <v>44280</v>
       </c>
       <c r="E107" t="n">
         <v>9</v>
@@ -8924,29 +8924,29 @@
         </is>
       </c>
       <c r="M107" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="N107" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O107" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P107" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S107" t="n">
-        <v>1286</v>
+        <v>1000</v>
       </c>
       <c r="T107" t="n">
         <v>7</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44165</v>
+        <v>44274</v>
       </c>
       <c r="E108" t="n">
         <v>9</v>
@@ -9000,33 +9000,33 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M108" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="N108" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="O108" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P108" t="n">
-        <v>11000</v>
+        <v>6579</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S108" t="n">
-        <v>1571</v>
+        <v>940</v>
       </c>
       <c r="T108" t="n">
         <v>7</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44165</v>
+        <v>44489</v>
       </c>
       <c r="E109" t="n">
         <v>9</v>
@@ -9084,16 +9084,16 @@
         </is>
       </c>
       <c r="M109" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="N109" t="n">
         <v>9000</v>
       </c>
       <c r="O109" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P109" t="n">
-        <v>9571</v>
+        <v>9000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>1367</v>
+        <v>1286</v>
       </c>
       <c r="T109" t="n">
         <v>7</v>
@@ -9160,20 +9160,20 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="N110" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O110" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P110" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         </is>
       </c>
       <c r="S110" t="n">
-        <v>1357</v>
+        <v>1571</v>
       </c>
       <c r="T110" t="n">
         <v>7</v>
@@ -9244,29 +9244,29 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N111" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O111" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P111" t="n">
-        <v>8500</v>
+        <v>9571</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S111" t="n">
-        <v>1214</v>
+        <v>1367</v>
       </c>
       <c r="T111" t="n">
         <v>7</v>
@@ -9320,20 +9320,20 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M112" t="n">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="N112" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O112" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P112" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9342,11 +9342,11 @@
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S112" t="n">
-        <v>1000</v>
+        <v>1357</v>
       </c>
       <c r="T112" t="n">
         <v>7</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44258</v>
+        <v>44165</v>
       </c>
       <c r="E113" t="n">
         <v>9</v>
@@ -9404,16 +9404,16 @@
         </is>
       </c>
       <c r="M113" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="N113" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O113" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P113" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>1000</v>
+        <v>1214</v>
       </c>
       <c r="T113" t="n">
         <v>7</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44475</v>
+        <v>44165</v>
       </c>
       <c r="E114" t="n">
         <v>9</v>
@@ -9480,20 +9480,20 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M114" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N114" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O114" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="P114" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>2143</v>
+        <v>1000</v>
       </c>
       <c r="T114" t="n">
         <v>7</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44474</v>
+        <v>44258</v>
       </c>
       <c r="E115" t="n">
         <v>9</v>
@@ -9564,29 +9564,29 @@
         </is>
       </c>
       <c r="M115" t="n">
-        <v>300</v>
+        <v>65</v>
       </c>
       <c r="N115" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O115" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="P115" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S115" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="T115" t="n">
         <v>7</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44252</v>
+        <v>44475</v>
       </c>
       <c r="E116" t="n">
         <v>9</v>
@@ -9644,29 +9644,29 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N116" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O116" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P116" t="n">
-        <v>7568</v>
+        <v>15000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S116" t="n">
-        <v>1081</v>
+        <v>2143</v>
       </c>
       <c r="T116" t="n">
         <v>7</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E117" t="n">
         <v>9</v>
@@ -9720,33 +9720,33 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="N117" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="O117" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="P117" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S117" t="n">
-        <v>714</v>
+        <v>2000</v>
       </c>
       <c r="T117" t="n">
         <v>7</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E118" t="n">
         <v>9</v>
@@ -9804,7 +9804,7 @@
         </is>
       </c>
       <c r="M118" t="n">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="N118" t="n">
         <v>7000</v>
@@ -9813,7 +9813,7 @@
         <v>8000</v>
       </c>
       <c r="P118" t="n">
-        <v>7390</v>
+        <v>7568</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9822,11 +9822,11 @@
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S118" t="n">
-        <v>1056</v>
+        <v>1081</v>
       </c>
       <c r="T118" t="n">
         <v>7</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E119" t="n">
         <v>9</v>
@@ -9884,16 +9884,16 @@
         </is>
       </c>
       <c r="M119" t="n">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="N119" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="O119" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="P119" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9902,11 +9902,11 @@
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S119" t="n">
-        <v>786</v>
+        <v>714</v>
       </c>
       <c r="T119" t="n">
         <v>7</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44186</v>
+        <v>44204</v>
       </c>
       <c r="E120" t="n">
         <v>9</v>
@@ -9964,29 +9964,29 @@
         </is>
       </c>
       <c r="M120" t="n">
-        <v>625</v>
+        <v>205</v>
       </c>
       <c r="N120" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O120" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P120" t="n">
-        <v>11584</v>
+        <v>7390</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R120" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S120" t="n">
-        <v>1655</v>
+        <v>1056</v>
       </c>
       <c r="T120" t="n">
         <v>7</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44186</v>
+        <v>44204</v>
       </c>
       <c r="E121" t="n">
         <v>9</v>
@@ -10040,20 +10040,20 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>235</v>
+        <v>45</v>
       </c>
       <c r="N121" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="O121" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="P121" t="n">
-        <v>10532</v>
+        <v>5500</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>1505</v>
+        <v>786</v>
       </c>
       <c r="T121" t="n">
         <v>7</v>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44372</v>
+        <v>44186</v>
       </c>
       <c r="E122" t="n">
         <v>9</v>
@@ -10124,16 +10124,16 @@
         </is>
       </c>
       <c r="M122" t="n">
-        <v>35</v>
+        <v>625</v>
       </c>
       <c r="N122" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="O122" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P122" t="n">
-        <v>17000</v>
+        <v>11584</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
@@ -10142,11 +10142,11 @@
       </c>
       <c r="R122" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S122" t="n">
-        <v>2429</v>
+        <v>1655</v>
       </c>
       <c r="T122" t="n">
         <v>7</v>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44243</v>
+        <v>44186</v>
       </c>
       <c r="E123" t="n">
         <v>9</v>
@@ -10204,16 +10204,16 @@
         </is>
       </c>
       <c r="M123" t="n">
-        <v>100</v>
+        <v>235</v>
       </c>
       <c r="N123" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O123" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P123" t="n">
-        <v>7450</v>
+        <v>10532</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -10222,11 +10222,11 @@
       </c>
       <c r="R123" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S123" t="n">
-        <v>1064</v>
+        <v>1505</v>
       </c>
       <c r="T123" t="n">
         <v>7</v>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44243</v>
+        <v>44372</v>
       </c>
       <c r="E124" t="n">
         <v>9</v>
@@ -10280,33 +10280,33 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M124" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N124" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="O124" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="P124" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R124" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S124" t="n">
-        <v>714</v>
+        <v>2429</v>
       </c>
       <c r="T124" t="n">
         <v>7</v>
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44202</v>
+        <v>44243</v>
       </c>
       <c r="E125" t="n">
         <v>9</v>
@@ -10364,16 +10364,16 @@
         </is>
       </c>
       <c r="M125" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="N125" t="n">
         <v>7000</v>
       </c>
       <c r="O125" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P125" t="n">
-        <v>7000</v>
+        <v>7450</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -10382,11 +10382,11 @@
       </c>
       <c r="R125" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S125" t="n">
-        <v>1000</v>
+        <v>1064</v>
       </c>
       <c r="T125" t="n">
         <v>7</v>
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44242</v>
+        <v>44243</v>
       </c>
       <c r="E126" t="n">
         <v>9</v>
@@ -10440,20 +10440,20 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M126" t="n">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="N126" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O126" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P126" t="n">
-        <v>7448</v>
+        <v>5000</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>1064</v>
+        <v>714</v>
       </c>
       <c r="T126" t="n">
         <v>7</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44242</v>
+        <v>44202</v>
       </c>
       <c r="E127" t="n">
         <v>9</v>
@@ -10520,20 +10520,20 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M127" t="n">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="N127" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O127" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P127" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
@@ -10542,11 +10542,11 @@
       </c>
       <c r="R127" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S127" t="n">
-        <v>714</v>
+        <v>1000</v>
       </c>
       <c r="T127" t="n">
         <v>7</v>
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44307</v>
+        <v>44242</v>
       </c>
       <c r="E128" t="n">
         <v>9</v>
@@ -10600,20 +10600,20 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M128" t="n">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="N128" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O128" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P128" t="n">
-        <v>5000</v>
+        <v>7448</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>714</v>
+        <v>1064</v>
       </c>
       <c r="T128" t="n">
         <v>7</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44159</v>
+        <v>44242</v>
       </c>
       <c r="E129" t="n">
         <v>9</v>
@@ -10680,33 +10680,33 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M129" t="n">
-        <v>550</v>
+        <v>45</v>
       </c>
       <c r="N129" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O129" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P129" t="n">
-        <v>9455</v>
+        <v>5000</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R129" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S129" t="n">
-        <v>1351</v>
+        <v>714</v>
       </c>
       <c r="T129" t="n">
         <v>7</v>
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44159</v>
+        <v>44307</v>
       </c>
       <c r="E130" t="n">
         <v>9</v>
@@ -10760,20 +10760,20 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M130" t="n">
-        <v>375</v>
+        <v>30</v>
       </c>
       <c r="N130" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="O130" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P130" t="n">
-        <v>7760</v>
+        <v>5000</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         </is>
       </c>
       <c r="S130" t="n">
-        <v>1109</v>
+        <v>714</v>
       </c>
       <c r="T130" t="n">
         <v>7</v>
@@ -10840,20 +10840,20 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M131" t="n">
-        <v>155</v>
+        <v>550</v>
       </c>
       <c r="N131" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O131" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="P131" t="n">
-        <v>7500</v>
+        <v>9455</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         </is>
       </c>
       <c r="S131" t="n">
-        <v>1071</v>
+        <v>1351</v>
       </c>
       <c r="T131" t="n">
         <v>7</v>
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E132" t="n">
         <v>9</v>
@@ -10924,16 +10924,16 @@
         </is>
       </c>
       <c r="M132" t="n">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="N132" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="O132" t="n">
         <v>8000</v>
       </c>
       <c r="P132" t="n">
-        <v>7500</v>
+        <v>7760</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="S132" t="n">
-        <v>1071</v>
+        <v>1109</v>
       </c>
       <c r="T132" t="n">
         <v>7</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44476</v>
+        <v>44159</v>
       </c>
       <c r="E133" t="n">
         <v>9</v>
@@ -11000,20 +11000,20 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M133" t="n">
-        <v>4000</v>
+        <v>155</v>
       </c>
       <c r="N133" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="O133" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="P133" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         </is>
       </c>
       <c r="S133" t="n">
-        <v>2143</v>
+        <v>1071</v>
       </c>
       <c r="T133" t="n">
         <v>7</v>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44476</v>
+        <v>44166</v>
       </c>
       <c r="E134" t="n">
         <v>9</v>
@@ -11080,33 +11080,33 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M134" t="n">
         <v>400</v>
       </c>
       <c r="N134" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O134" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P134" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R134" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S134" t="n">
-        <v>1857</v>
+        <v>1071</v>
       </c>
       <c r="T134" t="n">
         <v>7</v>
@@ -11160,20 +11160,20 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M135" t="n">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="N135" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O135" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P135" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         </is>
       </c>
       <c r="S135" t="n">
-        <v>1143</v>
+        <v>2143</v>
       </c>
       <c r="T135" t="n">
         <v>7</v>
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44263</v>
+        <v>44476</v>
       </c>
       <c r="E136" t="n">
         <v>9</v>
@@ -11240,33 +11240,33 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M136" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N136" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O136" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P136" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R136" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S136" t="n">
-        <v>1000</v>
+        <v>1857</v>
       </c>
       <c r="T136" t="n">
         <v>7</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44369</v>
+        <v>44476</v>
       </c>
       <c r="E137" t="n">
         <v>9</v>
@@ -11320,20 +11320,20 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M137" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N137" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O137" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P137" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="S137" t="n">
-        <v>2143</v>
+        <v>1143</v>
       </c>
       <c r="T137" t="n">
         <v>7</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44301</v>
+        <v>44263</v>
       </c>
       <c r="E138" t="n">
         <v>9</v>
@@ -11404,16 +11404,16 @@
         </is>
       </c>
       <c r="M138" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="N138" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O138" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="P138" t="n">
-        <v>6194</v>
+        <v>7000</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
@@ -11422,11 +11422,11 @@
       </c>
       <c r="R138" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S138" t="n">
-        <v>885</v>
+        <v>1000</v>
       </c>
       <c r="T138" t="n">
         <v>7</v>
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44223</v>
+        <v>44369</v>
       </c>
       <c r="E139" t="n">
         <v>9</v>
@@ -11484,29 +11484,29 @@
         </is>
       </c>
       <c r="M139" t="n">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="N139" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O139" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P139" t="n">
-        <v>7385</v>
+        <v>15000</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R139" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S139" t="n">
-        <v>1055</v>
+        <v>2143</v>
       </c>
       <c r="T139" t="n">
         <v>7</v>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44397</v>
+        <v>44301</v>
       </c>
       <c r="E140" t="n">
         <v>9</v>
@@ -11564,29 +11564,29 @@
         </is>
       </c>
       <c r="M140" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="N140" t="n">
-        <v>22000</v>
+        <v>6000</v>
       </c>
       <c r="O140" t="n">
-        <v>22000</v>
+        <v>6500</v>
       </c>
       <c r="P140" t="n">
-        <v>22000</v>
+        <v>6194</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R140" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S140" t="n">
-        <v>3143</v>
+        <v>885</v>
       </c>
       <c r="T140" t="n">
         <v>7</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44333</v>
+        <v>44223</v>
       </c>
       <c r="E141" t="n">
         <v>9</v>
@@ -11644,16 +11644,16 @@
         </is>
       </c>
       <c r="M141" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="N141" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O141" t="n">
         <v>8000</v>
       </c>
       <c r="P141" t="n">
-        <v>8000</v>
+        <v>7385</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         </is>
       </c>
       <c r="S141" t="n">
-        <v>1143</v>
+        <v>1055</v>
       </c>
       <c r="T141" t="n">
         <v>7</v>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44466</v>
+        <v>44397</v>
       </c>
       <c r="E142" t="n">
         <v>9</v>
@@ -11724,16 +11724,16 @@
         </is>
       </c>
       <c r="M142" t="n">
-        <v>800</v>
+        <v>55</v>
       </c>
       <c r="N142" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O142" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P142" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="S142" t="n">
-        <v>2286</v>
+        <v>3143</v>
       </c>
       <c r="T142" t="n">
         <v>7</v>
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44466</v>
+        <v>44333</v>
       </c>
       <c r="E143" t="n">
         <v>9</v>
@@ -11800,33 +11800,33 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M143" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N143" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O143" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P143" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R143" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S143" t="n">
-        <v>1857</v>
+        <v>1143</v>
       </c>
       <c r="T143" t="n">
         <v>7</v>
@@ -11880,20 +11880,20 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M144" t="n">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="N144" t="n">
-        <v>800</v>
+        <v>16000</v>
       </c>
       <c r="O144" t="n">
-        <v>800</v>
+        <v>16000</v>
       </c>
       <c r="P144" t="n">
-        <v>800</v>
+        <v>16000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         </is>
       </c>
       <c r="S144" t="n">
-        <v>114</v>
+        <v>2286</v>
       </c>
       <c r="T144" t="n">
         <v>7</v>
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E145" t="n">
         <v>9</v>
@@ -11960,33 +11960,33 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M145" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="N145" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O145" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P145" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R145" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S145" t="n">
-        <v>1000</v>
+        <v>1857</v>
       </c>
       <c r="T145" t="n">
         <v>7</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44201</v>
+        <v>44466</v>
       </c>
       <c r="E146" t="n">
         <v>9</v>
@@ -12040,33 +12040,33 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M146" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="N146" t="n">
-        <v>7000</v>
+        <v>800</v>
       </c>
       <c r="O146" t="n">
-        <v>7000</v>
+        <v>800</v>
       </c>
       <c r="P146" t="n">
-        <v>7000</v>
+        <v>800</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R146" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S146" t="n">
-        <v>1000</v>
+        <v>114</v>
       </c>
       <c r="T146" t="n">
         <v>7</v>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44193</v>
+        <v>44270</v>
       </c>
       <c r="E147" t="n">
         <v>9</v>
@@ -12124,16 +12124,16 @@
         </is>
       </c>
       <c r="M147" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="N147" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O147" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P147" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>1429</v>
+        <v>1000</v>
       </c>
       <c r="T147" t="n">
         <v>7</v>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E148" t="n">
         <v>9</v>
@@ -12200,20 +12200,20 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M148" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="N148" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O148" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P148" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
@@ -12222,11 +12222,11 @@
       </c>
       <c r="R148" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S148" t="n">
-        <v>1286</v>
+        <v>1000</v>
       </c>
       <c r="T148" t="n">
         <v>7</v>
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E149" t="n">
         <v>9</v>
@@ -12284,16 +12284,16 @@
         </is>
       </c>
       <c r="M149" t="n">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="N149" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="O149" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P149" t="n">
-        <v>6786</v>
+        <v>10000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
@@ -12302,11 +12302,11 @@
       </c>
       <c r="R149" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S149" t="n">
-        <v>969</v>
+        <v>1429</v>
       </c>
       <c r="T149" t="n">
         <v>7</v>
@@ -12327,68 +12327,228 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
+        <v>44193</v>
+      </c>
+      <c r="E150" t="n">
+        <v>9</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>90</v>
+      </c>
+      <c r="N150" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O150" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P150" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>$/caja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="S150" t="n">
+        <v>1286</v>
+      </c>
+      <c r="T150" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>10</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D151" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E151" t="n">
+        <v>9</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>35</v>
+      </c>
+      <c r="N151" t="n">
+        <v>6500</v>
+      </c>
+      <c r="O151" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P151" t="n">
+        <v>6786</v>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>$/caja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R151" t="inlineStr">
+        <is>
+          <t>Provincia de Cautín</t>
+        </is>
+      </c>
+      <c r="S151" t="n">
+        <v>969</v>
+      </c>
+      <c r="T151" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>10</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D152" s="2" t="n">
         <v>44312</v>
       </c>
-      <c r="E150" t="n">
-        <v>9</v>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G150" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I150" t="n">
-        <v>100112025</v>
-      </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>Frutilla</t>
-        </is>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L150" t="inlineStr">
+      <c r="E152" t="n">
+        <v>9</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M150" t="n">
+      <c r="M152" t="n">
         <v>65</v>
       </c>
-      <c r="N150" t="n">
+      <c r="N152" t="n">
         <v>7000</v>
       </c>
-      <c r="O150" t="n">
+      <c r="O152" t="n">
         <v>7000</v>
       </c>
-      <c r="P150" t="n">
+      <c r="P152" t="n">
         <v>7000</v>
       </c>
-      <c r="Q150" t="inlineStr">
+      <c r="Q152" t="inlineStr">
         <is>
           <t>$/caja 7 kilos</t>
         </is>
       </c>
-      <c r="R150" t="inlineStr">
+      <c r="R152" t="inlineStr">
         <is>
           <t>Provincia de Cautín</t>
         </is>
       </c>
-      <c r="S150" t="n">
+      <c r="S152" t="n">
         <v>1000</v>
       </c>
-      <c r="T150" t="n">
+      <c r="T152" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T152"/>
+  <dimension ref="A1:T153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44399</v>
+        <v>44175</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4604,29 +4604,29 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="N53" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="O53" t="n">
-        <v>23000</v>
+        <v>9000</v>
       </c>
       <c r="P53" t="n">
-        <v>22538</v>
+        <v>9000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S53" t="n">
-        <v>3220</v>
+        <v>1286</v>
       </c>
       <c r="T53" t="n">
         <v>7</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44175</v>
+        <v>44364</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4684,29 +4684,29 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="N54" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O54" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="P54" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S54" t="n">
-        <v>1286</v>
+        <v>2857</v>
       </c>
       <c r="T54" t="n">
         <v>7</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44364</v>
+        <v>44188</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4764,16 +4764,16 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="N55" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O55" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P55" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4782,11 +4782,11 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S55" t="n">
-        <v>2857</v>
+        <v>1857</v>
       </c>
       <c r="T55" t="n">
         <v>7</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44188</v>
+        <v>44477</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4844,16 +4844,16 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>90</v>
+        <v>800</v>
       </c>
       <c r="N56" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O56" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P56" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4862,11 +4862,11 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S56" t="n">
-        <v>1857</v>
+        <v>2000</v>
       </c>
       <c r="T56" t="n">
         <v>7</v>
@@ -4920,20 +4920,20 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N57" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O57" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P57" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>2000</v>
+        <v>1571</v>
       </c>
       <c r="T57" t="n">
         <v>7</v>
@@ -5000,20 +5000,20 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N58" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O58" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P58" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>1571</v>
+        <v>1000</v>
       </c>
       <c r="T58" t="n">
         <v>7</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44477</v>
+        <v>44245</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -5080,33 +5080,33 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="N59" t="n">
         <v>7000</v>
       </c>
       <c r="O59" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P59" t="n">
-        <v>7000</v>
+        <v>7360</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S59" t="n">
-        <v>1000</v>
+        <v>1051</v>
       </c>
       <c r="T59" t="n">
         <v>7</v>
@@ -5160,20 +5160,20 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="N60" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O60" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P60" t="n">
-        <v>7360</v>
+        <v>5000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>1051</v>
+        <v>714</v>
       </c>
       <c r="T60" t="n">
         <v>7</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44245</v>
+        <v>44216</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -5240,20 +5240,20 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="N61" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O61" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P61" t="n">
-        <v>5000</v>
+        <v>7579</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>714</v>
+        <v>1083</v>
       </c>
       <c r="T61" t="n">
         <v>7</v>
@@ -5320,20 +5320,20 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="N62" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O62" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P62" t="n">
-        <v>7579</v>
+        <v>5000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>1083</v>
+        <v>714</v>
       </c>
       <c r="T62" t="n">
         <v>7</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44216</v>
+        <v>44284</v>
       </c>
       <c r="E63" t="n">
         <v>9</v>
@@ -5400,20 +5400,20 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N63" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O63" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P63" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5422,11 +5422,11 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S63" t="n">
-        <v>714</v>
+        <v>1000</v>
       </c>
       <c r="T63" t="n">
         <v>7</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44284</v>
+        <v>44174</v>
       </c>
       <c r="E64" t="n">
         <v>9</v>
@@ -5484,16 +5484,16 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="N64" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O64" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P64" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5502,11 +5502,11 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S64" t="n">
-        <v>1000</v>
+        <v>1429</v>
       </c>
       <c r="T64" t="n">
         <v>7</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44174</v>
+        <v>44244</v>
       </c>
       <c r="E65" t="n">
         <v>9</v>
@@ -5564,16 +5564,16 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="N65" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O65" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P65" t="n">
-        <v>10000</v>
+        <v>7462</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>1429</v>
+        <v>1066</v>
       </c>
       <c r="T65" t="n">
         <v>7</v>
@@ -5640,20 +5640,20 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="N66" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O66" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P66" t="n">
-        <v>7462</v>
+        <v>5000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>1066</v>
+        <v>714</v>
       </c>
       <c r="T66" t="n">
         <v>7</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44244</v>
+        <v>44482</v>
       </c>
       <c r="E67" t="n">
         <v>9</v>
@@ -5720,33 +5720,33 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="N67" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O67" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P67" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S67" t="n">
-        <v>714</v>
+        <v>1714</v>
       </c>
       <c r="T67" t="n">
         <v>7</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44482</v>
+        <v>44271</v>
       </c>
       <c r="E68" t="n">
         <v>9</v>
@@ -5804,29 +5804,29 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="N68" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O68" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P68" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S68" t="n">
-        <v>1714</v>
+        <v>1000</v>
       </c>
       <c r="T68" t="n">
         <v>7</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44271</v>
+        <v>44483</v>
       </c>
       <c r="E69" t="n">
         <v>9</v>
@@ -5884,29 +5884,29 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>65</v>
+        <v>265</v>
       </c>
       <c r="N69" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O69" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P69" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S69" t="n">
-        <v>1000</v>
+        <v>1714</v>
       </c>
       <c r="T69" t="n">
         <v>7</v>
@@ -5960,20 +5960,20 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>265</v>
+        <v>110</v>
       </c>
       <c r="N70" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O70" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P70" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>1714</v>
+        <v>1000</v>
       </c>
       <c r="T70" t="n">
         <v>7</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44483</v>
+        <v>44463</v>
       </c>
       <c r="E71" t="n">
         <v>9</v>
@@ -6040,20 +6040,20 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="N71" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O71" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="P71" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>1000</v>
+        <v>2857</v>
       </c>
       <c r="T71" t="n">
         <v>7</v>
@@ -6120,20 +6120,20 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="N72" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O72" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P72" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>2857</v>
+        <v>1429</v>
       </c>
       <c r="T72" t="n">
         <v>7</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44463</v>
+        <v>44224</v>
       </c>
       <c r="E73" t="n">
         <v>9</v>
@@ -6200,33 +6200,33 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>40</v>
+        <v>600</v>
       </c>
       <c r="N73" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O73" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P73" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S73" t="n">
-        <v>1429</v>
+        <v>1071</v>
       </c>
       <c r="T73" t="n">
         <v>7</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44224</v>
+        <v>44264</v>
       </c>
       <c r="E74" t="n">
         <v>9</v>
@@ -6284,16 +6284,16 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>600</v>
+        <v>80</v>
       </c>
       <c r="N74" t="n">
         <v>7000</v>
       </c>
       <c r="O74" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P74" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>1071</v>
+        <v>1000</v>
       </c>
       <c r="T74" t="n">
         <v>7</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44264</v>
+        <v>44195</v>
       </c>
       <c r="E75" t="n">
         <v>9</v>
@@ -6364,29 +6364,29 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="N75" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O75" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P75" t="n">
-        <v>7000</v>
+        <v>12583</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S75" t="n">
-        <v>1000</v>
+        <v>1798</v>
       </c>
       <c r="T75" t="n">
         <v>7</v>
@@ -6444,29 +6444,29 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N76" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O76" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P76" t="n">
-        <v>12583</v>
+        <v>10000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S76" t="n">
-        <v>1798</v>
+        <v>1429</v>
       </c>
       <c r="T76" t="n">
         <v>7</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44195</v>
+        <v>44209</v>
       </c>
       <c r="E77" t="n">
         <v>9</v>
@@ -6524,16 +6524,16 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N77" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O77" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P77" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>1429</v>
+        <v>1214</v>
       </c>
       <c r="T77" t="n">
         <v>7</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44209</v>
+        <v>44484</v>
       </c>
       <c r="E78" t="n">
         <v>9</v>
@@ -6604,29 +6604,29 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="N78" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O78" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P78" t="n">
-        <v>8500</v>
+        <v>11432</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S78" t="n">
-        <v>1214</v>
+        <v>1633</v>
       </c>
       <c r="T78" t="n">
         <v>7</v>
@@ -6680,20 +6680,20 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>220</v>
+        <v>125</v>
       </c>
       <c r="N79" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O79" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P79" t="n">
-        <v>11432</v>
+        <v>7000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>1633</v>
+        <v>1000</v>
       </c>
       <c r="T79" t="n">
         <v>7</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44484</v>
+        <v>44294</v>
       </c>
       <c r="E80" t="n">
         <v>9</v>
@@ -6760,11 +6760,11 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="N80" t="n">
         <v>7000</v>
@@ -6777,12 +6777,12 @@
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S80" t="n">
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44294</v>
+        <v>44232</v>
       </c>
       <c r="E81" t="n">
         <v>9</v>
@@ -6850,10 +6850,10 @@
         <v>7000</v>
       </c>
       <c r="O81" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P81" t="n">
-        <v>7000</v>
+        <v>7550</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6862,11 +6862,11 @@
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S81" t="n">
-        <v>1000</v>
+        <v>1079</v>
       </c>
       <c r="T81" t="n">
         <v>7</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44232</v>
+        <v>44454</v>
       </c>
       <c r="E82" t="n">
         <v>9</v>
@@ -6920,33 +6920,33 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N82" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="O82" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="P82" t="n">
-        <v>7550</v>
+        <v>18000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S82" t="n">
-        <v>1079</v>
+        <v>2571</v>
       </c>
       <c r="T82" t="n">
         <v>7</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44454</v>
+        <v>44473</v>
       </c>
       <c r="E83" t="n">
         <v>9</v>
@@ -7000,20 +7000,20 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>80</v>
+        <v>1300</v>
       </c>
       <c r="N83" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O83" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P83" t="n">
-        <v>18000</v>
+        <v>15538</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>2571</v>
+        <v>2220</v>
       </c>
       <c r="T83" t="n">
         <v>7</v>
@@ -7080,20 +7080,20 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>1300</v>
+        <v>200</v>
       </c>
       <c r="N84" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O84" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P84" t="n">
-        <v>15538</v>
+        <v>8000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>2220</v>
+        <v>1143</v>
       </c>
       <c r="T84" t="n">
         <v>7</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44473</v>
+        <v>44273</v>
       </c>
       <c r="E85" t="n">
         <v>9</v>
@@ -7160,33 +7160,33 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N85" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O85" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P85" t="n">
-        <v>8000</v>
+        <v>6562</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S85" t="n">
-        <v>1143</v>
+        <v>937</v>
       </c>
       <c r="T85" t="n">
         <v>7</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44273</v>
+        <v>44236</v>
       </c>
       <c r="E86" t="n">
         <v>9</v>
@@ -7244,16 +7244,16 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N86" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O86" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P86" t="n">
-        <v>6562</v>
+        <v>7542</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7262,11 +7262,11 @@
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S86" t="n">
-        <v>937</v>
+        <v>1077</v>
       </c>
       <c r="T86" t="n">
         <v>7</v>
@@ -7320,20 +7320,20 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="N87" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O87" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P87" t="n">
-        <v>7542</v>
+        <v>5000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>1077</v>
+        <v>714</v>
       </c>
       <c r="T87" t="n">
         <v>7</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44236</v>
+        <v>44215</v>
       </c>
       <c r="E88" t="n">
         <v>9</v>
@@ -7400,20 +7400,20 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="N88" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O88" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P88" t="n">
-        <v>5000</v>
+        <v>7542</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7422,11 +7422,11 @@
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S88" t="n">
-        <v>714</v>
+        <v>1077</v>
       </c>
       <c r="T88" t="n">
         <v>7</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44215</v>
+        <v>44235</v>
       </c>
       <c r="E89" t="n">
         <v>9</v>
@@ -7484,16 +7484,16 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N89" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O89" t="n">
         <v>8000</v>
       </c>
       <c r="P89" t="n">
-        <v>7542</v>
+        <v>8000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7502,11 +7502,11 @@
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S89" t="n">
-        <v>1077</v>
+        <v>1143</v>
       </c>
       <c r="T89" t="n">
         <v>7</v>
@@ -7560,20 +7560,20 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N90" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O90" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P90" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>1143</v>
+        <v>714</v>
       </c>
       <c r="T90" t="n">
         <v>7</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44235</v>
+        <v>44203</v>
       </c>
       <c r="E91" t="n">
         <v>9</v>
@@ -7640,20 +7640,20 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>65</v>
+        <v>175</v>
       </c>
       <c r="N91" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O91" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P91" t="n">
-        <v>5000</v>
+        <v>7543</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>714</v>
+        <v>1078</v>
       </c>
       <c r="T91" t="n">
         <v>7</v>
@@ -7720,20 +7720,20 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>175</v>
+        <v>65</v>
       </c>
       <c r="N92" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="O92" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="P92" t="n">
-        <v>7543</v>
+        <v>5500</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>1078</v>
+        <v>786</v>
       </c>
       <c r="T92" t="n">
         <v>7</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44203</v>
+        <v>44291</v>
       </c>
       <c r="E93" t="n">
         <v>9</v>
@@ -7800,20 +7800,20 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="N93" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="O93" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="P93" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7822,11 +7822,11 @@
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S93" t="n">
-        <v>786</v>
+        <v>1000</v>
       </c>
       <c r="T93" t="n">
         <v>7</v>
@@ -7880,20 +7880,20 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N94" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O94" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P94" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>1000</v>
+        <v>857</v>
       </c>
       <c r="T94" t="n">
         <v>7</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44291</v>
+        <v>44469</v>
       </c>
       <c r="E95" t="n">
         <v>9</v>
@@ -7960,33 +7960,33 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>60</v>
+        <v>3000</v>
       </c>
       <c r="N95" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="O95" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="P95" t="n">
-        <v>6000</v>
+        <v>15333</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S95" t="n">
-        <v>857</v>
+        <v>2190</v>
       </c>
       <c r="T95" t="n">
         <v>7</v>
@@ -8040,20 +8040,20 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>3000</v>
+        <v>100</v>
       </c>
       <c r="N96" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O96" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="P96" t="n">
-        <v>15333</v>
+        <v>7000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>2190</v>
+        <v>1000</v>
       </c>
       <c r="T96" t="n">
         <v>7</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44469</v>
+        <v>44488</v>
       </c>
       <c r="E97" t="n">
         <v>9</v>
@@ -8120,20 +8120,20 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="N97" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O97" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P97" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="S97" t="n">
-        <v>1000</v>
+        <v>1429</v>
       </c>
       <c r="T97" t="n">
         <v>7</v>
@@ -8200,20 +8200,20 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="N98" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O98" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P98" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>1429</v>
+        <v>1000</v>
       </c>
       <c r="T98" t="n">
         <v>7</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44488</v>
+        <v>44168</v>
       </c>
       <c r="E99" t="n">
         <v>9</v>
@@ -8280,20 +8280,20 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N99" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O99" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P99" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8302,11 +8302,11 @@
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S99" t="n">
-        <v>1000</v>
+        <v>1714</v>
       </c>
       <c r="T99" t="n">
         <v>7</v>
@@ -8360,20 +8360,20 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N100" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O100" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P100" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>1714</v>
+        <v>1429</v>
       </c>
       <c r="T100" t="n">
         <v>7</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44168</v>
+        <v>44161</v>
       </c>
       <c r="E101" t="n">
         <v>9</v>
@@ -8444,16 +8444,16 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="N101" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O101" t="n">
         <v>10000</v>
       </c>
       <c r="P101" t="n">
-        <v>10000</v>
+        <v>9455</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8462,11 +8462,11 @@
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S101" t="n">
-        <v>1429</v>
+        <v>1351</v>
       </c>
       <c r="T101" t="n">
         <v>7</v>
@@ -8524,29 +8524,29 @@
         </is>
       </c>
       <c r="M102" t="n">
-        <v>550</v>
+        <v>305</v>
       </c>
       <c r="N102" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="O102" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P102" t="n">
-        <v>9455</v>
+        <v>6705</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S102" t="n">
-        <v>1351</v>
+        <v>958</v>
       </c>
       <c r="T102" t="n">
         <v>7</v>
@@ -8600,20 +8600,20 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>305</v>
+        <v>180</v>
       </c>
       <c r="N103" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="O103" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="P103" t="n">
-        <v>6705</v>
+        <v>4000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>958</v>
+        <v>571</v>
       </c>
       <c r="T103" t="n">
         <v>7</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44161</v>
+        <v>44214</v>
       </c>
       <c r="E104" t="n">
         <v>9</v>
@@ -8680,20 +8680,20 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>180</v>
+        <v>55</v>
       </c>
       <c r="N104" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O104" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P104" t="n">
-        <v>4000</v>
+        <v>7455</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>571</v>
+        <v>1065</v>
       </c>
       <c r="T104" t="n">
         <v>7</v>
@@ -8760,20 +8760,20 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N105" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="O105" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="P105" t="n">
-        <v>7455</v>
+        <v>4500</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>1065</v>
+        <v>643</v>
       </c>
       <c r="T105" t="n">
         <v>7</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44214</v>
+        <v>44280</v>
       </c>
       <c r="E106" t="n">
         <v>9</v>
@@ -8840,20 +8840,20 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="N106" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="O106" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="P106" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>643</v>
+        <v>1000</v>
       </c>
       <c r="T106" t="n">
         <v>7</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44280</v>
+        <v>44274</v>
       </c>
       <c r="E107" t="n">
         <v>9</v>
@@ -8924,16 +8924,16 @@
         </is>
       </c>
       <c r="M107" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="N107" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O107" t="n">
         <v>7000</v>
       </c>
       <c r="P107" t="n">
-        <v>7000</v>
+        <v>6579</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>1000</v>
+        <v>940</v>
       </c>
       <c r="T107" t="n">
         <v>7</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44274</v>
+        <v>44489</v>
       </c>
       <c r="E108" t="n">
         <v>9</v>
@@ -9004,29 +9004,29 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>95</v>
+        <v>1500</v>
       </c>
       <c r="N108" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O108" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P108" t="n">
-        <v>6579</v>
+        <v>9000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S108" t="n">
-        <v>940</v>
+        <v>1286</v>
       </c>
       <c r="T108" t="n">
         <v>7</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44489</v>
+        <v>44165</v>
       </c>
       <c r="E109" t="n">
         <v>9</v>
@@ -9080,20 +9080,20 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>1500</v>
+        <v>50</v>
       </c>
       <c r="N109" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O109" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P109" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9102,11 +9102,11 @@
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S109" t="n">
-        <v>1286</v>
+        <v>1571</v>
       </c>
       <c r="T109" t="n">
         <v>7</v>
@@ -9160,20 +9160,20 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>50</v>
+        <v>700</v>
       </c>
       <c r="N110" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O110" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P110" t="n">
-        <v>11000</v>
+        <v>9571</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -9182,11 +9182,11 @@
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S110" t="n">
-        <v>1571</v>
+        <v>1367</v>
       </c>
       <c r="T110" t="n">
         <v>7</v>
@@ -9244,7 +9244,7 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N111" t="n">
         <v>9000</v>
@@ -9253,7 +9253,7 @@
         <v>10000</v>
       </c>
       <c r="P111" t="n">
-        <v>9571</v>
+        <v>9500</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -9262,11 +9262,11 @@
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S111" t="n">
-        <v>1367</v>
+        <v>1357</v>
       </c>
       <c r="T111" t="n">
         <v>7</v>
@@ -9324,29 +9324,29 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N112" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O112" t="n">
         <v>9000</v>
       </c>
-      <c r="O112" t="n">
-        <v>10000</v>
-      </c>
       <c r="P112" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S112" t="n">
-        <v>1357</v>
+        <v>1214</v>
       </c>
       <c r="T112" t="n">
         <v>7</v>
@@ -9400,33 +9400,33 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="N113" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O113" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P113" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S113" t="n">
-        <v>1214</v>
+        <v>1000</v>
       </c>
       <c r="T113" t="n">
         <v>7</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44165</v>
+        <v>44258</v>
       </c>
       <c r="E114" t="n">
         <v>9</v>
@@ -9480,11 +9480,11 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M114" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="N114" t="n">
         <v>7000</v>
@@ -9497,12 +9497,12 @@
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S114" t="n">
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44258</v>
+        <v>44475</v>
       </c>
       <c r="E115" t="n">
         <v>9</v>
@@ -9564,29 +9564,29 @@
         </is>
       </c>
       <c r="M115" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="N115" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O115" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P115" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S115" t="n">
-        <v>1000</v>
+        <v>2143</v>
       </c>
       <c r="T115" t="n">
         <v>7</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44475</v>
+        <v>44474</v>
       </c>
       <c r="E116" t="n">
         <v>9</v>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N116" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O116" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P116" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>2143</v>
+        <v>2000</v>
       </c>
       <c r="T116" t="n">
         <v>7</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44474</v>
+        <v>44252</v>
       </c>
       <c r="E117" t="n">
         <v>9</v>
@@ -9724,29 +9724,29 @@
         </is>
       </c>
       <c r="M117" t="n">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="N117" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O117" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P117" t="n">
-        <v>14000</v>
+        <v>7568</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S117" t="n">
-        <v>2000</v>
+        <v>1081</v>
       </c>
       <c r="T117" t="n">
         <v>7</v>
@@ -9800,20 +9800,20 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>220</v>
+        <v>85</v>
       </c>
       <c r="N118" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O118" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P118" t="n">
-        <v>7568</v>
+        <v>5000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>1081</v>
+        <v>714</v>
       </c>
       <c r="T118" t="n">
         <v>7</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44252</v>
+        <v>44204</v>
       </c>
       <c r="E119" t="n">
         <v>9</v>
@@ -9880,20 +9880,20 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>85</v>
+        <v>205</v>
       </c>
       <c r="N119" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O119" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P119" t="n">
-        <v>5000</v>
+        <v>7390</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9902,11 +9902,11 @@
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S119" t="n">
-        <v>714</v>
+        <v>1056</v>
       </c>
       <c r="T119" t="n">
         <v>7</v>
@@ -9960,20 +9960,20 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>205</v>
+        <v>45</v>
       </c>
       <c r="N120" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="O120" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="P120" t="n">
-        <v>7390</v>
+        <v>5500</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>1056</v>
+        <v>786</v>
       </c>
       <c r="T120" t="n">
         <v>7</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44204</v>
+        <v>44186</v>
       </c>
       <c r="E121" t="n">
         <v>9</v>
@@ -10040,33 +10040,33 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>45</v>
+        <v>625</v>
       </c>
       <c r="N121" t="n">
-        <v>5500</v>
+        <v>11000</v>
       </c>
       <c r="O121" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="P121" t="n">
-        <v>5500</v>
+        <v>11584</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R121" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S121" t="n">
-        <v>786</v>
+        <v>1655</v>
       </c>
       <c r="T121" t="n">
         <v>7</v>
@@ -10124,29 +10124,29 @@
         </is>
       </c>
       <c r="M122" t="n">
-        <v>625</v>
+        <v>235</v>
       </c>
       <c r="N122" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O122" t="n">
         <v>11000</v>
       </c>
-      <c r="O122" t="n">
-        <v>12000</v>
-      </c>
       <c r="P122" t="n">
-        <v>11584</v>
+        <v>10532</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R122" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S122" t="n">
-        <v>1655</v>
+        <v>1505</v>
       </c>
       <c r="T122" t="n">
         <v>7</v>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44186</v>
+        <v>44372</v>
       </c>
       <c r="E123" t="n">
         <v>9</v>
@@ -10204,29 +10204,29 @@
         </is>
       </c>
       <c r="M123" t="n">
-        <v>235</v>
+        <v>35</v>
       </c>
       <c r="N123" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O123" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P123" t="n">
-        <v>10532</v>
+        <v>17000</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R123" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S123" t="n">
-        <v>1505</v>
+        <v>2429</v>
       </c>
       <c r="T123" t="n">
         <v>7</v>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44372</v>
+        <v>44243</v>
       </c>
       <c r="E124" t="n">
         <v>9</v>
@@ -10284,29 +10284,29 @@
         </is>
       </c>
       <c r="M124" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="N124" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="O124" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="P124" t="n">
-        <v>17000</v>
+        <v>7450</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R124" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S124" t="n">
-        <v>2429</v>
+        <v>1064</v>
       </c>
       <c r="T124" t="n">
         <v>7</v>
@@ -10360,20 +10360,20 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M125" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N125" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O125" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P125" t="n">
-        <v>7450</v>
+        <v>5000</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>1064</v>
+        <v>714</v>
       </c>
       <c r="T125" t="n">
         <v>7</v>
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44243</v>
+        <v>44202</v>
       </c>
       <c r="E126" t="n">
         <v>9</v>
@@ -10440,20 +10440,20 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M126" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="N126" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O126" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P126" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -10462,11 +10462,11 @@
       </c>
       <c r="R126" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S126" t="n">
-        <v>714</v>
+        <v>1000</v>
       </c>
       <c r="T126" t="n">
         <v>7</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44202</v>
+        <v>44242</v>
       </c>
       <c r="E127" t="n">
         <v>9</v>
@@ -10524,16 +10524,16 @@
         </is>
       </c>
       <c r="M127" t="n">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="N127" t="n">
         <v>7000</v>
       </c>
       <c r="O127" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P127" t="n">
-        <v>7000</v>
+        <v>7448</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
@@ -10542,11 +10542,11 @@
       </c>
       <c r="R127" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S127" t="n">
-        <v>1000</v>
+        <v>1064</v>
       </c>
       <c r="T127" t="n">
         <v>7</v>
@@ -10600,20 +10600,20 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M128" t="n">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="N128" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O128" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P128" t="n">
-        <v>7448</v>
+        <v>5000</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>1064</v>
+        <v>714</v>
       </c>
       <c r="T128" t="n">
         <v>7</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44242</v>
+        <v>44307</v>
       </c>
       <c r="E129" t="n">
         <v>9</v>
@@ -10684,7 +10684,7 @@
         </is>
       </c>
       <c r="M129" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N129" t="n">
         <v>5000</v>
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44307</v>
+        <v>44159</v>
       </c>
       <c r="E130" t="n">
         <v>9</v>
@@ -10760,33 +10760,33 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M130" t="n">
-        <v>30</v>
+        <v>550</v>
       </c>
       <c r="N130" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O130" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P130" t="n">
-        <v>5000</v>
+        <v>9455</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R130" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S130" t="n">
-        <v>714</v>
+        <v>1351</v>
       </c>
       <c r="T130" t="n">
         <v>7</v>
@@ -10844,29 +10844,29 @@
         </is>
       </c>
       <c r="M131" t="n">
-        <v>550</v>
+        <v>375</v>
       </c>
       <c r="N131" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="O131" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P131" t="n">
-        <v>9455</v>
+        <v>7760</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R131" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S131" t="n">
-        <v>1351</v>
+        <v>1109</v>
       </c>
       <c r="T131" t="n">
         <v>7</v>
@@ -10920,33 +10920,33 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M132" t="n">
-        <v>375</v>
+        <v>155</v>
       </c>
       <c r="N132" t="n">
         <v>7500</v>
       </c>
       <c r="O132" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="P132" t="n">
-        <v>7760</v>
+        <v>7500</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R132" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S132" t="n">
-        <v>1109</v>
+        <v>1071</v>
       </c>
       <c r="T132" t="n">
         <v>7</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44159</v>
+        <v>44166</v>
       </c>
       <c r="E133" t="n">
         <v>9</v>
@@ -11000,29 +11000,29 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M133" t="n">
-        <v>155</v>
+        <v>400</v>
       </c>
       <c r="N133" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="O133" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="P133" t="n">
         <v>7500</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R133" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S133" t="n">
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44166</v>
+        <v>44476</v>
       </c>
       <c r="E134" t="n">
         <v>9</v>
@@ -11084,29 +11084,29 @@
         </is>
       </c>
       <c r="M134" t="n">
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="N134" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O134" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P134" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R134" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S134" t="n">
-        <v>1071</v>
+        <v>2143</v>
       </c>
       <c r="T134" t="n">
         <v>7</v>
@@ -11160,20 +11160,20 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M135" t="n">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="N135" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O135" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P135" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         </is>
       </c>
       <c r="S135" t="n">
-        <v>2143</v>
+        <v>1857</v>
       </c>
       <c r="T135" t="n">
         <v>7</v>
@@ -11240,20 +11240,20 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M136" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N136" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O136" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P136" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>1857</v>
+        <v>1143</v>
       </c>
       <c r="T136" t="n">
         <v>7</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44476</v>
+        <v>44263</v>
       </c>
       <c r="E137" t="n">
         <v>9</v>
@@ -11320,33 +11320,33 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M137" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N137" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O137" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P137" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R137" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S137" t="n">
-        <v>1143</v>
+        <v>1000</v>
       </c>
       <c r="T137" t="n">
         <v>7</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44263</v>
+        <v>44369</v>
       </c>
       <c r="E138" t="n">
         <v>9</v>
@@ -11404,29 +11404,29 @@
         </is>
       </c>
       <c r="M138" t="n">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="N138" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O138" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P138" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R138" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S138" t="n">
-        <v>1000</v>
+        <v>2143</v>
       </c>
       <c r="T138" t="n">
         <v>7</v>
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44369</v>
+        <v>44491</v>
       </c>
       <c r="E139" t="n">
         <v>9</v>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="M139" t="n">
-        <v>25</v>
+        <v>500</v>
       </c>
       <c r="N139" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O139" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P139" t="n">
-        <v>15000</v>
+        <v>8600</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>2143</v>
+        <v>1229</v>
       </c>
       <c r="T139" t="n">
         <v>7</v>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44301</v>
+        <v>44491</v>
       </c>
       <c r="E140" t="n">
         <v>9</v>
@@ -11560,33 +11560,33 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M140" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N140" t="n">
         <v>6000</v>
       </c>
       <c r="O140" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="P140" t="n">
-        <v>6194</v>
+        <v>6000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R140" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S140" t="n">
-        <v>885</v>
+        <v>857</v>
       </c>
       <c r="T140" t="n">
         <v>7</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44223</v>
+        <v>44301</v>
       </c>
       <c r="E141" t="n">
         <v>9</v>
@@ -11644,16 +11644,16 @@
         </is>
       </c>
       <c r="M141" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="N141" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O141" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="P141" t="n">
-        <v>7385</v>
+        <v>6194</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
@@ -11662,11 +11662,11 @@
       </c>
       <c r="R141" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S141" t="n">
-        <v>1055</v>
+        <v>885</v>
       </c>
       <c r="T141" t="n">
         <v>7</v>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44397</v>
+        <v>44223</v>
       </c>
       <c r="E142" t="n">
         <v>9</v>
@@ -11724,29 +11724,29 @@
         </is>
       </c>
       <c r="M142" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="N142" t="n">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="O142" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="P142" t="n">
-        <v>22000</v>
+        <v>7385</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R142" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S142" t="n">
-        <v>3143</v>
+        <v>1055</v>
       </c>
       <c r="T142" t="n">
         <v>7</v>
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E143" t="n">
         <v>9</v>
@@ -11804,29 +11804,29 @@
         </is>
       </c>
       <c r="M143" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N143" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="O143" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="P143" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R143" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S143" t="n">
-        <v>1143</v>
+        <v>3143</v>
       </c>
       <c r="T143" t="n">
         <v>7</v>
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44466</v>
+        <v>44333</v>
       </c>
       <c r="E144" t="n">
         <v>9</v>
@@ -11884,29 +11884,29 @@
         </is>
       </c>
       <c r="M144" t="n">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="N144" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="O144" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P144" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R144" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S144" t="n">
-        <v>2286</v>
+        <v>1143</v>
       </c>
       <c r="T144" t="n">
         <v>7</v>
@@ -11960,20 +11960,20 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M145" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="N145" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O145" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P145" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>1857</v>
+        <v>2286</v>
       </c>
       <c r="T145" t="n">
         <v>7</v>
@@ -12040,20 +12040,20 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M146" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N146" t="n">
-        <v>800</v>
+        <v>13000</v>
       </c>
       <c r="O146" t="n">
-        <v>800</v>
+        <v>13000</v>
       </c>
       <c r="P146" t="n">
-        <v>800</v>
+        <v>13000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>114</v>
+        <v>1857</v>
       </c>
       <c r="T146" t="n">
         <v>7</v>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E147" t="n">
         <v>9</v>
@@ -12120,33 +12120,33 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M147" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="N147" t="n">
-        <v>7000</v>
+        <v>800</v>
       </c>
       <c r="O147" t="n">
-        <v>7000</v>
+        <v>800</v>
       </c>
       <c r="P147" t="n">
-        <v>7000</v>
+        <v>800</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R147" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S147" t="n">
-        <v>1000</v>
+        <v>114</v>
       </c>
       <c r="T147" t="n">
         <v>7</v>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44201</v>
+        <v>44270</v>
       </c>
       <c r="E148" t="n">
         <v>9</v>
@@ -12222,7 +12222,7 @@
       </c>
       <c r="R148" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S148" t="n">
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E149" t="n">
         <v>9</v>
@@ -12284,16 +12284,16 @@
         </is>
       </c>
       <c r="M149" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="N149" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O149" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P149" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
@@ -12302,11 +12302,11 @@
       </c>
       <c r="R149" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S149" t="n">
-        <v>1429</v>
+        <v>1000</v>
       </c>
       <c r="T149" t="n">
         <v>7</v>
@@ -12360,20 +12360,20 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M150" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="N150" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O150" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P150" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>1286</v>
+        <v>1429</v>
       </c>
       <c r="T150" t="n">
         <v>7</v>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E151" t="n">
         <v>9</v>
@@ -12440,20 +12440,20 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M151" t="n">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="N151" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="O151" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P151" t="n">
-        <v>6786</v>
+        <v>9000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
@@ -12462,11 +12462,11 @@
       </c>
       <c r="R151" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S151" t="n">
-        <v>969</v>
+        <v>1286</v>
       </c>
       <c r="T151" t="n">
         <v>7</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E152" t="n">
         <v>9</v>
@@ -12524,31 +12524,111 @@
         </is>
       </c>
       <c r="M152" t="n">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="N152" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="O152" t="n">
         <v>7000</v>
       </c>
       <c r="P152" t="n">
+        <v>6786</v>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>$/caja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R152" t="inlineStr">
+        <is>
+          <t>Provincia de Cautín</t>
+        </is>
+      </c>
+      <c r="S152" t="n">
+        <v>969</v>
+      </c>
+      <c r="T152" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>10</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D153" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E153" t="n">
+        <v>9</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>65</v>
+      </c>
+      <c r="N153" t="n">
         <v>7000</v>
       </c>
-      <c r="Q152" t="inlineStr">
+      <c r="O153" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P153" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q153" t="inlineStr">
         <is>
           <t>$/caja 7 kilos</t>
         </is>
       </c>
-      <c r="R152" t="inlineStr">
+      <c r="R153" t="inlineStr">
         <is>
           <t>Provincia de Cautín</t>
         </is>
       </c>
-      <c r="S152" t="n">
+      <c r="S153" t="n">
         <v>1000</v>
       </c>
-      <c r="T152" t="n">
+      <c r="T153" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T153"/>
+  <dimension ref="A1:T154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44224</v>
+        <v>44494</v>
       </c>
       <c r="E73" t="n">
         <v>9</v>
@@ -6204,29 +6204,29 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="N73" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O73" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P73" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S73" t="n">
-        <v>1071</v>
+        <v>1429</v>
       </c>
       <c r="T73" t="n">
         <v>7</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44264</v>
+        <v>44224</v>
       </c>
       <c r="E74" t="n">
         <v>9</v>
@@ -6284,16 +6284,16 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>80</v>
+        <v>600</v>
       </c>
       <c r="N74" t="n">
         <v>7000</v>
       </c>
       <c r="O74" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P74" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>1000</v>
+        <v>1071</v>
       </c>
       <c r="T74" t="n">
         <v>7</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44195</v>
+        <v>44264</v>
       </c>
       <c r="E75" t="n">
         <v>9</v>
@@ -6364,29 +6364,29 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N75" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O75" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="P75" t="n">
-        <v>12583</v>
+        <v>7000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S75" t="n">
-        <v>1798</v>
+        <v>1000</v>
       </c>
       <c r="T75" t="n">
         <v>7</v>
@@ -6444,29 +6444,29 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N76" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O76" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P76" t="n">
-        <v>10000</v>
+        <v>12583</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S76" t="n">
-        <v>1429</v>
+        <v>1798</v>
       </c>
       <c r="T76" t="n">
         <v>7</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44209</v>
+        <v>44195</v>
       </c>
       <c r="E77" t="n">
         <v>9</v>
@@ -6524,16 +6524,16 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N77" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O77" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P77" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>1214</v>
+        <v>1429</v>
       </c>
       <c r="T77" t="n">
         <v>7</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44484</v>
+        <v>44209</v>
       </c>
       <c r="E78" t="n">
         <v>9</v>
@@ -6604,29 +6604,29 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="N78" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O78" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P78" t="n">
-        <v>11432</v>
+        <v>8500</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S78" t="n">
-        <v>1633</v>
+        <v>1214</v>
       </c>
       <c r="T78" t="n">
         <v>7</v>
@@ -6680,20 +6680,20 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>125</v>
+        <v>220</v>
       </c>
       <c r="N79" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O79" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P79" t="n">
-        <v>7000</v>
+        <v>11432</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>1000</v>
+        <v>1633</v>
       </c>
       <c r="T79" t="n">
         <v>7</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44294</v>
+        <v>44484</v>
       </c>
       <c r="E80" t="n">
         <v>9</v>
@@ -6760,11 +6760,11 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="N80" t="n">
         <v>7000</v>
@@ -6777,12 +6777,12 @@
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S80" t="n">
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44232</v>
+        <v>44294</v>
       </c>
       <c r="E81" t="n">
         <v>9</v>
@@ -6850,10 +6850,10 @@
         <v>7000</v>
       </c>
       <c r="O81" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P81" t="n">
-        <v>7550</v>
+        <v>7000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6862,11 +6862,11 @@
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S81" t="n">
-        <v>1079</v>
+        <v>1000</v>
       </c>
       <c r="T81" t="n">
         <v>7</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44454</v>
+        <v>44232</v>
       </c>
       <c r="E82" t="n">
         <v>9</v>
@@ -6920,33 +6920,33 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N82" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="O82" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="P82" t="n">
-        <v>18000</v>
+        <v>7550</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S82" t="n">
-        <v>2571</v>
+        <v>1079</v>
       </c>
       <c r="T82" t="n">
         <v>7</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44473</v>
+        <v>44454</v>
       </c>
       <c r="E83" t="n">
         <v>9</v>
@@ -7000,20 +7000,20 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>1300</v>
+        <v>80</v>
       </c>
       <c r="N83" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O83" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P83" t="n">
-        <v>15538</v>
+        <v>18000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>2220</v>
+        <v>2571</v>
       </c>
       <c r="T83" t="n">
         <v>7</v>
@@ -7080,20 +7080,20 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>200</v>
+        <v>1300</v>
       </c>
       <c r="N84" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O84" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P84" t="n">
-        <v>8000</v>
+        <v>15538</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>1143</v>
+        <v>2220</v>
       </c>
       <c r="T84" t="n">
         <v>7</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44273</v>
+        <v>44473</v>
       </c>
       <c r="E85" t="n">
         <v>9</v>
@@ -7160,33 +7160,33 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N85" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O85" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P85" t="n">
-        <v>6562</v>
+        <v>8000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S85" t="n">
-        <v>937</v>
+        <v>1143</v>
       </c>
       <c r="T85" t="n">
         <v>7</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44236</v>
+        <v>44273</v>
       </c>
       <c r="E86" t="n">
         <v>9</v>
@@ -7244,16 +7244,16 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N86" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O86" t="n">
         <v>7000</v>
       </c>
-      <c r="O86" t="n">
-        <v>8000</v>
-      </c>
       <c r="P86" t="n">
-        <v>7542</v>
+        <v>6562</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7262,11 +7262,11 @@
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S86" t="n">
-        <v>1077</v>
+        <v>937</v>
       </c>
       <c r="T86" t="n">
         <v>7</v>
@@ -7320,20 +7320,20 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="N87" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O87" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P87" t="n">
-        <v>5000</v>
+        <v>7542</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>714</v>
+        <v>1077</v>
       </c>
       <c r="T87" t="n">
         <v>7</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44215</v>
+        <v>44236</v>
       </c>
       <c r="E88" t="n">
         <v>9</v>
@@ -7400,20 +7400,20 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="N88" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O88" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P88" t="n">
-        <v>7542</v>
+        <v>5000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7422,11 +7422,11 @@
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S88" t="n">
-        <v>1077</v>
+        <v>714</v>
       </c>
       <c r="T88" t="n">
         <v>7</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44235</v>
+        <v>44215</v>
       </c>
       <c r="E89" t="n">
         <v>9</v>
@@ -7484,16 +7484,16 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N89" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O89" t="n">
         <v>8000</v>
       </c>
       <c r="P89" t="n">
-        <v>8000</v>
+        <v>7542</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7502,11 +7502,11 @@
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S89" t="n">
-        <v>1143</v>
+        <v>1077</v>
       </c>
       <c r="T89" t="n">
         <v>7</v>
@@ -7560,20 +7560,20 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N90" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O90" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P90" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>714</v>
+        <v>1143</v>
       </c>
       <c r="T90" t="n">
         <v>7</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44203</v>
+        <v>44235</v>
       </c>
       <c r="E91" t="n">
         <v>9</v>
@@ -7640,20 +7640,20 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>175</v>
+        <v>65</v>
       </c>
       <c r="N91" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O91" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P91" t="n">
-        <v>7543</v>
+        <v>5000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>1078</v>
+        <v>714</v>
       </c>
       <c r="T91" t="n">
         <v>7</v>
@@ -7720,20 +7720,20 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>65</v>
+        <v>175</v>
       </c>
       <c r="N92" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="O92" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P92" t="n">
-        <v>5500</v>
+        <v>7543</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>786</v>
+        <v>1078</v>
       </c>
       <c r="T92" t="n">
         <v>7</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44291</v>
+        <v>44203</v>
       </c>
       <c r="E93" t="n">
         <v>9</v>
@@ -7800,20 +7800,20 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="N93" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="O93" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="P93" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7822,11 +7822,11 @@
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S93" t="n">
-        <v>1000</v>
+        <v>786</v>
       </c>
       <c r="T93" t="n">
         <v>7</v>
@@ -7880,20 +7880,20 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N94" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O94" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P94" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>857</v>
+        <v>1000</v>
       </c>
       <c r="T94" t="n">
         <v>7</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44469</v>
+        <v>44291</v>
       </c>
       <c r="E95" t="n">
         <v>9</v>
@@ -7960,33 +7960,33 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>3000</v>
+        <v>60</v>
       </c>
       <c r="N95" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="O95" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="P95" t="n">
-        <v>15333</v>
+        <v>6000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S95" t="n">
-        <v>2190</v>
+        <v>857</v>
       </c>
       <c r="T95" t="n">
         <v>7</v>
@@ -8040,20 +8040,20 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="N96" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O96" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="P96" t="n">
-        <v>7000</v>
+        <v>15333</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>1000</v>
+        <v>2190</v>
       </c>
       <c r="T96" t="n">
         <v>7</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44488</v>
+        <v>44469</v>
       </c>
       <c r="E97" t="n">
         <v>9</v>
@@ -8120,20 +8120,20 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>1500</v>
+        <v>100</v>
       </c>
       <c r="N97" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O97" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P97" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="S97" t="n">
-        <v>1429</v>
+        <v>1000</v>
       </c>
       <c r="T97" t="n">
         <v>7</v>
@@ -8200,20 +8200,20 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="N98" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O98" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P98" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>1000</v>
+        <v>1429</v>
       </c>
       <c r="T98" t="n">
         <v>7</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44168</v>
+        <v>44488</v>
       </c>
       <c r="E99" t="n">
         <v>9</v>
@@ -8280,20 +8280,20 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N99" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O99" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P99" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8302,11 +8302,11 @@
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S99" t="n">
-        <v>1714</v>
+        <v>1000</v>
       </c>
       <c r="T99" t="n">
         <v>7</v>
@@ -8360,20 +8360,20 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="N100" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O100" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P100" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>1429</v>
+        <v>1714</v>
       </c>
       <c r="T100" t="n">
         <v>7</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44161</v>
+        <v>44168</v>
       </c>
       <c r="E101" t="n">
         <v>9</v>
@@ -8444,16 +8444,16 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="N101" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O101" t="n">
         <v>10000</v>
       </c>
       <c r="P101" t="n">
-        <v>9455</v>
+        <v>10000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8462,11 +8462,11 @@
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S101" t="n">
-        <v>1351</v>
+        <v>1429</v>
       </c>
       <c r="T101" t="n">
         <v>7</v>
@@ -8524,29 +8524,29 @@
         </is>
       </c>
       <c r="M102" t="n">
-        <v>305</v>
+        <v>550</v>
       </c>
       <c r="N102" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="O102" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P102" t="n">
-        <v>6705</v>
+        <v>9455</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S102" t="n">
-        <v>958</v>
+        <v>1351</v>
       </c>
       <c r="T102" t="n">
         <v>7</v>
@@ -8600,20 +8600,20 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>180</v>
+        <v>305</v>
       </c>
       <c r="N103" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="O103" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="P103" t="n">
-        <v>4000</v>
+        <v>6705</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>571</v>
+        <v>958</v>
       </c>
       <c r="T103" t="n">
         <v>7</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44214</v>
+        <v>44161</v>
       </c>
       <c r="E104" t="n">
         <v>9</v>
@@ -8680,20 +8680,20 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="N104" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="O104" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P104" t="n">
-        <v>7455</v>
+        <v>4000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>1065</v>
+        <v>571</v>
       </c>
       <c r="T104" t="n">
         <v>7</v>
@@ -8760,20 +8760,20 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N105" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="O105" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="P105" t="n">
-        <v>4500</v>
+        <v>7455</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>643</v>
+        <v>1065</v>
       </c>
       <c r="T105" t="n">
         <v>7</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E106" t="n">
         <v>9</v>
@@ -8840,20 +8840,20 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N106" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="O106" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="P106" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>1000</v>
+        <v>643</v>
       </c>
       <c r="T106" t="n">
         <v>7</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44274</v>
+        <v>44280</v>
       </c>
       <c r="E107" t="n">
         <v>9</v>
@@ -8924,16 +8924,16 @@
         </is>
       </c>
       <c r="M107" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="N107" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O107" t="n">
         <v>7000</v>
       </c>
       <c r="P107" t="n">
-        <v>6579</v>
+        <v>7000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>940</v>
+        <v>1000</v>
       </c>
       <c r="T107" t="n">
         <v>7</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44489</v>
+        <v>44274</v>
       </c>
       <c r="E108" t="n">
         <v>9</v>
@@ -9004,29 +9004,29 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>1500</v>
+        <v>95</v>
       </c>
       <c r="N108" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O108" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P108" t="n">
-        <v>9000</v>
+        <v>6579</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S108" t="n">
-        <v>1286</v>
+        <v>940</v>
       </c>
       <c r="T108" t="n">
         <v>7</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44165</v>
+        <v>44489</v>
       </c>
       <c r="E109" t="n">
         <v>9</v>
@@ -9080,20 +9080,20 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>50</v>
+        <v>1500</v>
       </c>
       <c r="N109" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O109" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P109" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9102,11 +9102,11 @@
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S109" t="n">
-        <v>1571</v>
+        <v>1286</v>
       </c>
       <c r="T109" t="n">
         <v>7</v>
@@ -9160,20 +9160,20 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>700</v>
+        <v>50</v>
       </c>
       <c r="N110" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O110" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P110" t="n">
-        <v>9571</v>
+        <v>11000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -9182,11 +9182,11 @@
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S110" t="n">
-        <v>1367</v>
+        <v>1571</v>
       </c>
       <c r="T110" t="n">
         <v>7</v>
@@ -9244,7 +9244,7 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N111" t="n">
         <v>9000</v>
@@ -9253,7 +9253,7 @@
         <v>10000</v>
       </c>
       <c r="P111" t="n">
-        <v>9500</v>
+        <v>9571</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -9262,11 +9262,11 @@
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S111" t="n">
-        <v>1357</v>
+        <v>1367</v>
       </c>
       <c r="T111" t="n">
         <v>7</v>
@@ -9324,29 +9324,29 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N112" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O112" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P112" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S112" t="n">
-        <v>1214</v>
+        <v>1357</v>
       </c>
       <c r="T112" t="n">
         <v>7</v>
@@ -9400,33 +9400,33 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N113" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O113" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P113" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S113" t="n">
-        <v>1000</v>
+        <v>1214</v>
       </c>
       <c r="T113" t="n">
         <v>7</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44258</v>
+        <v>44165</v>
       </c>
       <c r="E114" t="n">
         <v>9</v>
@@ -9480,11 +9480,11 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M114" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="N114" t="n">
         <v>7000</v>
@@ -9497,12 +9497,12 @@
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S114" t="n">
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E115" t="n">
         <v>9</v>
@@ -9564,29 +9564,29 @@
         </is>
       </c>
       <c r="M115" t="n">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="N115" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O115" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="P115" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S115" t="n">
-        <v>2143</v>
+        <v>1000</v>
       </c>
       <c r="T115" t="n">
         <v>7</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E116" t="n">
         <v>9</v>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N116" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O116" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P116" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>2000</v>
+        <v>2143</v>
       </c>
       <c r="T116" t="n">
         <v>7</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E117" t="n">
         <v>9</v>
@@ -9724,29 +9724,29 @@
         </is>
       </c>
       <c r="M117" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="N117" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O117" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P117" t="n">
-        <v>7568</v>
+        <v>14000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S117" t="n">
-        <v>1081</v>
+        <v>2000</v>
       </c>
       <c r="T117" t="n">
         <v>7</v>
@@ -9800,20 +9800,20 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>85</v>
+        <v>220</v>
       </c>
       <c r="N118" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O118" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P118" t="n">
-        <v>5000</v>
+        <v>7568</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>714</v>
+        <v>1081</v>
       </c>
       <c r="T118" t="n">
         <v>7</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E119" t="n">
         <v>9</v>
@@ -9880,20 +9880,20 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>205</v>
+        <v>85</v>
       </c>
       <c r="N119" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O119" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P119" t="n">
-        <v>7390</v>
+        <v>5000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9902,11 +9902,11 @@
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S119" t="n">
-        <v>1056</v>
+        <v>714</v>
       </c>
       <c r="T119" t="n">
         <v>7</v>
@@ -9960,20 +9960,20 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>45</v>
+        <v>205</v>
       </c>
       <c r="N120" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="O120" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P120" t="n">
-        <v>5500</v>
+        <v>7390</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>786</v>
+        <v>1056</v>
       </c>
       <c r="T120" t="n">
         <v>7</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44186</v>
+        <v>44204</v>
       </c>
       <c r="E121" t="n">
         <v>9</v>
@@ -10040,33 +10040,33 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>625</v>
+        <v>45</v>
       </c>
       <c r="N121" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="O121" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="P121" t="n">
-        <v>11584</v>
+        <v>5500</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R121" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S121" t="n">
-        <v>1655</v>
+        <v>786</v>
       </c>
       <c r="T121" t="n">
         <v>7</v>
@@ -10124,29 +10124,29 @@
         </is>
       </c>
       <c r="M122" t="n">
-        <v>235</v>
+        <v>625</v>
       </c>
       <c r="N122" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O122" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P122" t="n">
-        <v>10532</v>
+        <v>11584</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R122" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S122" t="n">
-        <v>1505</v>
+        <v>1655</v>
       </c>
       <c r="T122" t="n">
         <v>7</v>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44372</v>
+        <v>44186</v>
       </c>
       <c r="E123" t="n">
         <v>9</v>
@@ -10204,29 +10204,29 @@
         </is>
       </c>
       <c r="M123" t="n">
-        <v>35</v>
+        <v>235</v>
       </c>
       <c r="N123" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O123" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P123" t="n">
-        <v>17000</v>
+        <v>10532</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R123" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S123" t="n">
-        <v>2429</v>
+        <v>1505</v>
       </c>
       <c r="T123" t="n">
         <v>7</v>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44243</v>
+        <v>44372</v>
       </c>
       <c r="E124" t="n">
         <v>9</v>
@@ -10284,29 +10284,29 @@
         </is>
       </c>
       <c r="M124" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="N124" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="O124" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="P124" t="n">
-        <v>7450</v>
+        <v>17000</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R124" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S124" t="n">
-        <v>1064</v>
+        <v>2429</v>
       </c>
       <c r="T124" t="n">
         <v>7</v>
@@ -10360,20 +10360,20 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M125" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N125" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O125" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P125" t="n">
-        <v>5000</v>
+        <v>7450</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>714</v>
+        <v>1064</v>
       </c>
       <c r="T125" t="n">
         <v>7</v>
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44202</v>
+        <v>44243</v>
       </c>
       <c r="E126" t="n">
         <v>9</v>
@@ -10440,20 +10440,20 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M126" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="N126" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O126" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P126" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -10462,11 +10462,11 @@
       </c>
       <c r="R126" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S126" t="n">
-        <v>1000</v>
+        <v>714</v>
       </c>
       <c r="T126" t="n">
         <v>7</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44242</v>
+        <v>44202</v>
       </c>
       <c r="E127" t="n">
         <v>9</v>
@@ -10524,16 +10524,16 @@
         </is>
       </c>
       <c r="M127" t="n">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="N127" t="n">
         <v>7000</v>
       </c>
       <c r="O127" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P127" t="n">
-        <v>7448</v>
+        <v>7000</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
@@ -10542,11 +10542,11 @@
       </c>
       <c r="R127" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S127" t="n">
-        <v>1064</v>
+        <v>1000</v>
       </c>
       <c r="T127" t="n">
         <v>7</v>
@@ -10600,20 +10600,20 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M128" t="n">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="N128" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O128" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P128" t="n">
-        <v>5000</v>
+        <v>7448</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>714</v>
+        <v>1064</v>
       </c>
       <c r="T128" t="n">
         <v>7</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44307</v>
+        <v>44242</v>
       </c>
       <c r="E129" t="n">
         <v>9</v>
@@ -10684,7 +10684,7 @@
         </is>
       </c>
       <c r="M129" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N129" t="n">
         <v>5000</v>
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44159</v>
+        <v>44307</v>
       </c>
       <c r="E130" t="n">
         <v>9</v>
@@ -10760,33 +10760,33 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M130" t="n">
-        <v>550</v>
+        <v>30</v>
       </c>
       <c r="N130" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O130" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P130" t="n">
-        <v>9455</v>
+        <v>5000</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R130" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S130" t="n">
-        <v>1351</v>
+        <v>714</v>
       </c>
       <c r="T130" t="n">
         <v>7</v>
@@ -10844,29 +10844,29 @@
         </is>
       </c>
       <c r="M131" t="n">
-        <v>375</v>
+        <v>550</v>
       </c>
       <c r="N131" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O131" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P131" t="n">
-        <v>7760</v>
+        <v>9455</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R131" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S131" t="n">
-        <v>1109</v>
+        <v>1351</v>
       </c>
       <c r="T131" t="n">
         <v>7</v>
@@ -10920,33 +10920,33 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M132" t="n">
-        <v>155</v>
+        <v>375</v>
       </c>
       <c r="N132" t="n">
         <v>7500</v>
       </c>
       <c r="O132" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="P132" t="n">
-        <v>7500</v>
+        <v>7760</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R132" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S132" t="n">
-        <v>1071</v>
+        <v>1109</v>
       </c>
       <c r="T132" t="n">
         <v>7</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E133" t="n">
         <v>9</v>
@@ -11000,29 +11000,29 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M133" t="n">
-        <v>400</v>
+        <v>155</v>
       </c>
       <c r="N133" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="O133" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="P133" t="n">
         <v>7500</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R133" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S133" t="n">
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44476</v>
+        <v>44166</v>
       </c>
       <c r="E134" t="n">
         <v>9</v>
@@ -11084,29 +11084,29 @@
         </is>
       </c>
       <c r="M134" t="n">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="N134" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O134" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P134" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R134" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S134" t="n">
-        <v>2143</v>
+        <v>1071</v>
       </c>
       <c r="T134" t="n">
         <v>7</v>
@@ -11160,20 +11160,20 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M135" t="n">
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="N135" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O135" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P135" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         </is>
       </c>
       <c r="S135" t="n">
-        <v>1857</v>
+        <v>2143</v>
       </c>
       <c r="T135" t="n">
         <v>7</v>
@@ -11240,20 +11240,20 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M136" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N136" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O136" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P136" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>1143</v>
+        <v>1857</v>
       </c>
       <c r="T136" t="n">
         <v>7</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44263</v>
+        <v>44476</v>
       </c>
       <c r="E137" t="n">
         <v>9</v>
@@ -11320,33 +11320,33 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M137" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N137" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O137" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P137" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R137" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S137" t="n">
-        <v>1000</v>
+        <v>1143</v>
       </c>
       <c r="T137" t="n">
         <v>7</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44369</v>
+        <v>44263</v>
       </c>
       <c r="E138" t="n">
         <v>9</v>
@@ -11404,29 +11404,29 @@
         </is>
       </c>
       <c r="M138" t="n">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="N138" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O138" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="P138" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R138" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S138" t="n">
-        <v>2143</v>
+        <v>1000</v>
       </c>
       <c r="T138" t="n">
         <v>7</v>
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44491</v>
+        <v>44369</v>
       </c>
       <c r="E139" t="n">
         <v>9</v>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="M139" t="n">
-        <v>500</v>
+        <v>25</v>
       </c>
       <c r="N139" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O139" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P139" t="n">
-        <v>8600</v>
+        <v>15000</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>1229</v>
+        <v>2143</v>
       </c>
       <c r="T139" t="n">
         <v>7</v>
@@ -11560,20 +11560,20 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M140" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N140" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O140" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P140" t="n">
-        <v>6000</v>
+        <v>8600</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>857</v>
+        <v>1229</v>
       </c>
       <c r="T140" t="n">
         <v>7</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44301</v>
+        <v>44491</v>
       </c>
       <c r="E141" t="n">
         <v>9</v>
@@ -11640,33 +11640,33 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M141" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N141" t="n">
         <v>6000</v>
       </c>
       <c r="O141" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="P141" t="n">
-        <v>6194</v>
+        <v>6000</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R141" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S141" t="n">
-        <v>885</v>
+        <v>857</v>
       </c>
       <c r="T141" t="n">
         <v>7</v>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44223</v>
+        <v>44301</v>
       </c>
       <c r="E142" t="n">
         <v>9</v>
@@ -11724,16 +11724,16 @@
         </is>
       </c>
       <c r="M142" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="N142" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O142" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="P142" t="n">
-        <v>7385</v>
+        <v>6194</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
@@ -11742,11 +11742,11 @@
       </c>
       <c r="R142" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S142" t="n">
-        <v>1055</v>
+        <v>885</v>
       </c>
       <c r="T142" t="n">
         <v>7</v>
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44397</v>
+        <v>44223</v>
       </c>
       <c r="E143" t="n">
         <v>9</v>
@@ -11804,29 +11804,29 @@
         </is>
       </c>
       <c r="M143" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="N143" t="n">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="O143" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="P143" t="n">
-        <v>22000</v>
+        <v>7385</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R143" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S143" t="n">
-        <v>3143</v>
+        <v>1055</v>
       </c>
       <c r="T143" t="n">
         <v>7</v>
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E144" t="n">
         <v>9</v>
@@ -11884,29 +11884,29 @@
         </is>
       </c>
       <c r="M144" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N144" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="O144" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="P144" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R144" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S144" t="n">
-        <v>1143</v>
+        <v>3143</v>
       </c>
       <c r="T144" t="n">
         <v>7</v>
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44466</v>
+        <v>44333</v>
       </c>
       <c r="E145" t="n">
         <v>9</v>
@@ -11964,29 +11964,29 @@
         </is>
       </c>
       <c r="M145" t="n">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="N145" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="O145" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P145" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R145" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S145" t="n">
-        <v>2286</v>
+        <v>1143</v>
       </c>
       <c r="T145" t="n">
         <v>7</v>
@@ -12040,20 +12040,20 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M146" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="N146" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O146" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P146" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>1857</v>
+        <v>2286</v>
       </c>
       <c r="T146" t="n">
         <v>7</v>
@@ -12120,20 +12120,20 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M147" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N147" t="n">
-        <v>800</v>
+        <v>13000</v>
       </c>
       <c r="O147" t="n">
-        <v>800</v>
+        <v>13000</v>
       </c>
       <c r="P147" t="n">
-        <v>800</v>
+        <v>13000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>114</v>
+        <v>1857</v>
       </c>
       <c r="T147" t="n">
         <v>7</v>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E148" t="n">
         <v>9</v>
@@ -12200,33 +12200,33 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M148" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="N148" t="n">
-        <v>7000</v>
+        <v>800</v>
       </c>
       <c r="O148" t="n">
-        <v>7000</v>
+        <v>800</v>
       </c>
       <c r="P148" t="n">
-        <v>7000</v>
+        <v>800</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R148" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S148" t="n">
-        <v>1000</v>
+        <v>114</v>
       </c>
       <c r="T148" t="n">
         <v>7</v>
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44201</v>
+        <v>44270</v>
       </c>
       <c r="E149" t="n">
         <v>9</v>
@@ -12302,7 +12302,7 @@
       </c>
       <c r="R149" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S149" t="n">
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E150" t="n">
         <v>9</v>
@@ -12364,16 +12364,16 @@
         </is>
       </c>
       <c r="M150" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="N150" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O150" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P150" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -12382,11 +12382,11 @@
       </c>
       <c r="R150" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S150" t="n">
-        <v>1429</v>
+        <v>1000</v>
       </c>
       <c r="T150" t="n">
         <v>7</v>
@@ -12440,20 +12440,20 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M151" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="N151" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O151" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P151" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>1286</v>
+        <v>1429</v>
       </c>
       <c r="T151" t="n">
         <v>7</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E152" t="n">
         <v>9</v>
@@ -12520,20 +12520,20 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M152" t="n">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="N152" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="O152" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P152" t="n">
-        <v>6786</v>
+        <v>9000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12542,11 +12542,11 @@
       </c>
       <c r="R152" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S152" t="n">
-        <v>969</v>
+        <v>1286</v>
       </c>
       <c r="T152" t="n">
         <v>7</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E153" t="n">
         <v>9</v>
@@ -12604,31 +12604,111 @@
         </is>
       </c>
       <c r="M153" t="n">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="N153" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="O153" t="n">
         <v>7000</v>
       </c>
       <c r="P153" t="n">
+        <v>6786</v>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>$/caja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R153" t="inlineStr">
+        <is>
+          <t>Provincia de Cautín</t>
+        </is>
+      </c>
+      <c r="S153" t="n">
+        <v>969</v>
+      </c>
+      <c r="T153" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>10</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D154" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E154" t="n">
+        <v>9</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>65</v>
+      </c>
+      <c r="N154" t="n">
         <v>7000</v>
       </c>
-      <c r="Q153" t="inlineStr">
+      <c r="O154" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P154" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q154" t="inlineStr">
         <is>
           <t>$/caja 7 kilos</t>
         </is>
       </c>
-      <c r="R153" t="inlineStr">
+      <c r="R154" t="inlineStr">
         <is>
           <t>Provincia de Cautín</t>
         </is>
       </c>
-      <c r="S153" t="n">
+      <c r="S154" t="n">
         <v>1000</v>
       </c>
-      <c r="T153" t="n">
+      <c r="T154" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T154"/>
+  <dimension ref="A1:T157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44216</v>
+        <v>44495</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -5244,29 +5244,29 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="N61" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O61" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P61" t="n">
-        <v>7579</v>
+        <v>9000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S61" t="n">
-        <v>1083</v>
+        <v>1286</v>
       </c>
       <c r="T61" t="n">
         <v>7</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44216</v>
+        <v>44495</v>
       </c>
       <c r="E62" t="n">
         <v>9</v>
@@ -5324,29 +5324,29 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="N62" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O62" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P62" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S62" t="n">
-        <v>714</v>
+        <v>1000</v>
       </c>
       <c r="T62" t="n">
         <v>7</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44284</v>
+        <v>44495</v>
       </c>
       <c r="E63" t="n">
         <v>9</v>
@@ -5400,33 +5400,33 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="N63" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="O63" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="P63" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S63" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T63" t="n">
         <v>7</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44174</v>
+        <v>44216</v>
       </c>
       <c r="E64" t="n">
         <v>9</v>
@@ -5484,16 +5484,16 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="N64" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O64" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P64" t="n">
-        <v>10000</v>
+        <v>7579</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>1429</v>
+        <v>1083</v>
       </c>
       <c r="T64" t="n">
         <v>7</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44244</v>
+        <v>44216</v>
       </c>
       <c r="E65" t="n">
         <v>9</v>
@@ -5560,20 +5560,20 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="N65" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O65" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P65" t="n">
-        <v>7462</v>
+        <v>5000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>1066</v>
+        <v>714</v>
       </c>
       <c r="T65" t="n">
         <v>7</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44244</v>
+        <v>44284</v>
       </c>
       <c r="E66" t="n">
         <v>9</v>
@@ -5640,20 +5640,20 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="N66" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O66" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P66" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5662,11 +5662,11 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S66" t="n">
-        <v>714</v>
+        <v>1000</v>
       </c>
       <c r="T66" t="n">
         <v>7</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44482</v>
+        <v>44174</v>
       </c>
       <c r="E67" t="n">
         <v>9</v>
@@ -5727,26 +5727,26 @@
         <v>110</v>
       </c>
       <c r="N67" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O67" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P67" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S67" t="n">
-        <v>1714</v>
+        <v>1429</v>
       </c>
       <c r="T67" t="n">
         <v>7</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44271</v>
+        <v>44244</v>
       </c>
       <c r="E68" t="n">
         <v>9</v>
@@ -5804,16 +5804,16 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="N68" t="n">
         <v>7000</v>
       </c>
       <c r="O68" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P68" t="n">
-        <v>7000</v>
+        <v>7462</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>1000</v>
+        <v>1066</v>
       </c>
       <c r="T68" t="n">
         <v>7</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44483</v>
+        <v>44244</v>
       </c>
       <c r="E69" t="n">
         <v>9</v>
@@ -5880,33 +5880,33 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>265</v>
+        <v>55</v>
       </c>
       <c r="N69" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O69" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P69" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S69" t="n">
-        <v>1714</v>
+        <v>714</v>
       </c>
       <c r="T69" t="n">
         <v>7</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44483</v>
+        <v>44482</v>
       </c>
       <c r="E70" t="n">
         <v>9</v>
@@ -5960,20 +5960,20 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M70" t="n">
         <v>110</v>
       </c>
       <c r="N70" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O70" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P70" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>1000</v>
+        <v>1714</v>
       </c>
       <c r="T70" t="n">
         <v>7</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44463</v>
+        <v>44271</v>
       </c>
       <c r="E71" t="n">
         <v>9</v>
@@ -6044,29 +6044,29 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="N71" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O71" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="P71" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S71" t="n">
-        <v>2857</v>
+        <v>1000</v>
       </c>
       <c r="T71" t="n">
         <v>7</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44463</v>
+        <v>44483</v>
       </c>
       <c r="E72" t="n">
         <v>9</v>
@@ -6120,20 +6120,20 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>40</v>
+        <v>265</v>
       </c>
       <c r="N72" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O72" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P72" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>1429</v>
+        <v>1714</v>
       </c>
       <c r="T72" t="n">
         <v>7</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44494</v>
+        <v>44483</v>
       </c>
       <c r="E73" t="n">
         <v>9</v>
@@ -6200,20 +6200,20 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>550</v>
+        <v>110</v>
       </c>
       <c r="N73" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O73" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P73" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>1429</v>
+        <v>1000</v>
       </c>
       <c r="T73" t="n">
         <v>7</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44224</v>
+        <v>44463</v>
       </c>
       <c r="E74" t="n">
         <v>9</v>
@@ -6284,29 +6284,29 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="N74" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O74" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P74" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S74" t="n">
-        <v>1071</v>
+        <v>2857</v>
       </c>
       <c r="T74" t="n">
         <v>7</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44264</v>
+        <v>44463</v>
       </c>
       <c r="E75" t="n">
         <v>9</v>
@@ -6360,33 +6360,33 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N75" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O75" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P75" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S75" t="n">
-        <v>1000</v>
+        <v>1429</v>
       </c>
       <c r="T75" t="n">
         <v>7</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44195</v>
+        <v>44494</v>
       </c>
       <c r="E76" t="n">
         <v>9</v>
@@ -6444,16 +6444,16 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>240</v>
+        <v>550</v>
       </c>
       <c r="N76" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O76" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P76" t="n">
-        <v>12583</v>
+        <v>10000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6462,11 +6462,11 @@
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S76" t="n">
-        <v>1798</v>
+        <v>1429</v>
       </c>
       <c r="T76" t="n">
         <v>7</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E77" t="n">
         <v>9</v>
@@ -6524,16 +6524,16 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N77" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O77" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P77" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>1429</v>
+        <v>1071</v>
       </c>
       <c r="T77" t="n">
         <v>7</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44209</v>
+        <v>44264</v>
       </c>
       <c r="E78" t="n">
         <v>9</v>
@@ -6604,16 +6604,16 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N78" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O78" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P78" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>1214</v>
+        <v>1000</v>
       </c>
       <c r="T78" t="n">
         <v>7</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44484</v>
+        <v>44195</v>
       </c>
       <c r="E79" t="n">
         <v>9</v>
@@ -6684,16 +6684,16 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="N79" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O79" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P79" t="n">
-        <v>11432</v>
+        <v>12583</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6702,11 +6702,11 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S79" t="n">
-        <v>1633</v>
+        <v>1798</v>
       </c>
       <c r="T79" t="n">
         <v>7</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44484</v>
+        <v>44195</v>
       </c>
       <c r="E80" t="n">
         <v>9</v>
@@ -6760,33 +6760,33 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="N80" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O80" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P80" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S80" t="n">
-        <v>1000</v>
+        <v>1429</v>
       </c>
       <c r="T80" t="n">
         <v>7</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44294</v>
+        <v>44209</v>
       </c>
       <c r="E81" t="n">
         <v>9</v>
@@ -6847,13 +6847,13 @@
         <v>100</v>
       </c>
       <c r="N81" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O81" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P81" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>1000</v>
+        <v>1214</v>
       </c>
       <c r="T81" t="n">
         <v>7</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44232</v>
+        <v>44484</v>
       </c>
       <c r="E82" t="n">
         <v>9</v>
@@ -6924,29 +6924,29 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="N82" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O82" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P82" t="n">
-        <v>7550</v>
+        <v>11432</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S82" t="n">
-        <v>1079</v>
+        <v>1633</v>
       </c>
       <c r="T82" t="n">
         <v>7</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44454</v>
+        <v>44484</v>
       </c>
       <c r="E83" t="n">
         <v>9</v>
@@ -7000,20 +7000,20 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="N83" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="O83" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="P83" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>2571</v>
+        <v>1000</v>
       </c>
       <c r="T83" t="n">
         <v>7</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44473</v>
+        <v>44294</v>
       </c>
       <c r="E84" t="n">
         <v>9</v>
@@ -7084,29 +7084,29 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>1300</v>
+        <v>100</v>
       </c>
       <c r="N84" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O84" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="P84" t="n">
-        <v>15538</v>
+        <v>7000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S84" t="n">
-        <v>2220</v>
+        <v>1000</v>
       </c>
       <c r="T84" t="n">
         <v>7</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44473</v>
+        <v>44232</v>
       </c>
       <c r="E85" t="n">
         <v>9</v>
@@ -7160,33 +7160,33 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N85" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O85" t="n">
         <v>8000</v>
       </c>
       <c r="P85" t="n">
-        <v>8000</v>
+        <v>7550</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S85" t="n">
-        <v>1143</v>
+        <v>1079</v>
       </c>
       <c r="T85" t="n">
         <v>7</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44273</v>
+        <v>44454</v>
       </c>
       <c r="E86" t="n">
         <v>9</v>
@@ -7240,33 +7240,33 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M86" t="n">
         <v>80</v>
       </c>
       <c r="N86" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="O86" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="P86" t="n">
-        <v>6562</v>
+        <v>18000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S86" t="n">
-        <v>937</v>
+        <v>2571</v>
       </c>
       <c r="T86" t="n">
         <v>7</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44236</v>
+        <v>44473</v>
       </c>
       <c r="E87" t="n">
         <v>9</v>
@@ -7324,29 +7324,29 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>120</v>
+        <v>1300</v>
       </c>
       <c r="N87" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O87" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P87" t="n">
-        <v>7542</v>
+        <v>15538</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S87" t="n">
-        <v>1077</v>
+        <v>2220</v>
       </c>
       <c r="T87" t="n">
         <v>7</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44236</v>
+        <v>44473</v>
       </c>
       <c r="E88" t="n">
         <v>9</v>
@@ -7404,29 +7404,29 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="N88" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O88" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P88" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S88" t="n">
-        <v>714</v>
+        <v>1143</v>
       </c>
       <c r="T88" t="n">
         <v>7</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44215</v>
+        <v>44273</v>
       </c>
       <c r="E89" t="n">
         <v>9</v>
@@ -7484,16 +7484,16 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N89" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O89" t="n">
         <v>7000</v>
       </c>
-      <c r="O89" t="n">
-        <v>8000</v>
-      </c>
       <c r="P89" t="n">
-        <v>7542</v>
+        <v>6562</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>1077</v>
+        <v>937</v>
       </c>
       <c r="T89" t="n">
         <v>7</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44235</v>
+        <v>44236</v>
       </c>
       <c r="E90" t="n">
         <v>9</v>
@@ -7564,16 +7564,16 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N90" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O90" t="n">
         <v>8000</v>
       </c>
       <c r="P90" t="n">
-        <v>8000</v>
+        <v>7542</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>1143</v>
+        <v>1077</v>
       </c>
       <c r="T90" t="n">
         <v>7</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44235</v>
+        <v>44236</v>
       </c>
       <c r="E91" t="n">
         <v>9</v>
@@ -7644,7 +7644,7 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N91" t="n">
         <v>5000</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44203</v>
+        <v>44215</v>
       </c>
       <c r="E92" t="n">
         <v>9</v>
@@ -7724,7 +7724,7 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="N92" t="n">
         <v>7000</v>
@@ -7733,7 +7733,7 @@
         <v>8000</v>
       </c>
       <c r="P92" t="n">
-        <v>7543</v>
+        <v>7542</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7742,11 +7742,11 @@
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S92" t="n">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="T92" t="n">
         <v>7</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44203</v>
+        <v>44235</v>
       </c>
       <c r="E93" t="n">
         <v>9</v>
@@ -7800,20 +7800,20 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N93" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="O93" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P93" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>786</v>
+        <v>1143</v>
       </c>
       <c r="T93" t="n">
         <v>7</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44291</v>
+        <v>44235</v>
       </c>
       <c r="E94" t="n">
         <v>9</v>
@@ -7880,20 +7880,20 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="N94" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O94" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P94" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7902,11 +7902,11 @@
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S94" t="n">
-        <v>1000</v>
+        <v>714</v>
       </c>
       <c r="T94" t="n">
         <v>7</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44291</v>
+        <v>44203</v>
       </c>
       <c r="E95" t="n">
         <v>9</v>
@@ -7960,20 +7960,20 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>60</v>
+        <v>175</v>
       </c>
       <c r="N95" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O95" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P95" t="n">
-        <v>6000</v>
+        <v>7543</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7982,11 +7982,11 @@
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S95" t="n">
-        <v>857</v>
+        <v>1078</v>
       </c>
       <c r="T95" t="n">
         <v>7</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44469</v>
+        <v>44203</v>
       </c>
       <c r="E96" t="n">
         <v>9</v>
@@ -8040,33 +8040,33 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>3000</v>
+        <v>65</v>
       </c>
       <c r="N96" t="n">
-        <v>14000</v>
+        <v>5500</v>
       </c>
       <c r="O96" t="n">
-        <v>16000</v>
+        <v>5500</v>
       </c>
       <c r="P96" t="n">
-        <v>15333</v>
+        <v>5500</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S96" t="n">
-        <v>2190</v>
+        <v>786</v>
       </c>
       <c r="T96" t="n">
         <v>7</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44469</v>
+        <v>44291</v>
       </c>
       <c r="E97" t="n">
         <v>9</v>
@@ -8120,11 +8120,11 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N97" t="n">
         <v>7000</v>
@@ -8137,12 +8137,12 @@
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S97" t="n">
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44488</v>
+        <v>44291</v>
       </c>
       <c r="E98" t="n">
         <v>9</v>
@@ -8200,33 +8200,33 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>1500</v>
+        <v>60</v>
       </c>
       <c r="N98" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O98" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P98" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S98" t="n">
-        <v>1429</v>
+        <v>857</v>
       </c>
       <c r="T98" t="n">
         <v>7</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44488</v>
+        <v>44469</v>
       </c>
       <c r="E99" t="n">
         <v>9</v>
@@ -8280,20 +8280,20 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>150</v>
+        <v>3000</v>
       </c>
       <c r="N99" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O99" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="P99" t="n">
-        <v>7000</v>
+        <v>15333</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>1000</v>
+        <v>2190</v>
       </c>
       <c r="T99" t="n">
         <v>7</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E100" t="n">
         <v>9</v>
@@ -8360,20 +8360,20 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N100" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O100" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P100" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8382,11 +8382,11 @@
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S100" t="n">
-        <v>1714</v>
+        <v>1000</v>
       </c>
       <c r="T100" t="n">
         <v>7</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44168</v>
+        <v>44488</v>
       </c>
       <c r="E101" t="n">
         <v>9</v>
@@ -8444,7 +8444,7 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="N101" t="n">
         <v>10000</v>
@@ -8462,7 +8462,7 @@
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S101" t="n">
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44161</v>
+        <v>44488</v>
       </c>
       <c r="E102" t="n">
         <v>9</v>
@@ -8520,20 +8520,20 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="N102" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O102" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P102" t="n">
-        <v>9455</v>
+        <v>7000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>1351</v>
+        <v>1000</v>
       </c>
       <c r="T102" t="n">
         <v>7</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44161</v>
+        <v>44168</v>
       </c>
       <c r="E103" t="n">
         <v>9</v>
@@ -8600,33 +8600,33 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>305</v>
+        <v>200</v>
       </c>
       <c r="N103" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="O103" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P103" t="n">
-        <v>6705</v>
+        <v>12000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S103" t="n">
-        <v>958</v>
+        <v>1714</v>
       </c>
       <c r="T103" t="n">
         <v>7</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44161</v>
+        <v>44168</v>
       </c>
       <c r="E104" t="n">
         <v>9</v>
@@ -8680,33 +8680,33 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>180</v>
+        <v>600</v>
       </c>
       <c r="N104" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O104" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="P104" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S104" t="n">
-        <v>571</v>
+        <v>1429</v>
       </c>
       <c r="T104" t="n">
         <v>7</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44214</v>
+        <v>44161</v>
       </c>
       <c r="E105" t="n">
         <v>9</v>
@@ -8764,29 +8764,29 @@
         </is>
       </c>
       <c r="M105" t="n">
-        <v>55</v>
+        <v>550</v>
       </c>
       <c r="N105" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O105" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P105" t="n">
-        <v>7455</v>
+        <v>9455</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S105" t="n">
-        <v>1065</v>
+        <v>1351</v>
       </c>
       <c r="T105" t="n">
         <v>7</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44214</v>
+        <v>44161</v>
       </c>
       <c r="E106" t="n">
         <v>9</v>
@@ -8840,20 +8840,20 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>40</v>
+        <v>305</v>
       </c>
       <c r="N106" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="O106" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="P106" t="n">
-        <v>4500</v>
+        <v>6705</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>643</v>
+        <v>958</v>
       </c>
       <c r="T106" t="n">
         <v>7</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44280</v>
+        <v>44161</v>
       </c>
       <c r="E107" t="n">
         <v>9</v>
@@ -8920,20 +8920,20 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N107" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="O107" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="P107" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>1000</v>
+        <v>571</v>
       </c>
       <c r="T107" t="n">
         <v>7</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44274</v>
+        <v>44214</v>
       </c>
       <c r="E108" t="n">
         <v>9</v>
@@ -9004,16 +9004,16 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="N108" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O108" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P108" t="n">
-        <v>6579</v>
+        <v>7455</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>940</v>
+        <v>1065</v>
       </c>
       <c r="T108" t="n">
         <v>7</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44489</v>
+        <v>44214</v>
       </c>
       <c r="E109" t="n">
         <v>9</v>
@@ -9080,33 +9080,33 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>1500</v>
+        <v>40</v>
       </c>
       <c r="N109" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="O109" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="P109" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S109" t="n">
-        <v>1286</v>
+        <v>643</v>
       </c>
       <c r="T109" t="n">
         <v>7</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44165</v>
+        <v>44280</v>
       </c>
       <c r="E110" t="n">
         <v>9</v>
@@ -9160,33 +9160,33 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N110" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O110" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P110" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S110" t="n">
-        <v>1571</v>
+        <v>1000</v>
       </c>
       <c r="T110" t="n">
         <v>7</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44165</v>
+        <v>44274</v>
       </c>
       <c r="E111" t="n">
         <v>9</v>
@@ -9244,29 +9244,29 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>700</v>
+        <v>95</v>
       </c>
       <c r="N111" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O111" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P111" t="n">
-        <v>9571</v>
+        <v>6579</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S111" t="n">
-        <v>1367</v>
+        <v>940</v>
       </c>
       <c r="T111" t="n">
         <v>7</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44165</v>
+        <v>44489</v>
       </c>
       <c r="E112" t="n">
         <v>9</v>
@@ -9324,16 +9324,16 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="N112" t="n">
         <v>9000</v>
       </c>
       <c r="O112" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P112" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9342,11 +9342,11 @@
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S112" t="n">
-        <v>1357</v>
+        <v>1286</v>
       </c>
       <c r="T112" t="n">
         <v>7</v>
@@ -9400,33 +9400,33 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="N113" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O113" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P113" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S113" t="n">
-        <v>1214</v>
+        <v>1571</v>
       </c>
       <c r="T113" t="n">
         <v>7</v>
@@ -9480,20 +9480,20 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M114" t="n">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="N114" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O114" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P114" t="n">
-        <v>7000</v>
+        <v>9571</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>1000</v>
+        <v>1367</v>
       </c>
       <c r="T114" t="n">
         <v>7</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44258</v>
+        <v>44165</v>
       </c>
       <c r="E115" t="n">
         <v>9</v>
@@ -9564,29 +9564,29 @@
         </is>
       </c>
       <c r="M115" t="n">
-        <v>65</v>
+        <v>800</v>
       </c>
       <c r="N115" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O115" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P115" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S115" t="n">
-        <v>1000</v>
+        <v>1357</v>
       </c>
       <c r="T115" t="n">
         <v>7</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44475</v>
+        <v>44165</v>
       </c>
       <c r="E116" t="n">
         <v>9</v>
@@ -9644,29 +9644,29 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N116" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O116" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P116" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S116" t="n">
-        <v>2143</v>
+        <v>1214</v>
       </c>
       <c r="T116" t="n">
         <v>7</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44474</v>
+        <v>44165</v>
       </c>
       <c r="E117" t="n">
         <v>9</v>
@@ -9720,20 +9720,20 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N117" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O117" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="P117" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="T117" t="n">
         <v>7</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44252</v>
+        <v>44258</v>
       </c>
       <c r="E118" t="n">
         <v>9</v>
@@ -9804,16 +9804,16 @@
         </is>
       </c>
       <c r="M118" t="n">
-        <v>220</v>
+        <v>65</v>
       </c>
       <c r="N118" t="n">
         <v>7000</v>
       </c>
       <c r="O118" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P118" t="n">
-        <v>7568</v>
+        <v>7000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>1081</v>
+        <v>1000</v>
       </c>
       <c r="T118" t="n">
         <v>7</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44252</v>
+        <v>44475</v>
       </c>
       <c r="E119" t="n">
         <v>9</v>
@@ -9880,33 +9880,33 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="N119" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="O119" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="P119" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S119" t="n">
-        <v>714</v>
+        <v>2143</v>
       </c>
       <c r="T119" t="n">
         <v>7</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44204</v>
+        <v>44474</v>
       </c>
       <c r="E120" t="n">
         <v>9</v>
@@ -9964,29 +9964,29 @@
         </is>
       </c>
       <c r="M120" t="n">
-        <v>205</v>
+        <v>300</v>
       </c>
       <c r="N120" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O120" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P120" t="n">
-        <v>7390</v>
+        <v>14000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R120" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S120" t="n">
-        <v>1056</v>
+        <v>2000</v>
       </c>
       <c r="T120" t="n">
         <v>7</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E121" t="n">
         <v>9</v>
@@ -10040,20 +10040,20 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>45</v>
+        <v>220</v>
       </c>
       <c r="N121" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="O121" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P121" t="n">
-        <v>5500</v>
+        <v>7568</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10062,11 +10062,11 @@
       </c>
       <c r="R121" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S121" t="n">
-        <v>786</v>
+        <v>1081</v>
       </c>
       <c r="T121" t="n">
         <v>7</v>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44186</v>
+        <v>44252</v>
       </c>
       <c r="E122" t="n">
         <v>9</v>
@@ -10120,33 +10120,33 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M122" t="n">
-        <v>625</v>
+        <v>85</v>
       </c>
       <c r="N122" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="O122" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P122" t="n">
-        <v>11584</v>
+        <v>5000</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R122" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S122" t="n">
-        <v>1655</v>
+        <v>714</v>
       </c>
       <c r="T122" t="n">
         <v>7</v>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44186</v>
+        <v>44204</v>
       </c>
       <c r="E123" t="n">
         <v>9</v>
@@ -10204,16 +10204,16 @@
         </is>
       </c>
       <c r="M123" t="n">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="N123" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O123" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P123" t="n">
-        <v>10532</v>
+        <v>7390</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>1505</v>
+        <v>1056</v>
       </c>
       <c r="T123" t="n">
         <v>7</v>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44372</v>
+        <v>44204</v>
       </c>
       <c r="E124" t="n">
         <v>9</v>
@@ -10280,33 +10280,33 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M124" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N124" t="n">
-        <v>17000</v>
+        <v>5500</v>
       </c>
       <c r="O124" t="n">
-        <v>17000</v>
+        <v>5500</v>
       </c>
       <c r="P124" t="n">
-        <v>17000</v>
+        <v>5500</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R124" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S124" t="n">
-        <v>2429</v>
+        <v>786</v>
       </c>
       <c r="T124" t="n">
         <v>7</v>
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44243</v>
+        <v>44186</v>
       </c>
       <c r="E125" t="n">
         <v>9</v>
@@ -10364,29 +10364,29 @@
         </is>
       </c>
       <c r="M125" t="n">
-        <v>100</v>
+        <v>625</v>
       </c>
       <c r="N125" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O125" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P125" t="n">
-        <v>7450</v>
+        <v>11584</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R125" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S125" t="n">
-        <v>1064</v>
+        <v>1655</v>
       </c>
       <c r="T125" t="n">
         <v>7</v>
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44243</v>
+        <v>44186</v>
       </c>
       <c r="E126" t="n">
         <v>9</v>
@@ -10440,20 +10440,20 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M126" t="n">
-        <v>40</v>
+        <v>235</v>
       </c>
       <c r="N126" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O126" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="P126" t="n">
-        <v>5000</v>
+        <v>10532</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -10462,11 +10462,11 @@
       </c>
       <c r="R126" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S126" t="n">
-        <v>714</v>
+        <v>1505</v>
       </c>
       <c r="T126" t="n">
         <v>7</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44202</v>
+        <v>44372</v>
       </c>
       <c r="E127" t="n">
         <v>9</v>
@@ -10524,29 +10524,29 @@
         </is>
       </c>
       <c r="M127" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="N127" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="O127" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="P127" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R127" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S127" t="n">
-        <v>1000</v>
+        <v>2429</v>
       </c>
       <c r="T127" t="n">
         <v>7</v>
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44242</v>
+        <v>44243</v>
       </c>
       <c r="E128" t="n">
         <v>9</v>
@@ -10604,7 +10604,7 @@
         </is>
       </c>
       <c r="M128" t="n">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="N128" t="n">
         <v>7000</v>
@@ -10613,7 +10613,7 @@
         <v>8000</v>
       </c>
       <c r="P128" t="n">
-        <v>7448</v>
+        <v>7450</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44242</v>
+        <v>44243</v>
       </c>
       <c r="E129" t="n">
         <v>9</v>
@@ -10684,7 +10684,7 @@
         </is>
       </c>
       <c r="M129" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N129" t="n">
         <v>5000</v>
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44307</v>
+        <v>44202</v>
       </c>
       <c r="E130" t="n">
         <v>9</v>
@@ -10760,20 +10760,20 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M130" t="n">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="N130" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O130" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P130" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
@@ -10782,11 +10782,11 @@
       </c>
       <c r="R130" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S130" t="n">
-        <v>714</v>
+        <v>1000</v>
       </c>
       <c r="T130" t="n">
         <v>7</v>
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44159</v>
+        <v>44242</v>
       </c>
       <c r="E131" t="n">
         <v>9</v>
@@ -10844,29 +10844,29 @@
         </is>
       </c>
       <c r="M131" t="n">
-        <v>550</v>
+        <v>145</v>
       </c>
       <c r="N131" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O131" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P131" t="n">
-        <v>9455</v>
+        <v>7448</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R131" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S131" t="n">
-        <v>1351</v>
+        <v>1064</v>
       </c>
       <c r="T131" t="n">
         <v>7</v>
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44159</v>
+        <v>44242</v>
       </c>
       <c r="E132" t="n">
         <v>9</v>
@@ -10920,20 +10920,20 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M132" t="n">
-        <v>375</v>
+        <v>45</v>
       </c>
       <c r="N132" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="O132" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P132" t="n">
-        <v>7760</v>
+        <v>5000</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="S132" t="n">
-        <v>1109</v>
+        <v>714</v>
       </c>
       <c r="T132" t="n">
         <v>7</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44159</v>
+        <v>44307</v>
       </c>
       <c r="E133" t="n">
         <v>9</v>
@@ -11004,29 +11004,29 @@
         </is>
       </c>
       <c r="M133" t="n">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="N133" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="O133" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="P133" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R133" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S133" t="n">
-        <v>1071</v>
+        <v>714</v>
       </c>
       <c r="T133" t="n">
         <v>7</v>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E134" t="n">
         <v>9</v>
@@ -11084,29 +11084,29 @@
         </is>
       </c>
       <c r="M134" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N134" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O134" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P134" t="n">
-        <v>7500</v>
+        <v>9455</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R134" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S134" t="n">
-        <v>1071</v>
+        <v>1351</v>
       </c>
       <c r="T134" t="n">
         <v>7</v>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44476</v>
+        <v>44159</v>
       </c>
       <c r="E135" t="n">
         <v>9</v>
@@ -11164,29 +11164,29 @@
         </is>
       </c>
       <c r="M135" t="n">
-        <v>4000</v>
+        <v>375</v>
       </c>
       <c r="N135" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="O135" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P135" t="n">
-        <v>15000</v>
+        <v>7760</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R135" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S135" t="n">
-        <v>2143</v>
+        <v>1109</v>
       </c>
       <c r="T135" t="n">
         <v>7</v>
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44476</v>
+        <v>44159</v>
       </c>
       <c r="E136" t="n">
         <v>9</v>
@@ -11244,16 +11244,16 @@
         </is>
       </c>
       <c r="M136" t="n">
-        <v>400</v>
+        <v>155</v>
       </c>
       <c r="N136" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="O136" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="P136" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>1857</v>
+        <v>1071</v>
       </c>
       <c r="T136" t="n">
         <v>7</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44476</v>
+        <v>44166</v>
       </c>
       <c r="E137" t="n">
         <v>9</v>
@@ -11320,33 +11320,33 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M137" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N137" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O137" t="n">
         <v>8000</v>
       </c>
       <c r="P137" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R137" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S137" t="n">
-        <v>1143</v>
+        <v>1071</v>
       </c>
       <c r="T137" t="n">
         <v>7</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44263</v>
+        <v>44476</v>
       </c>
       <c r="E138" t="n">
         <v>9</v>
@@ -11404,29 +11404,29 @@
         </is>
       </c>
       <c r="M138" t="n">
-        <v>200</v>
+        <v>4000</v>
       </c>
       <c r="N138" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O138" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P138" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R138" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S138" t="n">
-        <v>1000</v>
+        <v>2143</v>
       </c>
       <c r="T138" t="n">
         <v>7</v>
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44369</v>
+        <v>44476</v>
       </c>
       <c r="E139" t="n">
         <v>9</v>
@@ -11480,20 +11480,20 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M139" t="n">
-        <v>25</v>
+        <v>400</v>
       </c>
       <c r="N139" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O139" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P139" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>2143</v>
+        <v>1857</v>
       </c>
       <c r="T139" t="n">
         <v>7</v>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44491</v>
+        <v>44476</v>
       </c>
       <c r="E140" t="n">
         <v>9</v>
@@ -11560,20 +11560,20 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M140" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="N140" t="n">
         <v>8000</v>
       </c>
       <c r="O140" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P140" t="n">
-        <v>8600</v>
+        <v>8000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>1229</v>
+        <v>1143</v>
       </c>
       <c r="T140" t="n">
         <v>7</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44491</v>
+        <v>44263</v>
       </c>
       <c r="E141" t="n">
         <v>9</v>
@@ -11640,33 +11640,33 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M141" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N141" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O141" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P141" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R141" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S141" t="n">
-        <v>857</v>
+        <v>1000</v>
       </c>
       <c r="T141" t="n">
         <v>7</v>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E142" t="n">
         <v>9</v>
@@ -11724,29 +11724,29 @@
         </is>
       </c>
       <c r="M142" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="N142" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="O142" t="n">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="P142" t="n">
-        <v>6194</v>
+        <v>15000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R142" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S142" t="n">
-        <v>885</v>
+        <v>2143</v>
       </c>
       <c r="T142" t="n">
         <v>7</v>
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44223</v>
+        <v>44491</v>
       </c>
       <c r="E143" t="n">
         <v>9</v>
@@ -11804,29 +11804,29 @@
         </is>
       </c>
       <c r="M143" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
       <c r="N143" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O143" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P143" t="n">
-        <v>7385</v>
+        <v>8600</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R143" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S143" t="n">
-        <v>1055</v>
+        <v>1229</v>
       </c>
       <c r="T143" t="n">
         <v>7</v>
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44397</v>
+        <v>44491</v>
       </c>
       <c r="E144" t="n">
         <v>9</v>
@@ -11880,20 +11880,20 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M144" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="N144" t="n">
-        <v>22000</v>
+        <v>6000</v>
       </c>
       <c r="O144" t="n">
-        <v>22000</v>
+        <v>6000</v>
       </c>
       <c r="P144" t="n">
-        <v>22000</v>
+        <v>6000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         </is>
       </c>
       <c r="S144" t="n">
-        <v>3143</v>
+        <v>857</v>
       </c>
       <c r="T144" t="n">
         <v>7</v>
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44333</v>
+        <v>44301</v>
       </c>
       <c r="E145" t="n">
         <v>9</v>
@@ -11964,16 +11964,16 @@
         </is>
       </c>
       <c r="M145" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="N145" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O145" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="P145" t="n">
-        <v>8000</v>
+        <v>6194</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -11982,11 +11982,11 @@
       </c>
       <c r="R145" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S145" t="n">
-        <v>1143</v>
+        <v>885</v>
       </c>
       <c r="T145" t="n">
         <v>7</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44466</v>
+        <v>44223</v>
       </c>
       <c r="E146" t="n">
         <v>9</v>
@@ -12044,29 +12044,29 @@
         </is>
       </c>
       <c r="M146" t="n">
-        <v>800</v>
+        <v>130</v>
       </c>
       <c r="N146" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="O146" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P146" t="n">
-        <v>16000</v>
+        <v>7385</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R146" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S146" t="n">
-        <v>2286</v>
+        <v>1055</v>
       </c>
       <c r="T146" t="n">
         <v>7</v>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44466</v>
+        <v>44397</v>
       </c>
       <c r="E147" t="n">
         <v>9</v>
@@ -12120,20 +12120,20 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M147" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="N147" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="O147" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P147" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>1857</v>
+        <v>3143</v>
       </c>
       <c r="T147" t="n">
         <v>7</v>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44466</v>
+        <v>44333</v>
       </c>
       <c r="E148" t="n">
         <v>9</v>
@@ -12200,33 +12200,33 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M148" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N148" t="n">
-        <v>800</v>
+        <v>8000</v>
       </c>
       <c r="O148" t="n">
-        <v>800</v>
+        <v>8000</v>
       </c>
       <c r="P148" t="n">
-        <v>800</v>
+        <v>8000</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R148" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S148" t="n">
-        <v>114</v>
+        <v>1143</v>
       </c>
       <c r="T148" t="n">
         <v>7</v>
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E149" t="n">
         <v>9</v>
@@ -12284,29 +12284,29 @@
         </is>
       </c>
       <c r="M149" t="n">
-        <v>65</v>
+        <v>800</v>
       </c>
       <c r="N149" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="O149" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="P149" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R149" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S149" t="n">
-        <v>1000</v>
+        <v>2286</v>
       </c>
       <c r="T149" t="n">
         <v>7</v>
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44201</v>
+        <v>44466</v>
       </c>
       <c r="E150" t="n">
         <v>9</v>
@@ -12360,33 +12360,33 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M150" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="N150" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O150" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P150" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R150" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S150" t="n">
-        <v>1000</v>
+        <v>1857</v>
       </c>
       <c r="T150" t="n">
         <v>7</v>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44193</v>
+        <v>44466</v>
       </c>
       <c r="E151" t="n">
         <v>9</v>
@@ -12440,33 +12440,33 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M151" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N151" t="n">
-        <v>10000</v>
+        <v>800</v>
       </c>
       <c r="O151" t="n">
-        <v>10000</v>
+        <v>800</v>
       </c>
       <c r="P151" t="n">
-        <v>10000</v>
+        <v>800</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R151" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S151" t="n">
-        <v>1429</v>
+        <v>114</v>
       </c>
       <c r="T151" t="n">
         <v>7</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44193</v>
+        <v>44270</v>
       </c>
       <c r="E152" t="n">
         <v>9</v>
@@ -12520,20 +12520,20 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M152" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="N152" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O152" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P152" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>1286</v>
+        <v>1000</v>
       </c>
       <c r="T152" t="n">
         <v>7</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44286</v>
+        <v>44201</v>
       </c>
       <c r="E153" t="n">
         <v>9</v>
@@ -12604,16 +12604,16 @@
         </is>
       </c>
       <c r="M153" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="N153" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="O153" t="n">
         <v>7000</v>
       </c>
       <c r="P153" t="n">
-        <v>6786</v>
+        <v>7000</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         </is>
       </c>
       <c r="S153" t="n">
-        <v>969</v>
+        <v>1000</v>
       </c>
       <c r="T153" t="n">
         <v>7</v>
@@ -12647,68 +12647,308 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
+        <v>44193</v>
+      </c>
+      <c r="E154" t="n">
+        <v>9</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>150</v>
+      </c>
+      <c r="N154" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O154" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P154" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>$/caja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R154" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="S154" t="n">
+        <v>1429</v>
+      </c>
+      <c r="T154" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>10</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D155" s="2" t="n">
+        <v>44193</v>
+      </c>
+      <c r="E155" t="n">
+        <v>9</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>90</v>
+      </c>
+      <c r="N155" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O155" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P155" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>$/caja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R155" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="S155" t="n">
+        <v>1286</v>
+      </c>
+      <c r="T155" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>10</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D156" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E156" t="n">
+        <v>9</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>35</v>
+      </c>
+      <c r="N156" t="n">
+        <v>6500</v>
+      </c>
+      <c r="O156" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P156" t="n">
+        <v>6786</v>
+      </c>
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>$/caja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R156" t="inlineStr">
+        <is>
+          <t>Provincia de Cautín</t>
+        </is>
+      </c>
+      <c r="S156" t="n">
+        <v>969</v>
+      </c>
+      <c r="T156" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>10</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D157" s="2" t="n">
         <v>44312</v>
       </c>
-      <c r="E154" t="n">
-        <v>9</v>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G154" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I154" t="n">
-        <v>100112025</v>
-      </c>
-      <c r="J154" t="inlineStr">
-        <is>
-          <t>Frutilla</t>
-        </is>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L154" t="inlineStr">
+      <c r="E157" t="n">
+        <v>9</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M154" t="n">
+      <c r="M157" t="n">
         <v>65</v>
       </c>
-      <c r="N154" t="n">
+      <c r="N157" t="n">
         <v>7000</v>
       </c>
-      <c r="O154" t="n">
+      <c r="O157" t="n">
         <v>7000</v>
       </c>
-      <c r="P154" t="n">
+      <c r="P157" t="n">
         <v>7000</v>
       </c>
-      <c r="Q154" t="inlineStr">
+      <c r="Q157" t="inlineStr">
         <is>
           <t>$/caja 7 kilos</t>
         </is>
       </c>
-      <c r="R154" t="inlineStr">
+      <c r="R157" t="inlineStr">
         <is>
           <t>Provincia de Cautín</t>
         </is>
       </c>
-      <c r="S154" t="n">
+      <c r="S157" t="n">
         <v>1000</v>
       </c>
-      <c r="T154" t="n">
+      <c r="T157" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T157"/>
+  <dimension ref="A1:T160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44259</v>
+        <v>44496</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1000,33 +1000,33 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>155</v>
+        <v>65</v>
       </c>
       <c r="N8" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O8" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P8" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1000</v>
+        <v>1429</v>
       </c>
       <c r="T8" t="n">
         <v>7</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44181</v>
+        <v>44496</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,29 +1084,29 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>260</v>
+        <v>125</v>
       </c>
       <c r="N9" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O9" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P9" t="n">
-        <v>9462</v>
+        <v>7000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1352</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
         <v>7</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44249</v>
+        <v>44496</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1160,33 +1160,33 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N10" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="O10" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="P10" t="n">
-        <v>7458</v>
+        <v>3500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1065</v>
+        <v>500</v>
       </c>
       <c r="T10" t="n">
         <v>7</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44249</v>
+        <v>44259</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="N11" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O11" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P11" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>714</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
         <v>7</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44221</v>
+        <v>44181</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="N12" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O12" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P12" t="n">
-        <v>7000</v>
+        <v>9462</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1000</v>
+        <v>1352</v>
       </c>
       <c r="T12" t="n">
         <v>7</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44251</v>
+        <v>44249</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="N13" t="n">
         <v>7000</v>
@@ -1413,7 +1413,7 @@
         <v>8000</v>
       </c>
       <c r="P13" t="n">
-        <v>7467</v>
+        <v>7458</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="T13" t="n">
         <v>7</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44251</v>
+        <v>44249</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="N14" t="n">
         <v>5000</v>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S14" t="n">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44490</v>
+        <v>44221</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,29 +1564,29 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>3200</v>
+        <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O15" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P15" t="n">
-        <v>9469</v>
+        <v>7000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1353</v>
+        <v>1000</v>
       </c>
       <c r="T15" t="n">
         <v>7</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44490</v>
+        <v>44251</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1640,33 +1640,33 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>300</v>
+        <v>75</v>
       </c>
       <c r="N16" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O16" t="n">
         <v>8000</v>
       </c>
       <c r="P16" t="n">
-        <v>8000</v>
+        <v>7467</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1143</v>
+        <v>1067</v>
       </c>
       <c r="T16" t="n">
         <v>7</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44277</v>
+        <v>44251</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="N17" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O17" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P17" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>857</v>
+        <v>714</v>
       </c>
       <c r="T17" t="n">
         <v>7</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44237</v>
+        <v>44490</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,29 +1804,29 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>75</v>
+        <v>3200</v>
       </c>
       <c r="N18" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O18" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P18" t="n">
-        <v>7533</v>
+        <v>9469</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1076</v>
+        <v>1353</v>
       </c>
       <c r="T18" t="n">
         <v>7</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44237</v>
+        <v>44490</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,29 +1884,29 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>35</v>
+        <v>300</v>
       </c>
       <c r="N19" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O19" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P19" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>714</v>
+        <v>1143</v>
       </c>
       <c r="T19" t="n">
         <v>7</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44179</v>
+        <v>44277</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1964,29 +1964,29 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>600</v>
+        <v>80</v>
       </c>
       <c r="N20" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O20" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="P20" t="n">
-        <v>10500</v>
+        <v>6000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1500</v>
+        <v>857</v>
       </c>
       <c r="T20" t="n">
         <v>7</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44179</v>
+        <v>44237</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="N21" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O21" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P21" t="n">
-        <v>10000</v>
+        <v>7533</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2062,11 +2062,11 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1429</v>
+        <v>1076</v>
       </c>
       <c r="T21" t="n">
         <v>7</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44302</v>
+        <v>44237</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N22" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O22" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P22" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>857</v>
+        <v>714</v>
       </c>
       <c r="T22" t="n">
         <v>7</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44253</v>
+        <v>44179</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2204,29 +2204,29 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>60</v>
+        <v>600</v>
       </c>
       <c r="N23" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O23" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P23" t="n">
-        <v>7417</v>
+        <v>10500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1060</v>
+        <v>1500</v>
       </c>
       <c r="T23" t="n">
         <v>7</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44253</v>
+        <v>44179</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="N24" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O24" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P24" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>714</v>
+        <v>1429</v>
       </c>
       <c r="T24" t="n">
         <v>7</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44459</v>
+        <v>44302</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2360,33 +2360,33 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="N25" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="O25" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="P25" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>2286</v>
+        <v>857</v>
       </c>
       <c r="T25" t="n">
         <v>7</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44323</v>
+        <v>44253</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N26" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O26" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P26" t="n">
-        <v>9000</v>
+        <v>7417</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1286</v>
+        <v>1060</v>
       </c>
       <c r="T26" t="n">
         <v>7</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44323</v>
+        <v>44253</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N27" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O27" t="n">
         <v>5000</v>
       </c>
       <c r="P27" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>643</v>
+        <v>714</v>
       </c>
       <c r="T27" t="n">
         <v>7</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44462</v>
+        <v>44459</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N28" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O28" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P28" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1429</v>
+        <v>2286</v>
       </c>
       <c r="T28" t="n">
         <v>7</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44194</v>
+        <v>44323</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2684,29 +2684,29 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>600</v>
+        <v>40</v>
       </c>
       <c r="N29" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O29" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P29" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1143</v>
+        <v>1286</v>
       </c>
       <c r="T29" t="n">
         <v>7</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44194</v>
+        <v>44323</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>400</v>
+        <v>30</v>
       </c>
       <c r="N30" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O30" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P30" t="n">
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1214</v>
+        <v>643</v>
       </c>
       <c r="T30" t="n">
         <v>7</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44160</v>
+        <v>44462</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2840,33 +2840,33 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>320</v>
+        <v>50</v>
       </c>
       <c r="N31" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="O31" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P31" t="n">
-        <v>7734</v>
+        <v>10000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1105</v>
+        <v>1429</v>
       </c>
       <c r="T31" t="n">
         <v>7</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44460</v>
+        <v>44194</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>50</v>
+        <v>600</v>
       </c>
       <c r="N32" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="O32" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="P32" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>2857</v>
+        <v>1143</v>
       </c>
       <c r="T32" t="n">
         <v>7</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44460</v>
+        <v>44194</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3000,33 +3000,33 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>20</v>
+        <v>400</v>
       </c>
       <c r="N33" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O33" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P33" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1429</v>
+        <v>1214</v>
       </c>
       <c r="T33" t="n">
         <v>7</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44487</v>
+        <v>44160</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3084,29 +3084,29 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>2700</v>
+        <v>320</v>
       </c>
       <c r="N34" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="O34" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P34" t="n">
-        <v>11556</v>
+        <v>7734</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1651</v>
+        <v>1105</v>
       </c>
       <c r="T34" t="n">
         <v>7</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44487</v>
+        <v>44460</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N35" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="O35" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="P35" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>857</v>
+        <v>2857</v>
       </c>
       <c r="T35" t="n">
         <v>7</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44217</v>
+        <v>44460</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3240,33 +3240,33 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="N36" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O36" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P36" t="n">
-        <v>7532</v>
+        <v>10000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1076</v>
+        <v>1429</v>
       </c>
       <c r="T36" t="n">
         <v>7</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44217</v>
+        <v>44487</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3320,33 +3320,33 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>85</v>
+        <v>2700</v>
       </c>
       <c r="N37" t="n">
-        <v>5500</v>
+        <v>11000</v>
       </c>
       <c r="O37" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="P37" t="n">
-        <v>5500</v>
+        <v>11556</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>786</v>
+        <v>1651</v>
       </c>
       <c r="T37" t="n">
         <v>7</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44238</v>
+        <v>44487</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3400,33 +3400,33 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="N38" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O38" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P38" t="n">
-        <v>7532</v>
+        <v>6000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1076</v>
+        <v>857</v>
       </c>
       <c r="T38" t="n">
         <v>7</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44238</v>
+        <v>44217</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="N39" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O39" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P39" t="n">
-        <v>5000</v>
+        <v>7532</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3502,11 +3502,11 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>714</v>
+        <v>1076</v>
       </c>
       <c r="T39" t="n">
         <v>7</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44260</v>
+        <v>44217</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="N40" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="O40" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="P40" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1000</v>
+        <v>786</v>
       </c>
       <c r="T40" t="n">
         <v>7</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44211</v>
+        <v>44238</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3644,7 +3644,7 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="N41" t="n">
         <v>7000</v>
@@ -3653,7 +3653,7 @@
         <v>8000</v>
       </c>
       <c r="P41" t="n">
-        <v>7556</v>
+        <v>7532</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3662,11 +3662,11 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="T41" t="n">
         <v>7</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44272</v>
+        <v>44238</v>
       </c>
       <c r="E42" t="n">
         <v>9</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="N42" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O42" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P42" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3742,11 +3742,11 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1000</v>
+        <v>714</v>
       </c>
       <c r="T42" t="n">
         <v>7</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44218</v>
+        <v>44260</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3804,16 +3804,16 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>155</v>
+        <v>45</v>
       </c>
       <c r="N43" t="n">
         <v>7000</v>
       </c>
       <c r="O43" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P43" t="n">
-        <v>7516</v>
+        <v>7000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1074</v>
+        <v>1000</v>
       </c>
       <c r="T43" t="n">
         <v>7</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44218</v>
+        <v>44211</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>65</v>
+        <v>270</v>
       </c>
       <c r="N44" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="O44" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P44" t="n">
-        <v>5500</v>
+        <v>7556</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>786</v>
+        <v>1079</v>
       </c>
       <c r="T44" t="n">
         <v>7</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44210</v>
+        <v>44272</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3964,16 +3964,16 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>500</v>
+        <v>65</v>
       </c>
       <c r="N45" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O45" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P45" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1143</v>
+        <v>1000</v>
       </c>
       <c r="T45" t="n">
         <v>7</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44257</v>
+        <v>44218</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -4044,16 +4044,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="N46" t="n">
         <v>7000</v>
       </c>
       <c r="O46" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P46" t="n">
-        <v>7000</v>
+        <v>7516</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1000</v>
+        <v>1074</v>
       </c>
       <c r="T46" t="n">
         <v>7</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44200</v>
+        <v>44218</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="N47" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="O47" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="P47" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4142,11 +4142,11 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1000</v>
+        <v>786</v>
       </c>
       <c r="T47" t="n">
         <v>7</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44200</v>
+        <v>44210</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -4200,20 +4200,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>95</v>
+        <v>500</v>
       </c>
       <c r="N48" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="O48" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P48" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4222,11 +4222,11 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>786</v>
+        <v>1143</v>
       </c>
       <c r="T48" t="n">
         <v>7</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44246</v>
+        <v>44257</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -4284,16 +4284,16 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="N49" t="n">
         <v>7000</v>
       </c>
       <c r="O49" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P49" t="n">
-        <v>7417</v>
+        <v>7000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1060</v>
+        <v>1000</v>
       </c>
       <c r="T49" t="n">
         <v>7</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44246</v>
+        <v>44200</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -4360,20 +4360,20 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="N50" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O50" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P50" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4382,11 +4382,11 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S50" t="n">
-        <v>714</v>
+        <v>1000</v>
       </c>
       <c r="T50" t="n">
         <v>7</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44295</v>
+        <v>44200</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4440,20 +4440,20 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N51" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="O51" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="P51" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4462,11 +4462,11 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S51" t="n">
-        <v>1000</v>
+        <v>786</v>
       </c>
       <c r="T51" t="n">
         <v>7</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44225</v>
+        <v>44246</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4524,7 +4524,7 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N52" t="n">
         <v>7000</v>
@@ -4533,7 +4533,7 @@
         <v>8000</v>
       </c>
       <c r="P52" t="n">
-        <v>7500</v>
+        <v>7417</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1071</v>
+        <v>1060</v>
       </c>
       <c r="T52" t="n">
         <v>7</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44175</v>
+        <v>44246</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4600,20 +4600,20 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>155</v>
+        <v>50</v>
       </c>
       <c r="N53" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O53" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P53" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>1286</v>
+        <v>714</v>
       </c>
       <c r="T53" t="n">
         <v>7</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44364</v>
+        <v>44295</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4684,29 +4684,29 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N54" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O54" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="P54" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S54" t="n">
-        <v>2857</v>
+        <v>1000</v>
       </c>
       <c r="T54" t="n">
         <v>7</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44188</v>
+        <v>44225</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4764,29 +4764,29 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N55" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O55" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P55" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S55" t="n">
-        <v>1857</v>
+        <v>1071</v>
       </c>
       <c r="T55" t="n">
         <v>7</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44477</v>
+        <v>44175</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4844,29 +4844,29 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>800</v>
+        <v>155</v>
       </c>
       <c r="N56" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O56" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P56" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S56" t="n">
-        <v>2000</v>
+        <v>1286</v>
       </c>
       <c r="T56" t="n">
         <v>7</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44477</v>
+        <v>44364</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4920,20 +4920,20 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N57" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O57" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P57" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>1571</v>
+        <v>2857</v>
       </c>
       <c r="T57" t="n">
         <v>7</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44477</v>
+        <v>44188</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -5000,20 +5000,20 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N58" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O58" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P58" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5022,11 +5022,11 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S58" t="n">
-        <v>1000</v>
+        <v>1857</v>
       </c>
       <c r="T58" t="n">
         <v>7</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44245</v>
+        <v>44477</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -5084,29 +5084,29 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>125</v>
+        <v>800</v>
       </c>
       <c r="N59" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O59" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P59" t="n">
-        <v>7360</v>
+        <v>14000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S59" t="n">
-        <v>1051</v>
+        <v>2000</v>
       </c>
       <c r="T59" t="n">
         <v>7</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44245</v>
+        <v>44477</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -5164,29 +5164,29 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="N60" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O60" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P60" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S60" t="n">
-        <v>714</v>
+        <v>1571</v>
       </c>
       <c r="T60" t="n">
         <v>7</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44495</v>
+        <v>44477</v>
       </c>
       <c r="E61" t="n">
         <v>9</v>
@@ -5240,20 +5240,20 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="N61" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O61" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P61" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>1286</v>
+        <v>1000</v>
       </c>
       <c r="T61" t="n">
         <v>7</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44495</v>
+        <v>44245</v>
       </c>
       <c r="E62" t="n">
         <v>9</v>
@@ -5320,33 +5320,33 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="N62" t="n">
         <v>7000</v>
       </c>
       <c r="O62" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P62" t="n">
-        <v>7000</v>
+        <v>7360</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S62" t="n">
-        <v>1000</v>
+        <v>1051</v>
       </c>
       <c r="T62" t="n">
         <v>7</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44495</v>
+        <v>44245</v>
       </c>
       <c r="E63" t="n">
         <v>9</v>
@@ -5400,33 +5400,33 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="N63" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="O63" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="P63" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S63" t="n">
-        <v>500</v>
+        <v>714</v>
       </c>
       <c r="T63" t="n">
         <v>7</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44216</v>
+        <v>44495</v>
       </c>
       <c r="E64" t="n">
         <v>9</v>
@@ -5484,29 +5484,29 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="N64" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O64" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P64" t="n">
-        <v>7579</v>
+        <v>9000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S64" t="n">
-        <v>1083</v>
+        <v>1286</v>
       </c>
       <c r="T64" t="n">
         <v>7</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44216</v>
+        <v>44495</v>
       </c>
       <c r="E65" t="n">
         <v>9</v>
@@ -5564,29 +5564,29 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="N65" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O65" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P65" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S65" t="n">
-        <v>714</v>
+        <v>1000</v>
       </c>
       <c r="T65" t="n">
         <v>7</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44284</v>
+        <v>44495</v>
       </c>
       <c r="E66" t="n">
         <v>9</v>
@@ -5640,33 +5640,33 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="N66" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="O66" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="P66" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S66" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T66" t="n">
         <v>7</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44174</v>
+        <v>44216</v>
       </c>
       <c r="E67" t="n">
         <v>9</v>
@@ -5724,16 +5724,16 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="N67" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O67" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P67" t="n">
-        <v>10000</v>
+        <v>7579</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>1429</v>
+        <v>1083</v>
       </c>
       <c r="T67" t="n">
         <v>7</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44244</v>
+        <v>44216</v>
       </c>
       <c r="E68" t="n">
         <v>9</v>
@@ -5800,20 +5800,20 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="N68" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O68" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P68" t="n">
-        <v>7462</v>
+        <v>5000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>1066</v>
+        <v>714</v>
       </c>
       <c r="T68" t="n">
         <v>7</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44244</v>
+        <v>44284</v>
       </c>
       <c r="E69" t="n">
         <v>9</v>
@@ -5880,20 +5880,20 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="N69" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O69" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P69" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5902,11 +5902,11 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S69" t="n">
-        <v>714</v>
+        <v>1000</v>
       </c>
       <c r="T69" t="n">
         <v>7</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44482</v>
+        <v>44174</v>
       </c>
       <c r="E70" t="n">
         <v>9</v>
@@ -5967,26 +5967,26 @@
         <v>110</v>
       </c>
       <c r="N70" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O70" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P70" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S70" t="n">
-        <v>1714</v>
+        <v>1429</v>
       </c>
       <c r="T70" t="n">
         <v>7</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44271</v>
+        <v>44244</v>
       </c>
       <c r="E71" t="n">
         <v>9</v>
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="N71" t="n">
         <v>7000</v>
       </c>
       <c r="O71" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P71" t="n">
-        <v>7000</v>
+        <v>7462</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>1000</v>
+        <v>1066</v>
       </c>
       <c r="T71" t="n">
         <v>7</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44483</v>
+        <v>44244</v>
       </c>
       <c r="E72" t="n">
         <v>9</v>
@@ -6120,33 +6120,33 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>265</v>
+        <v>55</v>
       </c>
       <c r="N72" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O72" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P72" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S72" t="n">
-        <v>1714</v>
+        <v>714</v>
       </c>
       <c r="T72" t="n">
         <v>7</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44483</v>
+        <v>44482</v>
       </c>
       <c r="E73" t="n">
         <v>9</v>
@@ -6200,20 +6200,20 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M73" t="n">
         <v>110</v>
       </c>
       <c r="N73" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O73" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P73" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>1000</v>
+        <v>1714</v>
       </c>
       <c r="T73" t="n">
         <v>7</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44463</v>
+        <v>44271</v>
       </c>
       <c r="E74" t="n">
         <v>9</v>
@@ -6284,29 +6284,29 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="N74" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O74" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="P74" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S74" t="n">
-        <v>2857</v>
+        <v>1000</v>
       </c>
       <c r="T74" t="n">
         <v>7</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44463</v>
+        <v>44483</v>
       </c>
       <c r="E75" t="n">
         <v>9</v>
@@ -6360,20 +6360,20 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>40</v>
+        <v>265</v>
       </c>
       <c r="N75" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O75" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P75" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>1429</v>
+        <v>1714</v>
       </c>
       <c r="T75" t="n">
         <v>7</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44494</v>
+        <v>44483</v>
       </c>
       <c r="E76" t="n">
         <v>9</v>
@@ -6440,20 +6440,20 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>550</v>
+        <v>110</v>
       </c>
       <c r="N76" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O76" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P76" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>1429</v>
+        <v>1000</v>
       </c>
       <c r="T76" t="n">
         <v>7</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44224</v>
+        <v>44463</v>
       </c>
       <c r="E77" t="n">
         <v>9</v>
@@ -6524,29 +6524,29 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="N77" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O77" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P77" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S77" t="n">
-        <v>1071</v>
+        <v>2857</v>
       </c>
       <c r="T77" t="n">
         <v>7</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44264</v>
+        <v>44463</v>
       </c>
       <c r="E78" t="n">
         <v>9</v>
@@ -6600,33 +6600,33 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N78" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O78" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P78" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S78" t="n">
-        <v>1000</v>
+        <v>1429</v>
       </c>
       <c r="T78" t="n">
         <v>7</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44195</v>
+        <v>44494</v>
       </c>
       <c r="E79" t="n">
         <v>9</v>
@@ -6684,16 +6684,16 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>240</v>
+        <v>550</v>
       </c>
       <c r="N79" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O79" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P79" t="n">
-        <v>12583</v>
+        <v>10000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6702,11 +6702,11 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S79" t="n">
-        <v>1798</v>
+        <v>1429</v>
       </c>
       <c r="T79" t="n">
         <v>7</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E80" t="n">
         <v>9</v>
@@ -6764,16 +6764,16 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N80" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O80" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P80" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>1429</v>
+        <v>1071</v>
       </c>
       <c r="T80" t="n">
         <v>7</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44209</v>
+        <v>44264</v>
       </c>
       <c r="E81" t="n">
         <v>9</v>
@@ -6844,16 +6844,16 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N81" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O81" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P81" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>1214</v>
+        <v>1000</v>
       </c>
       <c r="T81" t="n">
         <v>7</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44484</v>
+        <v>44195</v>
       </c>
       <c r="E82" t="n">
         <v>9</v>
@@ -6924,16 +6924,16 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="N82" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O82" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P82" t="n">
-        <v>11432</v>
+        <v>12583</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6942,11 +6942,11 @@
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S82" t="n">
-        <v>1633</v>
+        <v>1798</v>
       </c>
       <c r="T82" t="n">
         <v>7</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44484</v>
+        <v>44195</v>
       </c>
       <c r="E83" t="n">
         <v>9</v>
@@ -7000,33 +7000,33 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="N83" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O83" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P83" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S83" t="n">
-        <v>1000</v>
+        <v>1429</v>
       </c>
       <c r="T83" t="n">
         <v>7</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44294</v>
+        <v>44209</v>
       </c>
       <c r="E84" t="n">
         <v>9</v>
@@ -7087,13 +7087,13 @@
         <v>100</v>
       </c>
       <c r="N84" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O84" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P84" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>1000</v>
+        <v>1214</v>
       </c>
       <c r="T84" t="n">
         <v>7</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44232</v>
+        <v>44484</v>
       </c>
       <c r="E85" t="n">
         <v>9</v>
@@ -7164,29 +7164,29 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="N85" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O85" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P85" t="n">
-        <v>7550</v>
+        <v>11432</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S85" t="n">
-        <v>1079</v>
+        <v>1633</v>
       </c>
       <c r="T85" t="n">
         <v>7</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44454</v>
+        <v>44484</v>
       </c>
       <c r="E86" t="n">
         <v>9</v>
@@ -7240,20 +7240,20 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="N86" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="O86" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="P86" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>2571</v>
+        <v>1000</v>
       </c>
       <c r="T86" t="n">
         <v>7</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44473</v>
+        <v>44294</v>
       </c>
       <c r="E87" t="n">
         <v>9</v>
@@ -7324,29 +7324,29 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>1300</v>
+        <v>100</v>
       </c>
       <c r="N87" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O87" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="P87" t="n">
-        <v>15538</v>
+        <v>7000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S87" t="n">
-        <v>2220</v>
+        <v>1000</v>
       </c>
       <c r="T87" t="n">
         <v>7</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44473</v>
+        <v>44232</v>
       </c>
       <c r="E88" t="n">
         <v>9</v>
@@ -7400,33 +7400,33 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N88" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O88" t="n">
         <v>8000</v>
       </c>
       <c r="P88" t="n">
-        <v>8000</v>
+        <v>7550</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S88" t="n">
-        <v>1143</v>
+        <v>1079</v>
       </c>
       <c r="T88" t="n">
         <v>7</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44273</v>
+        <v>44454</v>
       </c>
       <c r="E89" t="n">
         <v>9</v>
@@ -7480,33 +7480,33 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M89" t="n">
         <v>80</v>
       </c>
       <c r="N89" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="O89" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="P89" t="n">
-        <v>6562</v>
+        <v>18000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S89" t="n">
-        <v>937</v>
+        <v>2571</v>
       </c>
       <c r="T89" t="n">
         <v>7</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44236</v>
+        <v>44473</v>
       </c>
       <c r="E90" t="n">
         <v>9</v>
@@ -7564,29 +7564,29 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>120</v>
+        <v>1300</v>
       </c>
       <c r="N90" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O90" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P90" t="n">
-        <v>7542</v>
+        <v>15538</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S90" t="n">
-        <v>1077</v>
+        <v>2220</v>
       </c>
       <c r="T90" t="n">
         <v>7</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44236</v>
+        <v>44473</v>
       </c>
       <c r="E91" t="n">
         <v>9</v>
@@ -7644,29 +7644,29 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="N91" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O91" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P91" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S91" t="n">
-        <v>714</v>
+        <v>1143</v>
       </c>
       <c r="T91" t="n">
         <v>7</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44215</v>
+        <v>44273</v>
       </c>
       <c r="E92" t="n">
         <v>9</v>
@@ -7724,16 +7724,16 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N92" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O92" t="n">
         <v>7000</v>
       </c>
-      <c r="O92" t="n">
-        <v>8000</v>
-      </c>
       <c r="P92" t="n">
-        <v>7542</v>
+        <v>6562</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>1077</v>
+        <v>937</v>
       </c>
       <c r="T92" t="n">
         <v>7</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44235</v>
+        <v>44236</v>
       </c>
       <c r="E93" t="n">
         <v>9</v>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N93" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O93" t="n">
         <v>8000</v>
       </c>
       <c r="P93" t="n">
-        <v>8000</v>
+        <v>7542</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>1143</v>
+        <v>1077</v>
       </c>
       <c r="T93" t="n">
         <v>7</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44235</v>
+        <v>44236</v>
       </c>
       <c r="E94" t="n">
         <v>9</v>
@@ -7884,7 +7884,7 @@
         </is>
       </c>
       <c r="M94" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N94" t="n">
         <v>5000</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44203</v>
+        <v>44215</v>
       </c>
       <c r="E95" t="n">
         <v>9</v>
@@ -7964,7 +7964,7 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="N95" t="n">
         <v>7000</v>
@@ -7973,7 +7973,7 @@
         <v>8000</v>
       </c>
       <c r="P95" t="n">
-        <v>7543</v>
+        <v>7542</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7982,11 +7982,11 @@
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S95" t="n">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="T95" t="n">
         <v>7</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44203</v>
+        <v>44235</v>
       </c>
       <c r="E96" t="n">
         <v>9</v>
@@ -8040,20 +8040,20 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N96" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="O96" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P96" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>786</v>
+        <v>1143</v>
       </c>
       <c r="T96" t="n">
         <v>7</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44291</v>
+        <v>44235</v>
       </c>
       <c r="E97" t="n">
         <v>9</v>
@@ -8120,20 +8120,20 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="N97" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O97" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P97" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8142,11 +8142,11 @@
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S97" t="n">
-        <v>1000</v>
+        <v>714</v>
       </c>
       <c r="T97" t="n">
         <v>7</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44291</v>
+        <v>44203</v>
       </c>
       <c r="E98" t="n">
         <v>9</v>
@@ -8200,20 +8200,20 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>60</v>
+        <v>175</v>
       </c>
       <c r="N98" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O98" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P98" t="n">
-        <v>6000</v>
+        <v>7543</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -8222,11 +8222,11 @@
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S98" t="n">
-        <v>857</v>
+        <v>1078</v>
       </c>
       <c r="T98" t="n">
         <v>7</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44469</v>
+        <v>44203</v>
       </c>
       <c r="E99" t="n">
         <v>9</v>
@@ -8280,33 +8280,33 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>3000</v>
+        <v>65</v>
       </c>
       <c r="N99" t="n">
-        <v>14000</v>
+        <v>5500</v>
       </c>
       <c r="O99" t="n">
-        <v>16000</v>
+        <v>5500</v>
       </c>
       <c r="P99" t="n">
-        <v>15333</v>
+        <v>5500</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S99" t="n">
-        <v>2190</v>
+        <v>786</v>
       </c>
       <c r="T99" t="n">
         <v>7</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44469</v>
+        <v>44291</v>
       </c>
       <c r="E100" t="n">
         <v>9</v>
@@ -8360,11 +8360,11 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N100" t="n">
         <v>7000</v>
@@ -8377,12 +8377,12 @@
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S100" t="n">
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44488</v>
+        <v>44291</v>
       </c>
       <c r="E101" t="n">
         <v>9</v>
@@ -8440,33 +8440,33 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>1500</v>
+        <v>60</v>
       </c>
       <c r="N101" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O101" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P101" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S101" t="n">
-        <v>1429</v>
+        <v>857</v>
       </c>
       <c r="T101" t="n">
         <v>7</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44488</v>
+        <v>44469</v>
       </c>
       <c r="E102" t="n">
         <v>9</v>
@@ -8520,20 +8520,20 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>150</v>
+        <v>3000</v>
       </c>
       <c r="N102" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O102" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="P102" t="n">
-        <v>7000</v>
+        <v>15333</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>1000</v>
+        <v>2190</v>
       </c>
       <c r="T102" t="n">
         <v>7</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E103" t="n">
         <v>9</v>
@@ -8600,20 +8600,20 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N103" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O103" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P103" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -8622,11 +8622,11 @@
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S103" t="n">
-        <v>1714</v>
+        <v>1000</v>
       </c>
       <c r="T103" t="n">
         <v>7</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44168</v>
+        <v>44488</v>
       </c>
       <c r="E104" t="n">
         <v>9</v>
@@ -8684,7 +8684,7 @@
         </is>
       </c>
       <c r="M104" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="N104" t="n">
         <v>10000</v>
@@ -8702,7 +8702,7 @@
       </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S104" t="n">
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44161</v>
+        <v>44488</v>
       </c>
       <c r="E105" t="n">
         <v>9</v>
@@ -8760,20 +8760,20 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="N105" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O105" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P105" t="n">
-        <v>9455</v>
+        <v>7000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>1351</v>
+        <v>1000</v>
       </c>
       <c r="T105" t="n">
         <v>7</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44161</v>
+        <v>44168</v>
       </c>
       <c r="E106" t="n">
         <v>9</v>
@@ -8840,33 +8840,33 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>305</v>
+        <v>200</v>
       </c>
       <c r="N106" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="O106" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P106" t="n">
-        <v>6705</v>
+        <v>12000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S106" t="n">
-        <v>958</v>
+        <v>1714</v>
       </c>
       <c r="T106" t="n">
         <v>7</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44161</v>
+        <v>44168</v>
       </c>
       <c r="E107" t="n">
         <v>9</v>
@@ -8920,33 +8920,33 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>180</v>
+        <v>600</v>
       </c>
       <c r="N107" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O107" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="P107" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S107" t="n">
-        <v>571</v>
+        <v>1429</v>
       </c>
       <c r="T107" t="n">
         <v>7</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44214</v>
+        <v>44161</v>
       </c>
       <c r="E108" t="n">
         <v>9</v>
@@ -9004,29 +9004,29 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>55</v>
+        <v>550</v>
       </c>
       <c r="N108" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O108" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P108" t="n">
-        <v>7455</v>
+        <v>9455</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S108" t="n">
-        <v>1065</v>
+        <v>1351</v>
       </c>
       <c r="T108" t="n">
         <v>7</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44214</v>
+        <v>44161</v>
       </c>
       <c r="E109" t="n">
         <v>9</v>
@@ -9080,20 +9080,20 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>40</v>
+        <v>305</v>
       </c>
       <c r="N109" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="O109" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="P109" t="n">
-        <v>4500</v>
+        <v>6705</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>643</v>
+        <v>958</v>
       </c>
       <c r="T109" t="n">
         <v>7</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44280</v>
+        <v>44161</v>
       </c>
       <c r="E110" t="n">
         <v>9</v>
@@ -9160,20 +9160,20 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N110" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="O110" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="P110" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         </is>
       </c>
       <c r="S110" t="n">
-        <v>1000</v>
+        <v>571</v>
       </c>
       <c r="T110" t="n">
         <v>7</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44274</v>
+        <v>44214</v>
       </c>
       <c r="E111" t="n">
         <v>9</v>
@@ -9244,16 +9244,16 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="N111" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O111" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P111" t="n">
-        <v>6579</v>
+        <v>7455</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         </is>
       </c>
       <c r="S111" t="n">
-        <v>940</v>
+        <v>1065</v>
       </c>
       <c r="T111" t="n">
         <v>7</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44489</v>
+        <v>44214</v>
       </c>
       <c r="E112" t="n">
         <v>9</v>
@@ -9320,33 +9320,33 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M112" t="n">
-        <v>1500</v>
+        <v>40</v>
       </c>
       <c r="N112" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="O112" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="P112" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S112" t="n">
-        <v>1286</v>
+        <v>643</v>
       </c>
       <c r="T112" t="n">
         <v>7</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44165</v>
+        <v>44280</v>
       </c>
       <c r="E113" t="n">
         <v>9</v>
@@ -9400,33 +9400,33 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N113" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O113" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P113" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S113" t="n">
-        <v>1571</v>
+        <v>1000</v>
       </c>
       <c r="T113" t="n">
         <v>7</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44165</v>
+        <v>44274</v>
       </c>
       <c r="E114" t="n">
         <v>9</v>
@@ -9484,29 +9484,29 @@
         </is>
       </c>
       <c r="M114" t="n">
-        <v>700</v>
+        <v>95</v>
       </c>
       <c r="N114" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O114" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P114" t="n">
-        <v>9571</v>
+        <v>6579</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S114" t="n">
-        <v>1367</v>
+        <v>940</v>
       </c>
       <c r="T114" t="n">
         <v>7</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44165</v>
+        <v>44489</v>
       </c>
       <c r="E115" t="n">
         <v>9</v>
@@ -9564,16 +9564,16 @@
         </is>
       </c>
       <c r="M115" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="N115" t="n">
         <v>9000</v>
       </c>
       <c r="O115" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P115" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -9582,11 +9582,11 @@
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S115" t="n">
-        <v>1357</v>
+        <v>1286</v>
       </c>
       <c r="T115" t="n">
         <v>7</v>
@@ -9640,33 +9640,33 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M116" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="N116" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O116" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P116" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S116" t="n">
-        <v>1214</v>
+        <v>1571</v>
       </c>
       <c r="T116" t="n">
         <v>7</v>
@@ -9720,20 +9720,20 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="N117" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O117" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P117" t="n">
-        <v>7000</v>
+        <v>9571</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>1000</v>
+        <v>1367</v>
       </c>
       <c r="T117" t="n">
         <v>7</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44258</v>
+        <v>44165</v>
       </c>
       <c r="E118" t="n">
         <v>9</v>
@@ -9804,29 +9804,29 @@
         </is>
       </c>
       <c r="M118" t="n">
-        <v>65</v>
+        <v>800</v>
       </c>
       <c r="N118" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O118" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P118" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S118" t="n">
-        <v>1000</v>
+        <v>1357</v>
       </c>
       <c r="T118" t="n">
         <v>7</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44475</v>
+        <v>44165</v>
       </c>
       <c r="E119" t="n">
         <v>9</v>
@@ -9884,29 +9884,29 @@
         </is>
       </c>
       <c r="M119" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N119" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O119" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P119" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S119" t="n">
-        <v>2143</v>
+        <v>1214</v>
       </c>
       <c r="T119" t="n">
         <v>7</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44474</v>
+        <v>44165</v>
       </c>
       <c r="E120" t="n">
         <v>9</v>
@@ -9960,20 +9960,20 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N120" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O120" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="P120" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="T120" t="n">
         <v>7</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44252</v>
+        <v>44258</v>
       </c>
       <c r="E121" t="n">
         <v>9</v>
@@ -10044,16 +10044,16 @@
         </is>
       </c>
       <c r="M121" t="n">
-        <v>220</v>
+        <v>65</v>
       </c>
       <c r="N121" t="n">
         <v>7000</v>
       </c>
       <c r="O121" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P121" t="n">
-        <v>7568</v>
+        <v>7000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>1081</v>
+        <v>1000</v>
       </c>
       <c r="T121" t="n">
         <v>7</v>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44252</v>
+        <v>44475</v>
       </c>
       <c r="E122" t="n">
         <v>9</v>
@@ -10120,33 +10120,33 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M122" t="n">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="N122" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="O122" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="P122" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R122" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S122" t="n">
-        <v>714</v>
+        <v>2143</v>
       </c>
       <c r="T122" t="n">
         <v>7</v>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44204</v>
+        <v>44474</v>
       </c>
       <c r="E123" t="n">
         <v>9</v>
@@ -10204,29 +10204,29 @@
         </is>
       </c>
       <c r="M123" t="n">
-        <v>205</v>
+        <v>300</v>
       </c>
       <c r="N123" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O123" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P123" t="n">
-        <v>7390</v>
+        <v>14000</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R123" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S123" t="n">
-        <v>1056</v>
+        <v>2000</v>
       </c>
       <c r="T123" t="n">
         <v>7</v>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E124" t="n">
         <v>9</v>
@@ -10280,20 +10280,20 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M124" t="n">
-        <v>45</v>
+        <v>220</v>
       </c>
       <c r="N124" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="O124" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="P124" t="n">
-        <v>5500</v>
+        <v>7568</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -10302,11 +10302,11 @@
       </c>
       <c r="R124" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S124" t="n">
-        <v>786</v>
+        <v>1081</v>
       </c>
       <c r="T124" t="n">
         <v>7</v>
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44186</v>
+        <v>44252</v>
       </c>
       <c r="E125" t="n">
         <v>9</v>
@@ -10360,33 +10360,33 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M125" t="n">
-        <v>625</v>
+        <v>85</v>
       </c>
       <c r="N125" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="O125" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P125" t="n">
-        <v>11584</v>
+        <v>5000</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R125" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S125" t="n">
-        <v>1655</v>
+        <v>714</v>
       </c>
       <c r="T125" t="n">
         <v>7</v>
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44186</v>
+        <v>44204</v>
       </c>
       <c r="E126" t="n">
         <v>9</v>
@@ -10444,16 +10444,16 @@
         </is>
       </c>
       <c r="M126" t="n">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="N126" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O126" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P126" t="n">
-        <v>10532</v>
+        <v>7390</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>1505</v>
+        <v>1056</v>
       </c>
       <c r="T126" t="n">
         <v>7</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44372</v>
+        <v>44204</v>
       </c>
       <c r="E127" t="n">
         <v>9</v>
@@ -10520,33 +10520,33 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M127" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N127" t="n">
-        <v>17000</v>
+        <v>5500</v>
       </c>
       <c r="O127" t="n">
-        <v>17000</v>
+        <v>5500</v>
       </c>
       <c r="P127" t="n">
-        <v>17000</v>
+        <v>5500</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R127" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S127" t="n">
-        <v>2429</v>
+        <v>786</v>
       </c>
       <c r="T127" t="n">
         <v>7</v>
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44243</v>
+        <v>44186</v>
       </c>
       <c r="E128" t="n">
         <v>9</v>
@@ -10604,29 +10604,29 @@
         </is>
       </c>
       <c r="M128" t="n">
-        <v>100</v>
+        <v>625</v>
       </c>
       <c r="N128" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O128" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P128" t="n">
-        <v>7450</v>
+        <v>11584</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R128" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S128" t="n">
-        <v>1064</v>
+        <v>1655</v>
       </c>
       <c r="T128" t="n">
         <v>7</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44243</v>
+        <v>44186</v>
       </c>
       <c r="E129" t="n">
         <v>9</v>
@@ -10680,20 +10680,20 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M129" t="n">
-        <v>40</v>
+        <v>235</v>
       </c>
       <c r="N129" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O129" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="P129" t="n">
-        <v>5000</v>
+        <v>10532</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
@@ -10702,11 +10702,11 @@
       </c>
       <c r="R129" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S129" t="n">
-        <v>714</v>
+        <v>1505</v>
       </c>
       <c r="T129" t="n">
         <v>7</v>
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44202</v>
+        <v>44372</v>
       </c>
       <c r="E130" t="n">
         <v>9</v>
@@ -10764,29 +10764,29 @@
         </is>
       </c>
       <c r="M130" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="N130" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="O130" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="P130" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R130" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S130" t="n">
-        <v>1000</v>
+        <v>2429</v>
       </c>
       <c r="T130" t="n">
         <v>7</v>
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44242</v>
+        <v>44243</v>
       </c>
       <c r="E131" t="n">
         <v>9</v>
@@ -10844,7 +10844,7 @@
         </is>
       </c>
       <c r="M131" t="n">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="N131" t="n">
         <v>7000</v>
@@ -10853,7 +10853,7 @@
         <v>8000</v>
       </c>
       <c r="P131" t="n">
-        <v>7448</v>
+        <v>7450</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44242</v>
+        <v>44243</v>
       </c>
       <c r="E132" t="n">
         <v>9</v>
@@ -10924,7 +10924,7 @@
         </is>
       </c>
       <c r="M132" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N132" t="n">
         <v>5000</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44307</v>
+        <v>44202</v>
       </c>
       <c r="E133" t="n">
         <v>9</v>
@@ -11000,20 +11000,20 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M133" t="n">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="N133" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O133" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P133" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
@@ -11022,11 +11022,11 @@
       </c>
       <c r="R133" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S133" t="n">
-        <v>714</v>
+        <v>1000</v>
       </c>
       <c r="T133" t="n">
         <v>7</v>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44159</v>
+        <v>44242</v>
       </c>
       <c r="E134" t="n">
         <v>9</v>
@@ -11084,29 +11084,29 @@
         </is>
       </c>
       <c r="M134" t="n">
-        <v>550</v>
+        <v>145</v>
       </c>
       <c r="N134" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O134" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P134" t="n">
-        <v>9455</v>
+        <v>7448</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R134" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S134" t="n">
-        <v>1351</v>
+        <v>1064</v>
       </c>
       <c r="T134" t="n">
         <v>7</v>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44159</v>
+        <v>44242</v>
       </c>
       <c r="E135" t="n">
         <v>9</v>
@@ -11160,20 +11160,20 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M135" t="n">
-        <v>375</v>
+        <v>45</v>
       </c>
       <c r="N135" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="O135" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P135" t="n">
-        <v>7760</v>
+        <v>5000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         </is>
       </c>
       <c r="S135" t="n">
-        <v>1109</v>
+        <v>714</v>
       </c>
       <c r="T135" t="n">
         <v>7</v>
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44159</v>
+        <v>44307</v>
       </c>
       <c r="E136" t="n">
         <v>9</v>
@@ -11244,29 +11244,29 @@
         </is>
       </c>
       <c r="M136" t="n">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="N136" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="O136" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="P136" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R136" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S136" t="n">
-        <v>1071</v>
+        <v>714</v>
       </c>
       <c r="T136" t="n">
         <v>7</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E137" t="n">
         <v>9</v>
@@ -11324,29 +11324,29 @@
         </is>
       </c>
       <c r="M137" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N137" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O137" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P137" t="n">
-        <v>7500</v>
+        <v>9455</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R137" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S137" t="n">
-        <v>1071</v>
+        <v>1351</v>
       </c>
       <c r="T137" t="n">
         <v>7</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44476</v>
+        <v>44159</v>
       </c>
       <c r="E138" t="n">
         <v>9</v>
@@ -11404,29 +11404,29 @@
         </is>
       </c>
       <c r="M138" t="n">
-        <v>4000</v>
+        <v>375</v>
       </c>
       <c r="N138" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="O138" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P138" t="n">
-        <v>15000</v>
+        <v>7760</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R138" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S138" t="n">
-        <v>2143</v>
+        <v>1109</v>
       </c>
       <c r="T138" t="n">
         <v>7</v>
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44476</v>
+        <v>44159</v>
       </c>
       <c r="E139" t="n">
         <v>9</v>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="M139" t="n">
-        <v>400</v>
+        <v>155</v>
       </c>
       <c r="N139" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="O139" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="P139" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>1857</v>
+        <v>1071</v>
       </c>
       <c r="T139" t="n">
         <v>7</v>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44476</v>
+        <v>44166</v>
       </c>
       <c r="E140" t="n">
         <v>9</v>
@@ -11560,33 +11560,33 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M140" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N140" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O140" t="n">
         <v>8000</v>
       </c>
       <c r="P140" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R140" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S140" t="n">
-        <v>1143</v>
+        <v>1071</v>
       </c>
       <c r="T140" t="n">
         <v>7</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44263</v>
+        <v>44476</v>
       </c>
       <c r="E141" t="n">
         <v>9</v>
@@ -11644,29 +11644,29 @@
         </is>
       </c>
       <c r="M141" t="n">
-        <v>200</v>
+        <v>4000</v>
       </c>
       <c r="N141" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O141" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P141" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R141" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S141" t="n">
-        <v>1000</v>
+        <v>2143</v>
       </c>
       <c r="T141" t="n">
         <v>7</v>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44369</v>
+        <v>44476</v>
       </c>
       <c r="E142" t="n">
         <v>9</v>
@@ -11720,20 +11720,20 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M142" t="n">
-        <v>25</v>
+        <v>400</v>
       </c>
       <c r="N142" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O142" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P142" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="S142" t="n">
-        <v>2143</v>
+        <v>1857</v>
       </c>
       <c r="T142" t="n">
         <v>7</v>
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44491</v>
+        <v>44476</v>
       </c>
       <c r="E143" t="n">
         <v>9</v>
@@ -11800,20 +11800,20 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M143" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="N143" t="n">
         <v>8000</v>
       </c>
       <c r="O143" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P143" t="n">
-        <v>8600</v>
+        <v>8000</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
@@ -11826,7 +11826,7 @@
         </is>
       </c>
       <c r="S143" t="n">
-        <v>1229</v>
+        <v>1143</v>
       </c>
       <c r="T143" t="n">
         <v>7</v>
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44491</v>
+        <v>44263</v>
       </c>
       <c r="E144" t="n">
         <v>9</v>
@@ -11880,33 +11880,33 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M144" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N144" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O144" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P144" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R144" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S144" t="n">
-        <v>857</v>
+        <v>1000</v>
       </c>
       <c r="T144" t="n">
         <v>7</v>
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E145" t="n">
         <v>9</v>
@@ -11964,29 +11964,29 @@
         </is>
       </c>
       <c r="M145" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="N145" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="O145" t="n">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="P145" t="n">
-        <v>6194</v>
+        <v>15000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R145" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S145" t="n">
-        <v>885</v>
+        <v>2143</v>
       </c>
       <c r="T145" t="n">
         <v>7</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44223</v>
+        <v>44491</v>
       </c>
       <c r="E146" t="n">
         <v>9</v>
@@ -12044,29 +12044,29 @@
         </is>
       </c>
       <c r="M146" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
       <c r="N146" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O146" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P146" t="n">
-        <v>7385</v>
+        <v>8600</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R146" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S146" t="n">
-        <v>1055</v>
+        <v>1229</v>
       </c>
       <c r="T146" t="n">
         <v>7</v>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44397</v>
+        <v>44491</v>
       </c>
       <c r="E147" t="n">
         <v>9</v>
@@ -12120,20 +12120,20 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M147" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="N147" t="n">
-        <v>22000</v>
+        <v>6000</v>
       </c>
       <c r="O147" t="n">
-        <v>22000</v>
+        <v>6000</v>
       </c>
       <c r="P147" t="n">
-        <v>22000</v>
+        <v>6000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>3143</v>
+        <v>857</v>
       </c>
       <c r="T147" t="n">
         <v>7</v>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44333</v>
+        <v>44301</v>
       </c>
       <c r="E148" t="n">
         <v>9</v>
@@ -12204,16 +12204,16 @@
         </is>
       </c>
       <c r="M148" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="N148" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O148" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="P148" t="n">
-        <v>8000</v>
+        <v>6194</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
@@ -12222,11 +12222,11 @@
       </c>
       <c r="R148" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S148" t="n">
-        <v>1143</v>
+        <v>885</v>
       </c>
       <c r="T148" t="n">
         <v>7</v>
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44466</v>
+        <v>44223</v>
       </c>
       <c r="E149" t="n">
         <v>9</v>
@@ -12284,29 +12284,29 @@
         </is>
       </c>
       <c r="M149" t="n">
-        <v>800</v>
+        <v>130</v>
       </c>
       <c r="N149" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="O149" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P149" t="n">
-        <v>16000</v>
+        <v>7385</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R149" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S149" t="n">
-        <v>2286</v>
+        <v>1055</v>
       </c>
       <c r="T149" t="n">
         <v>7</v>
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44466</v>
+        <v>44397</v>
       </c>
       <c r="E150" t="n">
         <v>9</v>
@@ -12360,20 +12360,20 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M150" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="N150" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="O150" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P150" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>1857</v>
+        <v>3143</v>
       </c>
       <c r="T150" t="n">
         <v>7</v>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44466</v>
+        <v>44333</v>
       </c>
       <c r="E151" t="n">
         <v>9</v>
@@ -12440,33 +12440,33 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M151" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N151" t="n">
-        <v>800</v>
+        <v>8000</v>
       </c>
       <c r="O151" t="n">
-        <v>800</v>
+        <v>8000</v>
       </c>
       <c r="P151" t="n">
-        <v>800</v>
+        <v>8000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R151" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S151" t="n">
-        <v>114</v>
+        <v>1143</v>
       </c>
       <c r="T151" t="n">
         <v>7</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E152" t="n">
         <v>9</v>
@@ -12524,29 +12524,29 @@
         </is>
       </c>
       <c r="M152" t="n">
-        <v>65</v>
+        <v>800</v>
       </c>
       <c r="N152" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="O152" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="P152" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R152" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S152" t="n">
-        <v>1000</v>
+        <v>2286</v>
       </c>
       <c r="T152" t="n">
         <v>7</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44201</v>
+        <v>44466</v>
       </c>
       <c r="E153" t="n">
         <v>9</v>
@@ -12600,33 +12600,33 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M153" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="N153" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O153" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P153" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R153" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S153" t="n">
-        <v>1000</v>
+        <v>1857</v>
       </c>
       <c r="T153" t="n">
         <v>7</v>
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44193</v>
+        <v>44466</v>
       </c>
       <c r="E154" t="n">
         <v>9</v>
@@ -12680,33 +12680,33 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M154" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N154" t="n">
-        <v>10000</v>
+        <v>800</v>
       </c>
       <c r="O154" t="n">
-        <v>10000</v>
+        <v>800</v>
       </c>
       <c r="P154" t="n">
-        <v>10000</v>
+        <v>800</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R154" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S154" t="n">
-        <v>1429</v>
+        <v>114</v>
       </c>
       <c r="T154" t="n">
         <v>7</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44193</v>
+        <v>44270</v>
       </c>
       <c r="E155" t="n">
         <v>9</v>
@@ -12760,20 +12760,20 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M155" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="N155" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O155" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P155" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         </is>
       </c>
       <c r="S155" t="n">
-        <v>1286</v>
+        <v>1000</v>
       </c>
       <c r="T155" t="n">
         <v>7</v>
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44286</v>
+        <v>44201</v>
       </c>
       <c r="E156" t="n">
         <v>9</v>
@@ -12844,16 +12844,16 @@
         </is>
       </c>
       <c r="M156" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="N156" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="O156" t="n">
         <v>7000</v>
       </c>
       <c r="P156" t="n">
-        <v>6786</v>
+        <v>7000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         </is>
       </c>
       <c r="S156" t="n">
-        <v>969</v>
+        <v>1000</v>
       </c>
       <c r="T156" t="n">
         <v>7</v>
@@ -12887,68 +12887,308 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
+        <v>44193</v>
+      </c>
+      <c r="E157" t="n">
+        <v>9</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>150</v>
+      </c>
+      <c r="N157" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O157" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P157" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>$/caja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R157" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="S157" t="n">
+        <v>1429</v>
+      </c>
+      <c r="T157" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>10</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D158" s="2" t="n">
+        <v>44193</v>
+      </c>
+      <c r="E158" t="n">
+        <v>9</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>90</v>
+      </c>
+      <c r="N158" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O158" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P158" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>$/caja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R158" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="S158" t="n">
+        <v>1286</v>
+      </c>
+      <c r="T158" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>10</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D159" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E159" t="n">
+        <v>9</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>35</v>
+      </c>
+      <c r="N159" t="n">
+        <v>6500</v>
+      </c>
+      <c r="O159" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P159" t="n">
+        <v>6786</v>
+      </c>
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>$/caja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R159" t="inlineStr">
+        <is>
+          <t>Provincia de Cautín</t>
+        </is>
+      </c>
+      <c r="S159" t="n">
+        <v>969</v>
+      </c>
+      <c r="T159" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>10</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D160" s="2" t="n">
         <v>44312</v>
       </c>
-      <c r="E157" t="n">
-        <v>9</v>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G157" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I157" t="n">
-        <v>100112025</v>
-      </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>Frutilla</t>
-        </is>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L157" t="inlineStr">
+      <c r="E160" t="n">
+        <v>9</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G160" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L160" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M157" t="n">
+      <c r="M160" t="n">
         <v>65</v>
       </c>
-      <c r="N157" t="n">
+      <c r="N160" t="n">
         <v>7000</v>
       </c>
-      <c r="O157" t="n">
+      <c r="O160" t="n">
         <v>7000</v>
       </c>
-      <c r="P157" t="n">
+      <c r="P160" t="n">
         <v>7000</v>
       </c>
-      <c r="Q157" t="inlineStr">
+      <c r="Q160" t="inlineStr">
         <is>
           <t>$/caja 7 kilos</t>
         </is>
       </c>
-      <c r="R157" t="inlineStr">
+      <c r="R160" t="inlineStr">
         <is>
           <t>Provincia de Cautín</t>
         </is>
       </c>
-      <c r="S157" t="n">
+      <c r="S160" t="n">
         <v>1000</v>
       </c>
-      <c r="T157" t="n">
+      <c r="T160" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T160"/>
+  <dimension ref="A1:T162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44260</v>
+        <v>44497</v>
       </c>
       <c r="E43" t="n">
         <v>9</v>
@@ -3804,29 +3804,29 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>45</v>
+        <v>2700</v>
       </c>
       <c r="N43" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O43" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P43" t="n">
-        <v>7000</v>
+        <v>9444</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1000</v>
+        <v>1349</v>
       </c>
       <c r="T43" t="n">
         <v>7</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44211</v>
+        <v>44497</v>
       </c>
       <c r="E44" t="n">
         <v>9</v>
@@ -3880,33 +3880,33 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="N44" t="n">
         <v>7000</v>
       </c>
       <c r="O44" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P44" t="n">
-        <v>7556</v>
+        <v>7000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1079</v>
+        <v>1000</v>
       </c>
       <c r="T44" t="n">
         <v>7</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44272</v>
+        <v>44260</v>
       </c>
       <c r="E45" t="n">
         <v>9</v>
@@ -3964,7 +3964,7 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N45" t="n">
         <v>7000</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44218</v>
+        <v>44211</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -4044,7 +4044,7 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>155</v>
+        <v>270</v>
       </c>
       <c r="N46" t="n">
         <v>7000</v>
@@ -4053,7 +4053,7 @@
         <v>8000</v>
       </c>
       <c r="P46" t="n">
-        <v>7516</v>
+        <v>7556</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1074</v>
+        <v>1079</v>
       </c>
       <c r="T46" t="n">
         <v>7</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44218</v>
+        <v>44272</v>
       </c>
       <c r="E47" t="n">
         <v>9</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M47" t="n">
         <v>65</v>
       </c>
       <c r="N47" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="O47" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="P47" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>786</v>
+        <v>1000</v>
       </c>
       <c r="T47" t="n">
         <v>7</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44210</v>
+        <v>44218</v>
       </c>
       <c r="E48" t="n">
         <v>9</v>
@@ -4204,16 +4204,16 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>500</v>
+        <v>155</v>
       </c>
       <c r="N48" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O48" t="n">
         <v>8000</v>
       </c>
       <c r="P48" t="n">
-        <v>8000</v>
+        <v>7516</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1143</v>
+        <v>1074</v>
       </c>
       <c r="T48" t="n">
         <v>7</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44257</v>
+        <v>44218</v>
       </c>
       <c r="E49" t="n">
         <v>9</v>
@@ -4280,20 +4280,20 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="N49" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="O49" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="P49" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1000</v>
+        <v>786</v>
       </c>
       <c r="T49" t="n">
         <v>7</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44200</v>
+        <v>44210</v>
       </c>
       <c r="E50" t="n">
         <v>9</v>
@@ -4364,16 +4364,16 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="N50" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O50" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P50" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4382,11 +4382,11 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1000</v>
+        <v>1143</v>
       </c>
       <c r="T50" t="n">
         <v>7</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44200</v>
+        <v>44257</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -4440,20 +4440,20 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="N51" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="O51" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="P51" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4462,11 +4462,11 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S51" t="n">
-        <v>786</v>
+        <v>1000</v>
       </c>
       <c r="T51" t="n">
         <v>7</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44246</v>
+        <v>44200</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
@@ -4524,16 +4524,16 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="N52" t="n">
         <v>7000</v>
       </c>
       <c r="O52" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P52" t="n">
-        <v>7417</v>
+        <v>7000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4542,11 +4542,11 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1060</v>
+        <v>1000</v>
       </c>
       <c r="T52" t="n">
         <v>7</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44246</v>
+        <v>44200</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -4604,16 +4604,16 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="N53" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="O53" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="P53" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4622,11 +4622,11 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S53" t="n">
-        <v>714</v>
+        <v>786</v>
       </c>
       <c r="T53" t="n">
         <v>7</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44295</v>
+        <v>44246</v>
       </c>
       <c r="E54" t="n">
         <v>9</v>
@@ -4684,16 +4684,16 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N54" t="n">
         <v>7000</v>
       </c>
       <c r="O54" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P54" t="n">
-        <v>7000</v>
+        <v>7417</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>1000</v>
+        <v>1060</v>
       </c>
       <c r="T54" t="n">
         <v>7</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44225</v>
+        <v>44246</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -4760,20 +4760,20 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N55" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O55" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P55" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>1071</v>
+        <v>714</v>
       </c>
       <c r="T55" t="n">
         <v>7</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44175</v>
+        <v>44295</v>
       </c>
       <c r="E56" t="n">
         <v>9</v>
@@ -4844,16 +4844,16 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="N56" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O56" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P56" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>1286</v>
+        <v>1000</v>
       </c>
       <c r="T56" t="n">
         <v>7</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44364</v>
+        <v>44225</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
@@ -4924,29 +4924,29 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N57" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O57" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="P57" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S57" t="n">
-        <v>2857</v>
+        <v>1071</v>
       </c>
       <c r="T57" t="n">
         <v>7</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44188</v>
+        <v>44175</v>
       </c>
       <c r="E58" t="n">
         <v>9</v>
@@ -5004,29 +5004,29 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="N58" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O58" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P58" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S58" t="n">
-        <v>1857</v>
+        <v>1286</v>
       </c>
       <c r="T58" t="n">
         <v>7</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44477</v>
+        <v>44364</v>
       </c>
       <c r="E59" t="n">
         <v>9</v>
@@ -5084,16 +5084,16 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>800</v>
+        <v>40</v>
       </c>
       <c r="N59" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O59" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P59" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>2000</v>
+        <v>2857</v>
       </c>
       <c r="T59" t="n">
         <v>7</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44477</v>
+        <v>44188</v>
       </c>
       <c r="E60" t="n">
         <v>9</v>
@@ -5160,20 +5160,20 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="N60" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O60" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P60" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5182,11 +5182,11 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S60" t="n">
-        <v>1571</v>
+        <v>1857</v>
       </c>
       <c r="T60" t="n">
         <v>7</v>
@@ -5240,20 +5240,20 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>80</v>
+        <v>800</v>
       </c>
       <c r="N61" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O61" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="P61" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T61" t="n">
         <v>7</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44245</v>
+        <v>44477</v>
       </c>
       <c r="E62" t="n">
         <v>9</v>
@@ -5320,33 +5320,33 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="N62" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O62" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P62" t="n">
-        <v>7360</v>
+        <v>11000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S62" t="n">
-        <v>1051</v>
+        <v>1571</v>
       </c>
       <c r="T62" t="n">
         <v>7</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44245</v>
+        <v>44477</v>
       </c>
       <c r="E63" t="n">
         <v>9</v>
@@ -5400,33 +5400,33 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="N63" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O63" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P63" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S63" t="n">
-        <v>714</v>
+        <v>1000</v>
       </c>
       <c r="T63" t="n">
         <v>7</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44495</v>
+        <v>44245</v>
       </c>
       <c r="E64" t="n">
         <v>9</v>
@@ -5484,29 +5484,29 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="N64" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O64" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P64" t="n">
-        <v>9000</v>
+        <v>7360</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S64" t="n">
-        <v>1286</v>
+        <v>1051</v>
       </c>
       <c r="T64" t="n">
         <v>7</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44495</v>
+        <v>44245</v>
       </c>
       <c r="E65" t="n">
         <v>9</v>
@@ -5564,29 +5564,29 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>250</v>
+        <v>55</v>
       </c>
       <c r="N65" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O65" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P65" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S65" t="n">
-        <v>1000</v>
+        <v>714</v>
       </c>
       <c r="T65" t="n">
         <v>7</v>
@@ -5640,20 +5640,20 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>120</v>
+        <v>185</v>
       </c>
       <c r="N66" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="O66" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="P66" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>500</v>
+        <v>1286</v>
       </c>
       <c r="T66" t="n">
         <v>7</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44216</v>
+        <v>44495</v>
       </c>
       <c r="E67" t="n">
         <v>9</v>
@@ -5720,33 +5720,33 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>95</v>
+        <v>250</v>
       </c>
       <c r="N67" t="n">
         <v>7000</v>
       </c>
       <c r="O67" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P67" t="n">
-        <v>7579</v>
+        <v>7000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S67" t="n">
-        <v>1083</v>
+        <v>1000</v>
       </c>
       <c r="T67" t="n">
         <v>7</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44216</v>
+        <v>44495</v>
       </c>
       <c r="E68" t="n">
         <v>9</v>
@@ -5800,33 +5800,33 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N68" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="O68" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="P68" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S68" t="n">
-        <v>714</v>
+        <v>500</v>
       </c>
       <c r="T68" t="n">
         <v>7</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44284</v>
+        <v>44216</v>
       </c>
       <c r="E69" t="n">
         <v>9</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="N69" t="n">
         <v>7000</v>
       </c>
       <c r="O69" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P69" t="n">
-        <v>7000</v>
+        <v>7579</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5902,11 +5902,11 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S69" t="n">
-        <v>1000</v>
+        <v>1083</v>
       </c>
       <c r="T69" t="n">
         <v>7</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44174</v>
+        <v>44216</v>
       </c>
       <c r="E70" t="n">
         <v>9</v>
@@ -5960,20 +5960,20 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="N70" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O70" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P70" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>1429</v>
+        <v>714</v>
       </c>
       <c r="T70" t="n">
         <v>7</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44244</v>
+        <v>44284</v>
       </c>
       <c r="E71" t="n">
         <v>9</v>
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="N71" t="n">
         <v>7000</v>
       </c>
       <c r="O71" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P71" t="n">
-        <v>7462</v>
+        <v>7000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6062,11 +6062,11 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S71" t="n">
-        <v>1066</v>
+        <v>1000</v>
       </c>
       <c r="T71" t="n">
         <v>7</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44244</v>
+        <v>44174</v>
       </c>
       <c r="E72" t="n">
         <v>9</v>
@@ -6120,20 +6120,20 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="N72" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O72" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P72" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>714</v>
+        <v>1429</v>
       </c>
       <c r="T72" t="n">
         <v>7</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44482</v>
+        <v>44244</v>
       </c>
       <c r="E73" t="n">
         <v>9</v>
@@ -6204,29 +6204,29 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="N73" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O73" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P73" t="n">
-        <v>12000</v>
+        <v>7462</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S73" t="n">
-        <v>1714</v>
+        <v>1066</v>
       </c>
       <c r="T73" t="n">
         <v>7</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44271</v>
+        <v>44244</v>
       </c>
       <c r="E74" t="n">
         <v>9</v>
@@ -6280,20 +6280,20 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N74" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O74" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P74" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>1000</v>
+        <v>714</v>
       </c>
       <c r="T74" t="n">
         <v>7</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44483</v>
+        <v>44482</v>
       </c>
       <c r="E75" t="n">
         <v>9</v>
@@ -6364,7 +6364,7 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>265</v>
+        <v>110</v>
       </c>
       <c r="N75" t="n">
         <v>12000</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44483</v>
+        <v>44271</v>
       </c>
       <c r="E76" t="n">
         <v>9</v>
@@ -6440,11 +6440,11 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="N76" t="n">
         <v>7000</v>
@@ -6457,12 +6457,12 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S76" t="n">
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44463</v>
+        <v>44483</v>
       </c>
       <c r="E77" t="n">
         <v>9</v>
@@ -6524,16 +6524,16 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>150</v>
+        <v>265</v>
       </c>
       <c r="N77" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O77" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P77" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>2857</v>
+        <v>1714</v>
       </c>
       <c r="T77" t="n">
         <v>7</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44463</v>
+        <v>44483</v>
       </c>
       <c r="E78" t="n">
         <v>9</v>
@@ -6600,20 +6600,20 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="N78" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O78" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P78" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>1429</v>
+        <v>1000</v>
       </c>
       <c r="T78" t="n">
         <v>7</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44494</v>
+        <v>44463</v>
       </c>
       <c r="E79" t="n">
         <v>9</v>
@@ -6684,16 +6684,16 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="N79" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O79" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P79" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>1429</v>
+        <v>2857</v>
       </c>
       <c r="T79" t="n">
         <v>7</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44224</v>
+        <v>44463</v>
       </c>
       <c r="E80" t="n">
         <v>9</v>
@@ -6760,33 +6760,33 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>600</v>
+        <v>40</v>
       </c>
       <c r="N80" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O80" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P80" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S80" t="n">
-        <v>1071</v>
+        <v>1429</v>
       </c>
       <c r="T80" t="n">
         <v>7</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44264</v>
+        <v>44494</v>
       </c>
       <c r="E81" t="n">
         <v>9</v>
@@ -6844,29 +6844,29 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>80</v>
+        <v>550</v>
       </c>
       <c r="N81" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O81" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P81" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S81" t="n">
-        <v>1000</v>
+        <v>1429</v>
       </c>
       <c r="T81" t="n">
         <v>7</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E82" t="n">
         <v>9</v>
@@ -6924,29 +6924,29 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="N82" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O82" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P82" t="n">
-        <v>12583</v>
+        <v>7500</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S82" t="n">
-        <v>1798</v>
+        <v>1071</v>
       </c>
       <c r="T82" t="n">
         <v>7</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44195</v>
+        <v>44264</v>
       </c>
       <c r="E83" t="n">
         <v>9</v>
@@ -7004,16 +7004,16 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N83" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O83" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P83" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>1429</v>
+        <v>1000</v>
       </c>
       <c r="T83" t="n">
         <v>7</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44209</v>
+        <v>44195</v>
       </c>
       <c r="E84" t="n">
         <v>9</v>
@@ -7084,29 +7084,29 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="N84" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O84" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P84" t="n">
-        <v>8500</v>
+        <v>12583</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S84" t="n">
-        <v>1214</v>
+        <v>1798</v>
       </c>
       <c r="T84" t="n">
         <v>7</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44484</v>
+        <v>44195</v>
       </c>
       <c r="E85" t="n">
         <v>9</v>
@@ -7164,29 +7164,29 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N85" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O85" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P85" t="n">
-        <v>11432</v>
+        <v>10000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S85" t="n">
-        <v>1633</v>
+        <v>1429</v>
       </c>
       <c r="T85" t="n">
         <v>7</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44484</v>
+        <v>44209</v>
       </c>
       <c r="E86" t="n">
         <v>9</v>
@@ -7240,33 +7240,33 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="N86" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O86" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P86" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S86" t="n">
-        <v>1000</v>
+        <v>1214</v>
       </c>
       <c r="T86" t="n">
         <v>7</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44294</v>
+        <v>44484</v>
       </c>
       <c r="E87" t="n">
         <v>9</v>
@@ -7324,29 +7324,29 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="N87" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O87" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P87" t="n">
-        <v>7000</v>
+        <v>11432</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S87" t="n">
-        <v>1000</v>
+        <v>1633</v>
       </c>
       <c r="T87" t="n">
         <v>7</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44232</v>
+        <v>44484</v>
       </c>
       <c r="E88" t="n">
         <v>9</v>
@@ -7400,33 +7400,33 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="N88" t="n">
         <v>7000</v>
       </c>
       <c r="O88" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P88" t="n">
-        <v>7550</v>
+        <v>7000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S88" t="n">
-        <v>1079</v>
+        <v>1000</v>
       </c>
       <c r="T88" t="n">
         <v>7</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44454</v>
+        <v>44294</v>
       </c>
       <c r="E89" t="n">
         <v>9</v>
@@ -7480,33 +7480,33 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N89" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="O89" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="P89" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S89" t="n">
-        <v>2571</v>
+        <v>1000</v>
       </c>
       <c r="T89" t="n">
         <v>7</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44473</v>
+        <v>44232</v>
       </c>
       <c r="E90" t="n">
         <v>9</v>
@@ -7564,29 +7564,29 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>1300</v>
+        <v>100</v>
       </c>
       <c r="N90" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O90" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P90" t="n">
-        <v>15538</v>
+        <v>7550</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S90" t="n">
-        <v>2220</v>
+        <v>1079</v>
       </c>
       <c r="T90" t="n">
         <v>7</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44473</v>
+        <v>44454</v>
       </c>
       <c r="E91" t="n">
         <v>9</v>
@@ -7640,20 +7640,20 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N91" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="O91" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="P91" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>1143</v>
+        <v>2571</v>
       </c>
       <c r="T91" t="n">
         <v>7</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44273</v>
+        <v>44473</v>
       </c>
       <c r="E92" t="n">
         <v>9</v>
@@ -7724,29 +7724,29 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>80</v>
+        <v>1300</v>
       </c>
       <c r="N92" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="O92" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="P92" t="n">
-        <v>6562</v>
+        <v>15538</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S92" t="n">
-        <v>937</v>
+        <v>2220</v>
       </c>
       <c r="T92" t="n">
         <v>7</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44236</v>
+        <v>44473</v>
       </c>
       <c r="E93" t="n">
         <v>9</v>
@@ -7800,33 +7800,33 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N93" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O93" t="n">
         <v>8000</v>
       </c>
       <c r="P93" t="n">
-        <v>7542</v>
+        <v>8000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S93" t="n">
-        <v>1077</v>
+        <v>1143</v>
       </c>
       <c r="T93" t="n">
         <v>7</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44236</v>
+        <v>44273</v>
       </c>
       <c r="E94" t="n">
         <v>9</v>
@@ -7880,20 +7880,20 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="N94" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O94" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P94" t="n">
-        <v>5000</v>
+        <v>6562</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7902,11 +7902,11 @@
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S94" t="n">
-        <v>714</v>
+        <v>937</v>
       </c>
       <c r="T94" t="n">
         <v>7</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44215</v>
+        <v>44236</v>
       </c>
       <c r="E95" t="n">
         <v>9</v>
@@ -7982,7 +7982,7 @@
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S95" t="n">
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44235</v>
+        <v>44236</v>
       </c>
       <c r="E96" t="n">
         <v>9</v>
@@ -8040,20 +8040,20 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="N96" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O96" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P96" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>1143</v>
+        <v>714</v>
       </c>
       <c r="T96" t="n">
         <v>7</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44235</v>
+        <v>44215</v>
       </c>
       <c r="E97" t="n">
         <v>9</v>
@@ -8120,20 +8120,20 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="N97" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O97" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P97" t="n">
-        <v>5000</v>
+        <v>7542</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8142,11 +8142,11 @@
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S97" t="n">
-        <v>714</v>
+        <v>1077</v>
       </c>
       <c r="T97" t="n">
         <v>7</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44203</v>
+        <v>44235</v>
       </c>
       <c r="E98" t="n">
         <v>9</v>
@@ -8204,16 +8204,16 @@
         </is>
       </c>
       <c r="M98" t="n">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="N98" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O98" t="n">
         <v>8000</v>
       </c>
       <c r="P98" t="n">
-        <v>7543</v>
+        <v>8000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>1078</v>
+        <v>1143</v>
       </c>
       <c r="T98" t="n">
         <v>7</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44203</v>
+        <v>44235</v>
       </c>
       <c r="E99" t="n">
         <v>9</v>
@@ -8287,13 +8287,13 @@
         <v>65</v>
       </c>
       <c r="N99" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="O99" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="P99" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>786</v>
+        <v>714</v>
       </c>
       <c r="T99" t="n">
         <v>7</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44291</v>
+        <v>44203</v>
       </c>
       <c r="E100" t="n">
         <v>9</v>
@@ -8364,16 +8364,16 @@
         </is>
       </c>
       <c r="M100" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="N100" t="n">
         <v>7000</v>
       </c>
       <c r="O100" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P100" t="n">
-        <v>7000</v>
+        <v>7543</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8382,11 +8382,11 @@
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S100" t="n">
-        <v>1000</v>
+        <v>1078</v>
       </c>
       <c r="T100" t="n">
         <v>7</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44291</v>
+        <v>44203</v>
       </c>
       <c r="E101" t="n">
         <v>9</v>
@@ -8444,16 +8444,16 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N101" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="O101" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="P101" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8462,11 +8462,11 @@
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S101" t="n">
-        <v>857</v>
+        <v>786</v>
       </c>
       <c r="T101" t="n">
         <v>7</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44469</v>
+        <v>44291</v>
       </c>
       <c r="E102" t="n">
         <v>9</v>
@@ -8524,29 +8524,29 @@
         </is>
       </c>
       <c r="M102" t="n">
-        <v>3000</v>
+        <v>200</v>
       </c>
       <c r="N102" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O102" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="P102" t="n">
-        <v>15333</v>
+        <v>7000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S102" t="n">
-        <v>2190</v>
+        <v>1000</v>
       </c>
       <c r="T102" t="n">
         <v>7</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44469</v>
+        <v>44291</v>
       </c>
       <c r="E103" t="n">
         <v>9</v>
@@ -8600,33 +8600,33 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N103" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O103" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P103" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S103" t="n">
-        <v>1000</v>
+        <v>857</v>
       </c>
       <c r="T103" t="n">
         <v>7</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44488</v>
+        <v>44469</v>
       </c>
       <c r="E104" t="n">
         <v>9</v>
@@ -8684,16 +8684,16 @@
         </is>
       </c>
       <c r="M104" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="N104" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O104" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P104" t="n">
-        <v>10000</v>
+        <v>15333</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>1429</v>
+        <v>2190</v>
       </c>
       <c r="T104" t="n">
         <v>7</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44488</v>
+        <v>44469</v>
       </c>
       <c r="E105" t="n">
         <v>9</v>
@@ -8764,7 +8764,7 @@
         </is>
       </c>
       <c r="M105" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N105" t="n">
         <v>7000</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44168</v>
+        <v>44488</v>
       </c>
       <c r="E106" t="n">
         <v>9</v>
@@ -8840,20 +8840,20 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="N106" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O106" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P106" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8862,11 +8862,11 @@
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S106" t="n">
-        <v>1714</v>
+        <v>1429</v>
       </c>
       <c r="T106" t="n">
         <v>7</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44168</v>
+        <v>44488</v>
       </c>
       <c r="E107" t="n">
         <v>9</v>
@@ -8920,20 +8920,20 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="N107" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O107" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P107" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8942,11 +8942,11 @@
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S107" t="n">
-        <v>1429</v>
+        <v>1000</v>
       </c>
       <c r="T107" t="n">
         <v>7</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44161</v>
+        <v>44168</v>
       </c>
       <c r="E108" t="n">
         <v>9</v>
@@ -9000,20 +9000,20 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M108" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="N108" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O108" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P108" t="n">
-        <v>9455</v>
+        <v>12000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
@@ -9022,11 +9022,11 @@
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S108" t="n">
-        <v>1351</v>
+        <v>1714</v>
       </c>
       <c r="T108" t="n">
         <v>7</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44161</v>
+        <v>44168</v>
       </c>
       <c r="E109" t="n">
         <v>9</v>
@@ -9084,29 +9084,29 @@
         </is>
       </c>
       <c r="M109" t="n">
-        <v>305</v>
+        <v>600</v>
       </c>
       <c r="N109" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="O109" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P109" t="n">
-        <v>6705</v>
+        <v>10000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S109" t="n">
-        <v>958</v>
+        <v>1429</v>
       </c>
       <c r="T109" t="n">
         <v>7</v>
@@ -9160,33 +9160,33 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>180</v>
+        <v>550</v>
       </c>
       <c r="N110" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O110" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="P110" t="n">
-        <v>4000</v>
+        <v>9455</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S110" t="n">
-        <v>571</v>
+        <v>1351</v>
       </c>
       <c r="T110" t="n">
         <v>7</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44214</v>
+        <v>44161</v>
       </c>
       <c r="E111" t="n">
         <v>9</v>
@@ -9244,16 +9244,16 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>55</v>
+        <v>305</v>
       </c>
       <c r="N111" t="n">
+        <v>6500</v>
+      </c>
+      <c r="O111" t="n">
         <v>7000</v>
       </c>
-      <c r="O111" t="n">
-        <v>8000</v>
-      </c>
       <c r="P111" t="n">
-        <v>7455</v>
+        <v>6705</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         </is>
       </c>
       <c r="S111" t="n">
-        <v>1065</v>
+        <v>958</v>
       </c>
       <c r="T111" t="n">
         <v>7</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44214</v>
+        <v>44161</v>
       </c>
       <c r="E112" t="n">
         <v>9</v>
@@ -9324,16 +9324,16 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="N112" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="O112" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="P112" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>643</v>
+        <v>571</v>
       </c>
       <c r="T112" t="n">
         <v>7</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E113" t="n">
         <v>9</v>
@@ -9404,16 +9404,16 @@
         </is>
       </c>
       <c r="M113" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="N113" t="n">
         <v>7000</v>
       </c>
       <c r="O113" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P113" t="n">
-        <v>7000</v>
+        <v>7455</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>1000</v>
+        <v>1065</v>
       </c>
       <c r="T113" t="n">
         <v>7</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44274</v>
+        <v>44214</v>
       </c>
       <c r="E114" t="n">
         <v>9</v>
@@ -9480,20 +9480,20 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M114" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="N114" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="O114" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="P114" t="n">
-        <v>6579</v>
+        <v>4500</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>940</v>
+        <v>643</v>
       </c>
       <c r="T114" t="n">
         <v>7</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44489</v>
+        <v>44280</v>
       </c>
       <c r="E115" t="n">
         <v>9</v>
@@ -9564,29 +9564,29 @@
         </is>
       </c>
       <c r="M115" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="N115" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O115" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P115" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S115" t="n">
-        <v>1286</v>
+        <v>1000</v>
       </c>
       <c r="T115" t="n">
         <v>7</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44165</v>
+        <v>44274</v>
       </c>
       <c r="E116" t="n">
         <v>9</v>
@@ -9640,33 +9640,33 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M116" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="N116" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="O116" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P116" t="n">
-        <v>11000</v>
+        <v>6579</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S116" t="n">
-        <v>1571</v>
+        <v>940</v>
       </c>
       <c r="T116" t="n">
         <v>7</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44165</v>
+        <v>44489</v>
       </c>
       <c r="E117" t="n">
         <v>9</v>
@@ -9724,16 +9724,16 @@
         </is>
       </c>
       <c r="M117" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="N117" t="n">
         <v>9000</v>
       </c>
       <c r="O117" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P117" t="n">
-        <v>9571</v>
+        <v>9000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>1367</v>
+        <v>1286</v>
       </c>
       <c r="T117" t="n">
         <v>7</v>
@@ -9800,20 +9800,20 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="N118" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O118" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P118" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>1357</v>
+        <v>1571</v>
       </c>
       <c r="T118" t="n">
         <v>7</v>
@@ -9884,29 +9884,29 @@
         </is>
       </c>
       <c r="M119" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N119" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O119" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P119" t="n">
-        <v>8500</v>
+        <v>9571</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S119" t="n">
-        <v>1214</v>
+        <v>1367</v>
       </c>
       <c r="T119" t="n">
         <v>7</v>
@@ -9960,20 +9960,20 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="N120" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O120" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P120" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9982,11 +9982,11 @@
       </c>
       <c r="R120" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S120" t="n">
-        <v>1000</v>
+        <v>1357</v>
       </c>
       <c r="T120" t="n">
         <v>7</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44258</v>
+        <v>44165</v>
       </c>
       <c r="E121" t="n">
         <v>9</v>
@@ -10044,16 +10044,16 @@
         </is>
       </c>
       <c r="M121" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="N121" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O121" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P121" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>1000</v>
+        <v>1214</v>
       </c>
       <c r="T121" t="n">
         <v>7</v>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44475</v>
+        <v>44165</v>
       </c>
       <c r="E122" t="n">
         <v>9</v>
@@ -10120,20 +10120,20 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M122" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N122" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O122" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="P122" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>2143</v>
+        <v>1000</v>
       </c>
       <c r="T122" t="n">
         <v>7</v>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44474</v>
+        <v>44258</v>
       </c>
       <c r="E123" t="n">
         <v>9</v>
@@ -10204,29 +10204,29 @@
         </is>
       </c>
       <c r="M123" t="n">
-        <v>300</v>
+        <v>65</v>
       </c>
       <c r="N123" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O123" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="P123" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R123" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S123" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="T123" t="n">
         <v>7</v>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44252</v>
+        <v>44475</v>
       </c>
       <c r="E124" t="n">
         <v>9</v>
@@ -10284,29 +10284,29 @@
         </is>
       </c>
       <c r="M124" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N124" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O124" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P124" t="n">
-        <v>7568</v>
+        <v>15000</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R124" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S124" t="n">
-        <v>1081</v>
+        <v>2143</v>
       </c>
       <c r="T124" t="n">
         <v>7</v>
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E125" t="n">
         <v>9</v>
@@ -10360,33 +10360,33 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M125" t="n">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="N125" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="O125" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="P125" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R125" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S125" t="n">
-        <v>714</v>
+        <v>2000</v>
       </c>
       <c r="T125" t="n">
         <v>7</v>
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E126" t="n">
         <v>9</v>
@@ -10444,7 +10444,7 @@
         </is>
       </c>
       <c r="M126" t="n">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="N126" t="n">
         <v>7000</v>
@@ -10453,7 +10453,7 @@
         <v>8000</v>
       </c>
       <c r="P126" t="n">
-        <v>7390</v>
+        <v>7568</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -10462,11 +10462,11 @@
       </c>
       <c r="R126" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S126" t="n">
-        <v>1056</v>
+        <v>1081</v>
       </c>
       <c r="T126" t="n">
         <v>7</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E127" t="n">
         <v>9</v>
@@ -10524,16 +10524,16 @@
         </is>
       </c>
       <c r="M127" t="n">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="N127" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="O127" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="P127" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
@@ -10542,11 +10542,11 @@
       </c>
       <c r="R127" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S127" t="n">
-        <v>786</v>
+        <v>714</v>
       </c>
       <c r="T127" t="n">
         <v>7</v>
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44186</v>
+        <v>44204</v>
       </c>
       <c r="E128" t="n">
         <v>9</v>
@@ -10604,29 +10604,29 @@
         </is>
       </c>
       <c r="M128" t="n">
-        <v>625</v>
+        <v>205</v>
       </c>
       <c r="N128" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O128" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P128" t="n">
-        <v>11584</v>
+        <v>7390</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R128" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S128" t="n">
-        <v>1655</v>
+        <v>1056</v>
       </c>
       <c r="T128" t="n">
         <v>7</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44186</v>
+        <v>44204</v>
       </c>
       <c r="E129" t="n">
         <v>9</v>
@@ -10680,20 +10680,20 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M129" t="n">
-        <v>235</v>
+        <v>45</v>
       </c>
       <c r="N129" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="O129" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="P129" t="n">
-        <v>10532</v>
+        <v>5500</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         </is>
       </c>
       <c r="S129" t="n">
-        <v>1505</v>
+        <v>786</v>
       </c>
       <c r="T129" t="n">
         <v>7</v>
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44372</v>
+        <v>44186</v>
       </c>
       <c r="E130" t="n">
         <v>9</v>
@@ -10764,16 +10764,16 @@
         </is>
       </c>
       <c r="M130" t="n">
-        <v>35</v>
+        <v>625</v>
       </c>
       <c r="N130" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="O130" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P130" t="n">
-        <v>17000</v>
+        <v>11584</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
@@ -10782,11 +10782,11 @@
       </c>
       <c r="R130" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S130" t="n">
-        <v>2429</v>
+        <v>1655</v>
       </c>
       <c r="T130" t="n">
         <v>7</v>
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44243</v>
+        <v>44186</v>
       </c>
       <c r="E131" t="n">
         <v>9</v>
@@ -10844,16 +10844,16 @@
         </is>
       </c>
       <c r="M131" t="n">
-        <v>100</v>
+        <v>235</v>
       </c>
       <c r="N131" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O131" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P131" t="n">
-        <v>7450</v>
+        <v>10532</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
@@ -10862,11 +10862,11 @@
       </c>
       <c r="R131" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S131" t="n">
-        <v>1064</v>
+        <v>1505</v>
       </c>
       <c r="T131" t="n">
         <v>7</v>
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44243</v>
+        <v>44372</v>
       </c>
       <c r="E132" t="n">
         <v>9</v>
@@ -10920,33 +10920,33 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M132" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N132" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="O132" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="P132" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>$/caja 7 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R132" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S132" t="n">
-        <v>714</v>
+        <v>2429</v>
       </c>
       <c r="T132" t="n">
         <v>7</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44202</v>
+        <v>44243</v>
       </c>
       <c r="E133" t="n">
         <v>9</v>
@@ -11004,16 +11004,16 @@
         </is>
       </c>
       <c r="M133" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="N133" t="n">
         <v>7000</v>
       </c>
       <c r="O133" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P133" t="n">
-        <v>7000</v>
+        <v>7450</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
@@ -11022,11 +11022,11 @@
       </c>
       <c r="R133" t="inlineStr">
         <is>
-          <t>Provincia de Cautín</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S133" t="n">
-        <v>1000</v>
+        <v>1064</v>
       </c>
       <c r="T133" t="n">
         <v>7</v>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44242</v>
+        <v>44243</v>
       </c>
       <c r="E134" t="n">
         <v>9</v>
@@ -11080,20 +11080,20 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M134" t="n">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="N134" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O134" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P134" t="n">
-        <v>7448</v>
+        <v>5000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>1064</v>
+        <v>714</v>
       </c>
       <c r="T134" t="n">
         <v>7</v>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44242</v>
+        <v>44202</v>
       </c>
       <c r="E135" t="n">
         <v>9</v>
@@ -11160,20 +11160,20 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M135" t="n">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="N135" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O135" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P135" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
@@ -11182,11 +11182,11 @@
       </c>
       <c r="R135" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Cautín</t>
         </is>
       </c>
       <c r="S135" t="n">
-        <v>714</v>
+        <v>1000</v>
       </c>
       <c r="T135" t="n">
         <v>7</v>
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44307</v>
+        <v>44242</v>
       </c>
       <c r="E136" t="n">
         <v>9</v>
@@ -11240,20 +11240,20 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M136" t="n">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="N136" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O136" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P136" t="n">
-        <v>5000</v>
+        <v>7448</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>714</v>
+        <v>1064</v>
       </c>
       <c r="T136" t="n">
         <v>7</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44159</v>
+        <v>44242</v>
       </c>
       <c r="E137" t="n">
         <v>9</v>
@@ -11320,33 +11320,33 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M137" t="n">
-        <v>550</v>
+        <v>45</v>
       </c>
       <c r="N137" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O137" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P137" t="n">
-        <v>9455</v>
+        <v>5000</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/caja 7 kilos</t>
         </is>
       </c>
       <c r="R137" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="S137" t="n">
-        <v>1351</v>
+        <v>714</v>
       </c>
       <c r="T137" t="n">
         <v>7</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44159</v>
+        <v>44307</v>
       </c>
       <c r="E138" t="n">
         <v>9</v>
@@ -11400,20 +11400,20 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M138" t="n">
-        <v>375</v>
+        <v>30</v>
       </c>
       <c r="N138" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="O138" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P138" t="n">
-        <v>7760</v>
+        <v>5000</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         </is>
       </c>
       <c r="S138" t="n">
-        <v>1109</v>
+        <v>714</v>
       </c>
   